--- a/Dokumentation/Noctua_Zeitaufzeichnung.xlsx
+++ b/Dokumentation/Noctua_Zeitaufzeichnung.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="280" yWindow="0" windowWidth="28200" windowHeight="17320" activeTab="2"/>
+    <workbookView xWindow="40" yWindow="0" windowWidth="28760" windowHeight="17380"/>
   </bookViews>
   <sheets>
     <sheet name="Gesamtstatus" sheetId="4" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="80">
   <si>
     <t>Arbeitspaket</t>
   </si>
@@ -243,6 +243,27 @@
   </si>
   <si>
     <t>Definierete F#-C#-Schnittstelle</t>
+  </si>
+  <si>
+    <t>Projektfortschrittsbericht</t>
+  </si>
+  <si>
+    <t>WPF Kenntnisse verbessert</t>
+  </si>
+  <si>
+    <t>WPF GUI zur Fileauswahl</t>
+  </si>
+  <si>
+    <t>Grundkenntnisse in WPF</t>
+  </si>
+  <si>
+    <t>WPF GUI</t>
+  </si>
+  <si>
+    <t>SMA, LWMA, EMA in F# implementieren</t>
+  </si>
+  <si>
+    <t>SMA, LWMA als F# Alg.; EMA mit Bug</t>
   </si>
 </sst>
 </file>
@@ -727,6 +748,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -814,12 +836,12 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:shape val="box"/>
-        <c:axId val="2101765352"/>
-        <c:axId val="2101768328"/>
+        <c:axId val="2097855768"/>
+        <c:axId val="2099822136"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="2101765352"/>
+        <c:axId val="2097855768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -828,7 +850,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2101768328"/>
+        <c:crossAx val="2099822136"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -836,7 +858,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2101768328"/>
+        <c:axId val="2099822136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -852,7 +874,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="2101765352"/>
+        <c:crossAx val="2097855768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -887,6 +909,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -971,13 +994,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>4.0</c:v>
+                  <c:v>4.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.0</c:v>
+                  <c:v>7.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.0</c:v>
+                  <c:v>7.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -993,12 +1016,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="2101795720"/>
-        <c:axId val="2101798696"/>
+        <c:axId val="2099879688"/>
+        <c:axId val="2099888824"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="2101795720"/>
+        <c:axId val="2099879688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1007,7 +1030,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2101798696"/>
+        <c:crossAx val="2099888824"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1015,7 +1038,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2101798696"/>
+        <c:axId val="2099888824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1026,7 +1049,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2101795720"/>
+        <c:crossAx val="2099879688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1397,8 +1420,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -1440,7 +1463,7 @@
       </c>
       <c r="B3" s="7">
         <f>SUM(B6,B12,B27)</f>
-        <v>6</v>
+        <v>12.5</v>
       </c>
       <c r="C3" s="27">
         <f>AVERAGE(C6,C12,C17,C22,C27)</f>
@@ -1479,7 +1502,7 @@
       </c>
       <c r="B6" s="17">
         <f>Projektmanagment!J7</f>
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="C6" s="29">
         <f>SUM(C7:C11)</f>
@@ -1514,7 +1537,7 @@
       </c>
       <c r="B8" s="19">
         <f>Projektmanagment!J3</f>
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="C8" s="31">
         <v>0</v>
@@ -1578,7 +1601,7 @@
       </c>
       <c r="B12" s="17">
         <f>BacktestingSoftware!J6</f>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C12" s="29">
         <f>SUM(C13:C16)</f>
@@ -1597,7 +1620,7 @@
       </c>
       <c r="B13" s="19">
         <f>BacktestingSoftware!J2</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C13" s="31">
         <v>0</v>
@@ -1613,7 +1636,7 @@
       </c>
       <c r="B14" s="19">
         <f>BacktestingSoftware!J3</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C14" s="31">
         <v>0</v>
@@ -1658,7 +1681,7 @@
       </c>
       <c r="B17" s="17">
         <f>Algorithmus!J6</f>
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="C17" s="29">
         <f>SUM(C18:C21)</f>
@@ -1700,7 +1723,7 @@
       </c>
       <c r="B20" s="19">
         <f>Algorithmus!J4</f>
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="C20" s="40">
         <v>0</v>
@@ -1871,7 +1894,7 @@
       <c r="C34" s="48"/>
       <c r="D34" s="9">
         <f>SUM(Projektmanagment!I13,BacktestingSoftware!I13,Algorithmus!I13,Marktzustandserkennung!I13,Testing_Abschluss!I13)</f>
-        <v>4</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="35" spans="2:4" ht="15" thickBot="1">
@@ -1881,7 +1904,7 @@
       <c r="C35" s="42"/>
       <c r="D35" s="9">
         <f>SUM(Projektmanagment!I14,BacktestingSoftware!I14,Algorithmus!I14,Marktzustandserkennung!I14,Testing_Abschluss!I14)</f>
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="36" spans="2:4" ht="15" thickBot="1">
@@ -1891,7 +1914,7 @@
       <c r="C36" s="44"/>
       <c r="D36" s="39">
         <f>SUM(Projektmanagment!I15,BacktestingSoftware!I15,Algorithmus!I15,Marktzustandserkennung!I15,Testing_Abschluss!I15)</f>
-        <v>3</v>
+        <v>7.5</v>
       </c>
     </row>
   </sheetData>
@@ -1921,7 +1944,7 @@
   <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -1967,7 +1990,7 @@
         <v>32</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>67</v>
+        <v>8</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>68</v>
@@ -2015,11 +2038,28 @@
       <c r="I3" s="61"/>
       <c r="J3" s="4">
         <f>SUMIF(B:B,H3,E:E)</f>
-        <v>0</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="4" spans="1:10">
-      <c r="D4" s="1"/>
+      <c r="A4" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D4" s="1">
+        <v>41234</v>
+      </c>
+      <c r="E4" s="26">
+        <v>0.5</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>73</v>
+      </c>
       <c r="H4" s="61" t="s">
         <v>9</v>
       </c>
@@ -2059,7 +2099,7 @@
       <c r="I7" s="58"/>
       <c r="J7" s="7">
         <f>SUM(J2:J6)</f>
-        <v>0</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -2090,7 +2130,7 @@
       </c>
       <c r="I13" s="4">
         <f>SUMIF(A:A,H13,E:E)</f>
-        <v>4</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -2155,8 +2195,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -2222,7 +2262,7 @@
       <c r="I2" s="61"/>
       <c r="J2" s="35">
         <f>SUMIF(B:B,H2,E:E)</f>
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -2250,11 +2290,28 @@
       <c r="I3" s="61"/>
       <c r="J3" s="35">
         <f>SUMIF(B:B,H3,E:E)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:10">
-      <c r="D4" s="1"/>
+      <c r="A4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D4" s="1">
+        <v>41234</v>
+      </c>
+      <c r="E4" s="26">
+        <v>2</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>76</v>
+      </c>
       <c r="H4" s="61" t="s">
         <v>40</v>
       </c>
@@ -2265,7 +2322,24 @@
       </c>
     </row>
     <row r="5" spans="1:10" ht="15" thickBot="1">
-      <c r="D5" s="1"/>
+      <c r="A5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D5" s="1">
+        <v>41234</v>
+      </c>
+      <c r="E5" s="26">
+        <v>2</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>77</v>
+      </c>
       <c r="H5" s="61" t="s">
         <v>41</v>
       </c>
@@ -2283,7 +2357,7 @@
       <c r="I6" s="58"/>
       <c r="J6" s="7">
         <f>SUM(J2:J5)</f>
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -2327,7 +2401,7 @@
       </c>
       <c r="I14" s="35">
         <f>SUMIF(A:A,H14,E:E)</f>
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15" thickBot="1">
@@ -2369,7 +2443,6 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -2383,7 +2456,7 @@
   <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -2425,8 +2498,24 @@
       </c>
     </row>
     <row r="2" spans="1:10">
-      <c r="B2" s="2"/>
-      <c r="D2" s="1"/>
+      <c r="A2" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D2" s="1">
+        <v>41234</v>
+      </c>
+      <c r="E2" s="26">
+        <v>4.5</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>79</v>
+      </c>
       <c r="H2" s="61" t="s">
         <v>42</v>
       </c>
@@ -2455,7 +2544,7 @@
       <c r="I4" s="61"/>
       <c r="J4" s="35">
         <f>SUMIF(B:B,H4,E:E)</f>
-        <v>0</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="15" thickBot="1">
@@ -2477,7 +2566,7 @@
       <c r="I6" s="58"/>
       <c r="J6" s="7">
         <f>SUM(J2:J5)</f>
-        <v>0</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -2531,7 +2620,7 @@
       </c>
       <c r="I15" s="35">
         <f>SUMIF(A:A,H15,E:E)</f>
-        <v>0</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="16" spans="1:10">

--- a/Dokumentation/Noctua_Zeitaufzeichnung.xlsx
+++ b/Dokumentation/Noctua_Zeitaufzeichnung.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="45" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="3"/>
+    <workbookView xWindow="45" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Gesamtstatus" sheetId="4" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="93">
   <si>
     <t>Arbeitspaket</t>
   </si>
@@ -288,6 +288,21 @@
   </si>
   <si>
     <t>offene Frage wegen Bar Klasse</t>
+  </si>
+  <si>
+    <t>Signalgeber</t>
+  </si>
+  <si>
+    <t>Signalgeber für Prototyp</t>
+  </si>
+  <si>
+    <t>Layouts und detailierte Funktionen</t>
+  </si>
+  <si>
+    <t>Grobkonzept</t>
+  </si>
+  <si>
+    <t>Datenaustausch der Programmteile</t>
   </si>
 </sst>
 </file>
@@ -864,12 +879,12 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:shape val="box"/>
-        <c:axId val="81899520"/>
-        <c:axId val="81901056"/>
+        <c:axId val="148701568"/>
+        <c:axId val="148703104"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="81899520"/>
+        <c:axId val="148701568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -878,7 +893,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="81901056"/>
+        <c:crossAx val="148703104"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -886,7 +901,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="81901056"/>
+        <c:axId val="148703104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -902,7 +917,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="81899520"/>
+        <c:crossAx val="148701568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1021,13 +1036,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>6.5</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>13.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>16</c:v>
+                  <c:v>19.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1043,12 +1058,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="90900352"/>
-        <c:axId val="90901888"/>
+        <c:axId val="148715776"/>
+        <c:axId val="148725760"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="90900352"/>
+        <c:axId val="148715776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1057,7 +1072,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="90901888"/>
+        <c:crossAx val="148725760"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1065,7 +1080,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="90901888"/>
+        <c:axId val="148725760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1076,7 +1091,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="90900352"/>
+        <c:crossAx val="148715776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1490,7 +1505,7 @@
       </c>
       <c r="B3" s="7">
         <f>SUM(B6,B12,B27)</f>
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="C3" s="27">
         <f>AVERAGE(C6,C12,C17,C22,C27)</f>
@@ -1529,7 +1544,7 @@
       </c>
       <c r="B6" s="17">
         <f>Projektmanagment!J7</f>
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="C6" s="29">
         <f>SUM(C7:C11)</f>
@@ -1564,7 +1579,7 @@
       </c>
       <c r="B8" s="19">
         <f>Projektmanagment!J3</f>
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="C8" s="31">
         <v>0</v>
@@ -1628,7 +1643,7 @@
       </c>
       <c r="B12" s="17">
         <f>BacktestingSoftware!J6</f>
-        <v>18.5</v>
+        <v>26</v>
       </c>
       <c r="C12" s="29">
         <f>SUM(C13:C16)</f>
@@ -1647,7 +1662,7 @@
       </c>
       <c r="B13" s="19">
         <f>BacktestingSoftware!J2</f>
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C13" s="31">
         <v>0</v>
@@ -1679,7 +1694,7 @@
       </c>
       <c r="B15" s="19">
         <f>BacktestingSoftware!J4</f>
-        <v>4</v>
+        <v>7.5</v>
       </c>
       <c r="C15" s="31">
         <v>0</v>
@@ -1921,7 +1936,7 @@
       <c r="C34" s="48"/>
       <c r="D34" s="9">
         <f>SUM(Projektmanagment!I13,BacktestingSoftware!I13,Algorithmus!I13,Marktzustandserkennung!I13,Testing_Abschluss!I13)</f>
-        <v>6.5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="35" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1941,7 +1956,7 @@
       <c r="C36" s="44"/>
       <c r="D36" s="39">
         <f>SUM(Projektmanagment!I15,BacktestingSoftware!I15,Algorithmus!I15,Marktzustandserkennung!I15,Testing_Abschluss!I15)</f>
-        <v>16</v>
+        <v>19.5</v>
       </c>
     </row>
   </sheetData>
@@ -1971,7 +1986,7 @@
   <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2065,7 +2080,7 @@
       <c r="I3" s="61"/>
       <c r="J3" s="4">
         <f>SUMIF(B:B,H3,E:E)</f>
-        <v>2.5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -2097,7 +2112,24 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D5" s="1"/>
+      <c r="A5" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D5" s="1">
+        <v>41262</v>
+      </c>
+      <c r="E5" s="26">
+        <v>0.5</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>73</v>
+      </c>
       <c r="H5" s="61" t="s">
         <v>12</v>
       </c>
@@ -2126,7 +2158,7 @@
       <c r="I7" s="58"/>
       <c r="J7" s="7">
         <f>SUM(J2:J6)</f>
-        <v>2.5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -2157,7 +2189,7 @@
       </c>
       <c r="I13" s="4">
         <f>SUMIF(A:A,H13,E:E)</f>
-        <v>4.5</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -2222,8 +2254,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2289,7 +2321,7 @@
       <c r="I2" s="61"/>
       <c r="J2" s="35">
         <f>SUMIF(B:B,H2,E:E)</f>
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -2345,7 +2377,7 @@
       <c r="I4" s="61"/>
       <c r="J4" s="35">
         <f>SUMIF(B:B,H4,E:E)</f>
-        <v>4</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2401,7 +2433,7 @@
       <c r="I6" s="58"/>
       <c r="J6" s="7">
         <f>SUM(J2:J5)</f>
-        <v>18.5</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -2425,13 +2457,61 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D8" s="24"/>
+      <c r="A8" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D8" s="24">
+        <v>41262</v>
+      </c>
+      <c r="E8" s="26">
+        <v>3.5</v>
+      </c>
+      <c r="F8" s="26" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D9" s="1"/>
+      <c r="A9" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D9" s="1">
+        <v>41262</v>
+      </c>
+      <c r="E9" s="26">
+        <v>2</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D10" s="1"/>
+      <c r="A10" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D10" s="1">
+        <v>41262</v>
+      </c>
+      <c r="E10" s="26">
+        <v>2</v>
+      </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D11" s="1"/>
@@ -2452,7 +2532,7 @@
       </c>
       <c r="I13" s="35">
         <f>SUMIF(A:A,H13,E:E)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -2472,7 +2552,7 @@
       </c>
       <c r="I15" s="35">
         <f>SUMIF(A:A,H15,E:E)</f>
-        <v>7</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -2504,6 +2584,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -2516,8 +2597,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView topLeftCell="B1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Dokumentation/Noctua_Zeitaufzeichnung.xlsx
+++ b/Dokumentation/Noctua_Zeitaufzeichnung.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="45" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="2"/>
+    <workbookView xWindow="48" yWindow="0" windowWidth="20736" windowHeight="11760" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Gesamtstatus" sheetId="4" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="93">
   <si>
     <t>Arbeitspaket</t>
   </si>
@@ -879,12 +879,12 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:shape val="box"/>
-        <c:axId val="148701568"/>
-        <c:axId val="148703104"/>
+        <c:axId val="38877056"/>
+        <c:axId val="38878592"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="148701568"/>
+        <c:axId val="38877056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -893,7 +893,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="148703104"/>
+        <c:crossAx val="38878592"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -901,7 +901,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="148703104"/>
+        <c:axId val="38878592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -917,7 +917,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="148701568"/>
+        <c:crossAx val="38877056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1039,7 +1039,7 @@
                   <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>13.5</c:v>
+                  <c:v>17.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>19.5</c:v>
@@ -1058,12 +1058,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="148715776"/>
-        <c:axId val="148725760"/>
+        <c:axId val="38912000"/>
+        <c:axId val="38913536"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="148715776"/>
+        <c:axId val="38912000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1072,7 +1072,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="148725760"/>
+        <c:crossAx val="38913536"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1080,7 +1080,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="148725760"/>
+        <c:axId val="38913536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1091,7 +1091,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="148715776"/>
+        <c:crossAx val="38912000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1466,13 +1466,13 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="34.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" s="49"/>
       <c r="B1" s="51" t="s">
         <v>28</v>
@@ -1486,7 +1486,7 @@
       <c r="G1" s="12"/>
       <c r="R1" s="8"/>
     </row>
-    <row r="2" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="50"/>
       <c r="B2" s="52"/>
       <c r="C2" s="13" t="s">
@@ -1505,7 +1505,7 @@
       </c>
       <c r="B3" s="7">
         <f>SUM(B6,B12,B27)</f>
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C3" s="27">
         <f>AVERAGE(C6,C12,C17,C22,C27)</f>
@@ -1518,7 +1518,7 @@
       <c r="F3" s="12"/>
       <c r="G3" s="12"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" s="46"/>
       <c r="B4" s="51"/>
       <c r="C4" s="53" t="s">
@@ -1529,7 +1529,7 @@
       <c r="F4" s="12"/>
       <c r="G4" s="12"/>
     </row>
-    <row r="5" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="50"/>
       <c r="B5" s="52"/>
       <c r="C5" s="55"/>
@@ -1538,7 +1538,7 @@
       <c r="F5" s="12"/>
       <c r="G5" s="12"/>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="16" t="s">
         <v>13</v>
       </c>
@@ -1557,7 +1557,7 @@
       <c r="F6" s="12"/>
       <c r="G6" s="12"/>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="18" t="s">
         <v>18</v>
       </c>
@@ -1573,7 +1573,7 @@
       <c r="F7" s="12"/>
       <c r="G7" s="12"/>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="18" t="s">
         <v>17</v>
       </c>
@@ -1589,7 +1589,7 @@
       <c r="F8" s="12"/>
       <c r="G8" s="12"/>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="18" t="s">
         <v>19</v>
       </c>
@@ -1605,7 +1605,7 @@
       <c r="F9" s="12"/>
       <c r="G9" s="12"/>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="18" t="s">
         <v>20</v>
       </c>
@@ -1637,13 +1637,13 @@
       <c r="F11" s="12"/>
       <c r="G11" s="12"/>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="16" t="s">
         <v>54</v>
       </c>
       <c r="B12" s="17">
         <f>BacktestingSoftware!J6</f>
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C12" s="29">
         <f>SUM(C13:C16)</f>
@@ -1656,13 +1656,13 @@
       <c r="F12" s="12"/>
       <c r="G12" s="12"/>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="18" t="s">
         <v>53</v>
       </c>
       <c r="B13" s="19">
         <f>BacktestingSoftware!J2</f>
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C13" s="31">
         <v>0</v>
@@ -1672,7 +1672,7 @@
       <c r="F13" s="12"/>
       <c r="G13" s="12"/>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="18" t="s">
         <v>55</v>
       </c>
@@ -1688,7 +1688,7 @@
       <c r="F14" s="12"/>
       <c r="G14" s="12"/>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="18" t="s">
         <v>56</v>
       </c>
@@ -1717,7 +1717,7 @@
       </c>
       <c r="D16" s="32"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="16" t="s">
         <v>58</v>
       </c>
@@ -1733,7 +1733,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="18" t="s">
         <v>59</v>
       </c>
@@ -1746,7 +1746,7 @@
       </c>
       <c r="D18" s="32"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="18" t="s">
         <v>60</v>
       </c>
@@ -1759,7 +1759,7 @@
       </c>
       <c r="D19" s="32"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" s="18" t="s">
         <v>61</v>
       </c>
@@ -1785,7 +1785,7 @@
       </c>
       <c r="D21" s="32"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" s="16" t="s">
         <v>63</v>
       </c>
@@ -1801,7 +1801,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" s="18" t="s">
         <v>59</v>
       </c>
@@ -1814,7 +1814,7 @@
       </c>
       <c r="D23" s="32"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" s="18" t="s">
         <v>64</v>
       </c>
@@ -1853,7 +1853,7 @@
       </c>
       <c r="D26" s="32"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A27" s="16" t="s">
         <v>14</v>
       </c>
@@ -1882,7 +1882,7 @@
       </c>
       <c r="D28" s="32"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A29" s="18" t="s">
         <v>23</v>
       </c>
@@ -1895,7 +1895,7 @@
       </c>
       <c r="D29" s="32"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A30" s="18" t="s">
         <v>24</v>
       </c>
@@ -1921,15 +1921,15 @@
       </c>
       <c r="D31" s="28"/>
     </row>
-    <row r="32" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="33" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="33" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B33" s="10"/>
       <c r="C33" s="10"/>
       <c r="D33" s="11" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="34" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B34" s="47" t="s">
         <v>34</v>
       </c>
@@ -1939,17 +1939,17 @@
         <v>11</v>
       </c>
     </row>
-    <row r="35" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B35" s="41" t="s">
         <v>15</v>
       </c>
       <c r="C35" s="42"/>
       <c r="D35" s="9">
         <f>SUM(Projektmanagment!I14,BacktestingSoftware!I14,Algorithmus!I14,Marktzustandserkennung!I14,Testing_Abschluss!I14)</f>
-        <v>13.5</v>
-      </c>
-    </row>
-    <row r="36" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>17.5</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B36" s="43" t="s">
         <v>35</v>
       </c>
@@ -1985,19 +1985,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="F5" sqref="A5:F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.28515625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="71.85546875" style="3" customWidth="1"/>
-    <col min="4" max="4" width="10.85546875" style="3"/>
-    <col min="5" max="5" width="10.85546875" style="26"/>
-    <col min="6" max="6" width="24.42578125" style="3" customWidth="1"/>
-    <col min="9" max="9" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.33203125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="71.88671875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="10.88671875" style="3"/>
+    <col min="5" max="5" width="10.88671875" style="26"/>
+    <col min="6" max="6" width="24.44140625" style="3" customWidth="1"/>
+    <col min="9" max="9" width="12.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2027,7 +2027,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>32</v>
       </c>
@@ -2055,7 +2055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>32</v>
       </c>
@@ -2083,7 +2083,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>32</v>
       </c>
@@ -2111,7 +2111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>32</v>
       </c>
@@ -2161,13 +2161,13 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="D8" s="24"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="D9" s="1"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="D10" s="1"/>
     </row>
     <row r="11" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2182,7 +2182,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="D13" s="1"/>
       <c r="H13" s="33" t="s">
         <v>32</v>
@@ -2192,7 +2192,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="D14" s="1"/>
       <c r="H14" s="33" t="s">
         <v>6</v>
@@ -2212,15 +2212,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="D16" s="1"/>
       <c r="H16" s="36"/>
       <c r="I16" s="36"/>
     </row>
-    <row r="17" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:4" ht="15" x14ac:dyDescent="0.25">
       <c r="D17" s="1"/>
     </row>
-    <row r="18" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="4:4" ht="15" x14ac:dyDescent="0.25">
       <c r="D18" s="1"/>
     </row>
   </sheetData>
@@ -2242,6 +2242,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -2254,19 +2255,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.28515625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="71.85546875" style="3" customWidth="1"/>
-    <col min="4" max="4" width="10.85546875" style="3"/>
-    <col min="5" max="5" width="10.85546875" style="26"/>
-    <col min="6" max="6" width="24.42578125" style="3" customWidth="1"/>
-    <col min="9" max="9" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.33203125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="71.88671875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="10.88671875" style="3"/>
+    <col min="5" max="5" width="10.88671875" style="26"/>
+    <col min="6" max="6" width="24.44140625" style="3" customWidth="1"/>
+    <col min="9" max="9" width="12.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2296,7 +2297,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
@@ -2321,10 +2322,10 @@
       <c r="I2" s="61"/>
       <c r="J2" s="35">
         <f>SUMIF(B:B,H2,E:E)</f>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>33</v>
       </c>
@@ -2352,7 +2353,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
@@ -2433,10 +2434,10 @@
       <c r="I6" s="58"/>
       <c r="J6" s="7">
         <f>SUM(J2:J5)</f>
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>33</v>
       </c>
@@ -2456,7 +2457,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>33</v>
       </c>
@@ -2476,7 +2477,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>32</v>
       </c>
@@ -2496,7 +2497,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>32</v>
       </c>
@@ -2514,7 +2515,24 @@
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D11" s="1"/>
+      <c r="A11" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D11" s="1">
+        <v>41262</v>
+      </c>
+      <c r="E11" s="26">
+        <v>4</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="12" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D12" s="1"/>
@@ -2525,7 +2543,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="D13" s="1"/>
       <c r="H13" s="35" t="s">
         <v>32</v>
@@ -2535,14 +2553,14 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="D14" s="1"/>
       <c r="H14" s="35" t="s">
         <v>6</v>
       </c>
       <c r="I14" s="35">
         <f>SUMIF(A:A,H14,E:E)</f>
-        <v>11.5</v>
+        <v>15.5</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2555,15 +2573,15 @@
         <v>10.5</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="D16" s="1"/>
       <c r="H16" s="36"/>
       <c r="I16" s="36"/>
     </row>
-    <row r="17" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:4" ht="15" x14ac:dyDescent="0.25">
       <c r="D17" s="1"/>
     </row>
-    <row r="18" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="4:4" ht="15" x14ac:dyDescent="0.25">
       <c r="D18" s="1"/>
     </row>
   </sheetData>
@@ -2601,15 +2619,15 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.28515625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="71.85546875" style="3" customWidth="1"/>
-    <col min="4" max="4" width="10.85546875" style="3"/>
-    <col min="5" max="5" width="10.85546875" style="26"/>
-    <col min="6" max="6" width="24.42578125" style="3" customWidth="1"/>
-    <col min="9" max="9" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.33203125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="71.88671875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="10.88671875" style="3"/>
+    <col min="5" max="5" width="10.88671875" style="26"/>
+    <col min="6" max="6" width="24.44140625" style="3" customWidth="1"/>
+    <col min="9" max="9" width="12.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2639,7 +2657,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>33</v>
       </c>
@@ -2667,7 +2685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>33</v>
       </c>
@@ -2695,7 +2713,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="D4" s="1"/>
       <c r="H4" s="61" t="s">
         <v>44</v>
@@ -2728,16 +2746,16 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="D7" s="1"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="D8" s="24"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="D9" s="1"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="D10" s="1"/>
     </row>
     <row r="11" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2752,7 +2770,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="D13" s="1"/>
       <c r="H13" s="35" t="s">
         <v>32</v>
@@ -2762,7 +2780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="D14" s="1"/>
       <c r="H14" s="35" t="s">
         <v>6</v>
@@ -2782,15 +2800,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="D16" s="1"/>
       <c r="H16" s="36"/>
       <c r="I16" s="36"/>
     </row>
-    <row r="17" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:4" ht="15" x14ac:dyDescent="0.25">
       <c r="D17" s="1"/>
     </row>
-    <row r="18" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="4:4" ht="15" x14ac:dyDescent="0.25">
       <c r="D18" s="1"/>
     </row>
   </sheetData>
@@ -2827,15 +2845,15 @@
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="71.85546875" style="3" customWidth="1"/>
-    <col min="4" max="4" width="11.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.85546875" style="26"/>
-    <col min="6" max="6" width="24.42578125" style="3" customWidth="1"/>
-    <col min="9" max="9" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.5546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="71.88671875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="11.5546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.88671875" style="26"/>
+    <col min="6" max="6" width="24.44140625" style="3" customWidth="1"/>
+    <col min="9" max="9" width="12.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2865,7 +2883,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>32</v>
       </c>
@@ -2893,7 +2911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
@@ -2921,7 +2939,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="D4" s="1"/>
       <c r="H4" s="61" t="s">
         <v>47</v>
@@ -2954,16 +2972,16 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="D7" s="1"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="D8" s="24"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="D9" s="1"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="D10" s="1"/>
     </row>
     <row r="11" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2978,7 +2996,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="D13" s="1"/>
       <c r="H13" s="35" t="s">
         <v>32</v>
@@ -2988,7 +3006,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="D14" s="1"/>
       <c r="H14" s="35" t="s">
         <v>6</v>
@@ -3008,15 +3026,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="D16" s="1"/>
       <c r="H16" s="36"/>
       <c r="I16" s="36"/>
     </row>
-    <row r="17" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:4" ht="15" x14ac:dyDescent="0.25">
       <c r="D17" s="1"/>
     </row>
-    <row r="18" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="4:4" ht="15" x14ac:dyDescent="0.25">
       <c r="D18" s="1"/>
     </row>
   </sheetData>
@@ -3053,15 +3071,15 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.28515625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="71.85546875" style="3" customWidth="1"/>
-    <col min="4" max="4" width="10.85546875" style="3"/>
-    <col min="5" max="5" width="10.85546875" style="37"/>
-    <col min="6" max="6" width="24.42578125" style="3" customWidth="1"/>
-    <col min="9" max="9" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.33203125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="71.88671875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="10.88671875" style="3"/>
+    <col min="5" max="5" width="10.88671875" style="37"/>
+    <col min="6" max="6" width="24.44140625" style="3" customWidth="1"/>
+    <col min="9" max="9" width="12.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3091,7 +3109,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B2" s="2"/>
       <c r="D2" s="1"/>
       <c r="H2" s="62" t="s">
@@ -3103,7 +3121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="D3" s="1"/>
       <c r="H3" s="64" t="s">
         <v>50</v>
@@ -3114,7 +3132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="D4" s="1"/>
       <c r="H4" s="64" t="s">
         <v>51</v>
@@ -3125,7 +3143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D5" s="1"/>
       <c r="H5" s="66" t="s">
         <v>52</v>
@@ -3147,16 +3165,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="D7" s="1"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="D8" s="24"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="D9" s="1"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="D10" s="1"/>
     </row>
     <row r="11" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3171,7 +3189,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="D13" s="1"/>
       <c r="H13" s="35" t="s">
         <v>32</v>
@@ -3181,7 +3199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="D14" s="1"/>
       <c r="H14" s="35" t="s">
         <v>6</v>
@@ -3201,15 +3219,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="D16" s="1"/>
       <c r="H16" s="36"/>
       <c r="I16" s="36"/>
     </row>
-    <row r="17" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:4" ht="15" x14ac:dyDescent="0.25">
       <c r="D17" s="1"/>
     </row>
-    <row r="18" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="4:4" ht="15" x14ac:dyDescent="0.25">
       <c r="D18" s="1"/>
     </row>
   </sheetData>

--- a/Dokumentation/Noctua_Zeitaufzeichnung.xlsx
+++ b/Dokumentation/Noctua_Zeitaufzeichnung.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="48" yWindow="0" windowWidth="20736" windowHeight="11760" activeTab="1"/>
+    <workbookView xWindow="45" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Gesamtstatus" sheetId="4" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="104">
   <si>
     <t>Arbeitspaket</t>
   </si>
@@ -303,6 +303,39 @@
   </si>
   <si>
     <t>Datenaustausch der Programmteile</t>
+  </si>
+  <si>
+    <t>RSI Implementieren</t>
+  </si>
+  <si>
+    <t>Relative Strength implementiert</t>
+  </si>
+  <si>
+    <t>Signalgeber überarbeiten</t>
+  </si>
+  <si>
+    <t>Signalgeber wertet SMA aus, befüllt 0er</t>
+  </si>
+  <si>
+    <t>C#/F# Listen</t>
+  </si>
+  <si>
+    <t>Lösung mit Pawlowsky</t>
+  </si>
+  <si>
+    <t>SMA verbessern</t>
+  </si>
+  <si>
+    <t>historische Erweiterung und effizienter</t>
+  </si>
+  <si>
+    <t>CCI implementieren</t>
+  </si>
+  <si>
+    <t>CCI implementiert</t>
+  </si>
+  <si>
+    <t>RSI implementiert</t>
   </si>
 </sst>
 </file>
@@ -879,12 +912,12 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:shape val="box"/>
-        <c:axId val="38877056"/>
-        <c:axId val="38878592"/>
+        <c:axId val="155173248"/>
+        <c:axId val="155174784"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="38877056"/>
+        <c:axId val="155173248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -893,7 +926,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="38878592"/>
+        <c:crossAx val="155174784"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -901,7 +934,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="38878592"/>
+        <c:axId val="155174784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -917,7 +950,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="38877056"/>
+        <c:crossAx val="155173248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1039,10 +1072,10 @@
                   <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>17.5</c:v>
+                  <c:v>15.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>19.5</c:v>
+                  <c:v>39</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1058,12 +1091,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="38912000"/>
-        <c:axId val="38913536"/>
+        <c:axId val="155781376"/>
+        <c:axId val="155783168"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="38912000"/>
+        <c:axId val="155781376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1072,7 +1105,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="38913536"/>
+        <c:crossAx val="155783168"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1080,7 +1113,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="38913536"/>
+        <c:axId val="155783168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1091,7 +1124,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="38912000"/>
+        <c:crossAx val="155781376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1466,13 +1499,13 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="49"/>
       <c r="B1" s="51" t="s">
         <v>28</v>
@@ -1486,7 +1519,7 @@
       <c r="G1" s="12"/>
       <c r="R1" s="8"/>
     </row>
-    <row r="2" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="50"/>
       <c r="B2" s="52"/>
       <c r="C2" s="13" t="s">
@@ -1505,7 +1538,7 @@
       </c>
       <c r="B3" s="7">
         <f>SUM(B6,B12,B27)</f>
-        <v>33</v>
+        <v>39.5</v>
       </c>
       <c r="C3" s="27">
         <f>AVERAGE(C6,C12,C17,C22,C27)</f>
@@ -1518,7 +1551,7 @@
       <c r="F3" s="12"/>
       <c r="G3" s="12"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="46"/>
       <c r="B4" s="51"/>
       <c r="C4" s="53" t="s">
@@ -1529,7 +1562,7 @@
       <c r="F4" s="12"/>
       <c r="G4" s="12"/>
     </row>
-    <row r="5" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="50"/>
       <c r="B5" s="52"/>
       <c r="C5" s="55"/>
@@ -1538,7 +1571,7 @@
       <c r="F5" s="12"/>
       <c r="G5" s="12"/>
     </row>
-    <row r="6" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="16" t="s">
         <v>13</v>
       </c>
@@ -1557,7 +1590,7 @@
       <c r="F6" s="12"/>
       <c r="G6" s="12"/>
     </row>
-    <row r="7" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="18" t="s">
         <v>18</v>
       </c>
@@ -1573,7 +1606,7 @@
       <c r="F7" s="12"/>
       <c r="G7" s="12"/>
     </row>
-    <row r="8" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="18" t="s">
         <v>17</v>
       </c>
@@ -1589,7 +1622,7 @@
       <c r="F8" s="12"/>
       <c r="G8" s="12"/>
     </row>
-    <row r="9" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="18" t="s">
         <v>19</v>
       </c>
@@ -1605,7 +1638,7 @@
       <c r="F9" s="12"/>
       <c r="G9" s="12"/>
     </row>
-    <row r="10" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="18" t="s">
         <v>20</v>
       </c>
@@ -1637,13 +1670,13 @@
       <c r="F11" s="12"/>
       <c r="G11" s="12"/>
     </row>
-    <row r="12" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="16" t="s">
         <v>54</v>
       </c>
       <c r="B12" s="17">
         <f>BacktestingSoftware!J6</f>
-        <v>30</v>
+        <v>36.5</v>
       </c>
       <c r="C12" s="29">
         <f>SUM(C13:C16)</f>
@@ -1656,7 +1689,7 @@
       <c r="F12" s="12"/>
       <c r="G12" s="12"/>
     </row>
-    <row r="13" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="18" t="s">
         <v>53</v>
       </c>
@@ -1672,7 +1705,7 @@
       <c r="F13" s="12"/>
       <c r="G13" s="12"/>
     </row>
-    <row r="14" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="18" t="s">
         <v>55</v>
       </c>
@@ -1688,13 +1721,13 @@
       <c r="F14" s="12"/>
       <c r="G14" s="12"/>
     </row>
-    <row r="15" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="18" t="s">
         <v>56</v>
       </c>
       <c r="B15" s="19">
         <f>BacktestingSoftware!J4</f>
-        <v>7.5</v>
+        <v>14</v>
       </c>
       <c r="C15" s="31">
         <v>0</v>
@@ -1717,13 +1750,13 @@
       </c>
       <c r="D16" s="32"/>
     </row>
-    <row r="17" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="16" t="s">
         <v>58</v>
       </c>
       <c r="B17" s="17">
         <f>Algorithmus!J6</f>
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C17" s="29">
         <f>SUM(C18:C21)</f>
@@ -1733,7 +1766,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="18" t="s">
         <v>59</v>
       </c>
@@ -1746,7 +1779,7 @@
       </c>
       <c r="D18" s="32"/>
     </row>
-    <row r="19" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="18" t="s">
         <v>60</v>
       </c>
@@ -1759,13 +1792,13 @@
       </c>
       <c r="D19" s="32"/>
     </row>
-    <row r="20" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="18" t="s">
         <v>61</v>
       </c>
       <c r="B20" s="19">
         <f>Algorithmus!J4</f>
-        <v>4.5</v>
+        <v>9.5</v>
       </c>
       <c r="C20" s="40">
         <v>0</v>
@@ -1785,13 +1818,13 @@
       </c>
       <c r="D21" s="32"/>
     </row>
-    <row r="22" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="16" t="s">
         <v>63</v>
       </c>
       <c r="B22" s="17">
         <f>Marktzustandserkennung!J6</f>
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="C22" s="29">
         <f>SUM(C23:C26)</f>
@@ -1801,7 +1834,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="18" t="s">
         <v>59</v>
       </c>
@@ -1814,7 +1847,7 @@
       </c>
       <c r="D23" s="32"/>
     </row>
-    <row r="24" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="18" t="s">
         <v>64</v>
       </c>
@@ -1833,7 +1866,7 @@
       </c>
       <c r="B25" s="19">
         <f>Marktzustandserkennung!J4</f>
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="C25" s="40">
         <v>0</v>
@@ -1853,7 +1886,7 @@
       </c>
       <c r="D26" s="32"/>
     </row>
-    <row r="27" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="16" t="s">
         <v>14</v>
       </c>
@@ -1882,7 +1915,7 @@
       </c>
       <c r="D28" s="32"/>
     </row>
-    <row r="29" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="18" t="s">
         <v>23</v>
       </c>
@@ -1895,7 +1928,7 @@
       </c>
       <c r="D29" s="32"/>
     </row>
-    <row r="30" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="18" t="s">
         <v>24</v>
       </c>
@@ -1921,15 +1954,15 @@
       </c>
       <c r="D31" s="28"/>
     </row>
-    <row r="32" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="33" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="33" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B33" s="10"/>
       <c r="C33" s="10"/>
       <c r="D33" s="11" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="34" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B34" s="47" t="s">
         <v>34</v>
       </c>
@@ -1939,24 +1972,24 @@
         <v>11</v>
       </c>
     </row>
-    <row r="35" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B35" s="41" t="s">
         <v>15</v>
       </c>
       <c r="C35" s="42"/>
       <c r="D35" s="9">
         <f>SUM(Projektmanagment!I14,BacktestingSoftware!I14,Algorithmus!I14,Marktzustandserkennung!I14,Testing_Abschluss!I14)</f>
-        <v>17.5</v>
-      </c>
-    </row>
-    <row r="36" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>15.5</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B36" s="43" t="s">
         <v>35</v>
       </c>
       <c r="C36" s="44"/>
       <c r="D36" s="39">
         <f>SUM(Projektmanagment!I15,BacktestingSoftware!I15,Algorithmus!I15,Marktzustandserkennung!I15,Testing_Abschluss!I15)</f>
-        <v>19.5</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -1985,19 +2018,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
       <selection activeCell="F5" sqref="A5:F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.33203125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="71.88671875" style="3" customWidth="1"/>
-    <col min="4" max="4" width="10.88671875" style="3"/>
-    <col min="5" max="5" width="10.88671875" style="26"/>
-    <col min="6" max="6" width="24.44140625" style="3" customWidth="1"/>
-    <col min="9" max="9" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.28515625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="71.85546875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" style="3"/>
+    <col min="5" max="5" width="10.85546875" style="26"/>
+    <col min="6" max="6" width="24.42578125" style="3" customWidth="1"/>
+    <col min="9" max="9" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2027,7 +2060,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>32</v>
       </c>
@@ -2055,7 +2088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>32</v>
       </c>
@@ -2083,7 +2116,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>32</v>
       </c>
@@ -2111,7 +2144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>32</v>
       </c>
@@ -2161,13 +2194,13 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D8" s="24"/>
     </row>
-    <row r="9" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D9" s="1"/>
     </row>
-    <row r="10" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D10" s="1"/>
     </row>
     <row r="11" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2182,7 +2215,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D13" s="1"/>
       <c r="H13" s="33" t="s">
         <v>32</v>
@@ -2192,7 +2225,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D14" s="1"/>
       <c r="H14" s="33" t="s">
         <v>6</v>
@@ -2212,15 +2245,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D16" s="1"/>
       <c r="H16" s="36"/>
       <c r="I16" s="36"/>
     </row>
-    <row r="17" spans="4:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D17" s="1"/>
     </row>
-    <row r="18" spans="4:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D18" s="1"/>
     </row>
   </sheetData>
@@ -2255,19 +2288,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.33203125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="71.88671875" style="3" customWidth="1"/>
-    <col min="4" max="4" width="10.88671875" style="3"/>
-    <col min="5" max="5" width="10.88671875" style="26"/>
-    <col min="6" max="6" width="24.44140625" style="3" customWidth="1"/>
-    <col min="9" max="9" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.28515625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="71.85546875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" style="3"/>
+    <col min="5" max="5" width="10.85546875" style="26"/>
+    <col min="6" max="6" width="24.42578125" style="3" customWidth="1"/>
+    <col min="9" max="9" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2297,7 +2330,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
@@ -2325,7 +2358,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>33</v>
       </c>
@@ -2353,7 +2386,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
@@ -2378,7 +2411,7 @@
       <c r="I4" s="61"/>
       <c r="J4" s="35">
         <f>SUMIF(B:B,H4,E:E)</f>
-        <v>7.5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2434,10 +2467,10 @@
       <c r="I6" s="58"/>
       <c r="J6" s="7">
         <f>SUM(J2:J5)</f>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+        <v>36.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>33</v>
       </c>
@@ -2457,7 +2490,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>33</v>
       </c>
@@ -2477,7 +2510,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>32</v>
       </c>
@@ -2497,7 +2530,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>32</v>
       </c>
@@ -2535,6 +2568,9 @@
       </c>
     </row>
     <row r="12" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>32</v>
+      </c>
       <c r="D12" s="1"/>
       <c r="H12" s="34" t="s">
         <v>5</v>
@@ -2543,7 +2579,10 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>6</v>
+      </c>
       <c r="D13" s="1"/>
       <c r="H13" s="35" t="s">
         <v>32</v>
@@ -2553,8 +2592,25 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="D14" s="1"/>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D14" s="1">
+        <v>41270</v>
+      </c>
+      <c r="E14" s="26">
+        <v>3</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>96</v>
+      </c>
       <c r="H14" s="35" t="s">
         <v>6</v>
       </c>
@@ -2570,18 +2626,35 @@
       </c>
       <c r="I15" s="35">
         <f>SUMIF(A:A,H15,E:E)</f>
-        <v>10.5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="D16" s="1"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="D16" s="1">
+        <v>41271</v>
+      </c>
+      <c r="E16" s="26">
+        <v>3.5</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>98</v>
+      </c>
       <c r="H16" s="36"/>
       <c r="I16" s="36"/>
     </row>
-    <row r="17" spans="4:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D17" s="1"/>
     </row>
-    <row r="18" spans="4:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D18" s="1"/>
     </row>
   </sheetData>
@@ -2616,18 +2689,18 @@
   <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.33203125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="71.88671875" style="3" customWidth="1"/>
-    <col min="4" max="4" width="10.88671875" style="3"/>
-    <col min="5" max="5" width="10.88671875" style="26"/>
-    <col min="6" max="6" width="24.44140625" style="3" customWidth="1"/>
-    <col min="9" max="9" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.28515625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="71.85546875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" style="3"/>
+    <col min="5" max="5" width="10.85546875" style="26"/>
+    <col min="6" max="6" width="24.42578125" style="3" customWidth="1"/>
+    <col min="9" max="9" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2657,7 +2730,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>33</v>
       </c>
@@ -2685,7 +2758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>33</v>
       </c>
@@ -2713,15 +2786,29 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="D4" s="1"/>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B4" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D4" s="1">
+        <v>41273</v>
+      </c>
+      <c r="E4" s="26">
+        <v>5</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>100</v>
+      </c>
       <c r="H4" s="61" t="s">
         <v>44</v>
       </c>
       <c r="I4" s="61"/>
       <c r="J4" s="35">
         <f>SUMIF(B:B,H4,E:E)</f>
-        <v>4.5</v>
+        <v>9.5</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2743,19 +2830,19 @@
       <c r="I6" s="58"/>
       <c r="J6" s="7">
         <f>SUM(J2:J5)</f>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D7" s="1"/>
     </row>
-    <row r="8" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D8" s="24"/>
     </row>
-    <row r="9" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D9" s="1"/>
     </row>
-    <row r="10" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D10" s="1"/>
     </row>
     <row r="11" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2770,7 +2857,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D13" s="1"/>
       <c r="H13" s="35" t="s">
         <v>32</v>
@@ -2780,7 +2867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D14" s="1"/>
       <c r="H14" s="35" t="s">
         <v>6</v>
@@ -2800,15 +2887,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D16" s="1"/>
       <c r="H16" s="36"/>
       <c r="I16" s="36"/>
     </row>
-    <row r="17" spans="4:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D17" s="1"/>
     </row>
-    <row r="18" spans="4:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D18" s="1"/>
     </row>
   </sheetData>
@@ -2841,19 +2928,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.5546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="71.88671875" style="3" customWidth="1"/>
-    <col min="4" max="4" width="11.5546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.88671875" style="26"/>
-    <col min="6" max="6" width="24.44140625" style="3" customWidth="1"/>
-    <col min="9" max="9" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="71.85546875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.85546875" style="26"/>
+    <col min="6" max="6" width="24.42578125" style="3" customWidth="1"/>
+    <col min="9" max="9" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2883,7 +2970,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>32</v>
       </c>
@@ -2911,9 +2998,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>47</v>
@@ -2939,19 +3026,53 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="D4" s="1"/>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D4" s="1">
+        <v>41267</v>
+      </c>
+      <c r="E4" s="26">
+        <v>3</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>94</v>
+      </c>
       <c r="H4" s="61" t="s">
         <v>47</v>
       </c>
       <c r="I4" s="61"/>
       <c r="J4" s="35">
         <f>SUMIF(B:B,H4,E:E)</f>
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D5" s="1"/>
+      <c r="A5" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="D5" s="1">
+        <v>41277</v>
+      </c>
+      <c r="E5" s="26">
+        <v>5</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>102</v>
+      </c>
       <c r="H5" s="61" t="s">
         <v>48</v>
       </c>
@@ -2962,26 +3083,43 @@
       </c>
     </row>
     <row r="6" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D6" s="1"/>
+      <c r="A6" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D6" s="1">
+        <v>41278</v>
+      </c>
+      <c r="E6" s="26">
+        <v>3</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>103</v>
+      </c>
       <c r="H6" s="57" t="s">
         <v>16</v>
       </c>
       <c r="I6" s="58"/>
       <c r="J6" s="7">
         <f>SUM(J2:J5)</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D7" s="1"/>
     </row>
-    <row r="8" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D8" s="24"/>
     </row>
-    <row r="9" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D9" s="1"/>
     </row>
-    <row r="10" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D10" s="1"/>
     </row>
     <row r="11" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2996,7 +3134,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D13" s="1"/>
       <c r="H13" s="35" t="s">
         <v>32</v>
@@ -3006,14 +3144,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D14" s="1"/>
       <c r="H14" s="35" t="s">
         <v>6</v>
       </c>
       <c r="I14" s="35">
         <f>SUMIF(A:A,H14,E:E)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3023,18 +3161,18 @@
       </c>
       <c r="I15" s="35">
         <f>SUMIF(A:A,H15,E:E)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D16" s="1"/>
       <c r="H16" s="36"/>
       <c r="I16" s="36"/>
     </row>
-    <row r="17" spans="4:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D17" s="1"/>
     </row>
-    <row r="18" spans="4:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D18" s="1"/>
     </row>
   </sheetData>
@@ -3071,15 +3209,15 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.33203125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="71.88671875" style="3" customWidth="1"/>
-    <col min="4" max="4" width="10.88671875" style="3"/>
-    <col min="5" max="5" width="10.88671875" style="37"/>
-    <col min="6" max="6" width="24.44140625" style="3" customWidth="1"/>
-    <col min="9" max="9" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.28515625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="71.85546875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" style="3"/>
+    <col min="5" max="5" width="10.85546875" style="37"/>
+    <col min="6" max="6" width="24.42578125" style="3" customWidth="1"/>
+    <col min="9" max="9" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3109,7 +3247,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B2" s="2"/>
       <c r="D2" s="1"/>
       <c r="H2" s="62" t="s">
@@ -3121,7 +3259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D3" s="1"/>
       <c r="H3" s="64" t="s">
         <v>50</v>
@@ -3132,7 +3270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D4" s="1"/>
       <c r="H4" s="64" t="s">
         <v>51</v>
@@ -3143,7 +3281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D5" s="1"/>
       <c r="H5" s="66" t="s">
         <v>52</v>
@@ -3165,16 +3303,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D7" s="1"/>
     </row>
-    <row r="8" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D8" s="24"/>
     </row>
-    <row r="9" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D9" s="1"/>
     </row>
-    <row r="10" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D10" s="1"/>
     </row>
     <row r="11" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3189,7 +3327,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D13" s="1"/>
       <c r="H13" s="35" t="s">
         <v>32</v>
@@ -3199,7 +3337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D14" s="1"/>
       <c r="H14" s="35" t="s">
         <v>6</v>
@@ -3219,15 +3357,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D16" s="1"/>
       <c r="H16" s="36"/>
       <c r="I16" s="36"/>
     </row>
-    <row r="17" spans="4:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D17" s="1"/>
     </row>
-    <row r="18" spans="4:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D18" s="1"/>
     </row>
   </sheetData>

--- a/Dokumentation/Noctua_Zeitaufzeichnung.xlsx
+++ b/Dokumentation/Noctua_Zeitaufzeichnung.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="45" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="4"/>
+    <workbookView xWindow="48" yWindow="0" windowWidth="20736" windowHeight="11760" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Gesamtstatus" sheetId="4" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="118">
   <si>
     <t>Arbeitspaket</t>
   </si>
@@ -336,6 +336,48 @@
   </si>
   <si>
     <t>RSI implementiert</t>
+  </si>
+  <si>
+    <t>Grunddesign der GUI entwerfen</t>
+  </si>
+  <si>
+    <t>GUI-Konzept</t>
+  </si>
+  <si>
+    <t>WPF GUI zur File- und Algorithmusauswahl in die neue GUI integrieren</t>
+  </si>
+  <si>
+    <t>Integration der Filechooser</t>
+  </si>
+  <si>
+    <t>C#/F# Listenkonzept erarbeitet</t>
+  </si>
+  <si>
+    <t>Lösung zur Listenverwaltung</t>
+  </si>
+  <si>
+    <t>C#/F# Listenverwaltung komplett integriert</t>
+  </si>
+  <si>
+    <t>Listenverwaltung fertiggestellt</t>
+  </si>
+  <si>
+    <t>Kennzahlen der Performancemessung berechnet</t>
+  </si>
+  <si>
+    <t>Alle Kennzahlen berechnet</t>
+  </si>
+  <si>
+    <t>Bugs in Bezug auf Anzeige der Performance und Threading der Berechnung behoben</t>
+  </si>
+  <si>
+    <t>Bugs behiben</t>
+  </si>
+  <si>
+    <t>Programm zum einfachen Algorithmus-Testen geschrieben</t>
+  </si>
+  <si>
+    <t>Testprogramm fertiggestellt</t>
   </si>
 </sst>
 </file>
@@ -912,12 +954,12 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:shape val="box"/>
-        <c:axId val="155173248"/>
-        <c:axId val="155174784"/>
+        <c:axId val="38553472"/>
+        <c:axId val="38555008"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="155173248"/>
+        <c:axId val="38553472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -926,7 +968,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="155174784"/>
+        <c:crossAx val="38555008"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -934,7 +976,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="155174784"/>
+        <c:axId val="38555008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -950,7 +992,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="155173248"/>
+        <c:crossAx val="38553472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1069,13 +1111,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>11</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>15.5</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>39</c:v>
+                  <c:v>48.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1091,12 +1133,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="155781376"/>
-        <c:axId val="155783168"/>
+        <c:axId val="38588416"/>
+        <c:axId val="38589952"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="155781376"/>
+        <c:axId val="38588416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1105,7 +1147,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="155783168"/>
+        <c:crossAx val="38589952"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1113,7 +1155,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="155783168"/>
+        <c:axId val="38589952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1124,7 +1166,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="155781376"/>
+        <c:crossAx val="38588416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1499,13 +1541,13 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="34.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" s="49"/>
       <c r="B1" s="51" t="s">
         <v>28</v>
@@ -1519,7 +1561,7 @@
       <c r="G1" s="12"/>
       <c r="R1" s="8"/>
     </row>
-    <row r="2" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="50"/>
       <c r="B2" s="52"/>
       <c r="C2" s="13" t="s">
@@ -1538,7 +1580,7 @@
       </c>
       <c r="B3" s="7">
         <f>SUM(B6,B12,B27)</f>
-        <v>39.5</v>
+        <v>72</v>
       </c>
       <c r="C3" s="27">
         <f>AVERAGE(C6,C12,C17,C22,C27)</f>
@@ -1551,7 +1593,7 @@
       <c r="F3" s="12"/>
       <c r="G3" s="12"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" s="46"/>
       <c r="B4" s="51"/>
       <c r="C4" s="53" t="s">
@@ -1562,7 +1604,7 @@
       <c r="F4" s="12"/>
       <c r="G4" s="12"/>
     </row>
-    <row r="5" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="50"/>
       <c r="B5" s="52"/>
       <c r="C5" s="55"/>
@@ -1571,7 +1613,7 @@
       <c r="F5" s="12"/>
       <c r="G5" s="12"/>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="16" t="s">
         <v>13</v>
       </c>
@@ -1590,7 +1632,7 @@
       <c r="F6" s="12"/>
       <c r="G6" s="12"/>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="18" t="s">
         <v>18</v>
       </c>
@@ -1606,7 +1648,7 @@
       <c r="F7" s="12"/>
       <c r="G7" s="12"/>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="18" t="s">
         <v>17</v>
       </c>
@@ -1622,7 +1664,7 @@
       <c r="F8" s="12"/>
       <c r="G8" s="12"/>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="18" t="s">
         <v>19</v>
       </c>
@@ -1638,7 +1680,7 @@
       <c r="F9" s="12"/>
       <c r="G9" s="12"/>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="18" t="s">
         <v>20</v>
       </c>
@@ -1670,13 +1712,13 @@
       <c r="F11" s="12"/>
       <c r="G11" s="12"/>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="16" t="s">
         <v>54</v>
       </c>
       <c r="B12" s="17">
         <f>BacktestingSoftware!J6</f>
-        <v>36.5</v>
+        <v>69</v>
       </c>
       <c r="C12" s="29">
         <f>SUM(C13:C16)</f>
@@ -1689,7 +1731,7 @@
       <c r="F12" s="12"/>
       <c r="G12" s="12"/>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="18" t="s">
         <v>53</v>
       </c>
@@ -1705,13 +1747,13 @@
       <c r="F13" s="12"/>
       <c r="G13" s="12"/>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="18" t="s">
         <v>55</v>
       </c>
       <c r="B14" s="19">
         <f>BacktestingSoftware!J3</f>
-        <v>6.5</v>
+        <v>14.5</v>
       </c>
       <c r="C14" s="31">
         <v>0</v>
@@ -1721,13 +1763,13 @@
       <c r="F14" s="12"/>
       <c r="G14" s="12"/>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="18" t="s">
         <v>56</v>
       </c>
       <c r="B15" s="19">
         <f>BacktestingSoftware!J4</f>
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="C15" s="31">
         <v>0</v>
@@ -1743,20 +1785,20 @@
       </c>
       <c r="B16" s="19">
         <f>BacktestingSoftware!J5</f>
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="C16" s="31">
         <v>0</v>
       </c>
       <c r="D16" s="32"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="16" t="s">
         <v>58</v>
       </c>
       <c r="B17" s="17">
         <f>Algorithmus!J6</f>
-        <v>14</v>
+        <v>18.5</v>
       </c>
       <c r="C17" s="29">
         <f>SUM(C18:C21)</f>
@@ -1766,7 +1808,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="18" t="s">
         <v>59</v>
       </c>
@@ -1779,7 +1821,7 @@
       </c>
       <c r="D18" s="32"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="18" t="s">
         <v>60</v>
       </c>
@@ -1792,7 +1834,7 @@
       </c>
       <c r="D19" s="32"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" s="18" t="s">
         <v>61</v>
       </c>
@@ -1811,14 +1853,14 @@
       </c>
       <c r="B21" s="19">
         <f>Algorithmus!J5</f>
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="C21" s="40">
         <v>0</v>
       </c>
       <c r="D21" s="32"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" s="16" t="s">
         <v>63</v>
       </c>
@@ -1834,7 +1876,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" s="18" t="s">
         <v>59</v>
       </c>
@@ -1847,7 +1889,7 @@
       </c>
       <c r="D23" s="32"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" s="18" t="s">
         <v>64</v>
       </c>
@@ -1886,7 +1928,7 @@
       </c>
       <c r="D26" s="32"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A27" s="16" t="s">
         <v>14</v>
       </c>
@@ -1915,7 +1957,7 @@
       </c>
       <c r="D28" s="32"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A29" s="18" t="s">
         <v>23</v>
       </c>
@@ -1928,7 +1970,7 @@
       </c>
       <c r="D29" s="32"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A30" s="18" t="s">
         <v>24</v>
       </c>
@@ -1954,42 +1996,42 @@
       </c>
       <c r="D31" s="28"/>
     </row>
-    <row r="32" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="33" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="33" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B33" s="10"/>
       <c r="C33" s="10"/>
       <c r="D33" s="11" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="34" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B34" s="47" t="s">
         <v>34</v>
       </c>
       <c r="C34" s="48"/>
       <c r="D34" s="9">
         <f>SUM(Projektmanagment!I13,BacktestingSoftware!I13,Algorithmus!I13,Marktzustandserkennung!I13,Testing_Abschluss!I13)</f>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="35" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B35" s="41" t="s">
         <v>15</v>
       </c>
       <c r="C35" s="42"/>
       <c r="D35" s="9">
         <f>SUM(Projektmanagment!I14,BacktestingSoftware!I14,Algorithmus!I14,Marktzustandserkennung!I14,Testing_Abschluss!I14)</f>
-        <v>15.5</v>
-      </c>
-    </row>
-    <row r="36" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B36" s="43" t="s">
         <v>35</v>
       </c>
       <c r="C36" s="44"/>
       <c r="D36" s="39">
         <f>SUM(Projektmanagment!I15,BacktestingSoftware!I15,Algorithmus!I15,Marktzustandserkennung!I15,Testing_Abschluss!I15)</f>
-        <v>39</v>
+        <v>48.5</v>
       </c>
     </row>
   </sheetData>
@@ -2022,15 +2064,15 @@
       <selection activeCell="F5" sqref="A5:F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.28515625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="71.85546875" style="3" customWidth="1"/>
-    <col min="4" max="4" width="10.85546875" style="3"/>
-    <col min="5" max="5" width="10.85546875" style="26"/>
-    <col min="6" max="6" width="24.42578125" style="3" customWidth="1"/>
-    <col min="9" max="9" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.33203125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="71.88671875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="10.88671875" style="3"/>
+    <col min="5" max="5" width="10.88671875" style="26"/>
+    <col min="6" max="6" width="24.44140625" style="3" customWidth="1"/>
+    <col min="9" max="9" width="12.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2060,7 +2102,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>32</v>
       </c>
@@ -2088,7 +2130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>32</v>
       </c>
@@ -2116,7 +2158,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>32</v>
       </c>
@@ -2144,7 +2186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>32</v>
       </c>
@@ -2194,13 +2236,13 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="D8" s="24"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="D9" s="1"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="D10" s="1"/>
     </row>
     <row r="11" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2215,7 +2257,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="D13" s="1"/>
       <c r="H13" s="33" t="s">
         <v>32</v>
@@ -2225,7 +2267,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="D14" s="1"/>
       <c r="H14" s="33" t="s">
         <v>6</v>
@@ -2245,15 +2287,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="D16" s="1"/>
       <c r="H16" s="36"/>
       <c r="I16" s="36"/>
     </row>
-    <row r="17" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:4" ht="15" x14ac:dyDescent="0.25">
       <c r="D17" s="1"/>
     </row>
-    <row r="18" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="4:4" ht="15" x14ac:dyDescent="0.25">
       <c r="D18" s="1"/>
     </row>
   </sheetData>
@@ -2286,21 +2328,21 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView topLeftCell="A4" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.28515625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="71.85546875" style="3" customWidth="1"/>
-    <col min="4" max="4" width="10.85546875" style="3"/>
-    <col min="5" max="5" width="10.85546875" style="26"/>
-    <col min="6" max="6" width="24.42578125" style="3" customWidth="1"/>
-    <col min="9" max="9" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.33203125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="71.88671875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="10.88671875" style="3"/>
+    <col min="5" max="5" width="10.88671875" style="26"/>
+    <col min="6" max="6" width="24.44140625" style="3" customWidth="1"/>
+    <col min="9" max="9" width="12.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2330,7 +2372,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
@@ -2358,7 +2400,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>33</v>
       </c>
@@ -2383,10 +2425,10 @@
       <c r="I3" s="61"/>
       <c r="J3" s="35">
         <f>SUMIF(B:B,H3,E:E)</f>
-        <v>6.5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+        <v>14.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
@@ -2411,7 +2453,7 @@
       <c r="I4" s="61"/>
       <c r="J4" s="35">
         <f>SUMIF(B:B,H4,E:E)</f>
-        <v>14</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2439,7 +2481,7 @@
       <c r="I5" s="61"/>
       <c r="J5" s="35">
         <f>SUMIF(B:B,H5,E:E)</f>
-        <v>0</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2467,10 +2509,10 @@
       <c r="I6" s="58"/>
       <c r="J6" s="7">
         <f>SUM(J2:J5)</f>
-        <v>36.5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>33</v>
       </c>
@@ -2490,7 +2532,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>33</v>
       </c>
@@ -2510,7 +2552,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>32</v>
       </c>
@@ -2530,7 +2572,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>32</v>
       </c>
@@ -2571,7 +2613,21 @@
       <c r="A12" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D12" s="1"/>
+      <c r="B12" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D12" s="1">
+        <v>41269</v>
+      </c>
+      <c r="E12" s="26">
+        <v>5</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>105</v>
+      </c>
       <c r="H12" s="34" t="s">
         <v>5</v>
       </c>
@@ -2579,20 +2635,34 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D13" s="1"/>
+      <c r="B13" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="D13" s="1">
+        <v>41270</v>
+      </c>
+      <c r="E13" s="26">
+        <v>3</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>107</v>
+      </c>
       <c r="H13" s="35" t="s">
         <v>32</v>
       </c>
       <c r="I13" s="35">
         <f>SUMIF(A:A,H13,E:E)</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>33</v>
       </c>
@@ -2616,11 +2686,28 @@
       </c>
       <c r="I14" s="35">
         <f>SUMIF(A:A,H14,E:E)</f>
-        <v>15.5</v>
+        <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D15" s="1"/>
+      <c r="A15" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D15" s="1">
+        <v>41271</v>
+      </c>
+      <c r="E15" s="26">
+        <v>7</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>109</v>
+      </c>
       <c r="H15" s="35" t="s">
         <v>33</v>
       </c>
@@ -2629,7 +2716,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>33</v>
       </c>
@@ -2651,11 +2738,65 @@
       <c r="H16" s="36"/>
       <c r="I16" s="36"/>
     </row>
-    <row r="17" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D17" s="1"/>
-    </row>
-    <row r="18" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D18" s="1"/>
+    <row r="17" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="D17" s="1">
+        <v>41273</v>
+      </c>
+      <c r="E17" s="26">
+        <v>5</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="D18" s="1">
+        <v>41277</v>
+      </c>
+      <c r="E18" s="26">
+        <v>8</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="D19" s="1">
+        <v>41283</v>
+      </c>
+      <c r="E19" s="26">
+        <v>4.5</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>115</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -2688,19 +2829,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.28515625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="71.85546875" style="3" customWidth="1"/>
-    <col min="4" max="4" width="10.85546875" style="3"/>
-    <col min="5" max="5" width="10.85546875" style="26"/>
-    <col min="6" max="6" width="24.42578125" style="3" customWidth="1"/>
-    <col min="9" max="9" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.33203125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="71.88671875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="10.88671875" style="3"/>
+    <col min="5" max="5" width="10.88671875" style="26"/>
+    <col min="6" max="6" width="24.44140625" style="3" customWidth="1"/>
+    <col min="9" max="9" width="12.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2730,7 +2871,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>33</v>
       </c>
@@ -2758,7 +2899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>33</v>
       </c>
@@ -2786,7 +2927,10 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>33</v>
+      </c>
       <c r="B4" s="3" t="s">
         <v>44</v>
       </c>
@@ -2812,14 +2956,31 @@
       </c>
     </row>
     <row r="5" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D5" s="1"/>
+      <c r="A5" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="D5" s="1">
+        <v>41283</v>
+      </c>
+      <c r="E5" s="26">
+        <v>4.5</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>117</v>
+      </c>
       <c r="H5" s="61" t="s">
         <v>45</v>
       </c>
       <c r="I5" s="61"/>
       <c r="J5" s="35">
         <f>SUMIF(B:B,H5,E:E)</f>
-        <v>0</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2830,19 +2991,19 @@
       <c r="I6" s="58"/>
       <c r="J6" s="7">
         <f>SUM(J2:J5)</f>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+        <v>18.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="D7" s="1"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="D8" s="24"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="D9" s="1"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="D10" s="1"/>
     </row>
     <row r="11" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2857,7 +3018,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="D13" s="1"/>
       <c r="H13" s="35" t="s">
         <v>32</v>
@@ -2867,7 +3028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="D14" s="1"/>
       <c r="H14" s="35" t="s">
         <v>6</v>
@@ -2884,18 +3045,18 @@
       </c>
       <c r="I15" s="35">
         <f>SUMIF(A:A,H15,E:E)</f>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+        <v>18.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="D16" s="1"/>
       <c r="H16" s="36"/>
       <c r="I16" s="36"/>
     </row>
-    <row r="17" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:4" ht="15" x14ac:dyDescent="0.25">
       <c r="D17" s="1"/>
     </row>
-    <row r="18" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="4:4" ht="15" x14ac:dyDescent="0.25">
       <c r="D18" s="1"/>
     </row>
   </sheetData>
@@ -2928,19 +3089,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="125" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="36.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="71.85546875" style="3" customWidth="1"/>
-    <col min="4" max="4" width="11.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.85546875" style="26"/>
-    <col min="6" max="6" width="24.42578125" style="3" customWidth="1"/>
-    <col min="9" max="9" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="71.88671875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="11.5546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.88671875" style="26"/>
+    <col min="6" max="6" width="24.44140625" style="3" customWidth="1"/>
+    <col min="9" max="9" width="12.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2970,7 +3131,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>32</v>
       </c>
@@ -2998,7 +3159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>33</v>
       </c>
@@ -3026,7 +3187,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>33</v>
       </c>
@@ -3110,16 +3271,16 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="D7" s="1"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="D8" s="24"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="D9" s="1"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="D10" s="1"/>
     </row>
     <row r="11" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3134,7 +3295,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="D13" s="1"/>
       <c r="H13" s="35" t="s">
         <v>32</v>
@@ -3144,7 +3305,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="D14" s="1"/>
       <c r="H14" s="35" t="s">
         <v>6</v>
@@ -3164,15 +3325,15 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="D16" s="1"/>
       <c r="H16" s="36"/>
       <c r="I16" s="36"/>
     </row>
-    <row r="17" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:4" ht="15" x14ac:dyDescent="0.25">
       <c r="D17" s="1"/>
     </row>
-    <row r="18" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="4:4" ht="15" x14ac:dyDescent="0.25">
       <c r="D18" s="1"/>
     </row>
   </sheetData>
@@ -3209,15 +3370,15 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.28515625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="71.85546875" style="3" customWidth="1"/>
-    <col min="4" max="4" width="10.85546875" style="3"/>
-    <col min="5" max="5" width="10.85546875" style="37"/>
-    <col min="6" max="6" width="24.42578125" style="3" customWidth="1"/>
-    <col min="9" max="9" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.33203125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="71.88671875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="10.88671875" style="3"/>
+    <col min="5" max="5" width="10.88671875" style="37"/>
+    <col min="6" max="6" width="24.44140625" style="3" customWidth="1"/>
+    <col min="9" max="9" width="12.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3247,7 +3408,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B2" s="2"/>
       <c r="D2" s="1"/>
       <c r="H2" s="62" t="s">
@@ -3259,7 +3420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="D3" s="1"/>
       <c r="H3" s="64" t="s">
         <v>50</v>
@@ -3270,7 +3431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="D4" s="1"/>
       <c r="H4" s="64" t="s">
         <v>51</v>
@@ -3281,7 +3442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D5" s="1"/>
       <c r="H5" s="66" t="s">
         <v>52</v>
@@ -3303,16 +3464,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="D7" s="1"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="D8" s="24"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="D9" s="1"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="D10" s="1"/>
     </row>
     <row r="11" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3327,7 +3488,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="D13" s="1"/>
       <c r="H13" s="35" t="s">
         <v>32</v>
@@ -3337,7 +3498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="D14" s="1"/>
       <c r="H14" s="35" t="s">
         <v>6</v>
@@ -3357,15 +3518,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="D16" s="1"/>
       <c r="H16" s="36"/>
       <c r="I16" s="36"/>
     </row>
-    <row r="17" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:4" ht="15" x14ac:dyDescent="0.25">
       <c r="D17" s="1"/>
     </row>
-    <row r="18" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="4:4" ht="15" x14ac:dyDescent="0.25">
       <c r="D18" s="1"/>
     </row>
   </sheetData>

--- a/Dokumentation/Noctua_Zeitaufzeichnung.xlsx
+++ b/Dokumentation/Noctua_Zeitaufzeichnung.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="48" yWindow="0" windowWidth="20736" windowHeight="11760" activeTab="3"/>
+    <workbookView xWindow="48" yWindow="0" windowWidth="20736" windowHeight="11760" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Gesamtstatus" sheetId="4" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="126">
   <si>
     <t>Arbeitspaket</t>
   </si>
@@ -378,6 +378,30 @@
   </si>
   <si>
     <t>Testprogramm fertiggestellt</t>
+  </si>
+  <si>
+    <t>Graphische Darstellung der Charts um Candlesticks erweitert</t>
+  </si>
+  <si>
+    <t>Candlestick-Charts</t>
+  </si>
+  <si>
+    <t>Indikatoren in die die Chartsdarstellung integriert</t>
+  </si>
+  <si>
+    <t>Viusualisierung der Indikatoren</t>
+  </si>
+  <si>
+    <t>Speichern &amp; Laden möglich</t>
+  </si>
+  <si>
+    <t>Speichern und Laden ermöglichen</t>
+  </si>
+  <si>
+    <t>Order-Settings-Screen design</t>
+  </si>
+  <si>
+    <t>Order-Settings-Screen 20%</t>
   </si>
 </sst>
 </file>
@@ -954,12 +978,12 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:shape val="box"/>
-        <c:axId val="38553472"/>
-        <c:axId val="38555008"/>
+        <c:axId val="53106560"/>
+        <c:axId val="53108096"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="38553472"/>
+        <c:axId val="53106560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -968,7 +992,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="38555008"/>
+        <c:crossAx val="53108096"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -976,7 +1000,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="38555008"/>
+        <c:axId val="53108096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -992,7 +1016,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="38553472"/>
+        <c:crossAx val="53106560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1114,7 +1138,7 @@
                   <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43</c:v>
+                  <c:v>61.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>48.5</c:v>
@@ -1133,12 +1157,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="38588416"/>
-        <c:axId val="38589952"/>
+        <c:axId val="53141504"/>
+        <c:axId val="53143040"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="38588416"/>
+        <c:axId val="53141504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1147,7 +1171,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="38589952"/>
+        <c:crossAx val="53143040"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1155,7 +1179,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="38589952"/>
+        <c:axId val="53143040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1166,7 +1190,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="38588416"/>
+        <c:crossAx val="53141504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1580,7 +1604,7 @@
       </c>
       <c r="B3" s="7">
         <f>SUM(B6,B12,B27)</f>
-        <v>72</v>
+        <v>90.5</v>
       </c>
       <c r="C3" s="27">
         <f>AVERAGE(C6,C12,C17,C22,C27)</f>
@@ -1718,7 +1742,7 @@
       </c>
       <c r="B12" s="17">
         <f>BacktestingSoftware!J6</f>
-        <v>69</v>
+        <v>87.5</v>
       </c>
       <c r="C12" s="29">
         <f>SUM(C13:C16)</f>
@@ -1737,7 +1761,7 @@
       </c>
       <c r="B13" s="19">
         <f>BacktestingSoftware!J2</f>
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C13" s="31">
         <v>0</v>
@@ -1753,7 +1777,7 @@
       </c>
       <c r="B14" s="19">
         <f>BacktestingSoftware!J3</f>
-        <v>14.5</v>
+        <v>29</v>
       </c>
       <c r="C14" s="31">
         <v>0</v>
@@ -2021,7 +2045,7 @@
       <c r="C35" s="42"/>
       <c r="D35" s="9">
         <f>SUM(Projektmanagment!I14,BacktestingSoftware!I14,Algorithmus!I14,Marktzustandserkennung!I14,Testing_Abschluss!I14)</f>
-        <v>43</v>
+        <v>61.5</v>
       </c>
     </row>
     <row r="36" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2328,10 +2352,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J19"/>
+  <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2397,7 +2421,7 @@
       <c r="I2" s="61"/>
       <c r="J2" s="35">
         <f>SUMIF(B:B,H2,E:E)</f>
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="15" x14ac:dyDescent="0.25">
@@ -2425,7 +2449,7 @@
       <c r="I3" s="61"/>
       <c r="J3" s="35">
         <f>SUMIF(B:B,H3,E:E)</f>
-        <v>14.5</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15" x14ac:dyDescent="0.25">
@@ -2509,7 +2533,7 @@
       <c r="I6" s="58"/>
       <c r="J6" s="7">
         <f>SUM(J2:J5)</f>
-        <v>69</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
@@ -2686,10 +2710,10 @@
       </c>
       <c r="I14" s="35">
         <f>SUMIF(A:A,H14,E:E)</f>
-        <v>43</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>61.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
         <v>6</v>
       </c>
@@ -2796,6 +2820,86 @@
       </c>
       <c r="F19" s="3" t="s">
         <v>115</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D20" s="1">
+        <v>41284</v>
+      </c>
+      <c r="E20" s="26">
+        <v>8</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="D21" s="1">
+        <v>41285</v>
+      </c>
+      <c r="E21" s="26">
+        <v>2</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="D22" s="1">
+        <v>41286</v>
+      </c>
+      <c r="E22" s="26">
+        <v>4</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="D23" s="1">
+        <v>41290</v>
+      </c>
+      <c r="E23" s="26">
+        <v>4.5</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -2829,8 +2933,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Dokumentation/Noctua_Zeitaufzeichnung.xlsx
+++ b/Dokumentation/Noctua_Zeitaufzeichnung.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="48" yWindow="0" windowWidth="20736" windowHeight="11760" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="17480" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Gesamtstatus" sheetId="4" r:id="rId1"/>
@@ -14,7 +14,7 @@
     <sheet name="Marktzustandserkennung" sheetId="7" r:id="rId5"/>
     <sheet name="Testing_Abschluss" sheetId="8" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="145621" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="127">
   <si>
     <t>Arbeitspaket</t>
   </si>
@@ -402,6 +402,9 @@
   </si>
   <si>
     <t>Order-Settings-Screen 20%</t>
+  </si>
+  <si>
+    <t>Layout für Settings-Screen</t>
   </si>
 </sst>
 </file>
@@ -804,46 +807,46 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="41">
-    <cellStyle name="Besuchter Hyperlink" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="20" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="22" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="24" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="26" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="28" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="30" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="32" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="34" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="36" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="38" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="40" builtinId="9" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Link" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="39" builtinId="8" hidden="1"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -864,7 +867,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="de-AT"/>
+  <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -959,10 +962,10 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -978,12 +981,12 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:shape val="box"/>
-        <c:axId val="53106560"/>
-        <c:axId val="53108096"/>
+        <c:axId val="2087888440"/>
+        <c:axId val="2087891416"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="53106560"/>
+        <c:axId val="2087888440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -992,7 +995,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="53108096"/>
+        <c:crossAx val="2087891416"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1000,7 +1003,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="53108096"/>
+        <c:axId val="2087891416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1016,7 +1019,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="53106560"/>
+        <c:crossAx val="2087888440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1030,7 +1033,7 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.787401575" l="0.7" r="0.7" t="0.787401575" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1039,7 +1042,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="de-AT"/>
+  <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1135,7 +1138,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>16</c:v>
+                  <c:v>17.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>61.5</c:v>
@@ -1157,12 +1160,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="53141504"/>
-        <c:axId val="53143040"/>
+        <c:axId val="2087918632"/>
+        <c:axId val="2087921608"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="53141504"/>
+        <c:axId val="2087918632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1171,7 +1174,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="53143040"/>
+        <c:crossAx val="2087921608"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1179,7 +1182,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="53143040"/>
+        <c:axId val="2087921608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1190,7 +1193,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="53141504"/>
+        <c:crossAx val="2087918632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1201,7 +1204,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.787401575" l="0.7" r="0.7" t="0.787401575" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1565,13 +1568,13 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="34.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18">
       <c r="A1" s="49"/>
       <c r="B1" s="51" t="s">
         <v>28</v>
@@ -1585,7 +1588,7 @@
       <c r="G1" s="12"/>
       <c r="R1" s="8"/>
     </row>
-    <row r="2" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:18" ht="15" thickBot="1">
       <c r="A2" s="50"/>
       <c r="B2" s="52"/>
       <c r="C2" s="13" t="s">
@@ -1598,13 +1601,13 @@
       <c r="F2" s="12"/>
       <c r="G2" s="12"/>
     </row>
-    <row r="3" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" ht="15" thickBot="1">
       <c r="A3" s="15" t="s">
         <v>36</v>
       </c>
       <c r="B3" s="7">
         <f>SUM(B6,B12,B27)</f>
-        <v>90.5</v>
+        <v>91.5</v>
       </c>
       <c r="C3" s="27">
         <f>AVERAGE(C6,C12,C17,C22,C27)</f>
@@ -1617,7 +1620,7 @@
       <c r="F3" s="12"/>
       <c r="G3" s="12"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18">
       <c r="A4" s="46"/>
       <c r="B4" s="51"/>
       <c r="C4" s="53" t="s">
@@ -1628,7 +1631,7 @@
       <c r="F4" s="12"/>
       <c r="G4" s="12"/>
     </row>
-    <row r="5" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:18" ht="15" thickBot="1">
       <c r="A5" s="50"/>
       <c r="B5" s="52"/>
       <c r="C5" s="55"/>
@@ -1637,13 +1640,13 @@
       <c r="F5" s="12"/>
       <c r="G5" s="12"/>
     </row>
-    <row r="6" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18">
       <c r="A6" s="16" t="s">
         <v>13</v>
       </c>
       <c r="B6" s="17">
         <f>Projektmanagment!J7</f>
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="C6" s="29">
         <f>SUM(C7:C11)</f>
@@ -1656,7 +1659,7 @@
       <c r="F6" s="12"/>
       <c r="G6" s="12"/>
     </row>
-    <row r="7" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18">
       <c r="A7" s="18" t="s">
         <v>18</v>
       </c>
@@ -1672,13 +1675,13 @@
       <c r="F7" s="12"/>
       <c r="G7" s="12"/>
     </row>
-    <row r="8" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18">
       <c r="A8" s="18" t="s">
         <v>17</v>
       </c>
       <c r="B8" s="19">
         <f>Projektmanagment!J3</f>
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="C8" s="31">
         <v>0</v>
@@ -1688,7 +1691,7 @@
       <c r="F8" s="12"/>
       <c r="G8" s="12"/>
     </row>
-    <row r="9" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18">
       <c r="A9" s="18" t="s">
         <v>19</v>
       </c>
@@ -1704,7 +1707,7 @@
       <c r="F9" s="12"/>
       <c r="G9" s="12"/>
     </row>
-    <row r="10" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18">
       <c r="A10" s="18" t="s">
         <v>20</v>
       </c>
@@ -1720,7 +1723,7 @@
       <c r="F10" s="12"/>
       <c r="G10" s="12"/>
     </row>
-    <row r="11" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18" ht="15" thickBot="1">
       <c r="A11" s="20" t="s">
         <v>21</v>
       </c>
@@ -1736,13 +1739,13 @@
       <c r="F11" s="12"/>
       <c r="G11" s="12"/>
     </row>
-    <row r="12" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18">
       <c r="A12" s="16" t="s">
         <v>54</v>
       </c>
       <c r="B12" s="17">
         <f>BacktestingSoftware!J6</f>
-        <v>87.5</v>
+        <v>88</v>
       </c>
       <c r="C12" s="29">
         <f>SUM(C13:C16)</f>
@@ -1755,7 +1758,7 @@
       <c r="F12" s="12"/>
       <c r="G12" s="12"/>
     </row>
-    <row r="13" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18">
       <c r="A13" s="18" t="s">
         <v>53</v>
       </c>
@@ -1771,13 +1774,13 @@
       <c r="F13" s="12"/>
       <c r="G13" s="12"/>
     </row>
-    <row r="14" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18">
       <c r="A14" s="18" t="s">
         <v>55</v>
       </c>
       <c r="B14" s="19">
         <f>BacktestingSoftware!J3</f>
-        <v>29</v>
+        <v>29.5</v>
       </c>
       <c r="C14" s="31">
         <v>0</v>
@@ -1787,7 +1790,7 @@
       <c r="F14" s="12"/>
       <c r="G14" s="12"/>
     </row>
-    <row r="15" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18">
       <c r="A15" s="18" t="s">
         <v>56</v>
       </c>
@@ -1803,7 +1806,7 @@
       <c r="F15" s="12"/>
       <c r="G15" s="12"/>
     </row>
-    <row r="16" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:18" ht="15" thickBot="1">
       <c r="A16" s="18" t="s">
         <v>57</v>
       </c>
@@ -1816,7 +1819,7 @@
       </c>
       <c r="D16" s="32"/>
     </row>
-    <row r="17" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4">
       <c r="A17" s="16" t="s">
         <v>58</v>
       </c>
@@ -1832,7 +1835,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4">
       <c r="A18" s="18" t="s">
         <v>59</v>
       </c>
@@ -1845,7 +1848,7 @@
       </c>
       <c r="D18" s="32"/>
     </row>
-    <row r="19" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4">
       <c r="A19" s="18" t="s">
         <v>60</v>
       </c>
@@ -1858,7 +1861,7 @@
       </c>
       <c r="D19" s="32"/>
     </row>
-    <row r="20" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4">
       <c r="A20" s="18" t="s">
         <v>61</v>
       </c>
@@ -1871,7 +1874,7 @@
       </c>
       <c r="D20" s="32"/>
     </row>
-    <row r="21" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" ht="15" thickBot="1">
       <c r="A21" s="18" t="s">
         <v>62</v>
       </c>
@@ -1884,7 +1887,7 @@
       </c>
       <c r="D21" s="32"/>
     </row>
-    <row r="22" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4">
       <c r="A22" s="16" t="s">
         <v>63</v>
       </c>
@@ -1900,7 +1903,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4">
       <c r="A23" s="18" t="s">
         <v>59</v>
       </c>
@@ -1913,7 +1916,7 @@
       </c>
       <c r="D23" s="32"/>
     </row>
-    <row r="24" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4">
       <c r="A24" s="18" t="s">
         <v>64</v>
       </c>
@@ -1926,7 +1929,7 @@
       </c>
       <c r="D24" s="32"/>
     </row>
-    <row r="25" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" ht="15" customHeight="1">
       <c r="A25" s="18" t="s">
         <v>65</v>
       </c>
@@ -1939,7 +1942,7 @@
       </c>
       <c r="D25" s="32"/>
     </row>
-    <row r="26" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" ht="15" thickBot="1">
       <c r="A26" s="18" t="s">
         <v>66</v>
       </c>
@@ -1952,7 +1955,7 @@
       </c>
       <c r="D26" s="32"/>
     </row>
-    <row r="27" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4">
       <c r="A27" s="16" t="s">
         <v>14</v>
       </c>
@@ -1968,7 +1971,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" ht="15.75" customHeight="1">
       <c r="A28" s="18" t="s">
         <v>22</v>
       </c>
@@ -1981,7 +1984,7 @@
       </c>
       <c r="D28" s="32"/>
     </row>
-    <row r="29" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4">
       <c r="A29" s="18" t="s">
         <v>23</v>
       </c>
@@ -1994,7 +1997,7 @@
       </c>
       <c r="D29" s="32"/>
     </row>
-    <row r="30" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4">
       <c r="A30" s="18" t="s">
         <v>24</v>
       </c>
@@ -2007,7 +2010,7 @@
       </c>
       <c r="D30" s="32"/>
     </row>
-    <row r="31" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" ht="15" thickBot="1">
       <c r="A31" s="20" t="s">
         <v>25</v>
       </c>
@@ -2020,25 +2023,25 @@
       </c>
       <c r="D31" s="28"/>
     </row>
-    <row r="32" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="33" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:4" ht="15" thickBot="1"/>
+    <row r="33" spans="2:4" ht="15" thickBot="1">
       <c r="B33" s="10"/>
       <c r="C33" s="10"/>
       <c r="D33" s="11" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="34" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:4" ht="15" thickBot="1">
       <c r="B34" s="47" t="s">
         <v>34</v>
       </c>
       <c r="C34" s="48"/>
       <c r="D34" s="9">
         <f>SUM(Projektmanagment!I13,BacktestingSoftware!I13,Algorithmus!I13,Marktzustandserkennung!I13,Testing_Abschluss!I13)</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="35" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" ht="15" thickBot="1">
       <c r="B35" s="41" t="s">
         <v>15</v>
       </c>
@@ -2048,7 +2051,7 @@
         <v>61.5</v>
       </c>
     </row>
-    <row r="36" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:4" ht="15" thickBot="1">
       <c r="B36" s="43" t="s">
         <v>35</v>
       </c>
@@ -2084,22 +2087,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="F5" sqref="A5:F5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="13.33203125" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.33203125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="71.88671875" style="3" customWidth="1"/>
-    <col min="4" max="4" width="10.88671875" style="3"/>
-    <col min="5" max="5" width="10.88671875" style="26"/>
-    <col min="6" max="6" width="24.44140625" style="3" customWidth="1"/>
-    <col min="9" max="9" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="71.83203125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="10.83203125" style="3"/>
+    <col min="5" max="5" width="10.83203125" style="26"/>
+    <col min="6" max="6" width="24.5" style="3" customWidth="1"/>
+    <col min="9" max="9" width="12.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="15" thickBot="1">
       <c r="A1" s="3" t="s">
         <v>37</v>
       </c>
@@ -2126,7 +2129,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10">
       <c r="A2" s="3" t="s">
         <v>32</v>
       </c>
@@ -2154,7 +2157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10">
       <c r="A3" s="3" t="s">
         <v>32</v>
       </c>
@@ -2179,10 +2182,10 @@
       <c r="I3" s="61"/>
       <c r="J3" s="4">
         <f>SUMIF(B:B,H3,E:E)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="3" t="s">
         <v>32</v>
       </c>
@@ -2210,7 +2213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10">
       <c r="A5" s="3" t="s">
         <v>32</v>
       </c>
@@ -2238,8 +2241,25 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D6" s="1"/>
+    <row r="6" spans="1:10" ht="15" thickBot="1">
+      <c r="A6" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D6" s="1">
+        <v>41259</v>
+      </c>
+      <c r="E6" s="26">
+        <v>0.5</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>73</v>
+      </c>
       <c r="H6" s="59" t="s">
         <v>10</v>
       </c>
@@ -2249,7 +2269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" ht="15" thickBot="1">
       <c r="D7" s="1"/>
       <c r="H7" s="57" t="s">
         <v>16</v>
@@ -2257,22 +2277,22 @@
       <c r="I7" s="58"/>
       <c r="J7" s="7">
         <f>SUM(J2:J6)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="D8" s="24"/>
     </row>
-    <row r="9" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10">
       <c r="D9" s="1"/>
     </row>
-    <row r="10" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10">
       <c r="D10" s="1"/>
     </row>
-    <row r="11" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" ht="15" thickBot="1">
       <c r="D11" s="1"/>
     </row>
-    <row r="12" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" ht="15" thickBot="1">
       <c r="D12" s="1"/>
       <c r="H12" s="6" t="s">
         <v>5</v>
@@ -2281,17 +2301,17 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10">
       <c r="D13" s="1"/>
       <c r="H13" s="33" t="s">
         <v>32</v>
       </c>
       <c r="I13" s="4">
         <f>SUMIF(A:A,H13,E:E)</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="D14" s="1"/>
       <c r="H14" s="33" t="s">
         <v>6</v>
@@ -2301,7 +2321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" ht="15" thickBot="1">
       <c r="D15" s="1"/>
       <c r="H15" s="33" t="s">
         <v>33</v>
@@ -2311,15 +2331,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10">
       <c r="D16" s="1"/>
       <c r="H16" s="36"/>
       <c r="I16" s="36"/>
     </row>
-    <row r="17" spans="4:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:4">
       <c r="D17" s="1"/>
     </row>
-    <row r="18" spans="4:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="4:4">
       <c r="D18" s="1"/>
     </row>
   </sheetData>
@@ -2341,7 +2361,6 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -2352,24 +2371,24 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J23"/>
+  <dimension ref="A1:J24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="13.33203125" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.33203125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="71.88671875" style="3" customWidth="1"/>
-    <col min="4" max="4" width="10.88671875" style="3"/>
-    <col min="5" max="5" width="10.88671875" style="26"/>
-    <col min="6" max="6" width="24.44140625" style="3" customWidth="1"/>
-    <col min="9" max="9" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="71.83203125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="10.83203125" style="3"/>
+    <col min="5" max="5" width="10.83203125" style="26"/>
+    <col min="6" max="6" width="24.5" style="3" customWidth="1"/>
+    <col min="9" max="9" width="12.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="15" thickBot="1">
       <c r="A1" s="3" t="s">
         <v>37</v>
       </c>
@@ -2396,7 +2415,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10">
       <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
@@ -2424,7 +2443,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10">
       <c r="A3" s="3" t="s">
         <v>33</v>
       </c>
@@ -2449,10 +2468,10 @@
       <c r="I3" s="61"/>
       <c r="J3" s="35">
         <f>SUMIF(B:B,H3,E:E)</f>
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+        <v>29.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
@@ -2480,7 +2499,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" ht="15" thickBot="1">
       <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
@@ -2508,7 +2527,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" ht="15" thickBot="1">
       <c r="A6" s="3" t="s">
         <v>6</v>
       </c>
@@ -2533,10 +2552,10 @@
       <c r="I6" s="58"/>
       <c r="J6" s="7">
         <f>SUM(J2:J5)</f>
-        <v>87.5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="3" t="s">
         <v>33</v>
       </c>
@@ -2556,7 +2575,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10">
       <c r="A8" s="3" t="s">
         <v>33</v>
       </c>
@@ -2576,7 +2595,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10">
       <c r="A9" s="3" t="s">
         <v>32</v>
       </c>
@@ -2596,7 +2615,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10">
       <c r="A10" s="3" t="s">
         <v>32</v>
       </c>
@@ -2613,7 +2632,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" ht="15" thickBot="1">
       <c r="A11" s="3" t="s">
         <v>6</v>
       </c>
@@ -2633,7 +2652,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" ht="15" thickBot="1">
       <c r="A12" s="3" t="s">
         <v>32</v>
       </c>
@@ -2659,7 +2678,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10">
       <c r="A13" s="3" t="s">
         <v>6</v>
       </c>
@@ -2683,10 +2702,10 @@
       </c>
       <c r="I13" s="35">
         <f>SUMIF(A:A,H13,E:E)</f>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="3" t="s">
         <v>33</v>
       </c>
@@ -2713,7 +2732,7 @@
         <v>61.5</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" ht="15" thickBot="1">
       <c r="A15" s="3" t="s">
         <v>6</v>
       </c>
@@ -2740,7 +2759,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10">
       <c r="A16" s="3" t="s">
         <v>33</v>
       </c>
@@ -2762,7 +2781,7 @@
       <c r="H16" s="36"/>
       <c r="I16" s="36"/>
     </row>
-    <row r="17" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6">
       <c r="A17" s="3" t="s">
         <v>6</v>
       </c>
@@ -2782,7 +2801,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6">
       <c r="A18" s="3" t="s">
         <v>6</v>
       </c>
@@ -2802,7 +2821,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6">
       <c r="A19" s="3" t="s">
         <v>6</v>
       </c>
@@ -2822,7 +2841,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6">
       <c r="A20" s="3" t="s">
         <v>6</v>
       </c>
@@ -2842,7 +2861,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6">
       <c r="A21" s="3" t="s">
         <v>6</v>
       </c>
@@ -2862,7 +2881,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6">
       <c r="A22" s="3" t="s">
         <v>6</v>
       </c>
@@ -2882,7 +2901,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6">
       <c r="A23" s="3" t="s">
         <v>6</v>
       </c>
@@ -2900,6 +2919,26 @@
       </c>
       <c r="F23" s="3" t="s">
         <v>125</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="D24" s="1">
+        <v>41290</v>
+      </c>
+      <c r="E24" s="26">
+        <v>0.5</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>126</v>
       </c>
     </row>
   </sheetData>
@@ -2920,7 +2959,6 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -2933,22 +2971,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="13.33203125" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.33203125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="71.88671875" style="3" customWidth="1"/>
-    <col min="4" max="4" width="10.88671875" style="3"/>
-    <col min="5" max="5" width="10.88671875" style="26"/>
-    <col min="6" max="6" width="24.44140625" style="3" customWidth="1"/>
-    <col min="9" max="9" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="71.83203125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="10.83203125" style="3"/>
+    <col min="5" max="5" width="10.83203125" style="26"/>
+    <col min="6" max="6" width="24.5" style="3" customWidth="1"/>
+    <col min="9" max="9" width="12.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="15" thickBot="1">
       <c r="A1" s="3" t="s">
         <v>37</v>
       </c>
@@ -2975,7 +3013,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10">
       <c r="A2" s="3" t="s">
         <v>33</v>
       </c>
@@ -3003,7 +3041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10">
       <c r="A3" s="3" t="s">
         <v>33</v>
       </c>
@@ -3031,7 +3069,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10">
       <c r="A4" s="3" t="s">
         <v>33</v>
       </c>
@@ -3059,7 +3097,7 @@
         <v>9.5</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" ht="15" thickBot="1">
       <c r="A5" s="3" t="s">
         <v>33</v>
       </c>
@@ -3087,7 +3125,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" ht="15" thickBot="1">
       <c r="D6" s="1"/>
       <c r="H6" s="57" t="s">
         <v>16</v>
@@ -3098,22 +3136,22 @@
         <v>18.5</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10">
       <c r="D7" s="1"/>
     </row>
-    <row r="8" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10">
       <c r="D8" s="24"/>
     </row>
-    <row r="9" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10">
       <c r="D9" s="1"/>
     </row>
-    <row r="10" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10">
       <c r="D10" s="1"/>
     </row>
-    <row r="11" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" ht="15" thickBot="1">
       <c r="D11" s="1"/>
     </row>
-    <row r="12" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" ht="15" thickBot="1">
       <c r="D12" s="1"/>
       <c r="H12" s="34" t="s">
         <v>5</v>
@@ -3122,7 +3160,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10">
       <c r="D13" s="1"/>
       <c r="H13" s="35" t="s">
         <v>32</v>
@@ -3132,7 +3170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10">
       <c r="D14" s="1"/>
       <c r="H14" s="35" t="s">
         <v>6</v>
@@ -3142,7 +3180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" ht="15" thickBot="1">
       <c r="D15" s="1"/>
       <c r="H15" s="35" t="s">
         <v>33</v>
@@ -3152,15 +3190,15 @@
         <v>18.5</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10">
       <c r="D16" s="1"/>
       <c r="H16" s="36"/>
       <c r="I16" s="36"/>
     </row>
-    <row r="17" spans="4:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:4">
       <c r="D17" s="1"/>
     </row>
-    <row r="18" spans="4:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="4:4">
       <c r="D18" s="1"/>
     </row>
   </sheetData>
@@ -3193,22 +3231,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="13.33203125" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="36.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="71.88671875" style="3" customWidth="1"/>
-    <col min="4" max="4" width="11.5546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.88671875" style="26"/>
-    <col min="6" max="6" width="24.44140625" style="3" customWidth="1"/>
-    <col min="9" max="9" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="71.83203125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="11.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.83203125" style="26"/>
+    <col min="6" max="6" width="24.5" style="3" customWidth="1"/>
+    <col min="9" max="9" width="12.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="15" thickBot="1">
       <c r="A1" s="3" t="s">
         <v>37</v>
       </c>
@@ -3235,7 +3273,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10">
       <c r="A2" s="3" t="s">
         <v>32</v>
       </c>
@@ -3263,7 +3301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10">
       <c r="A3" s="3" t="s">
         <v>33</v>
       </c>
@@ -3291,7 +3329,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10">
       <c r="A4" s="3" t="s">
         <v>33</v>
       </c>
@@ -3319,7 +3357,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" ht="15" thickBot="1">
       <c r="A5" s="3" t="s">
         <v>33</v>
       </c>
@@ -3347,7 +3385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" ht="15" thickBot="1">
       <c r="A6" s="3" t="s">
         <v>33</v>
       </c>
@@ -3375,22 +3413,22 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10">
       <c r="D7" s="1"/>
     </row>
-    <row r="8" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10">
       <c r="D8" s="24"/>
     </row>
-    <row r="9" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10">
       <c r="D9" s="1"/>
     </row>
-    <row r="10" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10">
       <c r="D10" s="1"/>
     </row>
-    <row r="11" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" ht="15" thickBot="1">
       <c r="D11" s="1"/>
     </row>
-    <row r="12" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" ht="15" thickBot="1">
       <c r="D12" s="1"/>
       <c r="H12" s="34" t="s">
         <v>5</v>
@@ -3399,7 +3437,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10">
       <c r="D13" s="1"/>
       <c r="H13" s="35" t="s">
         <v>32</v>
@@ -3409,7 +3447,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10">
       <c r="D14" s="1"/>
       <c r="H14" s="35" t="s">
         <v>6</v>
@@ -3419,7 +3457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" ht="15" thickBot="1">
       <c r="D15" s="1"/>
       <c r="H15" s="35" t="s">
         <v>33</v>
@@ -3429,15 +3467,15 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10">
       <c r="D16" s="1"/>
       <c r="H16" s="36"/>
       <c r="I16" s="36"/>
     </row>
-    <row r="17" spans="4:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:4">
       <c r="D17" s="1"/>
     </row>
-    <row r="18" spans="4:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="4:4">
       <c r="D18" s="1"/>
     </row>
   </sheetData>
@@ -3474,18 +3512,18 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="13.33203125" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.33203125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="71.88671875" style="3" customWidth="1"/>
-    <col min="4" max="4" width="10.88671875" style="3"/>
-    <col min="5" max="5" width="10.88671875" style="37"/>
-    <col min="6" max="6" width="24.44140625" style="3" customWidth="1"/>
-    <col min="9" max="9" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="71.83203125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="10.83203125" style="3"/>
+    <col min="5" max="5" width="10.83203125" style="37"/>
+    <col min="6" max="6" width="24.5" style="3" customWidth="1"/>
+    <col min="9" max="9" width="12.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="15" thickBot="1">
       <c r="A1" s="3" t="s">
         <v>37</v>
       </c>
@@ -3512,7 +3550,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10">
       <c r="B2" s="2"/>
       <c r="D2" s="1"/>
       <c r="H2" s="62" t="s">
@@ -3524,7 +3562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10">
       <c r="D3" s="1"/>
       <c r="H3" s="64" t="s">
         <v>50</v>
@@ -3535,7 +3573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10">
       <c r="D4" s="1"/>
       <c r="H4" s="64" t="s">
         <v>51</v>
@@ -3546,7 +3584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" ht="15" thickBot="1">
       <c r="D5" s="1"/>
       <c r="H5" s="66" t="s">
         <v>52</v>
@@ -3557,7 +3595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" ht="15" thickBot="1">
       <c r="D6" s="1"/>
       <c r="H6" s="57" t="s">
         <v>16</v>
@@ -3568,22 +3606,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10">
       <c r="D7" s="1"/>
     </row>
-    <row r="8" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10">
       <c r="D8" s="24"/>
     </row>
-    <row r="9" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10">
       <c r="D9" s="1"/>
     </row>
-    <row r="10" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10">
       <c r="D10" s="1"/>
     </row>
-    <row r="11" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" ht="15" thickBot="1">
       <c r="D11" s="1"/>
     </row>
-    <row r="12" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" ht="15" thickBot="1">
       <c r="D12" s="1"/>
       <c r="H12" s="34" t="s">
         <v>5</v>
@@ -3592,7 +3630,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10">
       <c r="D13" s="1"/>
       <c r="H13" s="35" t="s">
         <v>32</v>
@@ -3602,7 +3640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10">
       <c r="D14" s="1"/>
       <c r="H14" s="35" t="s">
         <v>6</v>
@@ -3612,7 +3650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" ht="15" thickBot="1">
       <c r="D15" s="1"/>
       <c r="H15" s="35" t="s">
         <v>33</v>
@@ -3622,15 +3660,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10">
       <c r="D16" s="1"/>
       <c r="H16" s="36"/>
       <c r="I16" s="36"/>
     </row>
-    <row r="17" spans="4:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:4">
       <c r="D17" s="1"/>
     </row>
-    <row r="18" spans="4:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="4:4">
       <c r="D18" s="1"/>
     </row>
   </sheetData>

--- a/Dokumentation/Noctua_Zeitaufzeichnung.xlsx
+++ b/Dokumentation/Noctua_Zeitaufzeichnung.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="130">
   <si>
     <t>Arbeitspaket</t>
   </si>
@@ -401,7 +401,19 @@
     <t>Order-Settings-Screen design</t>
   </si>
   <si>
-    <t>Order-Settings-Screen 20%</t>
+    <t>Verschiedene Trendstärken in die Performancemessung integriert</t>
+  </si>
+  <si>
+    <t>Trendstärken-Berechnungsmodell erstellt</t>
+  </si>
+  <si>
+    <t>Berechnungsmodell erstellt</t>
+  </si>
+  <si>
+    <t>Trendstärken integriert 80%</t>
+  </si>
+  <si>
+    <t>Order-Settings-Screen 40%</t>
   </si>
 </sst>
 </file>
@@ -978,12 +990,12 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:shape val="box"/>
-        <c:axId val="53106560"/>
-        <c:axId val="53108096"/>
+        <c:axId val="7231360"/>
+        <c:axId val="7232896"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="53106560"/>
+        <c:axId val="7231360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -992,7 +1004,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="53108096"/>
+        <c:crossAx val="7232896"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1000,7 +1012,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="53108096"/>
+        <c:axId val="7232896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1016,7 +1028,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="53106560"/>
+        <c:crossAx val="7231360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1135,10 +1147,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>16</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>61.5</c:v>
+                  <c:v>67.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>48.5</c:v>
@@ -1157,12 +1169,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="53141504"/>
-        <c:axId val="53143040"/>
+        <c:axId val="7266304"/>
+        <c:axId val="7267840"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="53141504"/>
+        <c:axId val="7266304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1171,7 +1183,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="53143040"/>
+        <c:crossAx val="7267840"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1179,7 +1191,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="53143040"/>
+        <c:axId val="7267840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1190,7 +1202,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="53141504"/>
+        <c:crossAx val="7266304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1604,7 +1616,7 @@
       </c>
       <c r="B3" s="7">
         <f>SUM(B6,B12,B27)</f>
-        <v>90.5</v>
+        <v>98.5</v>
       </c>
       <c r="C3" s="27">
         <f>AVERAGE(C6,C12,C17,C22,C27)</f>
@@ -1742,7 +1754,7 @@
       </c>
       <c r="B12" s="17">
         <f>BacktestingSoftware!J6</f>
-        <v>87.5</v>
+        <v>95.5</v>
       </c>
       <c r="C12" s="29">
         <f>SUM(C13:C16)</f>
@@ -1809,7 +1821,7 @@
       </c>
       <c r="B16" s="19">
         <f>BacktestingSoftware!J5</f>
-        <v>12.5</v>
+        <v>20.5</v>
       </c>
       <c r="C16" s="31">
         <v>0</v>
@@ -2035,7 +2047,7 @@
       <c r="C34" s="48"/>
       <c r="D34" s="9">
         <f>SUM(Projektmanagment!I13,BacktestingSoftware!I13,Algorithmus!I13,Marktzustandserkennung!I13,Testing_Abschluss!I13)</f>
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="35" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2045,7 +2057,7 @@
       <c r="C35" s="42"/>
       <c r="D35" s="9">
         <f>SUM(Projektmanagment!I14,BacktestingSoftware!I14,Algorithmus!I14,Marktzustandserkennung!I14,Testing_Abschluss!I14)</f>
-        <v>61.5</v>
+        <v>67.5</v>
       </c>
     </row>
     <row r="36" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2352,10 +2364,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J23"/>
+  <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12:F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2505,7 +2517,7 @@
       <c r="I5" s="61"/>
       <c r="J5" s="35">
         <f>SUMIF(B:B,H5,E:E)</f>
-        <v>12.5</v>
+        <v>20.5</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2533,7 +2545,7 @@
       <c r="I6" s="58"/>
       <c r="J6" s="7">
         <f>SUM(J2:J5)</f>
-        <v>87.5</v>
+        <v>95.5</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
@@ -2683,7 +2695,7 @@
       </c>
       <c r="I13" s="35">
         <f>SUMIF(A:A,H13,E:E)</f>
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
@@ -2710,7 +2722,7 @@
       </c>
       <c r="I14" s="35">
         <f>SUMIF(A:A,H14,E:E)</f>
-        <v>61.5</v>
+        <v>67.5</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2899,7 +2911,47 @@
         <v>4.5</v>
       </c>
       <c r="F23" s="3" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C24" s="3" t="s">
         <v>125</v>
+      </c>
+      <c r="D24" s="1">
+        <v>41291</v>
+      </c>
+      <c r="E24" s="26">
+        <v>6</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="D25" s="1">
+        <v>41291</v>
+      </c>
+      <c r="E25" s="26">
+        <v>2</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>127</v>
       </c>
     </row>
   </sheetData>

--- a/Dokumentation/Noctua_Zeitaufzeichnung.xlsx
+++ b/Dokumentation/Noctua_Zeitaufzeichnung.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="48" yWindow="0" windowWidth="20736" windowHeight="11760" activeTab="2"/>
+    <workbookView xWindow="45" yWindow="0" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Gesamtstatus" sheetId="4" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="135">
   <si>
     <t>Arbeitspaket</t>
   </si>
@@ -414,6 +414,21 @@
   </si>
   <si>
     <t>Order-Settings-Screen 40%</t>
+  </si>
+  <si>
+    <t>dlls erzeugt und getestet</t>
+  </si>
+  <si>
+    <t>SMA gegen Preis SMA gegen sma</t>
+  </si>
+  <si>
+    <t>SMA mit Verlust outfall</t>
+  </si>
+  <si>
+    <t>funktioniert dll erzeugt und getestet</t>
+  </si>
+  <si>
+    <t>Sma mit -3 - +3 + TMA</t>
   </si>
 </sst>
 </file>
@@ -903,6 +918,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -990,12 +1006,12 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:shape val="box"/>
-        <c:axId val="7231360"/>
-        <c:axId val="7232896"/>
+        <c:axId val="248346112"/>
+        <c:axId val="248347648"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="7231360"/>
+        <c:axId val="248346112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1004,7 +1020,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="7232896"/>
+        <c:crossAx val="248347648"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1012,7 +1028,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="7232896"/>
+        <c:axId val="248347648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1028,7 +1044,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="7231360"/>
+        <c:crossAx val="248346112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1063,6 +1079,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1153,7 +1170,7 @@
                   <c:v>67.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>48.5</c:v>
+                  <c:v>65</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1169,12 +1186,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="7266304"/>
-        <c:axId val="7267840"/>
+        <c:axId val="171552128"/>
+        <c:axId val="171553920"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="7266304"/>
+        <c:axId val="171552128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1183,7 +1200,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="7267840"/>
+        <c:crossAx val="171553920"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1191,7 +1208,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="7267840"/>
+        <c:axId val="171553920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1202,7 +1219,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="7266304"/>
+        <c:crossAx val="171552128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1573,17 +1590,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="49"/>
       <c r="B1" s="51" t="s">
         <v>28</v>
@@ -1597,7 +1614,7 @@
       <c r="G1" s="12"/>
       <c r="R1" s="8"/>
     </row>
-    <row r="2" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="50"/>
       <c r="B2" s="52"/>
       <c r="C2" s="13" t="s">
@@ -1629,7 +1646,7 @@
       <c r="F3" s="12"/>
       <c r="G3" s="12"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="46"/>
       <c r="B4" s="51"/>
       <c r="C4" s="53" t="s">
@@ -1640,7 +1657,7 @@
       <c r="F4" s="12"/>
       <c r="G4" s="12"/>
     </row>
-    <row r="5" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="50"/>
       <c r="B5" s="52"/>
       <c r="C5" s="55"/>
@@ -1649,7 +1666,7 @@
       <c r="F5" s="12"/>
       <c r="G5" s="12"/>
     </row>
-    <row r="6" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="16" t="s">
         <v>13</v>
       </c>
@@ -1668,7 +1685,7 @@
       <c r="F6" s="12"/>
       <c r="G6" s="12"/>
     </row>
-    <row r="7" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="18" t="s">
         <v>18</v>
       </c>
@@ -1684,7 +1701,7 @@
       <c r="F7" s="12"/>
       <c r="G7" s="12"/>
     </row>
-    <row r="8" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="18" t="s">
         <v>17</v>
       </c>
@@ -1700,7 +1717,7 @@
       <c r="F8" s="12"/>
       <c r="G8" s="12"/>
     </row>
-    <row r="9" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="18" t="s">
         <v>19</v>
       </c>
@@ -1716,7 +1733,7 @@
       <c r="F9" s="12"/>
       <c r="G9" s="12"/>
     </row>
-    <row r="10" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="18" t="s">
         <v>20</v>
       </c>
@@ -1748,7 +1765,7 @@
       <c r="F11" s="12"/>
       <c r="G11" s="12"/>
     </row>
-    <row r="12" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="16" t="s">
         <v>54</v>
       </c>
@@ -1767,7 +1784,7 @@
       <c r="F12" s="12"/>
       <c r="G12" s="12"/>
     </row>
-    <row r="13" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="18" t="s">
         <v>53</v>
       </c>
@@ -1783,7 +1800,7 @@
       <c r="F13" s="12"/>
       <c r="G13" s="12"/>
     </row>
-    <row r="14" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="18" t="s">
         <v>55</v>
       </c>
@@ -1799,7 +1816,7 @@
       <c r="F14" s="12"/>
       <c r="G14" s="12"/>
     </row>
-    <row r="15" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="18" t="s">
         <v>56</v>
       </c>
@@ -1828,13 +1845,13 @@
       </c>
       <c r="D16" s="32"/>
     </row>
-    <row r="17" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="16" t="s">
         <v>58</v>
       </c>
       <c r="B17" s="17">
         <f>Algorithmus!J6</f>
-        <v>18.5</v>
+        <v>35</v>
       </c>
       <c r="C17" s="29">
         <f>SUM(C18:C21)</f>
@@ -1844,7 +1861,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="18" t="s">
         <v>59</v>
       </c>
@@ -1857,7 +1874,7 @@
       </c>
       <c r="D18" s="32"/>
     </row>
-    <row r="19" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="18" t="s">
         <v>60</v>
       </c>
@@ -1870,13 +1887,13 @@
       </c>
       <c r="D19" s="32"/>
     </row>
-    <row r="20" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="18" t="s">
         <v>61</v>
       </c>
       <c r="B20" s="19">
         <f>Algorithmus!J4</f>
-        <v>9.5</v>
+        <v>19</v>
       </c>
       <c r="C20" s="40">
         <v>0</v>
@@ -1889,14 +1906,14 @@
       </c>
       <c r="B21" s="19">
         <f>Algorithmus!J5</f>
-        <v>4.5</v>
+        <v>11.5</v>
       </c>
       <c r="C21" s="40">
         <v>0</v>
       </c>
       <c r="D21" s="32"/>
     </row>
-    <row r="22" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="16" t="s">
         <v>63</v>
       </c>
@@ -1912,7 +1929,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="18" t="s">
         <v>59</v>
       </c>
@@ -1925,7 +1942,7 @@
       </c>
       <c r="D23" s="32"/>
     </row>
-    <row r="24" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="18" t="s">
         <v>64</v>
       </c>
@@ -1964,7 +1981,7 @@
       </c>
       <c r="D26" s="32"/>
     </row>
-    <row r="27" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="16" t="s">
         <v>14</v>
       </c>
@@ -1993,7 +2010,7 @@
       </c>
       <c r="D28" s="32"/>
     </row>
-    <row r="29" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="18" t="s">
         <v>23</v>
       </c>
@@ -2006,7 +2023,7 @@
       </c>
       <c r="D29" s="32"/>
     </row>
-    <row r="30" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="18" t="s">
         <v>24</v>
       </c>
@@ -2032,15 +2049,15 @@
       </c>
       <c r="D31" s="28"/>
     </row>
-    <row r="32" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="33" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="33" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B33" s="10"/>
       <c r="C33" s="10"/>
       <c r="D33" s="11" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="34" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B34" s="47" t="s">
         <v>34</v>
       </c>
@@ -2050,7 +2067,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="35" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B35" s="41" t="s">
         <v>15</v>
       </c>
@@ -2060,14 +2077,14 @@
         <v>67.5</v>
       </c>
     </row>
-    <row r="36" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B36" s="43" t="s">
         <v>35</v>
       </c>
       <c r="C36" s="44"/>
       <c r="D36" s="39">
         <f>SUM(Projektmanagment!I15,BacktestingSoftware!I15,Algorithmus!I15,Marktzustandserkennung!I15,Testing_Abschluss!I15)</f>
-        <v>48.5</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -2100,15 +2117,15 @@
       <selection activeCell="F5" sqref="A5:F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.33203125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="71.88671875" style="3" customWidth="1"/>
-    <col min="4" max="4" width="10.88671875" style="3"/>
-    <col min="5" max="5" width="10.88671875" style="26"/>
-    <col min="6" max="6" width="24.44140625" style="3" customWidth="1"/>
-    <col min="9" max="9" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.28515625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="71.85546875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" style="3"/>
+    <col min="5" max="5" width="10.85546875" style="26"/>
+    <col min="6" max="6" width="24.42578125" style="3" customWidth="1"/>
+    <col min="9" max="9" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2138,7 +2155,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>32</v>
       </c>
@@ -2166,7 +2183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>32</v>
       </c>
@@ -2194,7 +2211,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>32</v>
       </c>
@@ -2222,7 +2239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>32</v>
       </c>
@@ -2272,13 +2289,13 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D8" s="24"/>
     </row>
-    <row r="9" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D9" s="1"/>
     </row>
-    <row r="10" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D10" s="1"/>
     </row>
     <row r="11" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2293,7 +2310,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D13" s="1"/>
       <c r="H13" s="33" t="s">
         <v>32</v>
@@ -2303,7 +2320,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D14" s="1"/>
       <c r="H14" s="33" t="s">
         <v>6</v>
@@ -2323,15 +2340,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D16" s="1"/>
       <c r="H16" s="36"/>
       <c r="I16" s="36"/>
     </row>
-    <row r="17" spans="4:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D17" s="1"/>
     </row>
-    <row r="18" spans="4:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D18" s="1"/>
     </row>
   </sheetData>
@@ -2366,19 +2383,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
       <selection activeCell="B12" sqref="B12:F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.33203125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="71.88671875" style="3" customWidth="1"/>
-    <col min="4" max="4" width="10.88671875" style="3"/>
-    <col min="5" max="5" width="10.88671875" style="26"/>
-    <col min="6" max="6" width="24.44140625" style="3" customWidth="1"/>
-    <col min="9" max="9" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.28515625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="71.85546875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" style="3"/>
+    <col min="5" max="5" width="10.85546875" style="26"/>
+    <col min="6" max="6" width="24.42578125" style="3" customWidth="1"/>
+    <col min="9" max="9" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2408,7 +2425,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
@@ -2436,7 +2453,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>33</v>
       </c>
@@ -2464,7 +2481,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
@@ -2548,7 +2565,7 @@
         <v>95.5</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>33</v>
       </c>
@@ -2568,7 +2585,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>33</v>
       </c>
@@ -2588,7 +2605,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>32</v>
       </c>
@@ -2608,7 +2625,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>32</v>
       </c>
@@ -2671,7 +2688,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>6</v>
       </c>
@@ -2698,7 +2715,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>33</v>
       </c>
@@ -2725,7 +2742,7 @@
         <v>67.5</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>6</v>
       </c>
@@ -2752,7 +2769,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>33</v>
       </c>
@@ -2774,7 +2791,7 @@
       <c r="H16" s="36"/>
       <c r="I16" s="36"/>
     </row>
-    <row r="17" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>6</v>
       </c>
@@ -2794,7 +2811,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>6</v>
       </c>
@@ -2814,7 +2831,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>6</v>
       </c>
@@ -2834,7 +2851,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>6</v>
       </c>
@@ -2854,7 +2871,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
         <v>6</v>
       </c>
@@ -2874,7 +2891,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>6</v>
       </c>
@@ -2894,7 +2911,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
         <v>6</v>
       </c>
@@ -2914,7 +2931,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>6</v>
       </c>
@@ -2934,7 +2951,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>32</v>
       </c>
@@ -2986,18 +3003,18 @@
   <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.33203125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="71.88671875" style="3" customWidth="1"/>
-    <col min="4" max="4" width="10.88671875" style="3"/>
-    <col min="5" max="5" width="10.88671875" style="26"/>
-    <col min="6" max="6" width="24.44140625" style="3" customWidth="1"/>
-    <col min="9" max="9" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.28515625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="71.85546875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" style="3"/>
+    <col min="5" max="5" width="10.85546875" style="26"/>
+    <col min="6" max="6" width="24.42578125" style="3" customWidth="1"/>
+    <col min="9" max="9" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3027,7 +3044,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>33</v>
       </c>
@@ -3055,7 +3072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>33</v>
       </c>
@@ -3083,7 +3100,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>33</v>
       </c>
@@ -3108,7 +3125,7 @@
       <c r="I4" s="61"/>
       <c r="J4" s="35">
         <f>SUMIF(B:B,H4,E:E)</f>
-        <v>9.5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3136,30 +3153,81 @@
       <c r="I5" s="61"/>
       <c r="J5" s="35">
         <f>SUMIF(B:B,H5,E:E)</f>
-        <v>4.5</v>
+        <v>11.5</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D6" s="1"/>
+      <c r="A6" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="D6" s="1">
+        <v>41284</v>
+      </c>
+      <c r="E6" s="26">
+        <v>7</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>130</v>
+      </c>
       <c r="H6" s="57" t="s">
         <v>16</v>
       </c>
       <c r="I6" s="58"/>
       <c r="J6" s="7">
         <f>SUM(J2:J5)</f>
-        <v>18.5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="D7" s="1"/>
-    </row>
-    <row r="8" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="D8" s="24"/>
-    </row>
-    <row r="9" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="D7" s="1">
+        <v>41290</v>
+      </c>
+      <c r="E7" s="26">
+        <v>4.5</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="D8" s="24">
+        <v>41294</v>
+      </c>
+      <c r="E8" s="26">
+        <v>5</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D9" s="1"/>
     </row>
-    <row r="10" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D10" s="1"/>
     </row>
     <row r="11" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3174,7 +3242,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D13" s="1"/>
       <c r="H13" s="35" t="s">
         <v>32</v>
@@ -3184,7 +3252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D14" s="1"/>
       <c r="H14" s="35" t="s">
         <v>6</v>
@@ -3201,18 +3269,18 @@
       </c>
       <c r="I15" s="35">
         <f>SUMIF(A:A,H15,E:E)</f>
-        <v>18.5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D16" s="1"/>
       <c r="H16" s="36"/>
       <c r="I16" s="36"/>
     </row>
-    <row r="17" spans="4:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D17" s="1"/>
     </row>
-    <row r="18" spans="4:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D18" s="1"/>
     </row>
   </sheetData>
@@ -3249,15 +3317,15 @@
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="36.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="71.88671875" style="3" customWidth="1"/>
-    <col min="4" max="4" width="11.5546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.88671875" style="26"/>
-    <col min="6" max="6" width="24.44140625" style="3" customWidth="1"/>
-    <col min="9" max="9" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="71.85546875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.85546875" style="26"/>
+    <col min="6" max="6" width="24.42578125" style="3" customWidth="1"/>
+    <col min="9" max="9" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3287,7 +3355,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>32</v>
       </c>
@@ -3315,7 +3383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>33</v>
       </c>
@@ -3343,7 +3411,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>33</v>
       </c>
@@ -3427,16 +3495,16 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D7" s="1"/>
     </row>
-    <row r="8" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D8" s="24"/>
     </row>
-    <row r="9" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D9" s="1"/>
     </row>
-    <row r="10" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D10" s="1"/>
     </row>
     <row r="11" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3451,7 +3519,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D13" s="1"/>
       <c r="H13" s="35" t="s">
         <v>32</v>
@@ -3461,7 +3529,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D14" s="1"/>
       <c r="H14" s="35" t="s">
         <v>6</v>
@@ -3481,15 +3549,15 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D16" s="1"/>
       <c r="H16" s="36"/>
       <c r="I16" s="36"/>
     </row>
-    <row r="17" spans="4:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D17" s="1"/>
     </row>
-    <row r="18" spans="4:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D18" s="1"/>
     </row>
   </sheetData>
@@ -3526,15 +3594,15 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.33203125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="71.88671875" style="3" customWidth="1"/>
-    <col min="4" max="4" width="10.88671875" style="3"/>
-    <col min="5" max="5" width="10.88671875" style="37"/>
-    <col min="6" max="6" width="24.44140625" style="3" customWidth="1"/>
-    <col min="9" max="9" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.28515625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="71.85546875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" style="3"/>
+    <col min="5" max="5" width="10.85546875" style="37"/>
+    <col min="6" max="6" width="24.42578125" style="3" customWidth="1"/>
+    <col min="9" max="9" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3564,7 +3632,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B2" s="2"/>
       <c r="D2" s="1"/>
       <c r="H2" s="62" t="s">
@@ -3576,7 +3644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D3" s="1"/>
       <c r="H3" s="64" t="s">
         <v>50</v>
@@ -3587,7 +3655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D4" s="1"/>
       <c r="H4" s="64" t="s">
         <v>51</v>
@@ -3598,7 +3666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D5" s="1"/>
       <c r="H5" s="66" t="s">
         <v>52</v>
@@ -3620,16 +3688,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D7" s="1"/>
     </row>
-    <row r="8" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D8" s="24"/>
     </row>
-    <row r="9" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D9" s="1"/>
     </row>
-    <row r="10" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D10" s="1"/>
     </row>
     <row r="11" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3644,7 +3712,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D13" s="1"/>
       <c r="H13" s="35" t="s">
         <v>32</v>
@@ -3654,7 +3722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D14" s="1"/>
       <c r="H14" s="35" t="s">
         <v>6</v>
@@ -3674,15 +3742,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D16" s="1"/>
       <c r="H16" s="36"/>
       <c r="I16" s="36"/>
     </row>
-    <row r="17" spans="4:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D17" s="1"/>
     </row>
-    <row r="18" spans="4:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D18" s="1"/>
     </row>
   </sheetData>

--- a/Dokumentation/Noctua_Zeitaufzeichnung.xlsx
+++ b/Dokumentation/Noctua_Zeitaufzeichnung.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="48" yWindow="0" windowWidth="20736" windowHeight="11760" activeTab="2"/>
+    <workbookView xWindow="48" yWindow="0" windowWidth="20736" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Gesamtstatus" sheetId="4" r:id="rId1"/>
@@ -14,7 +14,7 @@
     <sheet name="Marktzustandserkennung" sheetId="7" r:id="rId5"/>
     <sheet name="Testing_Abschluss" sheetId="8" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="145621" concurrentCalc="0"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="131">
   <si>
     <t>Arbeitspaket</t>
   </si>
@@ -414,6 +414,9 @@
   </si>
   <si>
     <t>Order-Settings-Screen 40%</t>
+  </si>
+  <si>
+    <t>Layout für Settings-Screen</t>
   </si>
 </sst>
 </file>
@@ -903,6 +906,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -990,12 +994,12 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:shape val="box"/>
-        <c:axId val="7231360"/>
-        <c:axId val="7232896"/>
+        <c:axId val="51467776"/>
+        <c:axId val="51469312"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="7231360"/>
+        <c:axId val="51467776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1004,7 +1008,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="7232896"/>
+        <c:crossAx val="51469312"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1012,7 +1016,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="7232896"/>
+        <c:axId val="51469312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1028,7 +1032,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="7231360"/>
+        <c:crossAx val="51467776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1063,6 +1067,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1147,7 +1152,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>18</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>67.5</c:v>
@@ -1169,12 +1174,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="7266304"/>
-        <c:axId val="7267840"/>
+        <c:axId val="51481984"/>
+        <c:axId val="51491968"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="7266304"/>
+        <c:axId val="51481984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1183,7 +1188,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="7267840"/>
+        <c:crossAx val="51491968"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1191,7 +1196,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="7267840"/>
+        <c:axId val="51491968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1202,7 +1207,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="7266304"/>
+        <c:crossAx val="51481984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1573,7 +1578,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
@@ -1616,7 +1621,7 @@
       </c>
       <c r="B3" s="7">
         <f>SUM(B6,B12,B27)</f>
-        <v>98.5</v>
+        <v>99.5</v>
       </c>
       <c r="C3" s="27">
         <f>AVERAGE(C6,C12,C17,C22,C27)</f>
@@ -1655,7 +1660,7 @@
       </c>
       <c r="B6" s="17">
         <f>Projektmanagment!J7</f>
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="C6" s="29">
         <f>SUM(C7:C11)</f>
@@ -1690,7 +1695,7 @@
       </c>
       <c r="B8" s="19">
         <f>Projektmanagment!J3</f>
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="C8" s="31">
         <v>0</v>
@@ -1754,7 +1759,7 @@
       </c>
       <c r="B12" s="17">
         <f>BacktestingSoftware!J6</f>
-        <v>95.5</v>
+        <v>96</v>
       </c>
       <c r="C12" s="29">
         <f>SUM(C13:C16)</f>
@@ -1789,7 +1794,7 @@
       </c>
       <c r="B14" s="19">
         <f>BacktestingSoftware!J3</f>
-        <v>29</v>
+        <v>29.5</v>
       </c>
       <c r="C14" s="31">
         <v>0</v>
@@ -2047,7 +2052,7 @@
       <c r="C34" s="48"/>
       <c r="D34" s="9">
         <f>SUM(Projektmanagment!I13,BacktestingSoftware!I13,Algorithmus!I13,Marktzustandserkennung!I13,Testing_Abschluss!I13)</f>
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="35" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2097,7 +2102,7 @@
   <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="F5" sqref="A5:F5"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2191,7 +2196,7 @@
       <c r="I3" s="61"/>
       <c r="J3" s="4">
         <f>SUMIF(B:B,H3,E:E)</f>
-        <v>3</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15" x14ac:dyDescent="0.25">
@@ -2251,7 +2256,24 @@
       </c>
     </row>
     <row r="6" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D6" s="1"/>
+      <c r="A6" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D6" s="1">
+        <v>40924</v>
+      </c>
+      <c r="E6" s="26">
+        <v>0.5</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>73</v>
+      </c>
       <c r="H6" s="59" t="s">
         <v>10</v>
       </c>
@@ -2269,7 +2291,7 @@
       <c r="I7" s="58"/>
       <c r="J7" s="7">
         <f>SUM(J2:J6)</f>
-        <v>3</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="15" x14ac:dyDescent="0.25">
@@ -2300,7 +2322,7 @@
       </c>
       <c r="I13" s="4">
         <f>SUMIF(A:A,H13,E:E)</f>
-        <v>5</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="15" x14ac:dyDescent="0.25">
@@ -2364,10 +2386,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J25"/>
+  <dimension ref="A1:J26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12:F12"/>
+    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2461,7 +2483,7 @@
       <c r="I3" s="61"/>
       <c r="J3" s="35">
         <f>SUMIF(B:B,H3,E:E)</f>
-        <v>29</v>
+        <v>29.5</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15" x14ac:dyDescent="0.25">
@@ -2545,7 +2567,7 @@
       <c r="I6" s="58"/>
       <c r="J6" s="7">
         <f>SUM(J2:J5)</f>
-        <v>95.5</v>
+        <v>96</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
@@ -2695,7 +2717,7 @@
       </c>
       <c r="I13" s="35">
         <f>SUMIF(A:A,H13,E:E)</f>
-        <v>11</v>
+        <v>11.5</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
@@ -2916,41 +2938,61 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D24" s="1">
-        <v>41291</v>
+        <v>41290</v>
       </c>
       <c r="E24" s="26">
-        <v>6</v>
+        <v>0.5</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>41</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D25" s="1">
         <v>41291</v>
       </c>
       <c r="E25" s="26">
+        <v>6</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="D26" s="1">
+        <v>41291</v>
+      </c>
+      <c r="E26" s="26">
         <v>2</v>
       </c>
-      <c r="F25" s="3" t="s">
+      <c r="F26" s="3" t="s">
         <v>127</v>
       </c>
     </row>

--- a/Dokumentation/Noctua_Zeitaufzeichnung.xlsx
+++ b/Dokumentation/Noctua_Zeitaufzeichnung.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="48" yWindow="0" windowWidth="20736" windowHeight="11760"/>
+    <workbookView xWindow="45" yWindow="0" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Gesamtstatus" sheetId="4" r:id="rId1"/>
@@ -14,7 +14,7 @@
     <sheet name="Marktzustandserkennung" sheetId="7" r:id="rId5"/>
     <sheet name="Testing_Abschluss" sheetId="8" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="135">
   <si>
     <t>Arbeitspaket</t>
   </si>
@@ -416,7 +416,19 @@
     <t>Order-Settings-Screen 40%</t>
   </si>
   <si>
-    <t>Layout für Settings-Screen</t>
+    <t>dlls erzeugt und getestet</t>
+  </si>
+  <si>
+    <t>SMA gegen Preis SMA gegen sma</t>
+  </si>
+  <si>
+    <t>SMA mit Verlust outfall</t>
+  </si>
+  <si>
+    <t>funktioniert dll erzeugt und getestet</t>
+  </si>
+  <si>
+    <t>Sma mit -3 - +3 + TMA</t>
   </si>
 </sst>
 </file>
@@ -994,12 +1006,12 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:shape val="box"/>
-        <c:axId val="51467776"/>
-        <c:axId val="51469312"/>
+        <c:axId val="248346112"/>
+        <c:axId val="248347648"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="51467776"/>
+        <c:axId val="248346112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1008,7 +1020,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="51469312"/>
+        <c:crossAx val="248347648"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1016,7 +1028,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="51469312"/>
+        <c:axId val="248347648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1032,7 +1044,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="51467776"/>
+        <c:crossAx val="248346112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1152,13 +1164,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>19</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>67.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>48.5</c:v>
+                  <c:v>65</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1174,12 +1186,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="51481984"/>
-        <c:axId val="51491968"/>
+        <c:axId val="171552128"/>
+        <c:axId val="171553920"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="51481984"/>
+        <c:axId val="171552128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1188,7 +1200,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="51491968"/>
+        <c:crossAx val="171553920"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1196,7 +1208,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="51491968"/>
+        <c:axId val="171553920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1207,7 +1219,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="51481984"/>
+        <c:crossAx val="171552128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1582,13 +1594,13 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="49"/>
       <c r="B1" s="51" t="s">
         <v>28</v>
@@ -1602,7 +1614,7 @@
       <c r="G1" s="12"/>
       <c r="R1" s="8"/>
     </row>
-    <row r="2" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="50"/>
       <c r="B2" s="52"/>
       <c r="C2" s="13" t="s">
@@ -1621,7 +1633,7 @@
       </c>
       <c r="B3" s="7">
         <f>SUM(B6,B12,B27)</f>
-        <v>99.5</v>
+        <v>98.5</v>
       </c>
       <c r="C3" s="27">
         <f>AVERAGE(C6,C12,C17,C22,C27)</f>
@@ -1634,7 +1646,7 @@
       <c r="F3" s="12"/>
       <c r="G3" s="12"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="46"/>
       <c r="B4" s="51"/>
       <c r="C4" s="53" t="s">
@@ -1645,7 +1657,7 @@
       <c r="F4" s="12"/>
       <c r="G4" s="12"/>
     </row>
-    <row r="5" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="50"/>
       <c r="B5" s="52"/>
       <c r="C5" s="55"/>
@@ -1654,13 +1666,13 @@
       <c r="F5" s="12"/>
       <c r="G5" s="12"/>
     </row>
-    <row r="6" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="16" t="s">
         <v>13</v>
       </c>
       <c r="B6" s="17">
         <f>Projektmanagment!J7</f>
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="C6" s="29">
         <f>SUM(C7:C11)</f>
@@ -1673,7 +1685,7 @@
       <c r="F6" s="12"/>
       <c r="G6" s="12"/>
     </row>
-    <row r="7" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="18" t="s">
         <v>18</v>
       </c>
@@ -1689,13 +1701,13 @@
       <c r="F7" s="12"/>
       <c r="G7" s="12"/>
     </row>
-    <row r="8" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="18" t="s">
         <v>17</v>
       </c>
       <c r="B8" s="19">
         <f>Projektmanagment!J3</f>
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="C8" s="31">
         <v>0</v>
@@ -1705,7 +1717,7 @@
       <c r="F8" s="12"/>
       <c r="G8" s="12"/>
     </row>
-    <row r="9" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="18" t="s">
         <v>19</v>
       </c>
@@ -1721,7 +1733,7 @@
       <c r="F9" s="12"/>
       <c r="G9" s="12"/>
     </row>
-    <row r="10" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="18" t="s">
         <v>20</v>
       </c>
@@ -1753,13 +1765,13 @@
       <c r="F11" s="12"/>
       <c r="G11" s="12"/>
     </row>
-    <row r="12" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="16" t="s">
         <v>54</v>
       </c>
       <c r="B12" s="17">
         <f>BacktestingSoftware!J6</f>
-        <v>96</v>
+        <v>95.5</v>
       </c>
       <c r="C12" s="29">
         <f>SUM(C13:C16)</f>
@@ -1772,7 +1784,7 @@
       <c r="F12" s="12"/>
       <c r="G12" s="12"/>
     </row>
-    <row r="13" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="18" t="s">
         <v>53</v>
       </c>
@@ -1788,13 +1800,13 @@
       <c r="F13" s="12"/>
       <c r="G13" s="12"/>
     </row>
-    <row r="14" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="18" t="s">
         <v>55</v>
       </c>
       <c r="B14" s="19">
         <f>BacktestingSoftware!J3</f>
-        <v>29.5</v>
+        <v>29</v>
       </c>
       <c r="C14" s="31">
         <v>0</v>
@@ -1804,7 +1816,7 @@
       <c r="F14" s="12"/>
       <c r="G14" s="12"/>
     </row>
-    <row r="15" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="18" t="s">
         <v>56</v>
       </c>
@@ -1833,13 +1845,13 @@
       </c>
       <c r="D16" s="32"/>
     </row>
-    <row r="17" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="16" t="s">
         <v>58</v>
       </c>
       <c r="B17" s="17">
         <f>Algorithmus!J6</f>
-        <v>18.5</v>
+        <v>35</v>
       </c>
       <c r="C17" s="29">
         <f>SUM(C18:C21)</f>
@@ -1849,7 +1861,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="18" t="s">
         <v>59</v>
       </c>
@@ -1862,7 +1874,7 @@
       </c>
       <c r="D18" s="32"/>
     </row>
-    <row r="19" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="18" t="s">
         <v>60</v>
       </c>
@@ -1875,13 +1887,13 @@
       </c>
       <c r="D19" s="32"/>
     </row>
-    <row r="20" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="18" t="s">
         <v>61</v>
       </c>
       <c r="B20" s="19">
         <f>Algorithmus!J4</f>
-        <v>9.5</v>
+        <v>19</v>
       </c>
       <c r="C20" s="40">
         <v>0</v>
@@ -1894,14 +1906,14 @@
       </c>
       <c r="B21" s="19">
         <f>Algorithmus!J5</f>
-        <v>4.5</v>
+        <v>11.5</v>
       </c>
       <c r="C21" s="40">
         <v>0</v>
       </c>
       <c r="D21" s="32"/>
     </row>
-    <row r="22" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="16" t="s">
         <v>63</v>
       </c>
@@ -1917,7 +1929,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="18" t="s">
         <v>59</v>
       </c>
@@ -1930,7 +1942,7 @@
       </c>
       <c r="D23" s="32"/>
     </row>
-    <row r="24" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="18" t="s">
         <v>64</v>
       </c>
@@ -1969,7 +1981,7 @@
       </c>
       <c r="D26" s="32"/>
     </row>
-    <row r="27" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="16" t="s">
         <v>14</v>
       </c>
@@ -1998,7 +2010,7 @@
       </c>
       <c r="D28" s="32"/>
     </row>
-    <row r="29" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="18" t="s">
         <v>23</v>
       </c>
@@ -2011,7 +2023,7 @@
       </c>
       <c r="D29" s="32"/>
     </row>
-    <row r="30" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="18" t="s">
         <v>24</v>
       </c>
@@ -2037,25 +2049,25 @@
       </c>
       <c r="D31" s="28"/>
     </row>
-    <row r="32" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="33" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="33" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B33" s="10"/>
       <c r="C33" s="10"/>
       <c r="D33" s="11" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="34" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B34" s="47" t="s">
         <v>34</v>
       </c>
       <c r="C34" s="48"/>
       <c r="D34" s="9">
         <f>SUM(Projektmanagment!I13,BacktestingSoftware!I13,Algorithmus!I13,Marktzustandserkennung!I13,Testing_Abschluss!I13)</f>
-        <v>19</v>
-      </c>
-    </row>
-    <row r="35" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B35" s="41" t="s">
         <v>15</v>
       </c>
@@ -2065,14 +2077,14 @@
         <v>67.5</v>
       </c>
     </row>
-    <row r="36" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B36" s="43" t="s">
         <v>35</v>
       </c>
       <c r="C36" s="44"/>
       <c r="D36" s="39">
         <f>SUM(Projektmanagment!I15,BacktestingSoftware!I15,Algorithmus!I15,Marktzustandserkennung!I15,Testing_Abschluss!I15)</f>
-        <v>48.5</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -2102,18 +2114,18 @@
   <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="F5" sqref="A5:F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.33203125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="71.88671875" style="3" customWidth="1"/>
-    <col min="4" max="4" width="10.88671875" style="3"/>
-    <col min="5" max="5" width="10.88671875" style="26"/>
-    <col min="6" max="6" width="24.44140625" style="3" customWidth="1"/>
-    <col min="9" max="9" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.28515625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="71.85546875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" style="3"/>
+    <col min="5" max="5" width="10.85546875" style="26"/>
+    <col min="6" max="6" width="24.42578125" style="3" customWidth="1"/>
+    <col min="9" max="9" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2143,7 +2155,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>32</v>
       </c>
@@ -2171,7 +2183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>32</v>
       </c>
@@ -2196,10 +2208,10 @@
       <c r="I3" s="61"/>
       <c r="J3" s="4">
         <f>SUMIF(B:B,H3,E:E)</f>
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>32</v>
       </c>
@@ -2227,7 +2239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>32</v>
       </c>
@@ -2256,24 +2268,7 @@
       </c>
     </row>
     <row r="6" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="D6" s="1">
-        <v>40924</v>
-      </c>
-      <c r="E6" s="26">
-        <v>0.5</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>73</v>
-      </c>
+      <c r="D6" s="1"/>
       <c r="H6" s="59" t="s">
         <v>10</v>
       </c>
@@ -2291,16 +2286,16 @@
       <c r="I7" s="58"/>
       <c r="J7" s="7">
         <f>SUM(J2:J6)</f>
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D8" s="24"/>
     </row>
-    <row r="9" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D9" s="1"/>
     </row>
-    <row r="10" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D10" s="1"/>
     </row>
     <row r="11" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2315,17 +2310,17 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D13" s="1"/>
       <c r="H13" s="33" t="s">
         <v>32</v>
       </c>
       <c r="I13" s="4">
         <f>SUMIF(A:A,H13,E:E)</f>
-        <v>5.5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D14" s="1"/>
       <c r="H14" s="33" t="s">
         <v>6</v>
@@ -2345,15 +2340,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D16" s="1"/>
       <c r="H16" s="36"/>
       <c r="I16" s="36"/>
     </row>
-    <row r="17" spans="4:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D17" s="1"/>
     </row>
-    <row r="18" spans="4:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D18" s="1"/>
     </row>
   </sheetData>
@@ -2386,21 +2381,21 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J26"/>
+  <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView topLeftCell="A10" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12:F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.33203125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="71.88671875" style="3" customWidth="1"/>
-    <col min="4" max="4" width="10.88671875" style="3"/>
-    <col min="5" max="5" width="10.88671875" style="26"/>
-    <col min="6" max="6" width="24.44140625" style="3" customWidth="1"/>
-    <col min="9" max="9" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.28515625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="71.85546875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" style="3"/>
+    <col min="5" max="5" width="10.85546875" style="26"/>
+    <col min="6" max="6" width="24.42578125" style="3" customWidth="1"/>
+    <col min="9" max="9" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2430,7 +2425,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
@@ -2458,7 +2453,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>33</v>
       </c>
@@ -2483,10 +2478,10 @@
       <c r="I3" s="61"/>
       <c r="J3" s="35">
         <f>SUMIF(B:B,H3,E:E)</f>
-        <v>29.5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
@@ -2567,10 +2562,10 @@
       <c r="I6" s="58"/>
       <c r="J6" s="7">
         <f>SUM(J2:J5)</f>
-        <v>96</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+        <v>95.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>33</v>
       </c>
@@ -2590,7 +2585,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>33</v>
       </c>
@@ -2610,7 +2605,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>32</v>
       </c>
@@ -2630,7 +2625,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>32</v>
       </c>
@@ -2693,7 +2688,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>6</v>
       </c>
@@ -2717,10 +2712,10 @@
       </c>
       <c r="I13" s="35">
         <f>SUMIF(A:A,H13,E:E)</f>
-        <v>11.5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>33</v>
       </c>
@@ -2747,7 +2742,7 @@
         <v>67.5</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>6</v>
       </c>
@@ -2774,7 +2769,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>33</v>
       </c>
@@ -2796,7 +2791,7 @@
       <c r="H16" s="36"/>
       <c r="I16" s="36"/>
     </row>
-    <row r="17" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>6</v>
       </c>
@@ -2816,7 +2811,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>6</v>
       </c>
@@ -2836,7 +2831,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>6</v>
       </c>
@@ -2856,7 +2851,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>6</v>
       </c>
@@ -2876,7 +2871,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
         <v>6</v>
       </c>
@@ -2896,7 +2891,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>6</v>
       </c>
@@ -2916,7 +2911,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
         <v>6</v>
       </c>
@@ -2936,63 +2931,43 @@
         <v>129</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="D24" s="1">
+        <v>41291</v>
+      </c>
+      <c r="E24" s="26">
+        <v>6</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
         <v>32</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="D24" s="1">
-        <v>41290</v>
-      </c>
-      <c r="E24" s="26">
-        <v>0.5</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="3" t="s">
-        <v>6</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>41</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D25" s="1">
         <v>41291</v>
       </c>
       <c r="E25" s="26">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="D26" s="1">
-        <v>41291</v>
-      </c>
-      <c r="E26" s="26">
-        <v>2</v>
-      </c>
-      <c r="F26" s="3" t="s">
         <v>127</v>
       </c>
     </row>
@@ -3028,18 +3003,18 @@
   <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.33203125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="71.88671875" style="3" customWidth="1"/>
-    <col min="4" max="4" width="10.88671875" style="3"/>
-    <col min="5" max="5" width="10.88671875" style="26"/>
-    <col min="6" max="6" width="24.44140625" style="3" customWidth="1"/>
-    <col min="9" max="9" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.28515625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="71.85546875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" style="3"/>
+    <col min="5" max="5" width="10.85546875" style="26"/>
+    <col min="6" max="6" width="24.42578125" style="3" customWidth="1"/>
+    <col min="9" max="9" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3069,7 +3044,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>33</v>
       </c>
@@ -3097,7 +3072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>33</v>
       </c>
@@ -3125,7 +3100,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>33</v>
       </c>
@@ -3150,7 +3125,7 @@
       <c r="I4" s="61"/>
       <c r="J4" s="35">
         <f>SUMIF(B:B,H4,E:E)</f>
-        <v>9.5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3178,30 +3153,81 @@
       <c r="I5" s="61"/>
       <c r="J5" s="35">
         <f>SUMIF(B:B,H5,E:E)</f>
-        <v>4.5</v>
+        <v>11.5</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D6" s="1"/>
+      <c r="A6" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="D6" s="1">
+        <v>41284</v>
+      </c>
+      <c r="E6" s="26">
+        <v>7</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>130</v>
+      </c>
       <c r="H6" s="57" t="s">
         <v>16</v>
       </c>
       <c r="I6" s="58"/>
       <c r="J6" s="7">
         <f>SUM(J2:J5)</f>
-        <v>18.5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="D7" s="1"/>
-    </row>
-    <row r="8" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="D8" s="24"/>
-    </row>
-    <row r="9" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="D7" s="1">
+        <v>41290</v>
+      </c>
+      <c r="E7" s="26">
+        <v>4.5</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="D8" s="24">
+        <v>41294</v>
+      </c>
+      <c r="E8" s="26">
+        <v>5</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D9" s="1"/>
     </row>
-    <row r="10" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D10" s="1"/>
     </row>
     <row r="11" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3216,7 +3242,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D13" s="1"/>
       <c r="H13" s="35" t="s">
         <v>32</v>
@@ -3226,7 +3252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D14" s="1"/>
       <c r="H14" s="35" t="s">
         <v>6</v>
@@ -3243,18 +3269,18 @@
       </c>
       <c r="I15" s="35">
         <f>SUMIF(A:A,H15,E:E)</f>
-        <v>18.5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D16" s="1"/>
       <c r="H16" s="36"/>
       <c r="I16" s="36"/>
     </row>
-    <row r="17" spans="4:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D17" s="1"/>
     </row>
-    <row r="18" spans="4:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D18" s="1"/>
     </row>
   </sheetData>
@@ -3291,15 +3317,15 @@
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="36.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="71.88671875" style="3" customWidth="1"/>
-    <col min="4" max="4" width="11.5546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.88671875" style="26"/>
-    <col min="6" max="6" width="24.44140625" style="3" customWidth="1"/>
-    <col min="9" max="9" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="71.85546875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.85546875" style="26"/>
+    <col min="6" max="6" width="24.42578125" style="3" customWidth="1"/>
+    <col min="9" max="9" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3329,7 +3355,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>32</v>
       </c>
@@ -3357,7 +3383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>33</v>
       </c>
@@ -3385,7 +3411,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>33</v>
       </c>
@@ -3469,16 +3495,16 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D7" s="1"/>
     </row>
-    <row r="8" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D8" s="24"/>
     </row>
-    <row r="9" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D9" s="1"/>
     </row>
-    <row r="10" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D10" s="1"/>
     </row>
     <row r="11" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3493,7 +3519,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D13" s="1"/>
       <c r="H13" s="35" t="s">
         <v>32</v>
@@ -3503,7 +3529,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D14" s="1"/>
       <c r="H14" s="35" t="s">
         <v>6</v>
@@ -3523,15 +3549,15 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D16" s="1"/>
       <c r="H16" s="36"/>
       <c r="I16" s="36"/>
     </row>
-    <row r="17" spans="4:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D17" s="1"/>
     </row>
-    <row r="18" spans="4:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D18" s="1"/>
     </row>
   </sheetData>
@@ -3568,15 +3594,15 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.33203125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="71.88671875" style="3" customWidth="1"/>
-    <col min="4" max="4" width="10.88671875" style="3"/>
-    <col min="5" max="5" width="10.88671875" style="37"/>
-    <col min="6" max="6" width="24.44140625" style="3" customWidth="1"/>
-    <col min="9" max="9" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.28515625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="71.85546875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" style="3"/>
+    <col min="5" max="5" width="10.85546875" style="37"/>
+    <col min="6" max="6" width="24.42578125" style="3" customWidth="1"/>
+    <col min="9" max="9" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3606,7 +3632,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B2" s="2"/>
       <c r="D2" s="1"/>
       <c r="H2" s="62" t="s">
@@ -3618,7 +3644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D3" s="1"/>
       <c r="H3" s="64" t="s">
         <v>50</v>
@@ -3629,7 +3655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D4" s="1"/>
       <c r="H4" s="64" t="s">
         <v>51</v>
@@ -3640,7 +3666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D5" s="1"/>
       <c r="H5" s="66" t="s">
         <v>52</v>
@@ -3662,16 +3688,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D7" s="1"/>
     </row>
-    <row r="8" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D8" s="24"/>
     </row>
-    <row r="9" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D9" s="1"/>
     </row>
-    <row r="10" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D10" s="1"/>
     </row>
     <row r="11" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3686,7 +3712,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D13" s="1"/>
       <c r="H13" s="35" t="s">
         <v>32</v>
@@ -3696,7 +3722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D14" s="1"/>
       <c r="H14" s="35" t="s">
         <v>6</v>
@@ -3716,15 +3742,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D16" s="1"/>
       <c r="H16" s="36"/>
       <c r="I16" s="36"/>
     </row>
-    <row r="17" spans="4:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D17" s="1"/>
     </row>
-    <row r="18" spans="4:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D18" s="1"/>
     </row>
   </sheetData>

--- a/Dokumentation/Noctua_Zeitaufzeichnung.xlsx
+++ b/Dokumentation/Noctua_Zeitaufzeichnung.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="45" yWindow="0" windowWidth="20730" windowHeight="11760"/>
+    <workbookView xWindow="48" yWindow="0" windowWidth="20736" windowHeight="11760" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Gesamtstatus" sheetId="4" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="136">
   <si>
     <t>Arbeitspaket</t>
   </si>
@@ -429,6 +429,9 @@
   </si>
   <si>
     <t>Sma mit -3 - +3 + TMA</t>
+  </si>
+  <si>
+    <t>Layout für Settings-Screen</t>
   </si>
 </sst>
 </file>
@@ -1006,12 +1009,12 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:shape val="box"/>
-        <c:axId val="248346112"/>
-        <c:axId val="248347648"/>
+        <c:axId val="38007552"/>
+        <c:axId val="38009088"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="248346112"/>
+        <c:axId val="38007552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1020,7 +1023,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="248347648"/>
+        <c:crossAx val="38009088"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1028,7 +1031,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="248347648"/>
+        <c:axId val="38009088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1044,7 +1047,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="248346112"/>
+        <c:crossAx val="38007552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1164,7 +1167,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>18</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>67.5</c:v>
@@ -1186,12 +1189,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="171552128"/>
-        <c:axId val="171553920"/>
+        <c:axId val="38087296"/>
+        <c:axId val="38113664"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="171552128"/>
+        <c:axId val="38087296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1200,7 +1203,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="171553920"/>
+        <c:crossAx val="38113664"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1208,7 +1211,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="171553920"/>
+        <c:axId val="38113664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1219,7 +1222,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="171552128"/>
+        <c:crossAx val="38087296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1590,17 +1593,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="34.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" s="49"/>
       <c r="B1" s="51" t="s">
         <v>28</v>
@@ -1614,7 +1617,7 @@
       <c r="G1" s="12"/>
       <c r="R1" s="8"/>
     </row>
-    <row r="2" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="50"/>
       <c r="B2" s="52"/>
       <c r="C2" s="13" t="s">
@@ -1633,7 +1636,7 @@
       </c>
       <c r="B3" s="7">
         <f>SUM(B6,B12,B27)</f>
-        <v>98.5</v>
+        <v>99.5</v>
       </c>
       <c r="C3" s="27">
         <f>AVERAGE(C6,C12,C17,C22,C27)</f>
@@ -1646,7 +1649,7 @@
       <c r="F3" s="12"/>
       <c r="G3" s="12"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" s="46"/>
       <c r="B4" s="51"/>
       <c r="C4" s="53" t="s">
@@ -1657,7 +1660,7 @@
       <c r="F4" s="12"/>
       <c r="G4" s="12"/>
     </row>
-    <row r="5" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="50"/>
       <c r="B5" s="52"/>
       <c r="C5" s="55"/>
@@ -1666,13 +1669,13 @@
       <c r="F5" s="12"/>
       <c r="G5" s="12"/>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="16" t="s">
         <v>13</v>
       </c>
       <c r="B6" s="17">
         <f>Projektmanagment!J7</f>
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="C6" s="29">
         <f>SUM(C7:C11)</f>
@@ -1685,7 +1688,7 @@
       <c r="F6" s="12"/>
       <c r="G6" s="12"/>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="18" t="s">
         <v>18</v>
       </c>
@@ -1701,13 +1704,13 @@
       <c r="F7" s="12"/>
       <c r="G7" s="12"/>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="18" t="s">
         <v>17</v>
       </c>
       <c r="B8" s="19">
         <f>Projektmanagment!J3</f>
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="C8" s="31">
         <v>0</v>
@@ -1717,7 +1720,7 @@
       <c r="F8" s="12"/>
       <c r="G8" s="12"/>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="18" t="s">
         <v>19</v>
       </c>
@@ -1733,7 +1736,7 @@
       <c r="F9" s="12"/>
       <c r="G9" s="12"/>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="18" t="s">
         <v>20</v>
       </c>
@@ -1765,13 +1768,13 @@
       <c r="F11" s="12"/>
       <c r="G11" s="12"/>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="16" t="s">
         <v>54</v>
       </c>
       <c r="B12" s="17">
         <f>BacktestingSoftware!J6</f>
-        <v>95.5</v>
+        <v>96</v>
       </c>
       <c r="C12" s="29">
         <f>SUM(C13:C16)</f>
@@ -1784,7 +1787,7 @@
       <c r="F12" s="12"/>
       <c r="G12" s="12"/>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="18" t="s">
         <v>53</v>
       </c>
@@ -1800,13 +1803,13 @@
       <c r="F13" s="12"/>
       <c r="G13" s="12"/>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="18" t="s">
         <v>55</v>
       </c>
       <c r="B14" s="19">
         <f>BacktestingSoftware!J3</f>
-        <v>29</v>
+        <v>29.5</v>
       </c>
       <c r="C14" s="31">
         <v>0</v>
@@ -1816,7 +1819,7 @@
       <c r="F14" s="12"/>
       <c r="G14" s="12"/>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="18" t="s">
         <v>56</v>
       </c>
@@ -1845,7 +1848,7 @@
       </c>
       <c r="D16" s="32"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="16" t="s">
         <v>58</v>
       </c>
@@ -1861,7 +1864,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="18" t="s">
         <v>59</v>
       </c>
@@ -1874,7 +1877,7 @@
       </c>
       <c r="D18" s="32"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="18" t="s">
         <v>60</v>
       </c>
@@ -1887,7 +1890,7 @@
       </c>
       <c r="D19" s="32"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" s="18" t="s">
         <v>61</v>
       </c>
@@ -1913,7 +1916,7 @@
       </c>
       <c r="D21" s="32"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" s="16" t="s">
         <v>63</v>
       </c>
@@ -1929,7 +1932,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" s="18" t="s">
         <v>59</v>
       </c>
@@ -1942,7 +1945,7 @@
       </c>
       <c r="D23" s="32"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" s="18" t="s">
         <v>64</v>
       </c>
@@ -1981,7 +1984,7 @@
       </c>
       <c r="D26" s="32"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A27" s="16" t="s">
         <v>14</v>
       </c>
@@ -2010,7 +2013,7 @@
       </c>
       <c r="D28" s="32"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A29" s="18" t="s">
         <v>23</v>
       </c>
@@ -2023,7 +2026,7 @@
       </c>
       <c r="D29" s="32"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A30" s="18" t="s">
         <v>24</v>
       </c>
@@ -2064,7 +2067,7 @@
       <c r="C34" s="48"/>
       <c r="D34" s="9">
         <f>SUM(Projektmanagment!I13,BacktestingSoftware!I13,Algorithmus!I13,Marktzustandserkennung!I13,Testing_Abschluss!I13)</f>
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="35" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2114,18 +2117,18 @@
   <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="F5" sqref="A5:F5"/>
+      <selection activeCell="A6" sqref="A6:F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.28515625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="71.85546875" style="3" customWidth="1"/>
-    <col min="4" max="4" width="10.85546875" style="3"/>
-    <col min="5" max="5" width="10.85546875" style="26"/>
-    <col min="6" max="6" width="24.42578125" style="3" customWidth="1"/>
-    <col min="9" max="9" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.33203125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="71.88671875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="10.88671875" style="3"/>
+    <col min="5" max="5" width="10.88671875" style="26"/>
+    <col min="6" max="6" width="24.44140625" style="3" customWidth="1"/>
+    <col min="9" max="9" width="12.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2155,7 +2158,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>32</v>
       </c>
@@ -2183,7 +2186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>32</v>
       </c>
@@ -2208,10 +2211,10 @@
       <c r="I3" s="61"/>
       <c r="J3" s="4">
         <f>SUMIF(B:B,H3,E:E)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>32</v>
       </c>
@@ -2239,7 +2242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>32</v>
       </c>
@@ -2267,8 +2270,25 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D6" s="1"/>
+    <row r="6" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D6" s="1">
+        <v>40924</v>
+      </c>
+      <c r="E6" s="26">
+        <v>0.5</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>73</v>
+      </c>
       <c r="H6" s="59" t="s">
         <v>10</v>
       </c>
@@ -2286,16 +2306,16 @@
       <c r="I7" s="58"/>
       <c r="J7" s="7">
         <f>SUM(J2:J6)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="D8" s="24"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="D9" s="1"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="D10" s="1"/>
     </row>
     <row r="11" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2310,17 +2330,17 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="D13" s="1"/>
       <c r="H13" s="33" t="s">
         <v>32</v>
       </c>
       <c r="I13" s="4">
         <f>SUMIF(A:A,H13,E:E)</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="D14" s="1"/>
       <c r="H14" s="33" t="s">
         <v>6</v>
@@ -2340,15 +2360,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="D16" s="1"/>
       <c r="H16" s="36"/>
       <c r="I16" s="36"/>
     </row>
-    <row r="17" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:4" ht="15" x14ac:dyDescent="0.25">
       <c r="D17" s="1"/>
     </row>
-    <row r="18" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="4:4" ht="15" x14ac:dyDescent="0.25">
       <c r="D18" s="1"/>
     </row>
   </sheetData>
@@ -2381,21 +2401,21 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J25"/>
+  <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12:F12"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.28515625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="71.85546875" style="3" customWidth="1"/>
-    <col min="4" max="4" width="10.85546875" style="3"/>
-    <col min="5" max="5" width="10.85546875" style="26"/>
-    <col min="6" max="6" width="24.42578125" style="3" customWidth="1"/>
-    <col min="9" max="9" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.33203125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="71.88671875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="10.88671875" style="3"/>
+    <col min="5" max="5" width="10.88671875" style="26"/>
+    <col min="6" max="6" width="24.44140625" style="3" customWidth="1"/>
+    <col min="9" max="9" width="12.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2425,7 +2445,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
@@ -2453,7 +2473,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>33</v>
       </c>
@@ -2478,10 +2498,10 @@
       <c r="I3" s="61"/>
       <c r="J3" s="35">
         <f>SUMIF(B:B,H3,E:E)</f>
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+        <v>29.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
@@ -2562,10 +2582,10 @@
       <c r="I6" s="58"/>
       <c r="J6" s="7">
         <f>SUM(J2:J5)</f>
-        <v>95.5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>33</v>
       </c>
@@ -2585,7 +2605,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>33</v>
       </c>
@@ -2605,7 +2625,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>32</v>
       </c>
@@ -2625,7 +2645,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>32</v>
       </c>
@@ -2688,7 +2708,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>6</v>
       </c>
@@ -2712,10 +2732,10 @@
       </c>
       <c r="I13" s="35">
         <f>SUMIF(A:A,H13,E:E)</f>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+        <v>11.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>33</v>
       </c>
@@ -2742,7 +2762,7 @@
         <v>67.5</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
         <v>6</v>
       </c>
@@ -2769,7 +2789,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>33</v>
       </c>
@@ -2791,7 +2811,7 @@
       <c r="H16" s="36"/>
       <c r="I16" s="36"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>6</v>
       </c>
@@ -2811,7 +2831,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>6</v>
       </c>
@@ -2831,7 +2851,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>6</v>
       </c>
@@ -2851,7 +2871,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>6</v>
       </c>
@@ -2871,7 +2891,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
         <v>6</v>
       </c>
@@ -2891,7 +2911,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
         <v>6</v>
       </c>
@@ -2911,7 +2931,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
         <v>6</v>
       </c>
@@ -2931,45 +2951,68 @@
         <v>129</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="D24" s="1">
+        <v>41290</v>
+      </c>
+      <c r="E24" s="26">
+        <v>0.5</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" s="3" t="s">
         <v>6</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="D24" s="1">
-        <v>41291</v>
-      </c>
-      <c r="E24" s="26">
-        <v>6</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
-        <v>32</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>41</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D25" s="1">
         <v>41291</v>
       </c>
       <c r="E25" s="26">
+        <v>6</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="D26" s="1">
+        <v>41291</v>
+      </c>
+      <c r="E26" s="26">
         <v>2</v>
       </c>
-      <c r="F25" s="3" t="s">
+      <c r="F26" s="3" t="s">
         <v>127</v>
       </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D27" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -3006,15 +3049,15 @@
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.28515625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="71.85546875" style="3" customWidth="1"/>
-    <col min="4" max="4" width="10.85546875" style="3"/>
-    <col min="5" max="5" width="10.85546875" style="26"/>
-    <col min="6" max="6" width="24.42578125" style="3" customWidth="1"/>
-    <col min="9" max="9" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.33203125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="71.88671875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="10.88671875" style="3"/>
+    <col min="5" max="5" width="10.88671875" style="26"/>
+    <col min="6" max="6" width="24.44140625" style="3" customWidth="1"/>
+    <col min="9" max="9" width="12.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3044,7 +3087,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>33</v>
       </c>
@@ -3072,7 +3115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>33</v>
       </c>
@@ -3100,7 +3143,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>33</v>
       </c>
@@ -3184,7 +3227,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>33</v>
       </c>
@@ -3204,7 +3247,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>33</v>
       </c>
@@ -3224,10 +3267,10 @@
         <v>133</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="D9" s="1"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="D10" s="1"/>
     </row>
     <row r="11" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3242,7 +3285,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="D13" s="1"/>
       <c r="H13" s="35" t="s">
         <v>32</v>
@@ -3252,7 +3295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="D14" s="1"/>
       <c r="H14" s="35" t="s">
         <v>6</v>
@@ -3272,15 +3315,15 @@
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="D16" s="1"/>
       <c r="H16" s="36"/>
       <c r="I16" s="36"/>
     </row>
-    <row r="17" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:4" ht="15" x14ac:dyDescent="0.25">
       <c r="D17" s="1"/>
     </row>
-    <row r="18" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="4:4" ht="15" x14ac:dyDescent="0.25">
       <c r="D18" s="1"/>
     </row>
   </sheetData>
@@ -3317,15 +3360,15 @@
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="36.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="71.85546875" style="3" customWidth="1"/>
-    <col min="4" max="4" width="11.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.85546875" style="26"/>
-    <col min="6" max="6" width="24.42578125" style="3" customWidth="1"/>
-    <col min="9" max="9" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="71.88671875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="11.5546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.88671875" style="26"/>
+    <col min="6" max="6" width="24.44140625" style="3" customWidth="1"/>
+    <col min="9" max="9" width="12.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3355,7 +3398,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>32</v>
       </c>
@@ -3383,7 +3426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>33</v>
       </c>
@@ -3411,7 +3454,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>33</v>
       </c>
@@ -3495,16 +3538,16 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="D7" s="1"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="D8" s="24"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="D9" s="1"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="D10" s="1"/>
     </row>
     <row r="11" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3519,7 +3562,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="D13" s="1"/>
       <c r="H13" s="35" t="s">
         <v>32</v>
@@ -3529,7 +3572,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="D14" s="1"/>
       <c r="H14" s="35" t="s">
         <v>6</v>
@@ -3549,15 +3592,15 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="D16" s="1"/>
       <c r="H16" s="36"/>
       <c r="I16" s="36"/>
     </row>
-    <row r="17" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:4" ht="15" x14ac:dyDescent="0.25">
       <c r="D17" s="1"/>
     </row>
-    <row r="18" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="4:4" ht="15" x14ac:dyDescent="0.25">
       <c r="D18" s="1"/>
     </row>
   </sheetData>
@@ -3594,15 +3637,15 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.28515625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="71.85546875" style="3" customWidth="1"/>
-    <col min="4" max="4" width="10.85546875" style="3"/>
-    <col min="5" max="5" width="10.85546875" style="37"/>
-    <col min="6" max="6" width="24.42578125" style="3" customWidth="1"/>
-    <col min="9" max="9" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.33203125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="71.88671875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="10.88671875" style="3"/>
+    <col min="5" max="5" width="10.88671875" style="37"/>
+    <col min="6" max="6" width="24.44140625" style="3" customWidth="1"/>
+    <col min="9" max="9" width="12.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3632,7 +3675,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B2" s="2"/>
       <c r="D2" s="1"/>
       <c r="H2" s="62" t="s">
@@ -3644,7 +3687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="D3" s="1"/>
       <c r="H3" s="64" t="s">
         <v>50</v>
@@ -3655,7 +3698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="D4" s="1"/>
       <c r="H4" s="64" t="s">
         <v>51</v>
@@ -3666,7 +3709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D5" s="1"/>
       <c r="H5" s="66" t="s">
         <v>52</v>
@@ -3688,16 +3731,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="D7" s="1"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="D8" s="24"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="D9" s="1"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="D10" s="1"/>
     </row>
     <row r="11" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3712,7 +3755,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="D13" s="1"/>
       <c r="H13" s="35" t="s">
         <v>32</v>
@@ -3722,7 +3765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="D14" s="1"/>
       <c r="H14" s="35" t="s">
         <v>6</v>
@@ -3742,15 +3785,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="D16" s="1"/>
       <c r="H16" s="36"/>
       <c r="I16" s="36"/>
     </row>
-    <row r="17" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:4" ht="15" x14ac:dyDescent="0.25">
       <c r="D17" s="1"/>
     </row>
-    <row r="18" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="4:4" ht="15" x14ac:dyDescent="0.25">
       <c r="D18" s="1"/>
     </row>
   </sheetData>

--- a/Dokumentation/Noctua_Zeitaufzeichnung.xlsx
+++ b/Dokumentation/Noctua_Zeitaufzeichnung.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="48" yWindow="0" windowWidth="20736" windowHeight="11760" activeTab="2"/>
+    <workbookView xWindow="48" yWindow="0" windowWidth="20736" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Gesamtstatus" sheetId="4" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="142">
   <si>
     <t>Arbeitspaket</t>
   </si>
@@ -432,6 +432,24 @@
   </si>
   <si>
     <t>Layout für Settings-Screen</t>
+  </si>
+  <si>
+    <t>Fertigstellung der Trendstärkenintegration</t>
+  </si>
+  <si>
+    <t>Trenstärkenintegration berichtigt</t>
+  </si>
+  <si>
+    <t>Trendstärken integriert 90%</t>
+  </si>
+  <si>
+    <t>Trendstärken integriert 100%</t>
+  </si>
+  <si>
+    <t>Möglichkeit zur Laufzeit dynamisch die gezeichneten Indikatoren zu bestimmten implementiert</t>
+  </si>
+  <si>
+    <t>#Indikatorenauswahl 80%</t>
   </si>
 </sst>
 </file>
@@ -1009,12 +1027,12 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:shape val="box"/>
-        <c:axId val="38007552"/>
-        <c:axId val="38009088"/>
+        <c:axId val="37779328"/>
+        <c:axId val="37780864"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="38007552"/>
+        <c:axId val="37779328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1023,7 +1041,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="38009088"/>
+        <c:crossAx val="37780864"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1031,7 +1049,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="38009088"/>
+        <c:axId val="37780864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1047,7 +1065,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="38007552"/>
+        <c:crossAx val="37779328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1170,7 +1188,7 @@
                   <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>67.5</c:v>
+                  <c:v>82.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>65</c:v>
@@ -1189,12 +1207,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="38087296"/>
-        <c:axId val="38113664"/>
+        <c:axId val="37801984"/>
+        <c:axId val="37803520"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="38087296"/>
+        <c:axId val="37801984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1203,7 +1221,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="38113664"/>
+        <c:crossAx val="37803520"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1211,7 +1229,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="38113664"/>
+        <c:axId val="37803520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1222,7 +1240,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="38087296"/>
+        <c:crossAx val="37801984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1593,7 +1611,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R36"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
@@ -1636,7 +1654,7 @@
       </c>
       <c r="B3" s="7">
         <f>SUM(B6,B12,B27)</f>
-        <v>99.5</v>
+        <v>114.5</v>
       </c>
       <c r="C3" s="27">
         <f>AVERAGE(C6,C12,C17,C22,C27)</f>
@@ -1774,7 +1792,7 @@
       </c>
       <c r="B12" s="17">
         <f>BacktestingSoftware!J6</f>
-        <v>96</v>
+        <v>111</v>
       </c>
       <c r="C12" s="29">
         <f>SUM(C13:C16)</f>
@@ -1809,7 +1827,7 @@
       </c>
       <c r="B14" s="19">
         <f>BacktestingSoftware!J3</f>
-        <v>29.5</v>
+        <v>35.5</v>
       </c>
       <c r="C14" s="31">
         <v>0</v>
@@ -1841,7 +1859,7 @@
       </c>
       <c r="B16" s="19">
         <f>BacktestingSoftware!J5</f>
-        <v>20.5</v>
+        <v>29.5</v>
       </c>
       <c r="C16" s="31">
         <v>0</v>
@@ -2013,7 +2031,7 @@
       </c>
       <c r="D28" s="32"/>
     </row>
-    <row r="29" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="18" t="s">
         <v>23</v>
       </c>
@@ -2026,7 +2044,7 @@
       </c>
       <c r="D29" s="32"/>
     </row>
-    <row r="30" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="18" t="s">
         <v>24</v>
       </c>
@@ -2039,7 +2057,7 @@
       </c>
       <c r="D30" s="32"/>
     </row>
-    <row r="31" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="20" t="s">
         <v>25</v>
       </c>
@@ -2052,15 +2070,15 @@
       </c>
       <c r="D31" s="28"/>
     </row>
-    <row r="32" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="33" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="33" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B33" s="10"/>
       <c r="C33" s="10"/>
       <c r="D33" s="11" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="34" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B34" s="47" t="s">
         <v>34</v>
       </c>
@@ -2070,17 +2088,17 @@
         <v>19</v>
       </c>
     </row>
-    <row r="35" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B35" s="41" t="s">
         <v>15</v>
       </c>
       <c r="C35" s="42"/>
       <c r="D35" s="9">
         <f>SUM(Projektmanagment!I14,BacktestingSoftware!I14,Algorithmus!I14,Marktzustandserkennung!I14,Testing_Abschluss!I14)</f>
-        <v>67.5</v>
-      </c>
-    </row>
-    <row r="36" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>82.5</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B36" s="43" t="s">
         <v>35</v>
       </c>
@@ -2340,7 +2358,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="D14" s="1"/>
       <c r="H14" s="33" t="s">
         <v>6</v>
@@ -2350,7 +2368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D15" s="1"/>
       <c r="H15" s="33" t="s">
         <v>33</v>
@@ -2360,15 +2378,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="D16" s="1"/>
       <c r="H16" s="36"/>
       <c r="I16" s="36"/>
     </row>
-    <row r="17" spans="4:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D17" s="1"/>
     </row>
-    <row r="18" spans="4:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D18" s="1"/>
     </row>
   </sheetData>
@@ -2401,17 +2419,17 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J27"/>
+  <dimension ref="A1:J29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13.33203125" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.33203125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="71.88671875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="66.21875" style="3" customWidth="1"/>
     <col min="4" max="4" width="10.88671875" style="3"/>
     <col min="5" max="5" width="10.88671875" style="26"/>
     <col min="6" max="6" width="24.44140625" style="3" customWidth="1"/>
@@ -2498,7 +2516,7 @@
       <c r="I3" s="61"/>
       <c r="J3" s="35">
         <f>SUMIF(B:B,H3,E:E)</f>
-        <v>29.5</v>
+        <v>35.5</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15" x14ac:dyDescent="0.25">
@@ -2554,7 +2572,7 @@
       <c r="I5" s="61"/>
       <c r="J5" s="35">
         <f>SUMIF(B:B,H5,E:E)</f>
-        <v>20.5</v>
+        <v>29.5</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2582,7 +2600,7 @@
       <c r="I6" s="58"/>
       <c r="J6" s="7">
         <f>SUM(J2:J5)</f>
-        <v>96</v>
+        <v>111</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
@@ -2759,7 +2777,7 @@
       </c>
       <c r="I14" s="35">
         <f>SUMIF(A:A,H14,E:E)</f>
-        <v>67.5</v>
+        <v>82.5</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2811,7 +2829,7 @@
       <c r="H16" s="36"/>
       <c r="I16" s="36"/>
     </row>
-    <row r="17" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>6</v>
       </c>
@@ -2831,7 +2849,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>6</v>
       </c>
@@ -3012,7 +3030,64 @@
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D27" s="1"/>
+      <c r="A27" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="D27" s="1">
+        <v>41297</v>
+      </c>
+      <c r="E27" s="26">
+        <v>4.5</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="D28" s="1">
+        <v>41302</v>
+      </c>
+      <c r="E28" s="26">
+        <v>4.5</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="D29" s="1">
+        <v>41303</v>
+      </c>
+      <c r="E29" s="26">
+        <v>6</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>141</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -3295,7 +3370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="D14" s="1"/>
       <c r="H14" s="35" t="s">
         <v>6</v>
@@ -3305,7 +3380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D15" s="1"/>
       <c r="H15" s="35" t="s">
         <v>33</v>
@@ -3315,15 +3390,15 @@
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="D16" s="1"/>
       <c r="H16" s="36"/>
       <c r="I16" s="36"/>
     </row>
-    <row r="17" spans="4:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D17" s="1"/>
     </row>
-    <row r="18" spans="4:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D18" s="1"/>
     </row>
   </sheetData>
@@ -3572,7 +3647,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="D14" s="1"/>
       <c r="H14" s="35" t="s">
         <v>6</v>
@@ -3582,7 +3657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D15" s="1"/>
       <c r="H15" s="35" t="s">
         <v>33</v>
@@ -3592,15 +3667,15 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="D16" s="1"/>
       <c r="H16" s="36"/>
       <c r="I16" s="36"/>
     </row>
-    <row r="17" spans="4:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D17" s="1"/>
     </row>
-    <row r="18" spans="4:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D18" s="1"/>
     </row>
   </sheetData>
@@ -3743,10 +3818,10 @@
     <row r="10" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="D10" s="1"/>
     </row>
-    <row r="11" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D11" s="1"/>
     </row>
-    <row r="12" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D12" s="1"/>
       <c r="H12" s="34" t="s">
         <v>5</v>
@@ -3755,7 +3830,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="D13" s="1"/>
       <c r="H13" s="35" t="s">
         <v>32</v>
@@ -3765,7 +3840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="D14" s="1"/>
       <c r="H14" s="35" t="s">
         <v>6</v>
@@ -3775,7 +3850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D15" s="1"/>
       <c r="H15" s="35" t="s">
         <v>33</v>
@@ -3785,15 +3860,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="D16" s="1"/>
       <c r="H16" s="36"/>
       <c r="I16" s="36"/>
     </row>
-    <row r="17" spans="4:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D17" s="1"/>
     </row>
-    <row r="18" spans="4:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D18" s="1"/>
     </row>
   </sheetData>

--- a/Dokumentation/Noctua_Zeitaufzeichnung.xlsx
+++ b/Dokumentation/Noctua_Zeitaufzeichnung.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="48" yWindow="0" windowWidth="20736" windowHeight="11760"/>
+    <workbookView xWindow="45" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Gesamtstatus" sheetId="4" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="145">
   <si>
     <t>Arbeitspaket</t>
   </si>
@@ -450,6 +450,15 @@
   </si>
   <si>
     <t>#Indikatorenauswahl 80%</t>
+  </si>
+  <si>
+    <t>MACD   Regression</t>
+  </si>
+  <si>
+    <t>quadratische &amp; kubische Regression</t>
+  </si>
+  <si>
+    <t>Unterlagen für qu und ku</t>
   </si>
 </sst>
 </file>
@@ -741,7 +750,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -850,6 +859,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="41">
     <cellStyle name="Besuchter Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -1027,12 +1037,12 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:shape val="box"/>
-        <c:axId val="37779328"/>
-        <c:axId val="37780864"/>
+        <c:axId val="230536320"/>
+        <c:axId val="230556032"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="37779328"/>
+        <c:axId val="230536320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1041,7 +1051,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="37780864"/>
+        <c:crossAx val="230556032"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1049,7 +1059,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="37780864"/>
+        <c:axId val="230556032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1065,7 +1075,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="37779328"/>
+        <c:crossAx val="230536320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1156,7 +1166,6 @@
                 <a:schemeClr val="tx2">
                   <a:lumMod val="60000"/>
                   <a:lumOff val="40000"/>
-                  <a:alpha val="50000"/>
                 </a:schemeClr>
               </a:solidFill>
             </c:spPr>
@@ -1188,10 +1197,10 @@
                   <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>82.5</c:v>
+                  <c:v>83</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>65</c:v>
+                  <c:v>74</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1207,12 +1216,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="37801984"/>
-        <c:axId val="37803520"/>
+        <c:axId val="149680896"/>
+        <c:axId val="149682432"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="37801984"/>
+        <c:axId val="149680896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1221,7 +1230,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="37803520"/>
+        <c:crossAx val="149682432"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1229,7 +1238,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="37803520"/>
+        <c:axId val="149682432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1240,7 +1249,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="37801984"/>
+        <c:crossAx val="149680896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1611,17 +1620,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="M33" sqref="M33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="49"/>
       <c r="B1" s="51" t="s">
         <v>28</v>
@@ -1635,7 +1644,7 @@
       <c r="G1" s="12"/>
       <c r="R1" s="8"/>
     </row>
-    <row r="2" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="50"/>
       <c r="B2" s="52"/>
       <c r="C2" s="13" t="s">
@@ -1654,7 +1663,7 @@
       </c>
       <c r="B3" s="7">
         <f>SUM(B6,B12,B27)</f>
-        <v>114.5</v>
+        <v>115</v>
       </c>
       <c r="C3" s="27">
         <f>AVERAGE(C6,C12,C17,C22,C27)</f>
@@ -1667,7 +1676,7 @@
       <c r="F3" s="12"/>
       <c r="G3" s="12"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="46"/>
       <c r="B4" s="51"/>
       <c r="C4" s="53" t="s">
@@ -1678,7 +1687,7 @@
       <c r="F4" s="12"/>
       <c r="G4" s="12"/>
     </row>
-    <row r="5" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="50"/>
       <c r="B5" s="52"/>
       <c r="C5" s="55"/>
@@ -1687,7 +1696,7 @@
       <c r="F5" s="12"/>
       <c r="G5" s="12"/>
     </row>
-    <row r="6" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="16" t="s">
         <v>13</v>
       </c>
@@ -1706,7 +1715,7 @@
       <c r="F6" s="12"/>
       <c r="G6" s="12"/>
     </row>
-    <row r="7" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="18" t="s">
         <v>18</v>
       </c>
@@ -1722,7 +1731,7 @@
       <c r="F7" s="12"/>
       <c r="G7" s="12"/>
     </row>
-    <row r="8" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="18" t="s">
         <v>17</v>
       </c>
@@ -1738,7 +1747,7 @@
       <c r="F8" s="12"/>
       <c r="G8" s="12"/>
     </row>
-    <row r="9" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="18" t="s">
         <v>19</v>
       </c>
@@ -1754,7 +1763,7 @@
       <c r="F9" s="12"/>
       <c r="G9" s="12"/>
     </row>
-    <row r="10" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="18" t="s">
         <v>20</v>
       </c>
@@ -1786,13 +1795,13 @@
       <c r="F11" s="12"/>
       <c r="G11" s="12"/>
     </row>
-    <row r="12" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="16" t="s">
         <v>54</v>
       </c>
       <c r="B12" s="17">
         <f>BacktestingSoftware!J6</f>
-        <v>111</v>
+        <v>111.5</v>
       </c>
       <c r="C12" s="29">
         <f>SUM(C13:C16)</f>
@@ -1805,7 +1814,7 @@
       <c r="F12" s="12"/>
       <c r="G12" s="12"/>
     </row>
-    <row r="13" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="18" t="s">
         <v>53</v>
       </c>
@@ -1821,7 +1830,7 @@
       <c r="F13" s="12"/>
       <c r="G13" s="12"/>
     </row>
-    <row r="14" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="18" t="s">
         <v>55</v>
       </c>
@@ -1837,7 +1846,7 @@
       <c r="F14" s="12"/>
       <c r="G14" s="12"/>
     </row>
-    <row r="15" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="18" t="s">
         <v>56</v>
       </c>
@@ -1859,20 +1868,20 @@
       </c>
       <c r="B16" s="19">
         <f>BacktestingSoftware!J5</f>
-        <v>29.5</v>
+        <v>30</v>
       </c>
       <c r="C16" s="31">
         <v>0</v>
       </c>
       <c r="D16" s="32"/>
     </row>
-    <row r="17" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="16" t="s">
         <v>58</v>
       </c>
       <c r="B17" s="17">
         <f>Algorithmus!J6</f>
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="C17" s="29">
         <f>SUM(C18:C21)</f>
@@ -1882,20 +1891,20 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="18" t="s">
         <v>59</v>
       </c>
       <c r="B18" s="19">
         <f>Algorithmus!J2</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C18" s="40">
         <v>0</v>
       </c>
       <c r="D18" s="32"/>
     </row>
-    <row r="19" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="18" t="s">
         <v>60</v>
       </c>
@@ -1908,13 +1917,13 @@
       </c>
       <c r="D19" s="32"/>
     </row>
-    <row r="20" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="18" t="s">
         <v>61</v>
       </c>
       <c r="B20" s="19">
         <f>Algorithmus!J4</f>
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C20" s="40">
         <v>0</v>
@@ -1934,7 +1943,7 @@
       </c>
       <c r="D21" s="32"/>
     </row>
-    <row r="22" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="16" t="s">
         <v>63</v>
       </c>
@@ -1950,7 +1959,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="18" t="s">
         <v>59</v>
       </c>
@@ -1963,7 +1972,7 @@
       </c>
       <c r="D23" s="32"/>
     </row>
-    <row r="24" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="18" t="s">
         <v>64</v>
       </c>
@@ -2002,7 +2011,7 @@
       </c>
       <c r="D26" s="32"/>
     </row>
-    <row r="27" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="16" t="s">
         <v>14</v>
       </c>
@@ -2031,7 +2040,7 @@
       </c>
       <c r="D28" s="32"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A29" s="18" t="s">
         <v>23</v>
       </c>
@@ -2044,7 +2053,7 @@
       </c>
       <c r="D29" s="32"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A30" s="18" t="s">
         <v>24</v>
       </c>
@@ -2057,7 +2066,7 @@
       </c>
       <c r="D30" s="32"/>
     </row>
-    <row r="31" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="20" t="s">
         <v>25</v>
       </c>
@@ -2070,15 +2079,15 @@
       </c>
       <c r="D31" s="28"/>
     </row>
-    <row r="32" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="33" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:4" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="33" spans="2:4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B33" s="10"/>
       <c r="C33" s="10"/>
       <c r="D33" s="11" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="34" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B34" s="47" t="s">
         <v>34</v>
       </c>
@@ -2088,24 +2097,24 @@
         <v>19</v>
       </c>
     </row>
-    <row r="35" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B35" s="41" t="s">
         <v>15</v>
       </c>
       <c r="C35" s="42"/>
       <c r="D35" s="9">
         <f>SUM(Projektmanagment!I14,BacktestingSoftware!I14,Algorithmus!I14,Marktzustandserkennung!I14,Testing_Abschluss!I14)</f>
-        <v>82.5</v>
-      </c>
-    </row>
-    <row r="36" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B36" s="43" t="s">
         <v>35</v>
       </c>
       <c r="C36" s="44"/>
       <c r="D36" s="39">
         <f>SUM(Projektmanagment!I15,BacktestingSoftware!I15,Algorithmus!I15,Marktzustandserkennung!I15,Testing_Abschluss!I15)</f>
-        <v>65</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -2135,18 +2144,18 @@
   <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:F6"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.33203125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="71.88671875" style="3" customWidth="1"/>
-    <col min="4" max="4" width="10.88671875" style="3"/>
-    <col min="5" max="5" width="10.88671875" style="26"/>
-    <col min="6" max="6" width="24.44140625" style="3" customWidth="1"/>
-    <col min="9" max="9" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.28515625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="71.85546875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" style="3"/>
+    <col min="5" max="5" width="10.85546875" style="26"/>
+    <col min="6" max="6" width="24.42578125" style="3" customWidth="1"/>
+    <col min="9" max="9" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2176,7 +2185,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>32</v>
       </c>
@@ -2204,7 +2213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>32</v>
       </c>
@@ -2232,7 +2241,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>32</v>
       </c>
@@ -2260,7 +2269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>32</v>
       </c>
@@ -2288,7 +2297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>32</v>
       </c>
@@ -2327,13 +2336,13 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D8" s="24"/>
     </row>
-    <row r="9" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D9" s="1"/>
     </row>
-    <row r="10" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D10" s="1"/>
     </row>
     <row r="11" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2348,7 +2357,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D13" s="1"/>
       <c r="H13" s="33" t="s">
         <v>32</v>
@@ -2358,7 +2367,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="D14" s="1"/>
       <c r="H14" s="33" t="s">
         <v>6</v>
@@ -2368,7 +2377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D15" s="1"/>
       <c r="H15" s="33" t="s">
         <v>33</v>
@@ -2378,15 +2387,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="D16" s="1"/>
       <c r="H16" s="36"/>
       <c r="I16" s="36"/>
     </row>
-    <row r="17" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="4:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="D17" s="1"/>
     </row>
-    <row r="18" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="4:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="D18" s="1"/>
     </row>
   </sheetData>
@@ -2421,19 +2430,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J29"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+    <sheetView topLeftCell="A16" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.33203125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="66.21875" style="3" customWidth="1"/>
-    <col min="4" max="4" width="10.88671875" style="3"/>
-    <col min="5" max="5" width="10.88671875" style="26"/>
-    <col min="6" max="6" width="24.44140625" style="3" customWidth="1"/>
-    <col min="9" max="9" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.28515625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="66.28515625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" style="3"/>
+    <col min="5" max="5" width="10.85546875" style="26"/>
+    <col min="6" max="6" width="24.42578125" style="3" customWidth="1"/>
+    <col min="9" max="9" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2463,7 +2472,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
@@ -2491,7 +2500,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>33</v>
       </c>
@@ -2519,7 +2528,7 @@
         <v>35.5</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
@@ -2572,7 +2581,7 @@
       <c r="I5" s="61"/>
       <c r="J5" s="35">
         <f>SUMIF(B:B,H5,E:E)</f>
-        <v>29.5</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2600,10 +2609,10 @@
       <c r="I6" s="58"/>
       <c r="J6" s="7">
         <f>SUM(J2:J5)</f>
-        <v>111</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+        <v>111.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>33</v>
       </c>
@@ -2623,7 +2632,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>33</v>
       </c>
@@ -2643,7 +2652,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>32</v>
       </c>
@@ -2663,7 +2672,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>32</v>
       </c>
@@ -2726,7 +2735,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>6</v>
       </c>
@@ -2753,7 +2762,7 @@
         <v>11.5</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>33</v>
       </c>
@@ -2777,10 +2786,10 @@
       </c>
       <c r="I14" s="35">
         <f>SUMIF(A:A,H14,E:E)</f>
-        <v>82.5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>6</v>
       </c>
@@ -2807,7 +2816,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>33</v>
       </c>
@@ -2829,7 +2838,7 @@
       <c r="H16" s="36"/>
       <c r="I16" s="36"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>6</v>
       </c>
@@ -2849,7 +2858,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>6</v>
       </c>
@@ -2869,7 +2878,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>6</v>
       </c>
@@ -2889,7 +2898,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>6</v>
       </c>
@@ -2909,7 +2918,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
         <v>6</v>
       </c>
@@ -2929,7 +2938,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>6</v>
       </c>
@@ -2949,7 +2958,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
         <v>6</v>
       </c>
@@ -2969,7 +2978,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>32</v>
       </c>
@@ -2989,7 +2998,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>6</v>
       </c>
@@ -3009,7 +3018,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>32</v>
       </c>
@@ -3029,7 +3038,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>6</v>
       </c>
@@ -3049,7 +3058,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>6</v>
       </c>
@@ -3063,13 +3072,13 @@
         <v>41302</v>
       </c>
       <c r="E28" s="26">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="F28" s="3" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>6</v>
       </c>
@@ -3120,19 +3129,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.33203125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="71.88671875" style="3" customWidth="1"/>
-    <col min="4" max="4" width="10.88671875" style="3"/>
-    <col min="5" max="5" width="10.88671875" style="26"/>
-    <col min="6" max="6" width="24.44140625" style="3" customWidth="1"/>
-    <col min="9" max="9" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.28515625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="71.85546875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" style="3"/>
+    <col min="5" max="5" width="10.85546875" style="26"/>
+    <col min="6" max="6" width="24.42578125" style="3" customWidth="1"/>
+    <col min="9" max="9" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3162,7 +3171,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>33</v>
       </c>
@@ -3187,10 +3196,10 @@
       <c r="I2" s="61"/>
       <c r="J2" s="35">
         <f>SUMIF(B:B,H2,E:E)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>33</v>
       </c>
@@ -3218,7 +3227,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>33</v>
       </c>
@@ -3243,7 +3252,7 @@
       <c r="I4" s="61"/>
       <c r="J4" s="35">
         <f>SUMIF(B:B,H4,E:E)</f>
-        <v>19</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3299,10 +3308,10 @@
       <c r="I6" s="58"/>
       <c r="J6" s="7">
         <f>SUM(J2:J5)</f>
-        <v>35</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>33</v>
       </c>
@@ -3322,7 +3331,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>33</v>
       </c>
@@ -3342,11 +3351,45 @@
         <v>133</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="D9" s="1"/>
-    </row>
-    <row r="10" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="D10" s="1"/>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="D9" s="1">
+        <v>41302</v>
+      </c>
+      <c r="E9" s="26">
+        <v>5</v>
+      </c>
+      <c r="F9" s="68">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="D10" s="1">
+        <v>41303</v>
+      </c>
+      <c r="E10" s="26">
+        <v>4</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D11" s="1"/>
@@ -3360,7 +3403,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D13" s="1"/>
       <c r="H13" s="35" t="s">
         <v>32</v>
@@ -3370,7 +3413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="D14" s="1"/>
       <c r="H14" s="35" t="s">
         <v>6</v>
@@ -3380,25 +3423,25 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D15" s="1"/>
       <c r="H15" s="35" t="s">
         <v>33</v>
       </c>
       <c r="I15" s="35">
         <f>SUMIF(A:A,H15,E:E)</f>
-        <v>35</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="D16" s="1"/>
       <c r="H16" s="36"/>
       <c r="I16" s="36"/>
     </row>
-    <row r="17" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="4:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="D17" s="1"/>
     </row>
-    <row r="18" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="4:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="D18" s="1"/>
     </row>
   </sheetData>
@@ -3435,15 +3478,15 @@
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="36.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="71.88671875" style="3" customWidth="1"/>
-    <col min="4" max="4" width="11.5546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.88671875" style="26"/>
-    <col min="6" max="6" width="24.44140625" style="3" customWidth="1"/>
-    <col min="9" max="9" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="71.85546875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.85546875" style="26"/>
+    <col min="6" max="6" width="24.42578125" style="3" customWidth="1"/>
+    <col min="9" max="9" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3473,7 +3516,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>32</v>
       </c>
@@ -3501,7 +3544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>33</v>
       </c>
@@ -3529,7 +3572,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>33</v>
       </c>
@@ -3613,16 +3656,16 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D7" s="1"/>
     </row>
-    <row r="8" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D8" s="24"/>
     </row>
-    <row r="9" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D9" s="1"/>
     </row>
-    <row r="10" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D10" s="1"/>
     </row>
     <row r="11" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3637,7 +3680,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D13" s="1"/>
       <c r="H13" s="35" t="s">
         <v>32</v>
@@ -3647,7 +3690,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="D14" s="1"/>
       <c r="H14" s="35" t="s">
         <v>6</v>
@@ -3657,7 +3700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D15" s="1"/>
       <c r="H15" s="35" t="s">
         <v>33</v>
@@ -3667,15 +3710,15 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="D16" s="1"/>
       <c r="H16" s="36"/>
       <c r="I16" s="36"/>
     </row>
-    <row r="17" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="4:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="D17" s="1"/>
     </row>
-    <row r="18" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="4:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="D18" s="1"/>
     </row>
   </sheetData>
@@ -3712,15 +3755,15 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.33203125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="71.88671875" style="3" customWidth="1"/>
-    <col min="4" max="4" width="10.88671875" style="3"/>
-    <col min="5" max="5" width="10.88671875" style="37"/>
-    <col min="6" max="6" width="24.44140625" style="3" customWidth="1"/>
-    <col min="9" max="9" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.28515625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="71.85546875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" style="3"/>
+    <col min="5" max="5" width="10.85546875" style="37"/>
+    <col min="6" max="6" width="24.42578125" style="3" customWidth="1"/>
+    <col min="9" max="9" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3750,7 +3793,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B2" s="2"/>
       <c r="D2" s="1"/>
       <c r="H2" s="62" t="s">
@@ -3762,7 +3805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D3" s="1"/>
       <c r="H3" s="64" t="s">
         <v>50</v>
@@ -3773,7 +3816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D4" s="1"/>
       <c r="H4" s="64" t="s">
         <v>51</v>
@@ -3784,7 +3827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D5" s="1"/>
       <c r="H5" s="66" t="s">
         <v>52</v>
@@ -3806,22 +3849,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D7" s="1"/>
     </row>
-    <row r="8" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D8" s="24"/>
     </row>
-    <row r="9" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D9" s="1"/>
     </row>
-    <row r="10" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D10" s="1"/>
     </row>
-    <row r="11" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D11" s="1"/>
     </row>
-    <row r="12" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D12" s="1"/>
       <c r="H12" s="34" t="s">
         <v>5</v>
@@ -3830,7 +3873,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="D13" s="1"/>
       <c r="H13" s="35" t="s">
         <v>32</v>
@@ -3840,7 +3883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="D14" s="1"/>
       <c r="H14" s="35" t="s">
         <v>6</v>
@@ -3850,7 +3893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D15" s="1"/>
       <c r="H15" s="35" t="s">
         <v>33</v>
@@ -3860,15 +3903,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="D16" s="1"/>
       <c r="H16" s="36"/>
       <c r="I16" s="36"/>
     </row>
-    <row r="17" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="4:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="D17" s="1"/>
     </row>
-    <row r="18" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="4:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="D18" s="1"/>
     </row>
   </sheetData>

--- a/Dokumentation/Noctua_Zeitaufzeichnung.xlsx
+++ b/Dokumentation/Noctua_Zeitaufzeichnung.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="45" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="3"/>
+    <workbookView xWindow="45" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Gesamtstatus" sheetId="4" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="149">
   <si>
     <t>Arbeitspaket</t>
   </si>
@@ -449,9 +449,6 @@
     <t>Möglichkeit zur Laufzeit dynamisch die gezeichneten Indikatoren zu bestimmten implementiert</t>
   </si>
   <si>
-    <t>#Indikatorenauswahl 80%</t>
-  </si>
-  <si>
     <t>MACD   Regression</t>
   </si>
   <si>
@@ -459,6 +456,21 @@
   </si>
   <si>
     <t>Unterlagen für qu und ku</t>
+  </si>
+  <si>
+    <t>TrippleCrossed MA</t>
+  </si>
+  <si>
+    <t>Funktionstüchtig</t>
+  </si>
+  <si>
+    <t>Transaktiongebühren berücksichtigt</t>
+  </si>
+  <si>
+    <t>fertiggestellt</t>
+  </si>
+  <si>
+    <t>Indikatorenauswahl 80%</t>
   </si>
 </sst>
 </file>
@@ -796,6 +808,7 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -859,7 +872,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="41">
     <cellStyle name="Besuchter Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -949,7 +961,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1037,12 +1048,12 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:shape val="box"/>
-        <c:axId val="230536320"/>
-        <c:axId val="230556032"/>
+        <c:axId val="152323584"/>
+        <c:axId val="152325120"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="230536320"/>
+        <c:axId val="152323584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1051,7 +1062,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="230556032"/>
+        <c:crossAx val="152325120"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1059,7 +1070,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="230556032"/>
+        <c:axId val="152325120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1075,7 +1086,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="230536320"/>
+        <c:crossAx val="152323584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1110,7 +1121,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1161,14 +1171,6 @@
             <c:idx val="0"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="tx2">
-                  <a:lumMod val="60000"/>
-                  <a:lumOff val="40000"/>
-                </a:schemeClr>
-              </a:solidFill>
-            </c:spPr>
           </c:dPt>
           <c:cat>
             <c:strRef>
@@ -1197,10 +1199,10 @@
                   <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>83</c:v>
+                  <c:v>87.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>74</c:v>
+                  <c:v>78.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1216,12 +1218,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="149680896"/>
-        <c:axId val="149682432"/>
+        <c:axId val="152366464"/>
+        <c:axId val="152368256"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="149680896"/>
+        <c:axId val="152366464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1230,7 +1232,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="149682432"/>
+        <c:crossAx val="152368256"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1238,7 +1240,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="149682432"/>
+        <c:axId val="152368256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1249,7 +1251,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="149680896"/>
+        <c:crossAx val="152366464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1631,22 +1633,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A1" s="49"/>
-      <c r="B1" s="51" t="s">
+      <c r="A1" s="50"/>
+      <c r="B1" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="C1" s="45" t="s">
+      <c r="C1" s="46" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="46"/>
+      <c r="D1" s="47"/>
       <c r="E1" s="12"/>
       <c r="F1" s="12"/>
       <c r="G1" s="12"/>
       <c r="R1" s="8"/>
     </row>
     <row r="2" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="50"/>
-      <c r="B2" s="52"/>
+      <c r="A2" s="51"/>
+      <c r="B2" s="53"/>
       <c r="C2" s="13" t="s">
         <v>26</v>
       </c>
@@ -1663,7 +1665,7 @@
       </c>
       <c r="B3" s="7">
         <f>SUM(B6,B12,B27)</f>
-        <v>115</v>
+        <v>119.5</v>
       </c>
       <c r="C3" s="27">
         <f>AVERAGE(C6,C12,C17,C22,C27)</f>
@@ -1677,21 +1679,21 @@
       <c r="G3" s="12"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="46"/>
-      <c r="B4" s="51"/>
-      <c r="C4" s="53" t="s">
+      <c r="A4" s="47"/>
+      <c r="B4" s="52"/>
+      <c r="C4" s="54" t="s">
         <v>29</v>
       </c>
-      <c r="D4" s="54"/>
+      <c r="D4" s="55"/>
       <c r="E4" s="12"/>
       <c r="F4" s="12"/>
       <c r="G4" s="12"/>
     </row>
     <row r="5" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="50"/>
-      <c r="B5" s="52"/>
-      <c r="C5" s="55"/>
-      <c r="D5" s="56"/>
+      <c r="A5" s="51"/>
+      <c r="B5" s="53"/>
+      <c r="C5" s="56"/>
+      <c r="D5" s="57"/>
       <c r="E5" s="12"/>
       <c r="F5" s="12"/>
       <c r="G5" s="12"/>
@@ -1801,7 +1803,7 @@
       </c>
       <c r="B12" s="17">
         <f>BacktestingSoftware!J6</f>
-        <v>111.5</v>
+        <v>116</v>
       </c>
       <c r="C12" s="29">
         <f>SUM(C13:C16)</f>
@@ -1868,7 +1870,7 @@
       </c>
       <c r="B16" s="19">
         <f>BacktestingSoftware!J5</f>
-        <v>30</v>
+        <v>34.5</v>
       </c>
       <c r="C16" s="31">
         <v>0</v>
@@ -1881,7 +1883,7 @@
       </c>
       <c r="B17" s="17">
         <f>Algorithmus!J6</f>
-        <v>44</v>
+        <v>48.5</v>
       </c>
       <c r="C17" s="29">
         <f>SUM(C18:C21)</f>
@@ -1910,7 +1912,7 @@
       </c>
       <c r="B19" s="19">
         <f>Algorithmus!J3</f>
-        <v>4.5</v>
+        <v>9</v>
       </c>
       <c r="C19" s="40">
         <v>0</v>
@@ -2088,33 +2090,33 @@
       </c>
     </row>
     <row r="34" spans="2:4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B34" s="47" t="s">
+      <c r="B34" s="48" t="s">
         <v>34</v>
       </c>
-      <c r="C34" s="48"/>
+      <c r="C34" s="49"/>
       <c r="D34" s="9">
         <f>SUM(Projektmanagment!I13,BacktestingSoftware!I13,Algorithmus!I13,Marktzustandserkennung!I13,Testing_Abschluss!I13)</f>
         <v>19</v>
       </c>
     </row>
     <row r="35" spans="2:4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B35" s="41" t="s">
+      <c r="B35" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="C35" s="42"/>
+      <c r="C35" s="43"/>
       <c r="D35" s="9">
         <f>SUM(Projektmanagment!I14,BacktestingSoftware!I14,Algorithmus!I14,Marktzustandserkennung!I14,Testing_Abschluss!I14)</f>
-        <v>83</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="36" spans="2:4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B36" s="43" t="s">
+      <c r="B36" s="44" t="s">
         <v>35</v>
       </c>
-      <c r="C36" s="44"/>
+      <c r="C36" s="45"/>
       <c r="D36" s="39">
         <f>SUM(Projektmanagment!I15,BacktestingSoftware!I15,Algorithmus!I15,Marktzustandserkennung!I15,Testing_Abschluss!I15)</f>
-        <v>74</v>
+        <v>78.5</v>
       </c>
     </row>
   </sheetData>
@@ -2177,10 +2179,10 @@
       <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="60" t="s">
-        <v>0</v>
-      </c>
-      <c r="I1" s="60"/>
+      <c r="H1" s="61" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1" s="61"/>
       <c r="J1" s="6" t="s">
         <v>11</v>
       </c>
@@ -2204,10 +2206,10 @@
       <c r="F2" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="H2" s="61" t="s">
+      <c r="H2" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="61"/>
+      <c r="I2" s="62"/>
       <c r="J2" s="4">
         <f>SUMIF(B:B,H2,E:E)</f>
         <v>0</v>
@@ -2232,10 +2234,10 @@
       <c r="F3" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="H3" s="61" t="s">
+      <c r="H3" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="I3" s="61"/>
+      <c r="I3" s="62"/>
       <c r="J3" s="4">
         <f>SUMIF(B:B,H3,E:E)</f>
         <v>3.5</v>
@@ -2260,10 +2262,10 @@
       <c r="F4" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="H4" s="61" t="s">
+      <c r="H4" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="61"/>
+      <c r="I4" s="62"/>
       <c r="J4" s="4">
         <f>SUMIF(B:B,H4,E:E)</f>
         <v>0</v>
@@ -2288,10 +2290,10 @@
       <c r="F5" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="H5" s="61" t="s">
+      <c r="H5" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="I5" s="61"/>
+      <c r="I5" s="62"/>
       <c r="J5" s="4">
         <f>SUMIF(B:B,H5,E:E)</f>
         <v>0</v>
@@ -2316,10 +2318,10 @@
       <c r="F6" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="H6" s="59" t="s">
+      <c r="H6" s="60" t="s">
         <v>10</v>
       </c>
-      <c r="I6" s="59"/>
+      <c r="I6" s="60"/>
       <c r="J6" s="5">
         <f>SUMIF(B:B,H6,E:E)</f>
         <v>0</v>
@@ -2327,10 +2329,10 @@
     </row>
     <row r="7" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D7" s="1"/>
-      <c r="H7" s="57" t="s">
+      <c r="H7" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="I7" s="58"/>
+      <c r="I7" s="59"/>
       <c r="J7" s="7">
         <f>SUM(J2:J6)</f>
         <v>3.5</v>
@@ -2428,10 +2430,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J29"/>
+  <dimension ref="A1:J30"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2464,10 +2466,10 @@
       <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="60" t="s">
-        <v>0</v>
-      </c>
-      <c r="I1" s="60"/>
+      <c r="H1" s="61" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1" s="61"/>
       <c r="J1" s="34" t="s">
         <v>11</v>
       </c>
@@ -2491,10 +2493,10 @@
       <c r="F2" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="H2" s="61" t="s">
+      <c r="H2" s="62" t="s">
         <v>38</v>
       </c>
-      <c r="I2" s="61"/>
+      <c r="I2" s="62"/>
       <c r="J2" s="35">
         <f>SUMIF(B:B,H2,E:E)</f>
         <v>20</v>
@@ -2519,10 +2521,10 @@
       <c r="F3" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="H3" s="61" t="s">
+      <c r="H3" s="62" t="s">
         <v>39</v>
       </c>
-      <c r="I3" s="61"/>
+      <c r="I3" s="62"/>
       <c r="J3" s="35">
         <f>SUMIF(B:B,H3,E:E)</f>
         <v>35.5</v>
@@ -2547,10 +2549,10 @@
       <c r="F4" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="H4" s="61" t="s">
+      <c r="H4" s="62" t="s">
         <v>40</v>
       </c>
-      <c r="I4" s="61"/>
+      <c r="I4" s="62"/>
       <c r="J4" s="35">
         <f>SUMIF(B:B,H4,E:E)</f>
         <v>26</v>
@@ -2575,13 +2577,13 @@
       <c r="F5" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="H5" s="61" t="s">
+      <c r="H5" s="62" t="s">
         <v>41</v>
       </c>
-      <c r="I5" s="61"/>
+      <c r="I5" s="62"/>
       <c r="J5" s="35">
         <f>SUMIF(B:B,H5,E:E)</f>
-        <v>30</v>
+        <v>34.5</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2603,13 +2605,13 @@
       <c r="F6" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="H6" s="57" t="s">
+      <c r="H6" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="I6" s="58"/>
+      <c r="I6" s="59"/>
       <c r="J6" s="7">
         <f>SUM(J2:J5)</f>
-        <v>111.5</v>
+        <v>116</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -2786,7 +2788,7 @@
       </c>
       <c r="I14" s="35">
         <f>SUMIF(A:A,H14,E:E)</f>
-        <v>83</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3095,7 +3097,27 @@
         <v>6</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>141</v>
+        <v>148</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="D30" s="1">
+        <v>41304</v>
+      </c>
+      <c r="E30" s="26">
+        <v>4.5</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>147</v>
       </c>
     </row>
   </sheetData>
@@ -3129,8 +3151,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3163,10 +3185,10 @@
       <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="60" t="s">
-        <v>0</v>
-      </c>
-      <c r="I1" s="60"/>
+      <c r="H1" s="61" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1" s="61"/>
       <c r="J1" s="34" t="s">
         <v>11</v>
       </c>
@@ -3190,10 +3212,10 @@
       <c r="F2" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="H2" s="61" t="s">
+      <c r="H2" s="62" t="s">
         <v>42</v>
       </c>
-      <c r="I2" s="61"/>
+      <c r="I2" s="62"/>
       <c r="J2" s="35">
         <f>SUMIF(B:B,H2,E:E)</f>
         <v>4</v>
@@ -3218,13 +3240,13 @@
       <c r="F3" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="H3" s="61" t="s">
+      <c r="H3" s="62" t="s">
         <v>43</v>
       </c>
-      <c r="I3" s="61"/>
+      <c r="I3" s="62"/>
       <c r="J3" s="35">
         <f>SUMIF(B:B,H3,E:E)</f>
-        <v>4.5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -3246,10 +3268,10 @@
       <c r="F4" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="H4" s="61" t="s">
+      <c r="H4" s="62" t="s">
         <v>44</v>
       </c>
-      <c r="I4" s="61"/>
+      <c r="I4" s="62"/>
       <c r="J4" s="35">
         <f>SUMIF(B:B,H4,E:E)</f>
         <v>24</v>
@@ -3274,10 +3296,10 @@
       <c r="F5" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="H5" s="61" t="s">
+      <c r="H5" s="62" t="s">
         <v>45</v>
       </c>
-      <c r="I5" s="61"/>
+      <c r="I5" s="62"/>
       <c r="J5" s="35">
         <f>SUMIF(B:B,H5,E:E)</f>
         <v>11.5</v>
@@ -3302,13 +3324,13 @@
       <c r="F6" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="H6" s="57" t="s">
+      <c r="H6" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="I6" s="58"/>
+      <c r="I6" s="59"/>
       <c r="J6" s="7">
         <f>SUM(J2:J5)</f>
-        <v>44</v>
+        <v>48.5</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -3359,7 +3381,7 @@
         <v>44</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D9" s="1">
         <v>41302</v>
@@ -3367,7 +3389,7 @@
       <c r="E9" s="26">
         <v>5</v>
       </c>
-      <c r="F9" s="68">
+      <c r="F9" s="41">
         <v>0.8</v>
       </c>
     </row>
@@ -3379,7 +3401,7 @@
         <v>42</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D10" s="1">
         <v>41303</v>
@@ -3388,11 +3410,28 @@
         <v>4</v>
       </c>
       <c r="F10" s="3" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D11" s="1"/>
+      <c r="D11" s="1">
+        <v>41304</v>
+      </c>
+      <c r="E11" s="26">
+        <v>4.5</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="12" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D12" s="1"/>
@@ -3430,7 +3469,7 @@
       </c>
       <c r="I15" s="35">
         <f>SUMIF(A:A,H15,E:E)</f>
-        <v>44</v>
+        <v>48.5</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
@@ -3508,10 +3547,10 @@
       <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="60" t="s">
-        <v>0</v>
-      </c>
-      <c r="I1" s="60"/>
+      <c r="H1" s="61" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1" s="61"/>
       <c r="J1" s="34" t="s">
         <v>11</v>
       </c>
@@ -3535,10 +3574,10 @@
       <c r="F2" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="H2" s="61" t="s">
+      <c r="H2" s="62" t="s">
         <v>42</v>
       </c>
-      <c r="I2" s="61"/>
+      <c r="I2" s="62"/>
       <c r="J2" s="35">
         <f>SUMIF(B:B,H2,E:E)</f>
         <v>0</v>
@@ -3563,10 +3602,10 @@
       <c r="F3" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="H3" s="61" t="s">
+      <c r="H3" s="62" t="s">
         <v>46</v>
       </c>
-      <c r="I3" s="61"/>
+      <c r="I3" s="62"/>
       <c r="J3" s="35">
         <f>SUMIF(B:B,H3,E:E)</f>
         <v>2</v>
@@ -3591,10 +3630,10 @@
       <c r="F4" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="H4" s="61" t="s">
+      <c r="H4" s="62" t="s">
         <v>47</v>
       </c>
-      <c r="I4" s="61"/>
+      <c r="I4" s="62"/>
       <c r="J4" s="35">
         <f>SUMIF(B:B,H4,E:E)</f>
         <v>13</v>
@@ -3619,10 +3658,10 @@
       <c r="F5" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="H5" s="61" t="s">
+      <c r="H5" s="62" t="s">
         <v>48</v>
       </c>
-      <c r="I5" s="61"/>
+      <c r="I5" s="62"/>
       <c r="J5" s="35">
         <f>SUMIF(B:B,H5,E:E)</f>
         <v>0</v>
@@ -3647,10 +3686,10 @@
       <c r="F6" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="H6" s="57" t="s">
+      <c r="H6" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="I6" s="58"/>
+      <c r="I6" s="59"/>
       <c r="J6" s="7">
         <f>SUM(J2:J5)</f>
         <v>15</v>
@@ -3785,10 +3824,10 @@
       <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="60" t="s">
-        <v>0</v>
-      </c>
-      <c r="I1" s="60"/>
+      <c r="H1" s="61" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1" s="61"/>
       <c r="J1" s="34" t="s">
         <v>11</v>
       </c>
@@ -3796,10 +3835,10 @@
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B2" s="2"/>
       <c r="D2" s="1"/>
-      <c r="H2" s="62" t="s">
+      <c r="H2" s="63" t="s">
         <v>49</v>
       </c>
-      <c r="I2" s="63"/>
+      <c r="I2" s="64"/>
       <c r="J2" s="35">
         <f>SUMIF(B:B,H2,E:E)</f>
         <v>0</v>
@@ -3807,10 +3846,10 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D3" s="1"/>
-      <c r="H3" s="64" t="s">
+      <c r="H3" s="65" t="s">
         <v>50</v>
       </c>
-      <c r="I3" s="65"/>
+      <c r="I3" s="66"/>
       <c r="J3" s="35">
         <f>SUMIF(B:B,H3,E:E)</f>
         <v>0</v>
@@ -3818,10 +3857,10 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D4" s="1"/>
-      <c r="H4" s="64" t="s">
+      <c r="H4" s="65" t="s">
         <v>51</v>
       </c>
-      <c r="I4" s="65"/>
+      <c r="I4" s="66"/>
       <c r="J4" s="35">
         <f>SUMIF(B:B,H4,E:E)</f>
         <v>0</v>
@@ -3829,10 +3868,10 @@
     </row>
     <row r="5" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D5" s="1"/>
-      <c r="H5" s="66" t="s">
+      <c r="H5" s="67" t="s">
         <v>52</v>
       </c>
-      <c r="I5" s="67"/>
+      <c r="I5" s="68"/>
       <c r="J5" s="35">
         <f>SUMIF(B:B,H5,E:E)</f>
         <v>0</v>
@@ -3840,10 +3879,10 @@
     </row>
     <row r="6" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D6" s="1"/>
-      <c r="H6" s="57" t="s">
+      <c r="H6" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="I6" s="58"/>
+      <c r="I6" s="59"/>
       <c r="J6" s="7">
         <f>SUM(J2:J5)</f>
         <v>0</v>

--- a/Dokumentation/Noctua_Zeitaufzeichnung.xlsx
+++ b/Dokumentation/Noctua_Zeitaufzeichnung.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="45" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="2"/>
+    <workbookView xWindow="45" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Gesamtstatus" sheetId="4" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="150">
   <si>
     <t>Arbeitspaket</t>
   </si>
@@ -471,6 +471,9 @@
   </si>
   <si>
     <t>Indikatorenauswahl 80%</t>
+  </si>
+  <si>
+    <t>Regression</t>
   </si>
 </sst>
 </file>
@@ -1048,12 +1051,12 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:shape val="box"/>
-        <c:axId val="152323584"/>
-        <c:axId val="152325120"/>
+        <c:axId val="79348096"/>
+        <c:axId val="79349632"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="152323584"/>
+        <c:axId val="79348096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1062,7 +1065,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="152325120"/>
+        <c:crossAx val="79349632"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1070,7 +1073,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="152325120"/>
+        <c:axId val="79349632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1086,7 +1089,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="152323584"/>
+        <c:crossAx val="79348096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1202,7 +1205,7 @@
                   <c:v>87.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>78.5</c:v>
+                  <c:v>83</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1218,12 +1221,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="152366464"/>
-        <c:axId val="152368256"/>
+        <c:axId val="79513472"/>
+        <c:axId val="79515008"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="152366464"/>
+        <c:axId val="79513472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1232,7 +1235,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="152368256"/>
+        <c:crossAx val="79515008"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1240,7 +1243,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="152368256"/>
+        <c:axId val="79515008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1251,7 +1254,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="152366464"/>
+        <c:crossAx val="79513472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1883,7 +1886,7 @@
       </c>
       <c r="B17" s="17">
         <f>Algorithmus!J6</f>
-        <v>48.5</v>
+        <v>53</v>
       </c>
       <c r="C17" s="29">
         <f>SUM(C18:C21)</f>
@@ -1925,7 +1928,7 @@
       </c>
       <c r="B20" s="19">
         <f>Algorithmus!J4</f>
-        <v>24</v>
+        <v>28.5</v>
       </c>
       <c r="C20" s="40">
         <v>0</v>
@@ -2116,7 +2119,7 @@
       <c r="C36" s="45"/>
       <c r="D36" s="39">
         <f>SUM(Projektmanagment!I15,BacktestingSoftware!I15,Algorithmus!I15,Marktzustandserkennung!I15,Testing_Abschluss!I15)</f>
-        <v>78.5</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -2432,8 +2435,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+    <sheetView topLeftCell="A16" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3151,8 +3154,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3274,7 +3277,7 @@
       <c r="I4" s="62"/>
       <c r="J4" s="35">
         <f>SUMIF(B:B,H4,E:E)</f>
-        <v>24</v>
+        <v>28.5</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3330,7 +3333,7 @@
       <c r="I6" s="59"/>
       <c r="J6" s="7">
         <f>SUM(J2:J5)</f>
-        <v>48.5</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -3434,7 +3437,24 @@
       </c>
     </row>
     <row r="12" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D12" s="1"/>
+      <c r="A12" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="D12" s="1">
+        <v>41305</v>
+      </c>
+      <c r="E12" s="26">
+        <v>4.5</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>145</v>
+      </c>
       <c r="H12" s="34" t="s">
         <v>5</v>
       </c>
@@ -3469,7 +3489,7 @@
       </c>
       <c r="I15" s="35">
         <f>SUMIF(A:A,H15,E:E)</f>
-        <v>48.5</v>
+        <v>53</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">

--- a/Dokumentation/Noctua_Zeitaufzeichnung.xlsx
+++ b/Dokumentation/Noctua_Zeitaufzeichnung.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="152">
   <si>
     <t>Arbeitspaket</t>
   </si>
@@ -474,6 +474,12 @@
   </si>
   <si>
     <t>Regression</t>
+  </si>
+  <si>
+    <t>TrippleCrossed 101520 + Momentum</t>
+  </si>
+  <si>
+    <t>17% Gewinn GOOG dbar</t>
   </si>
 </sst>
 </file>
@@ -1051,12 +1057,12 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:shape val="box"/>
-        <c:axId val="79348096"/>
-        <c:axId val="79349632"/>
+        <c:axId val="85319040"/>
+        <c:axId val="86324352"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="79348096"/>
+        <c:axId val="85319040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1065,7 +1071,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="79349632"/>
+        <c:crossAx val="86324352"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1073,7 +1079,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="79349632"/>
+        <c:axId val="86324352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1089,7 +1095,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="79348096"/>
+        <c:crossAx val="85319040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1205,7 +1211,7 @@
                   <c:v>87.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>83</c:v>
+                  <c:v>88</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1221,12 +1227,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="79513472"/>
-        <c:axId val="79515008"/>
+        <c:axId val="86361216"/>
+        <c:axId val="86362752"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="79513472"/>
+        <c:axId val="86361216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1235,7 +1241,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="79515008"/>
+        <c:crossAx val="86362752"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1243,7 +1249,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="79515008"/>
+        <c:axId val="86362752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1254,7 +1260,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="79513472"/>
+        <c:crossAx val="86361216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1886,7 +1892,7 @@
       </c>
       <c r="B17" s="17">
         <f>Algorithmus!J6</f>
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="C17" s="29">
         <f>SUM(C18:C21)</f>
@@ -1928,7 +1934,7 @@
       </c>
       <c r="B20" s="19">
         <f>Algorithmus!J4</f>
-        <v>28.5</v>
+        <v>33.5</v>
       </c>
       <c r="C20" s="40">
         <v>0</v>
@@ -2119,7 +2125,7 @@
       <c r="C36" s="45"/>
       <c r="D36" s="39">
         <f>SUM(Projektmanagment!I15,BacktestingSoftware!I15,Algorithmus!I15,Marktzustandserkennung!I15,Testing_Abschluss!I15)</f>
-        <v>83</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -3155,7 +3161,7 @@
   <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3277,7 +3283,7 @@
       <c r="I4" s="62"/>
       <c r="J4" s="35">
         <f>SUMIF(B:B,H4,E:E)</f>
-        <v>28.5</v>
+        <v>33.5</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3333,7 +3339,7 @@
       <c r="I6" s="59"/>
       <c r="J6" s="7">
         <f>SUM(J2:J5)</f>
-        <v>53</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -3463,7 +3469,24 @@
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D13" s="1"/>
+      <c r="A13" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="D13" s="1">
+        <v>41277</v>
+      </c>
+      <c r="E13" s="26">
+        <v>5</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>151</v>
+      </c>
       <c r="H13" s="35" t="s">
         <v>32</v>
       </c>
@@ -3489,7 +3512,7 @@
       </c>
       <c r="I15" s="35">
         <f>SUMIF(A:A,H15,E:E)</f>
-        <v>53</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">

--- a/Dokumentation/Noctua_Zeitaufzeichnung.xlsx
+++ b/Dokumentation/Noctua_Zeitaufzeichnung.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="45" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="17480" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Gesamtstatus" sheetId="4" r:id="rId1"/>
@@ -14,7 +14,7 @@
     <sheet name="Marktzustandserkennung" sheetId="7" r:id="rId5"/>
     <sheet name="Testing_Abschluss" sheetId="8" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="145621" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="158">
   <si>
     <t>Arbeitspaket</t>
   </si>
@@ -480,6 +480,24 @@
   </si>
   <si>
     <t>17% Gewinn GOOG dbar</t>
+  </si>
+  <si>
+    <t>Adaptive Moving Average, Triple Crossover</t>
+  </si>
+  <si>
+    <t>Implementationsgrundlage</t>
+  </si>
+  <si>
+    <t>F# Grundlagen, AMA</t>
+  </si>
+  <si>
+    <t>50 % AMA</t>
+  </si>
+  <si>
+    <t>AMA, Debugging</t>
+  </si>
+  <si>
+    <t>90 % AMA</t>
   </si>
 </sst>
 </file>
@@ -883,46 +901,46 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="41">
-    <cellStyle name="Besuchter Hyperlink" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="20" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="22" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="24" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="26" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="28" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="30" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="32" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="34" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="36" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="38" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="40" builtinId="9" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Link" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="39" builtinId="8" hidden="1"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -943,7 +961,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="de-AT"/>
+  <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -970,6 +988,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1038,10 +1057,10 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1057,12 +1076,12 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:shape val="box"/>
-        <c:axId val="85319040"/>
-        <c:axId val="86324352"/>
+        <c:axId val="1787355592"/>
+        <c:axId val="1787360008"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="85319040"/>
+        <c:axId val="1787355592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1071,7 +1090,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="86324352"/>
+        <c:crossAx val="1787360008"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1079,7 +1098,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="86324352"/>
+        <c:axId val="1787360008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1095,7 +1114,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="85319040"/>
+        <c:crossAx val="1787355592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1109,7 +1128,7 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.787401575" l="0.7" r="0.7" t="0.787401575" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1118,7 +1137,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="de-AT"/>
+  <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1130,6 +1149,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1205,13 +1225,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>19</c:v>
+                  <c:v>26.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>87.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>88</c:v>
+                  <c:v>88.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1227,12 +1247,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="86361216"/>
-        <c:axId val="86362752"/>
+        <c:axId val="1787389496"/>
+        <c:axId val="1787392408"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="86361216"/>
+        <c:axId val="1787389496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1241,7 +1261,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="86362752"/>
+        <c:crossAx val="1787392408"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1249,7 +1269,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="86362752"/>
+        <c:axId val="1787392408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1260,7 +1280,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="86361216"/>
+        <c:crossAx val="1787389496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1271,7 +1291,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.787401575" l="0.7" r="0.7" t="0.787401575" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1631,17 +1651,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R36"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M33" sqref="M33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="34.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18">
       <c r="A1" s="50"/>
       <c r="B1" s="52" t="s">
         <v>28</v>
@@ -1655,7 +1675,7 @@
       <c r="G1" s="12"/>
       <c r="R1" s="8"/>
     </row>
-    <row r="2" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" ht="15" thickBot="1">
       <c r="A2" s="51"/>
       <c r="B2" s="53"/>
       <c r="C2" s="13" t="s">
@@ -1668,13 +1688,13 @@
       <c r="F2" s="12"/>
       <c r="G2" s="12"/>
     </row>
-    <row r="3" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" ht="15" thickBot="1">
       <c r="A3" s="15" t="s">
         <v>36</v>
       </c>
       <c r="B3" s="7">
         <f>SUM(B6,B12,B27)</f>
-        <v>119.5</v>
+        <v>120</v>
       </c>
       <c r="C3" s="27">
         <f>AVERAGE(C6,C12,C17,C22,C27)</f>
@@ -1687,7 +1707,7 @@
       <c r="F3" s="12"/>
       <c r="G3" s="12"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18">
       <c r="A4" s="47"/>
       <c r="B4" s="52"/>
       <c r="C4" s="54" t="s">
@@ -1698,7 +1718,7 @@
       <c r="F4" s="12"/>
       <c r="G4" s="12"/>
     </row>
-    <row r="5" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" ht="15" thickBot="1">
       <c r="A5" s="51"/>
       <c r="B5" s="53"/>
       <c r="C5" s="56"/>
@@ -1707,13 +1727,13 @@
       <c r="F5" s="12"/>
       <c r="G5" s="12"/>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18">
       <c r="A6" s="16" t="s">
         <v>13</v>
       </c>
       <c r="B6" s="17">
         <f>Projektmanagment!J7</f>
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="C6" s="29">
         <f>SUM(C7:C11)</f>
@@ -1726,7 +1746,7 @@
       <c r="F6" s="12"/>
       <c r="G6" s="12"/>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18">
       <c r="A7" s="18" t="s">
         <v>18</v>
       </c>
@@ -1742,13 +1762,13 @@
       <c r="F7" s="12"/>
       <c r="G7" s="12"/>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18">
       <c r="A8" s="18" t="s">
         <v>17</v>
       </c>
       <c r="B8" s="19">
         <f>Projektmanagment!J3</f>
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="C8" s="31">
         <v>0</v>
@@ -1758,7 +1778,7 @@
       <c r="F8" s="12"/>
       <c r="G8" s="12"/>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18">
       <c r="A9" s="18" t="s">
         <v>19</v>
       </c>
@@ -1774,7 +1794,7 @@
       <c r="F9" s="12"/>
       <c r="G9" s="12"/>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18">
       <c r="A10" s="18" t="s">
         <v>20</v>
       </c>
@@ -1790,7 +1810,7 @@
       <c r="F10" s="12"/>
       <c r="G10" s="12"/>
     </row>
-    <row r="11" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18" ht="15" thickBot="1">
       <c r="A11" s="20" t="s">
         <v>21</v>
       </c>
@@ -1806,7 +1826,7 @@
       <c r="F11" s="12"/>
       <c r="G11" s="12"/>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18">
       <c r="A12" s="16" t="s">
         <v>54</v>
       </c>
@@ -1825,7 +1845,7 @@
       <c r="F12" s="12"/>
       <c r="G12" s="12"/>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18">
       <c r="A13" s="18" t="s">
         <v>53</v>
       </c>
@@ -1841,7 +1861,7 @@
       <c r="F13" s="12"/>
       <c r="G13" s="12"/>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18">
       <c r="A14" s="18" t="s">
         <v>55</v>
       </c>
@@ -1857,7 +1877,7 @@
       <c r="F14" s="12"/>
       <c r="G14" s="12"/>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18">
       <c r="A15" s="18" t="s">
         <v>56</v>
       </c>
@@ -1873,7 +1893,7 @@
       <c r="F15" s="12"/>
       <c r="G15" s="12"/>
     </row>
-    <row r="16" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:18" ht="15" thickBot="1">
       <c r="A16" s="18" t="s">
         <v>57</v>
       </c>
@@ -1886,13 +1906,13 @@
       </c>
       <c r="D16" s="32"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4">
       <c r="A17" s="16" t="s">
         <v>58</v>
       </c>
       <c r="B17" s="17">
         <f>Algorithmus!J6</f>
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="C17" s="29">
         <f>SUM(C18:C21)</f>
@@ -1902,7 +1922,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4">
       <c r="A18" s="18" t="s">
         <v>59</v>
       </c>
@@ -1915,33 +1935,33 @@
       </c>
       <c r="D18" s="32"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4">
       <c r="A19" s="18" t="s">
         <v>60</v>
       </c>
       <c r="B19" s="19">
         <f>Algorithmus!J3</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C19" s="40">
         <v>0</v>
       </c>
       <c r="D19" s="32"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4">
       <c r="A20" s="18" t="s">
         <v>61</v>
       </c>
       <c r="B20" s="19">
         <f>Algorithmus!J4</f>
-        <v>33.5</v>
+        <v>39.5</v>
       </c>
       <c r="C20" s="40">
         <v>0</v>
       </c>
       <c r="D20" s="32"/>
     </row>
-    <row r="21" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" ht="15" thickBot="1">
       <c r="A21" s="18" t="s">
         <v>62</v>
       </c>
@@ -1954,7 +1974,7 @@
       </c>
       <c r="D21" s="32"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4">
       <c r="A22" s="16" t="s">
         <v>63</v>
       </c>
@@ -1970,7 +1990,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4">
       <c r="A23" s="18" t="s">
         <v>59</v>
       </c>
@@ -1983,7 +2003,7 @@
       </c>
       <c r="D23" s="32"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4">
       <c r="A24" s="18" t="s">
         <v>64</v>
       </c>
@@ -1996,7 +2016,7 @@
       </c>
       <c r="D24" s="32"/>
     </row>
-    <row r="25" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" ht="15" customHeight="1">
       <c r="A25" s="18" t="s">
         <v>65</v>
       </c>
@@ -2009,7 +2029,7 @@
       </c>
       <c r="D25" s="32"/>
     </row>
-    <row r="26" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" ht="15" thickBot="1">
       <c r="A26" s="18" t="s">
         <v>66</v>
       </c>
@@ -2022,7 +2042,7 @@
       </c>
       <c r="D26" s="32"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4">
       <c r="A27" s="16" t="s">
         <v>14</v>
       </c>
@@ -2038,7 +2058,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" ht="15.75" customHeight="1">
       <c r="A28" s="18" t="s">
         <v>22</v>
       </c>
@@ -2051,7 +2071,7 @@
       </c>
       <c r="D28" s="32"/>
     </row>
-    <row r="29" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4">
       <c r="A29" s="18" t="s">
         <v>23</v>
       </c>
@@ -2064,7 +2084,7 @@
       </c>
       <c r="D29" s="32"/>
     </row>
-    <row r="30" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4">
       <c r="A30" s="18" t="s">
         <v>24</v>
       </c>
@@ -2077,7 +2097,7 @@
       </c>
       <c r="D30" s="32"/>
     </row>
-    <row r="31" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4" ht="15" thickBot="1">
       <c r="A31" s="20" t="s">
         <v>25</v>
       </c>
@@ -2090,25 +2110,25 @@
       </c>
       <c r="D31" s="28"/>
     </row>
-    <row r="32" spans="1:4" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="33" spans="2:4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:4" ht="15" thickBot="1"/>
+    <row r="33" spans="2:4" ht="15" thickBot="1">
       <c r="B33" s="10"/>
       <c r="C33" s="10"/>
       <c r="D33" s="11" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="34" spans="2:4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:4" ht="15" thickBot="1">
       <c r="B34" s="48" t="s">
         <v>34</v>
       </c>
       <c r="C34" s="49"/>
       <c r="D34" s="9">
         <f>SUM(Projektmanagment!I13,BacktestingSoftware!I13,Algorithmus!I13,Marktzustandserkennung!I13,Testing_Abschluss!I13)</f>
-        <v>19</v>
-      </c>
-    </row>
-    <row r="35" spans="2:4" thickBot="1" x14ac:dyDescent="0.35">
+        <v>26.5</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" ht="15" thickBot="1">
       <c r="B35" s="42" t="s">
         <v>15</v>
       </c>
@@ -2118,7 +2138,7 @@
         <v>87.5</v>
       </c>
     </row>
-    <row r="36" spans="2:4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:4" ht="15" thickBot="1">
       <c r="B36" s="44" t="s">
         <v>35</v>
       </c>
@@ -2154,22 +2174,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="13.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.28515625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="71.85546875" style="3" customWidth="1"/>
-    <col min="4" max="4" width="10.85546875" style="3"/>
-    <col min="5" max="5" width="10.85546875" style="26"/>
-    <col min="6" max="6" width="24.42578125" style="3" customWidth="1"/>
-    <col min="9" max="9" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.33203125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="71.83203125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="10.83203125" style="3"/>
+    <col min="5" max="5" width="10.83203125" style="26"/>
+    <col min="6" max="6" width="24.5" style="3" customWidth="1"/>
+    <col min="9" max="9" width="12.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="15" thickBot="1">
       <c r="A1" s="3" t="s">
         <v>37</v>
       </c>
@@ -2196,7 +2216,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10">
       <c r="A2" s="3" t="s">
         <v>32</v>
       </c>
@@ -2224,7 +2244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10">
       <c r="A3" s="3" t="s">
         <v>32</v>
       </c>
@@ -2249,10 +2269,10 @@
       <c r="I3" s="62"/>
       <c r="J3" s="4">
         <f>SUMIF(B:B,H3,E:E)</f>
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="3" t="s">
         <v>32</v>
       </c>
@@ -2280,7 +2300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10">
       <c r="A5" s="3" t="s">
         <v>32</v>
       </c>
@@ -2308,7 +2328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" ht="15" thickBot="1">
       <c r="A6" s="3" t="s">
         <v>32</v>
       </c>
@@ -2336,30 +2356,47 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D7" s="1"/>
+    <row r="7" spans="1:10" ht="15" thickBot="1">
+      <c r="A7" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D7" s="1">
+        <v>40938</v>
+      </c>
+      <c r="E7" s="26">
+        <v>0.5</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>73</v>
+      </c>
       <c r="H7" s="58" t="s">
         <v>16</v>
       </c>
       <c r="I7" s="59"/>
       <c r="J7" s="7">
         <f>SUM(J2:J6)</f>
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="D8" s="24"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10">
       <c r="D9" s="1"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10">
       <c r="D10" s="1"/>
     </row>
-    <row r="11" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" ht="15" thickBot="1">
       <c r="D11" s="1"/>
     </row>
-    <row r="12" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" ht="15" thickBot="1">
       <c r="D12" s="1"/>
       <c r="H12" s="6" t="s">
         <v>5</v>
@@ -2368,17 +2405,17 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10">
       <c r="D13" s="1"/>
       <c r="H13" s="33" t="s">
         <v>32</v>
       </c>
       <c r="I13" s="4">
         <f>SUMIF(A:A,H13,E:E)</f>
-        <v>5.5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="D14" s="1"/>
       <c r="H14" s="33" t="s">
         <v>6</v>
@@ -2388,7 +2425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:10" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" ht="15" thickBot="1">
       <c r="D15" s="1"/>
       <c r="H15" s="33" t="s">
         <v>33</v>
@@ -2398,15 +2435,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10">
       <c r="D16" s="1"/>
       <c r="H16" s="36"/>
       <c r="I16" s="36"/>
     </row>
-    <row r="17" spans="4:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="17" spans="4:4">
       <c r="D17" s="1"/>
     </row>
-    <row r="18" spans="4:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="18" spans="4:4">
       <c r="D18" s="1"/>
     </row>
   </sheetData>
@@ -2428,7 +2465,6 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -2441,22 +2477,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J30"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="13.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.28515625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="66.28515625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="10.85546875" style="3"/>
-    <col min="5" max="5" width="10.85546875" style="26"/>
-    <col min="6" max="6" width="24.42578125" style="3" customWidth="1"/>
-    <col min="9" max="9" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.33203125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="66.33203125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="10.83203125" style="3"/>
+    <col min="5" max="5" width="10.83203125" style="26"/>
+    <col min="6" max="6" width="24.5" style="3" customWidth="1"/>
+    <col min="9" max="9" width="12.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="15" thickBot="1">
       <c r="A1" s="3" t="s">
         <v>37</v>
       </c>
@@ -2483,7 +2519,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10">
       <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
@@ -2511,7 +2547,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10">
       <c r="A3" s="3" t="s">
         <v>33</v>
       </c>
@@ -2539,7 +2575,7 @@
         <v>35.5</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
@@ -2567,7 +2603,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" ht="15" thickBot="1">
       <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
@@ -2595,7 +2631,7 @@
         <v>34.5</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" ht="15" thickBot="1">
       <c r="A6" s="3" t="s">
         <v>6</v>
       </c>
@@ -2623,7 +2659,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10">
       <c r="A7" s="3" t="s">
         <v>33</v>
       </c>
@@ -2643,7 +2679,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10">
       <c r="A8" s="3" t="s">
         <v>33</v>
       </c>
@@ -2663,7 +2699,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10">
       <c r="A9" s="3" t="s">
         <v>32</v>
       </c>
@@ -2683,7 +2719,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10">
       <c r="A10" s="3" t="s">
         <v>32</v>
       </c>
@@ -2700,7 +2736,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" ht="15" thickBot="1">
       <c r="A11" s="3" t="s">
         <v>6</v>
       </c>
@@ -2720,7 +2756,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" ht="15" thickBot="1">
       <c r="A12" s="3" t="s">
         <v>32</v>
       </c>
@@ -2746,7 +2782,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10">
       <c r="A13" s="3" t="s">
         <v>6</v>
       </c>
@@ -2773,7 +2809,7 @@
         <v>11.5</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10">
       <c r="A14" s="3" t="s">
         <v>33</v>
       </c>
@@ -2800,7 +2836,7 @@
         <v>87.5</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" ht="15" thickBot="1">
       <c r="A15" s="3" t="s">
         <v>6</v>
       </c>
@@ -2827,7 +2863,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10">
       <c r="A16" s="3" t="s">
         <v>33</v>
       </c>
@@ -2849,7 +2885,7 @@
       <c r="H16" s="36"/>
       <c r="I16" s="36"/>
     </row>
-    <row r="17" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6">
       <c r="A17" s="3" t="s">
         <v>6</v>
       </c>
@@ -2869,7 +2905,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6">
       <c r="A18" s="3" t="s">
         <v>6</v>
       </c>
@@ -2889,7 +2925,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6">
       <c r="A19" s="3" t="s">
         <v>6</v>
       </c>
@@ -2909,7 +2945,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6">
       <c r="A20" s="3" t="s">
         <v>6</v>
       </c>
@@ -2929,7 +2965,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6">
       <c r="A21" s="3" t="s">
         <v>6</v>
       </c>
@@ -2949,7 +2985,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6">
       <c r="A22" s="3" t="s">
         <v>6</v>
       </c>
@@ -2969,7 +3005,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6">
       <c r="A23" s="3" t="s">
         <v>6</v>
       </c>
@@ -2989,7 +3025,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6">
       <c r="A24" s="3" t="s">
         <v>32</v>
       </c>
@@ -3009,7 +3045,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6">
       <c r="A25" s="3" t="s">
         <v>6</v>
       </c>
@@ -3029,7 +3065,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6">
       <c r="A26" s="3" t="s">
         <v>32</v>
       </c>
@@ -3049,7 +3085,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6">
       <c r="A27" s="3" t="s">
         <v>6</v>
       </c>
@@ -3069,7 +3105,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6">
       <c r="A28" s="3" t="s">
         <v>6</v>
       </c>
@@ -3089,7 +3125,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6">
       <c r="A29" s="3" t="s">
         <v>6</v>
       </c>
@@ -3109,7 +3145,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6">
       <c r="A30" s="3" t="s">
         <v>6</v>
       </c>
@@ -3147,7 +3183,6 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -3160,22 +3195,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="13.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.28515625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="71.85546875" style="3" customWidth="1"/>
-    <col min="4" max="4" width="10.85546875" style="3"/>
-    <col min="5" max="5" width="10.85546875" style="26"/>
-    <col min="6" max="6" width="24.42578125" style="3" customWidth="1"/>
-    <col min="9" max="9" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.33203125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="71.83203125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="10.83203125" style="3"/>
+    <col min="5" max="5" width="10.83203125" style="26"/>
+    <col min="6" max="6" width="24.5" style="3" customWidth="1"/>
+    <col min="9" max="9" width="12.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="15" thickBot="1">
       <c r="A1" s="3" t="s">
         <v>37</v>
       </c>
@@ -3202,7 +3237,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10">
       <c r="A2" s="3" t="s">
         <v>33</v>
       </c>
@@ -3230,7 +3265,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10">
       <c r="A3" s="3" t="s">
         <v>33</v>
       </c>
@@ -3255,10 +3290,10 @@
       <c r="I3" s="62"/>
       <c r="J3" s="35">
         <f>SUMIF(B:B,H3,E:E)</f>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="3" t="s">
         <v>33</v>
       </c>
@@ -3283,10 +3318,10 @@
       <c r="I4" s="62"/>
       <c r="J4" s="35">
         <f>SUMIF(B:B,H4,E:E)</f>
-        <v>33.5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>39.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="15" thickBot="1">
       <c r="A5" s="3" t="s">
         <v>33</v>
       </c>
@@ -3314,7 +3349,7 @@
         <v>11.5</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" ht="15" thickBot="1">
       <c r="A6" s="3" t="s">
         <v>33</v>
       </c>
@@ -3339,10 +3374,10 @@
       <c r="I6" s="59"/>
       <c r="J6" s="7">
         <f>SUM(J2:J5)</f>
-        <v>58</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="3" t="s">
         <v>33</v>
       </c>
@@ -3362,7 +3397,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10">
       <c r="A8" s="3" t="s">
         <v>33</v>
       </c>
@@ -3382,7 +3417,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10">
       <c r="A9" s="3" t="s">
         <v>33</v>
       </c>
@@ -3402,7 +3437,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10">
       <c r="A10" s="3" t="s">
         <v>33</v>
       </c>
@@ -3422,7 +3457,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" ht="15" thickBot="1">
       <c r="A11" s="3" t="s">
         <v>33</v>
       </c>
@@ -3442,7 +3477,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" ht="15" thickBot="1">
       <c r="A12" s="3" t="s">
         <v>33</v>
       </c>
@@ -3468,7 +3503,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10">
       <c r="A13" s="3" t="s">
         <v>33</v>
       </c>
@@ -3492,11 +3527,28 @@
       </c>
       <c r="I13" s="35">
         <f>SUMIF(A:A,H13,E:E)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="D14" s="1"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="D14" s="1">
+        <v>41304</v>
+      </c>
+      <c r="E14" s="26">
+        <v>1</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>153</v>
+      </c>
       <c r="H14" s="35" t="s">
         <v>6</v>
       </c>
@@ -3505,8 +3557,25 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:10" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D15" s="1"/>
+    <row r="15" spans="1:10" ht="15" thickBot="1">
+      <c r="A15" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="D15" s="1">
+        <v>41304</v>
+      </c>
+      <c r="E15" s="26">
+        <v>3</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>155</v>
+      </c>
       <c r="H15" s="35" t="s">
         <v>33</v>
       </c>
@@ -3515,15 +3584,32 @@
         <v>58</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="D16" s="1"/>
+    <row r="16" spans="1:10">
+      <c r="A16" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="D16" s="1">
+        <v>41305</v>
+      </c>
+      <c r="E16" s="26">
+        <v>3</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>157</v>
+      </c>
       <c r="H16" s="36"/>
       <c r="I16" s="36"/>
     </row>
-    <row r="17" spans="4:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="17" spans="4:4">
       <c r="D17" s="1"/>
     </row>
-    <row r="18" spans="4:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="18" spans="4:4">
       <c r="D18" s="1"/>
     </row>
   </sheetData>
@@ -3556,22 +3642,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="13.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="36.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="71.85546875" style="3" customWidth="1"/>
-    <col min="4" max="4" width="11.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.85546875" style="26"/>
-    <col min="6" max="6" width="24.42578125" style="3" customWidth="1"/>
-    <col min="9" max="9" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="71.83203125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="11.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.83203125" style="26"/>
+    <col min="6" max="6" width="24.5" style="3" customWidth="1"/>
+    <col min="9" max="9" width="12.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="15" thickBot="1">
       <c r="A1" s="3" t="s">
         <v>37</v>
       </c>
@@ -3598,7 +3684,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10">
       <c r="A2" s="3" t="s">
         <v>32</v>
       </c>
@@ -3626,7 +3712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10">
       <c r="A3" s="3" t="s">
         <v>33</v>
       </c>
@@ -3654,7 +3740,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10">
       <c r="A4" s="3" t="s">
         <v>33</v>
       </c>
@@ -3682,7 +3768,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" ht="15" thickBot="1">
       <c r="A5" s="3" t="s">
         <v>33</v>
       </c>
@@ -3710,7 +3796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" ht="15" thickBot="1">
       <c r="A6" s="3" t="s">
         <v>33</v>
       </c>
@@ -3738,22 +3824,22 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10">
       <c r="D7" s="1"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10">
       <c r="D8" s="24"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10">
       <c r="D9" s="1"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10">
       <c r="D10" s="1"/>
     </row>
-    <row r="11" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" ht="15" thickBot="1">
       <c r="D11" s="1"/>
     </row>
-    <row r="12" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" ht="15" thickBot="1">
       <c r="D12" s="1"/>
       <c r="H12" s="34" t="s">
         <v>5</v>
@@ -3762,7 +3848,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10">
       <c r="D13" s="1"/>
       <c r="H13" s="35" t="s">
         <v>32</v>
@@ -3772,7 +3858,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10">
       <c r="D14" s="1"/>
       <c r="H14" s="35" t="s">
         <v>6</v>
@@ -3782,7 +3868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:10" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" ht="15" thickBot="1">
       <c r="D15" s="1"/>
       <c r="H15" s="35" t="s">
         <v>33</v>
@@ -3792,15 +3878,15 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10">
       <c r="D16" s="1"/>
       <c r="H16" s="36"/>
       <c r="I16" s="36"/>
     </row>
-    <row r="17" spans="4:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="17" spans="4:4">
       <c r="D17" s="1"/>
     </row>
-    <row r="18" spans="4:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="18" spans="4:4">
       <c r="D18" s="1"/>
     </row>
   </sheetData>
@@ -3837,18 +3923,18 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="13.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.28515625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="71.85546875" style="3" customWidth="1"/>
-    <col min="4" max="4" width="10.85546875" style="3"/>
-    <col min="5" max="5" width="10.85546875" style="37"/>
-    <col min="6" max="6" width="24.42578125" style="3" customWidth="1"/>
-    <col min="9" max="9" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.33203125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="71.83203125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="10.83203125" style="3"/>
+    <col min="5" max="5" width="10.83203125" style="37"/>
+    <col min="6" max="6" width="24.5" style="3" customWidth="1"/>
+    <col min="9" max="9" width="12.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="15" thickBot="1">
       <c r="A1" s="3" t="s">
         <v>37</v>
       </c>
@@ -3875,7 +3961,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10">
       <c r="B2" s="2"/>
       <c r="D2" s="1"/>
       <c r="H2" s="63" t="s">
@@ -3887,7 +3973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10">
       <c r="D3" s="1"/>
       <c r="H3" s="65" t="s">
         <v>50</v>
@@ -3898,7 +3984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10">
       <c r="D4" s="1"/>
       <c r="H4" s="65" t="s">
         <v>51</v>
@@ -3909,7 +3995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" ht="15" thickBot="1">
       <c r="D5" s="1"/>
       <c r="H5" s="67" t="s">
         <v>52</v>
@@ -3920,7 +4006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" ht="15" thickBot="1">
       <c r="D6" s="1"/>
       <c r="H6" s="58" t="s">
         <v>16</v>
@@ -3931,22 +4017,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10">
       <c r="D7" s="1"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10">
       <c r="D8" s="24"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10">
       <c r="D9" s="1"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10">
       <c r="D10" s="1"/>
     </row>
-    <row r="11" spans="1:10" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" ht="15" thickBot="1">
       <c r="D11" s="1"/>
     </row>
-    <row r="12" spans="1:10" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" ht="15" thickBot="1">
       <c r="D12" s="1"/>
       <c r="H12" s="34" t="s">
         <v>5</v>
@@ -3955,7 +4041,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10">
       <c r="D13" s="1"/>
       <c r="H13" s="35" t="s">
         <v>32</v>
@@ -3965,7 +4051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10">
       <c r="D14" s="1"/>
       <c r="H14" s="35" t="s">
         <v>6</v>
@@ -3975,7 +4061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:10" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" ht="15" thickBot="1">
       <c r="D15" s="1"/>
       <c r="H15" s="35" t="s">
         <v>33</v>
@@ -3985,15 +4071,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10">
       <c r="D16" s="1"/>
       <c r="H16" s="36"/>
       <c r="I16" s="36"/>
     </row>
-    <row r="17" spans="4:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="17" spans="4:4">
       <c r="D17" s="1"/>
     </row>
-    <row r="18" spans="4:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="18" spans="4:4">
       <c r="D18" s="1"/>
     </row>
   </sheetData>

--- a/Dokumentation/Noctua_Zeitaufzeichnung.xlsx
+++ b/Dokumentation/Noctua_Zeitaufzeichnung.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
-  <workbookPr autoCompressPictures="0"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="17480" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Gesamtstatus" sheetId="4" r:id="rId1"/>
@@ -14,7 +14,7 @@
     <sheet name="Marktzustandserkennung" sheetId="7" r:id="rId5"/>
     <sheet name="Testing_Abschluss" sheetId="8" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="160">
   <si>
     <t>Arbeitspaket</t>
   </si>
@@ -498,6 +498,12 @@
   </si>
   <si>
     <t>90 % AMA</t>
+  </si>
+  <si>
+    <t>Vortex implementieren</t>
+  </si>
+  <si>
+    <t>Implentierung vollständig, Interpretation mangelhaft</t>
   </si>
 </sst>
 </file>
@@ -901,46 +907,46 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="41">
-    <cellStyle name="Besuchter Link" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="20" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="22" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="24" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="26" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="28" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="30" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="32" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="34" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="36" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="38" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="40" builtinId="9" hidden="1"/>
-    <cellStyle name="Link" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="7" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="9" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="11" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="13" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="15" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="17" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="19" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="21" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="23" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="25" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="27" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="29" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="31" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="33" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="35" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="37" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -961,7 +967,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
+  <c:lang val="de-AT"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -988,7 +994,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1057,10 +1062,10 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1076,12 +1081,12 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:shape val="box"/>
-        <c:axId val="1787355592"/>
-        <c:axId val="1787360008"/>
+        <c:axId val="158522752"/>
+        <c:axId val="57427072"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="1787355592"/>
+        <c:axId val="158522752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1090,7 +1095,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1787360008"/>
+        <c:crossAx val="57427072"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1098,7 +1103,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1787360008"/>
+        <c:axId val="57427072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1114,7 +1119,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="1787355592"/>
+        <c:crossAx val="158522752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1128,7 +1133,7 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.787401575" l="0.7" r="0.7" t="0.787401575" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1137,7 +1142,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
+  <c:lang val="de-AT"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1149,7 +1154,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1231,7 +1235,7 @@
                   <c:v>87.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>88.0</c:v>
+                  <c:v>93</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1247,12 +1251,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="1787389496"/>
-        <c:axId val="1787392408"/>
+        <c:axId val="57435264"/>
+        <c:axId val="57436800"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="1787389496"/>
+        <c:axId val="57435264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1261,7 +1265,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1787392408"/>
+        <c:crossAx val="57436800"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1269,7 +1273,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1787392408"/>
+        <c:axId val="57436800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1280,7 +1284,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1787389496"/>
+        <c:crossAx val="57435264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1291,7 +1295,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.787401575" l="0.7" r="0.7" t="0.787401575" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1655,13 +1659,13 @@
       <selection activeCell="M33" sqref="M33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="50"/>
       <c r="B1" s="52" t="s">
         <v>28</v>
@@ -1675,7 +1679,7 @@
       <c r="G1" s="12"/>
       <c r="R1" s="8"/>
     </row>
-    <row r="2" spans="1:18" ht="15" thickBot="1">
+    <row r="2" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="51"/>
       <c r="B2" s="53"/>
       <c r="C2" s="13" t="s">
@@ -1688,7 +1692,7 @@
       <c r="F2" s="12"/>
       <c r="G2" s="12"/>
     </row>
-    <row r="3" spans="1:18" ht="15" thickBot="1">
+    <row r="3" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="15" t="s">
         <v>36</v>
       </c>
@@ -1707,7 +1711,7 @@
       <c r="F3" s="12"/>
       <c r="G3" s="12"/>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="47"/>
       <c r="B4" s="52"/>
       <c r="C4" s="54" t="s">
@@ -1718,7 +1722,7 @@
       <c r="F4" s="12"/>
       <c r="G4" s="12"/>
     </row>
-    <row r="5" spans="1:18" ht="15" thickBot="1">
+    <row r="5" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="51"/>
       <c r="B5" s="53"/>
       <c r="C5" s="56"/>
@@ -1727,7 +1731,7 @@
       <c r="F5" s="12"/>
       <c r="G5" s="12"/>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="16" t="s">
         <v>13</v>
       </c>
@@ -1746,7 +1750,7 @@
       <c r="F6" s="12"/>
       <c r="G6" s="12"/>
     </row>
-    <row r="7" spans="1:18">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="18" t="s">
         <v>18</v>
       </c>
@@ -1762,7 +1766,7 @@
       <c r="F7" s="12"/>
       <c r="G7" s="12"/>
     </row>
-    <row r="8" spans="1:18">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="18" t="s">
         <v>17</v>
       </c>
@@ -1778,7 +1782,7 @@
       <c r="F8" s="12"/>
       <c r="G8" s="12"/>
     </row>
-    <row r="9" spans="1:18">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="18" t="s">
         <v>19</v>
       </c>
@@ -1794,7 +1798,7 @@
       <c r="F9" s="12"/>
       <c r="G9" s="12"/>
     </row>
-    <row r="10" spans="1:18">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="18" t="s">
         <v>20</v>
       </c>
@@ -1810,7 +1814,7 @@
       <c r="F10" s="12"/>
       <c r="G10" s="12"/>
     </row>
-    <row r="11" spans="1:18" ht="15" thickBot="1">
+    <row r="11" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="20" t="s">
         <v>21</v>
       </c>
@@ -1826,7 +1830,7 @@
       <c r="F11" s="12"/>
       <c r="G11" s="12"/>
     </row>
-    <row r="12" spans="1:18">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="16" t="s">
         <v>54</v>
       </c>
@@ -1845,7 +1849,7 @@
       <c r="F12" s="12"/>
       <c r="G12" s="12"/>
     </row>
-    <row r="13" spans="1:18">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="18" t="s">
         <v>53</v>
       </c>
@@ -1861,7 +1865,7 @@
       <c r="F13" s="12"/>
       <c r="G13" s="12"/>
     </row>
-    <row r="14" spans="1:18">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="18" t="s">
         <v>55</v>
       </c>
@@ -1877,7 +1881,7 @@
       <c r="F14" s="12"/>
       <c r="G14" s="12"/>
     </row>
-    <row r="15" spans="1:18">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="18" t="s">
         <v>56</v>
       </c>
@@ -1893,7 +1897,7 @@
       <c r="F15" s="12"/>
       <c r="G15" s="12"/>
     </row>
-    <row r="16" spans="1:18" ht="15" thickBot="1">
+    <row r="16" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="18" t="s">
         <v>57</v>
       </c>
@@ -1906,13 +1910,13 @@
       </c>
       <c r="D16" s="32"/>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="16" t="s">
         <v>58</v>
       </c>
       <c r="B17" s="17">
         <f>Algorithmus!J6</f>
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="C17" s="29">
         <f>SUM(C18:C21)</f>
@@ -1922,7 +1926,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="18" t="s">
         <v>59</v>
       </c>
@@ -1935,7 +1939,7 @@
       </c>
       <c r="D18" s="32"/>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="18" t="s">
         <v>60</v>
       </c>
@@ -1948,20 +1952,20 @@
       </c>
       <c r="D19" s="32"/>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="18" t="s">
         <v>61</v>
       </c>
       <c r="B20" s="19">
         <f>Algorithmus!J4</f>
-        <v>39.5</v>
+        <v>44.5</v>
       </c>
       <c r="C20" s="40">
         <v>0</v>
       </c>
       <c r="D20" s="32"/>
     </row>
-    <row r="21" spans="1:4" ht="15" thickBot="1">
+    <row r="21" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="18" t="s">
         <v>62</v>
       </c>
@@ -1974,7 +1978,7 @@
       </c>
       <c r="D21" s="32"/>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="16" t="s">
         <v>63</v>
       </c>
@@ -1990,7 +1994,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="18" t="s">
         <v>59</v>
       </c>
@@ -2003,7 +2007,7 @@
       </c>
       <c r="D23" s="32"/>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="18" t="s">
         <v>64</v>
       </c>
@@ -2016,7 +2020,7 @@
       </c>
       <c r="D24" s="32"/>
     </row>
-    <row r="25" spans="1:4" ht="15" customHeight="1">
+    <row r="25" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="18" t="s">
         <v>65</v>
       </c>
@@ -2029,7 +2033,7 @@
       </c>
       <c r="D25" s="32"/>
     </row>
-    <row r="26" spans="1:4" ht="15" thickBot="1">
+    <row r="26" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="18" t="s">
         <v>66</v>
       </c>
@@ -2042,7 +2046,7 @@
       </c>
       <c r="D26" s="32"/>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="16" t="s">
         <v>14</v>
       </c>
@@ -2058,7 +2062,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="15.75" customHeight="1">
+    <row r="28" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="18" t="s">
         <v>22</v>
       </c>
@@ -2071,7 +2075,7 @@
       </c>
       <c r="D28" s="32"/>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="18" t="s">
         <v>23</v>
       </c>
@@ -2084,7 +2088,7 @@
       </c>
       <c r="D29" s="32"/>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="18" t="s">
         <v>24</v>
       </c>
@@ -2097,7 +2101,7 @@
       </c>
       <c r="D30" s="32"/>
     </row>
-    <row r="31" spans="1:4" ht="15" thickBot="1">
+    <row r="31" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="20" t="s">
         <v>25</v>
       </c>
@@ -2110,15 +2114,15 @@
       </c>
       <c r="D31" s="28"/>
     </row>
-    <row r="32" spans="1:4" ht="15" thickBot="1"/>
-    <row r="33" spans="2:4" ht="15" thickBot="1">
+    <row r="32" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="33" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B33" s="10"/>
       <c r="C33" s="10"/>
       <c r="D33" s="11" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="34" spans="2:4" ht="15" thickBot="1">
+    <row r="34" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B34" s="48" t="s">
         <v>34</v>
       </c>
@@ -2128,7 +2132,7 @@
         <v>26.5</v>
       </c>
     </row>
-    <row r="35" spans="2:4" ht="15" thickBot="1">
+    <row r="35" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B35" s="42" t="s">
         <v>15</v>
       </c>
@@ -2138,14 +2142,14 @@
         <v>87.5</v>
       </c>
     </row>
-    <row r="36" spans="2:4" ht="15" thickBot="1">
+    <row r="36" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B36" s="44" t="s">
         <v>35</v>
       </c>
       <c r="C36" s="45"/>
       <c r="D36" s="39">
         <f>SUM(Projektmanagment!I15,BacktestingSoftware!I15,Algorithmus!I15,Marktzustandserkennung!I15,Testing_Abschluss!I15)</f>
-        <v>88</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -2178,18 +2182,18 @@
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.33203125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="71.83203125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="10.83203125" style="3"/>
-    <col min="5" max="5" width="10.83203125" style="26"/>
-    <col min="6" max="6" width="24.5" style="3" customWidth="1"/>
-    <col min="9" max="9" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.28515625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="71.85546875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" style="3"/>
+    <col min="5" max="5" width="10.85546875" style="26"/>
+    <col min="6" max="6" width="24.42578125" style="3" customWidth="1"/>
+    <col min="9" max="9" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" thickBot="1">
+    <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>37</v>
       </c>
@@ -2216,7 +2220,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>32</v>
       </c>
@@ -2244,7 +2248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>32</v>
       </c>
@@ -2272,7 +2276,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>32</v>
       </c>
@@ -2300,7 +2304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>32</v>
       </c>
@@ -2328,7 +2332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15" thickBot="1">
+    <row r="6" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>32</v>
       </c>
@@ -2356,7 +2360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="15" thickBot="1">
+    <row r="7" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>32</v>
       </c>
@@ -2384,19 +2388,19 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D8" s="24"/>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D9" s="1"/>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D10" s="1"/>
     </row>
-    <row r="11" spans="1:10" ht="15" thickBot="1">
+    <row r="11" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D11" s="1"/>
     </row>
-    <row r="12" spans="1:10" ht="15" thickBot="1">
+    <row r="12" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D12" s="1"/>
       <c r="H12" s="6" t="s">
         <v>5</v>
@@ -2405,7 +2409,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D13" s="1"/>
       <c r="H13" s="33" t="s">
         <v>32</v>
@@ -2415,7 +2419,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D14" s="1"/>
       <c r="H14" s="33" t="s">
         <v>6</v>
@@ -2425,7 +2429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15" thickBot="1">
+    <row r="15" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D15" s="1"/>
       <c r="H15" s="33" t="s">
         <v>33</v>
@@ -2435,15 +2439,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D16" s="1"/>
       <c r="H16" s="36"/>
       <c r="I16" s="36"/>
     </row>
-    <row r="17" spans="4:4">
+    <row r="17" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D17" s="1"/>
     </row>
-    <row r="18" spans="4:4">
+    <row r="18" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D18" s="1"/>
     </row>
   </sheetData>
@@ -2481,18 +2485,18 @@
       <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.33203125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="66.33203125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="10.83203125" style="3"/>
-    <col min="5" max="5" width="10.83203125" style="26"/>
-    <col min="6" max="6" width="24.5" style="3" customWidth="1"/>
-    <col min="9" max="9" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.28515625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="66.28515625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" style="3"/>
+    <col min="5" max="5" width="10.85546875" style="26"/>
+    <col min="6" max="6" width="24.42578125" style="3" customWidth="1"/>
+    <col min="9" max="9" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" thickBot="1">
+    <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>37</v>
       </c>
@@ -2519,7 +2523,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
@@ -2547,7 +2551,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>33</v>
       </c>
@@ -2575,7 +2579,7 @@
         <v>35.5</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
@@ -2603,7 +2607,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="15" thickBot="1">
+    <row r="5" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
@@ -2631,7 +2635,7 @@
         <v>34.5</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15" thickBot="1">
+    <row r="6" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>6</v>
       </c>
@@ -2659,7 +2663,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>33</v>
       </c>
@@ -2679,7 +2683,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>33</v>
       </c>
@@ -2699,7 +2703,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>32</v>
       </c>
@@ -2719,7 +2723,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>32</v>
       </c>
@@ -2736,7 +2740,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15" thickBot="1">
+    <row r="11" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>6</v>
       </c>
@@ -2756,7 +2760,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="15" thickBot="1">
+    <row r="12" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>32</v>
       </c>
@@ -2782,7 +2786,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>6</v>
       </c>
@@ -2809,7 +2813,7 @@
         <v>11.5</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>33</v>
       </c>
@@ -2836,7 +2840,7 @@
         <v>87.5</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15" thickBot="1">
+    <row r="15" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>6</v>
       </c>
@@ -2863,7 +2867,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>33</v>
       </c>
@@ -2885,7 +2889,7 @@
       <c r="H16" s="36"/>
       <c r="I16" s="36"/>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>6</v>
       </c>
@@ -2905,7 +2909,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>6</v>
       </c>
@@ -2925,7 +2929,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>6</v>
       </c>
@@ -2945,7 +2949,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>6</v>
       </c>
@@ -2965,7 +2969,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>6</v>
       </c>
@@ -2985,7 +2989,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>6</v>
       </c>
@@ -3005,7 +3009,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>6</v>
       </c>
@@ -3025,7 +3029,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>32</v>
       </c>
@@ -3045,7 +3049,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>6</v>
       </c>
@@ -3065,7 +3069,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>32</v>
       </c>
@@ -3085,7 +3089,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>6</v>
       </c>
@@ -3105,7 +3109,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>6</v>
       </c>
@@ -3125,7 +3129,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>6</v>
       </c>
@@ -3145,7 +3149,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>6</v>
       </c>
@@ -3196,21 +3200,21 @@
   <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.33203125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="71.83203125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="10.83203125" style="3"/>
-    <col min="5" max="5" width="10.83203125" style="26"/>
-    <col min="6" max="6" width="24.5" style="3" customWidth="1"/>
-    <col min="9" max="9" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.28515625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="71.85546875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" style="3"/>
+    <col min="5" max="5" width="10.85546875" style="26"/>
+    <col min="6" max="6" width="24.42578125" style="3" customWidth="1"/>
+    <col min="9" max="9" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" thickBot="1">
+    <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>37</v>
       </c>
@@ -3237,7 +3241,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>33</v>
       </c>
@@ -3265,7 +3269,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>33</v>
       </c>
@@ -3293,7 +3297,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>33</v>
       </c>
@@ -3318,10 +3322,10 @@
       <c r="I4" s="62"/>
       <c r="J4" s="35">
         <f>SUMIF(B:B,H4,E:E)</f>
-        <v>39.5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="15" thickBot="1">
+        <v>44.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>33</v>
       </c>
@@ -3349,7 +3353,7 @@
         <v>11.5</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15" thickBot="1">
+    <row r="6" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>33</v>
       </c>
@@ -3374,10 +3378,10 @@
       <c r="I6" s="59"/>
       <c r="J6" s="7">
         <f>SUM(J2:J5)</f>
-        <v>65</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>33</v>
       </c>
@@ -3397,7 +3401,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>33</v>
       </c>
@@ -3417,7 +3421,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>33</v>
       </c>
@@ -3437,7 +3441,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>33</v>
       </c>
@@ -3457,7 +3461,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15" thickBot="1">
+    <row r="11" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>33</v>
       </c>
@@ -3477,7 +3481,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="15" thickBot="1">
+    <row r="12" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>33</v>
       </c>
@@ -3503,7 +3507,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>33</v>
       </c>
@@ -3514,7 +3518,7 @@
         <v>150</v>
       </c>
       <c r="D13" s="1">
-        <v>41277</v>
+        <v>41308</v>
       </c>
       <c r="E13" s="26">
         <v>5</v>
@@ -3530,7 +3534,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>32</v>
       </c>
@@ -3557,7 +3561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15" thickBot="1">
+    <row r="15" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>32</v>
       </c>
@@ -3581,10 +3585,10 @@
       </c>
       <c r="I15" s="35">
         <f>SUMIF(A:A,H15,E:E)</f>
-        <v>58</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>32</v>
       </c>
@@ -3606,10 +3610,27 @@
       <c r="H16" s="36"/>
       <c r="I16" s="36"/>
     </row>
-    <row r="17" spans="4:4">
-      <c r="D17" s="1"/>
-    </row>
-    <row r="18" spans="4:4">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="D17" s="1">
+        <v>41283</v>
+      </c>
+      <c r="E17" s="26">
+        <v>5</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D18" s="1"/>
     </row>
   </sheetData>
@@ -3646,18 +3667,18 @@
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="36.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="71.83203125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="11.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.83203125" style="26"/>
-    <col min="6" max="6" width="24.5" style="3" customWidth="1"/>
-    <col min="9" max="9" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="71.85546875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.85546875" style="26"/>
+    <col min="6" max="6" width="24.42578125" style="3" customWidth="1"/>
+    <col min="9" max="9" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" thickBot="1">
+    <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>37</v>
       </c>
@@ -3684,7 +3705,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>32</v>
       </c>
@@ -3712,7 +3733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>33</v>
       </c>
@@ -3740,7 +3761,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>33</v>
       </c>
@@ -3768,7 +3789,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="15" thickBot="1">
+    <row r="5" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>33</v>
       </c>
@@ -3796,7 +3817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15" thickBot="1">
+    <row r="6" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>33</v>
       </c>
@@ -3824,22 +3845,22 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D7" s="1"/>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D8" s="24"/>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D9" s="1"/>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D10" s="1"/>
     </row>
-    <row r="11" spans="1:10" ht="15" thickBot="1">
+    <row r="11" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D11" s="1"/>
     </row>
-    <row r="12" spans="1:10" ht="15" thickBot="1">
+    <row r="12" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D12" s="1"/>
       <c r="H12" s="34" t="s">
         <v>5</v>
@@ -3848,7 +3869,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D13" s="1"/>
       <c r="H13" s="35" t="s">
         <v>32</v>
@@ -3858,7 +3879,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D14" s="1"/>
       <c r="H14" s="35" t="s">
         <v>6</v>
@@ -3868,7 +3889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15" thickBot="1">
+    <row r="15" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D15" s="1"/>
       <c r="H15" s="35" t="s">
         <v>33</v>
@@ -3878,15 +3899,15 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D16" s="1"/>
       <c r="H16" s="36"/>
       <c r="I16" s="36"/>
     </row>
-    <row r="17" spans="4:4">
+    <row r="17" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D17" s="1"/>
     </row>
-    <row r="18" spans="4:4">
+    <row r="18" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D18" s="1"/>
     </row>
   </sheetData>
@@ -3923,18 +3944,18 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.33203125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="71.83203125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="10.83203125" style="3"/>
-    <col min="5" max="5" width="10.83203125" style="37"/>
-    <col min="6" max="6" width="24.5" style="3" customWidth="1"/>
-    <col min="9" max="9" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.28515625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="71.85546875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" style="3"/>
+    <col min="5" max="5" width="10.85546875" style="37"/>
+    <col min="6" max="6" width="24.42578125" style="3" customWidth="1"/>
+    <col min="9" max="9" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" thickBot="1">
+    <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>37</v>
       </c>
@@ -3961,7 +3982,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B2" s="2"/>
       <c r="D2" s="1"/>
       <c r="H2" s="63" t="s">
@@ -3973,7 +3994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D3" s="1"/>
       <c r="H3" s="65" t="s">
         <v>50</v>
@@ -3984,7 +4005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D4" s="1"/>
       <c r="H4" s="65" t="s">
         <v>51</v>
@@ -3995,7 +4016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="15" thickBot="1">
+    <row r="5" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D5" s="1"/>
       <c r="H5" s="67" t="s">
         <v>52</v>
@@ -4006,7 +4027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15" thickBot="1">
+    <row r="6" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D6" s="1"/>
       <c r="H6" s="58" t="s">
         <v>16</v>
@@ -4017,22 +4038,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D7" s="1"/>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D8" s="24"/>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D9" s="1"/>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D10" s="1"/>
     </row>
-    <row r="11" spans="1:10" ht="15" thickBot="1">
+    <row r="11" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D11" s="1"/>
     </row>
-    <row r="12" spans="1:10" ht="15" thickBot="1">
+    <row r="12" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D12" s="1"/>
       <c r="H12" s="34" t="s">
         <v>5</v>
@@ -4041,7 +4062,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D13" s="1"/>
       <c r="H13" s="35" t="s">
         <v>32</v>
@@ -4051,7 +4072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D14" s="1"/>
       <c r="H14" s="35" t="s">
         <v>6</v>
@@ -4061,7 +4082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15" thickBot="1">
+    <row r="15" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D15" s="1"/>
       <c r="H15" s="35" t="s">
         <v>33</v>
@@ -4071,15 +4092,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D16" s="1"/>
       <c r="H16" s="36"/>
       <c r="I16" s="36"/>
     </row>
-    <row r="17" spans="4:4">
+    <row r="17" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D17" s="1"/>
     </row>
-    <row r="18" spans="4:4">
+    <row r="18" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D18" s="1"/>
     </row>
   </sheetData>

--- a/Dokumentation/Noctua_Zeitaufzeichnung.xlsx
+++ b/Dokumentation/Noctua_Zeitaufzeichnung.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="164">
   <si>
     <t>Arbeitspaket</t>
   </si>
@@ -504,6 +504,18 @@
   </si>
   <si>
     <t>Implentierung vollständig, Interpretation mangelhaft</t>
+  </si>
+  <si>
+    <t>AMA Parameter</t>
+  </si>
+  <si>
+    <t>Sinnvolle AMA Parameter</t>
+  </si>
+  <si>
+    <t>AMA Triple Crossover</t>
+  </si>
+  <si>
+    <t>Triple Crossover AMA mit Momentum</t>
   </si>
 </sst>
 </file>
@@ -1081,12 +1093,12 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:shape val="box"/>
-        <c:axId val="158522752"/>
-        <c:axId val="57427072"/>
+        <c:axId val="80593280"/>
+        <c:axId val="80594816"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="158522752"/>
+        <c:axId val="80593280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1095,7 +1107,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="57427072"/>
+        <c:crossAx val="80594816"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1103,7 +1115,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="57427072"/>
+        <c:axId val="80594816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1119,7 +1131,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="158522752"/>
+        <c:crossAx val="80593280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1229,7 +1241,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>26.5</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>87.5</c:v>
@@ -1251,12 +1263,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="57435264"/>
-        <c:axId val="57436800"/>
+        <c:axId val="82921344"/>
+        <c:axId val="82922880"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="57435264"/>
+        <c:axId val="82921344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1265,7 +1277,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="57436800"/>
+        <c:crossAx val="82922880"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1273,7 +1285,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="57436800"/>
+        <c:axId val="82922880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1284,7 +1296,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="57435264"/>
+        <c:crossAx val="82921344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1916,7 +1928,7 @@
       </c>
       <c r="B17" s="17">
         <f>Algorithmus!J6</f>
-        <v>70</v>
+        <v>74.5</v>
       </c>
       <c r="C17" s="29">
         <f>SUM(C18:C21)</f>
@@ -1945,7 +1957,7 @@
       </c>
       <c r="B19" s="19">
         <f>Algorithmus!J3</f>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C19" s="40">
         <v>0</v>
@@ -1958,7 +1970,7 @@
       </c>
       <c r="B20" s="19">
         <f>Algorithmus!J4</f>
-        <v>44.5</v>
+        <v>47</v>
       </c>
       <c r="C20" s="40">
         <v>0</v>
@@ -2129,7 +2141,7 @@
       <c r="C34" s="49"/>
       <c r="D34" s="9">
         <f>SUM(Projektmanagment!I13,BacktestingSoftware!I13,Algorithmus!I13,Marktzustandserkennung!I13,Testing_Abschluss!I13)</f>
-        <v>26.5</v>
+        <v>31</v>
       </c>
     </row>
     <row r="35" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3197,10 +3209,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3294,7 +3306,7 @@
       <c r="I3" s="62"/>
       <c r="J3" s="35">
         <f>SUMIF(B:B,H3,E:E)</f>
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -3322,7 +3334,7 @@
       <c r="I4" s="62"/>
       <c r="J4" s="35">
         <f>SUMIF(B:B,H4,E:E)</f>
-        <v>44.5</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3378,7 +3390,7 @@
       <c r="I6" s="59"/>
       <c r="J6" s="7">
         <f>SUM(J2:J5)</f>
-        <v>70</v>
+        <v>74.5</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -3531,7 +3543,7 @@
       </c>
       <c r="I13" s="35">
         <f>SUMIF(A:A,H13,E:E)</f>
-        <v>7</v>
+        <v>11.5</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -3621,7 +3633,7 @@
         <v>158</v>
       </c>
       <c r="D17" s="1">
-        <v>41283</v>
+        <v>41314</v>
       </c>
       <c r="E17" s="26">
         <v>5</v>
@@ -3631,7 +3643,44 @@
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D18" s="1"/>
+      <c r="A18" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="D18" s="1">
+        <v>41318</v>
+      </c>
+      <c r="E18" s="26">
+        <v>2</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="D19" s="1">
+        <v>41318</v>
+      </c>
+      <c r="E19" s="26">
+        <v>2.5</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>163</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="6">

--- a/Dokumentation/Noctua_Zeitaufzeichnung.xlsx
+++ b/Dokumentation/Noctua_Zeitaufzeichnung.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20740" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Gesamtstatus" sheetId="4" r:id="rId1"/>
@@ -14,7 +14,7 @@
     <sheet name="Marktzustandserkennung" sheetId="7" r:id="rId5"/>
     <sheet name="Testing_Abschluss" sheetId="8" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="145621" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="164">
   <si>
     <t>Arbeitspaket</t>
   </si>
@@ -919,46 +919,46 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="41">
-    <cellStyle name="Besuchter Hyperlink" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="20" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="22" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="24" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="26" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="28" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="30" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="32" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="34" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="36" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="38" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="40" builtinId="9" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Link" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="39" builtinId="8" hidden="1"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -979,7 +979,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="de-AT"/>
+  <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1006,6 +1006,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1074,10 +1075,10 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1093,12 +1094,12 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:shape val="box"/>
-        <c:axId val="80593280"/>
-        <c:axId val="80594816"/>
+        <c:axId val="-2078830440"/>
+        <c:axId val="-2078827496"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="80593280"/>
+        <c:axId val="-2078830440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1107,7 +1108,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="80594816"/>
+        <c:crossAx val="-2078827496"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1115,7 +1116,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="80594816"/>
+        <c:axId val="-2078827496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1131,7 +1132,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="80593280"/>
+        <c:crossAx val="-2078830440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1145,7 +1146,7 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.787401575" l="0.7" r="0.7" t="0.787401575" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1154,7 +1155,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="de-AT"/>
+  <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1166,6 +1167,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1241,13 +1243,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>31</c:v>
+                  <c:v>31.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>87.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>93</c:v>
+                  <c:v>93.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1263,12 +1265,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="82921344"/>
-        <c:axId val="82922880"/>
+        <c:axId val="-2078801432"/>
+        <c:axId val="-2078798520"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="82921344"/>
+        <c:axId val="-2078801432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1277,7 +1279,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="82922880"/>
+        <c:crossAx val="-2078798520"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1285,7 +1287,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="82922880"/>
+        <c:axId val="-2078798520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1296,7 +1298,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="82921344"/>
+        <c:crossAx val="-2078801432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1307,7 +1309,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.787401575" l="0.7" r="0.7" t="0.787401575" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1667,17 +1669,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M33" sqref="M33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="34.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18">
       <c r="A1" s="50"/>
       <c r="B1" s="52" t="s">
         <v>28</v>
@@ -1691,7 +1693,7 @@
       <c r="G1" s="12"/>
       <c r="R1" s="8"/>
     </row>
-    <row r="2" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" ht="15" thickBot="1">
       <c r="A2" s="51"/>
       <c r="B2" s="53"/>
       <c r="C2" s="13" t="s">
@@ -1704,13 +1706,13 @@
       <c r="F2" s="12"/>
       <c r="G2" s="12"/>
     </row>
-    <row r="3" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" ht="15" thickBot="1">
       <c r="A3" s="15" t="s">
         <v>36</v>
       </c>
       <c r="B3" s="7">
         <f>SUM(B6,B12,B27)</f>
-        <v>120</v>
+        <v>120.5</v>
       </c>
       <c r="C3" s="27">
         <f>AVERAGE(C6,C12,C17,C22,C27)</f>
@@ -1723,7 +1725,7 @@
       <c r="F3" s="12"/>
       <c r="G3" s="12"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18">
       <c r="A4" s="47"/>
       <c r="B4" s="52"/>
       <c r="C4" s="54" t="s">
@@ -1734,7 +1736,7 @@
       <c r="F4" s="12"/>
       <c r="G4" s="12"/>
     </row>
-    <row r="5" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" ht="15" thickBot="1">
       <c r="A5" s="51"/>
       <c r="B5" s="53"/>
       <c r="C5" s="56"/>
@@ -1743,13 +1745,13 @@
       <c r="F5" s="12"/>
       <c r="G5" s="12"/>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18">
       <c r="A6" s="16" t="s">
         <v>13</v>
       </c>
       <c r="B6" s="17">
         <f>Projektmanagment!J7</f>
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="C6" s="29">
         <f>SUM(C7:C11)</f>
@@ -1762,7 +1764,7 @@
       <c r="F6" s="12"/>
       <c r="G6" s="12"/>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18">
       <c r="A7" s="18" t="s">
         <v>18</v>
       </c>
@@ -1778,13 +1780,13 @@
       <c r="F7" s="12"/>
       <c r="G7" s="12"/>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18">
       <c r="A8" s="18" t="s">
         <v>17</v>
       </c>
       <c r="B8" s="19">
         <f>Projektmanagment!J3</f>
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="C8" s="31">
         <v>0</v>
@@ -1794,7 +1796,7 @@
       <c r="F8" s="12"/>
       <c r="G8" s="12"/>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18">
       <c r="A9" s="18" t="s">
         <v>19</v>
       </c>
@@ -1810,7 +1812,7 @@
       <c r="F9" s="12"/>
       <c r="G9" s="12"/>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18">
       <c r="A10" s="18" t="s">
         <v>20</v>
       </c>
@@ -1826,7 +1828,7 @@
       <c r="F10" s="12"/>
       <c r="G10" s="12"/>
     </row>
-    <row r="11" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18" ht="15" thickBot="1">
       <c r="A11" s="20" t="s">
         <v>21</v>
       </c>
@@ -1842,7 +1844,7 @@
       <c r="F11" s="12"/>
       <c r="G11" s="12"/>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18">
       <c r="A12" s="16" t="s">
         <v>54</v>
       </c>
@@ -1861,7 +1863,7 @@
       <c r="F12" s="12"/>
       <c r="G12" s="12"/>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18">
       <c r="A13" s="18" t="s">
         <v>53</v>
       </c>
@@ -1877,7 +1879,7 @@
       <c r="F13" s="12"/>
       <c r="G13" s="12"/>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18">
       <c r="A14" s="18" t="s">
         <v>55</v>
       </c>
@@ -1893,7 +1895,7 @@
       <c r="F14" s="12"/>
       <c r="G14" s="12"/>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18">
       <c r="A15" s="18" t="s">
         <v>56</v>
       </c>
@@ -1909,7 +1911,7 @@
       <c r="F15" s="12"/>
       <c r="G15" s="12"/>
     </row>
-    <row r="16" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:18" ht="15" thickBot="1">
       <c r="A16" s="18" t="s">
         <v>57</v>
       </c>
@@ -1922,7 +1924,7 @@
       </c>
       <c r="D16" s="32"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4">
       <c r="A17" s="16" t="s">
         <v>58</v>
       </c>
@@ -1938,7 +1940,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4">
       <c r="A18" s="18" t="s">
         <v>59</v>
       </c>
@@ -1951,7 +1953,7 @@
       </c>
       <c r="D18" s="32"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4">
       <c r="A19" s="18" t="s">
         <v>60</v>
       </c>
@@ -1964,7 +1966,7 @@
       </c>
       <c r="D19" s="32"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4">
       <c r="A20" s="18" t="s">
         <v>61</v>
       </c>
@@ -1977,7 +1979,7 @@
       </c>
       <c r="D20" s="32"/>
     </row>
-    <row r="21" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" ht="15" thickBot="1">
       <c r="A21" s="18" t="s">
         <v>62</v>
       </c>
@@ -1990,7 +1992,7 @@
       </c>
       <c r="D21" s="32"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4">
       <c r="A22" s="16" t="s">
         <v>63</v>
       </c>
@@ -2006,7 +2008,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4">
       <c r="A23" s="18" t="s">
         <v>59</v>
       </c>
@@ -2019,7 +2021,7 @@
       </c>
       <c r="D23" s="32"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4">
       <c r="A24" s="18" t="s">
         <v>64</v>
       </c>
@@ -2032,7 +2034,7 @@
       </c>
       <c r="D24" s="32"/>
     </row>
-    <row r="25" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" ht="15" customHeight="1">
       <c r="A25" s="18" t="s">
         <v>65</v>
       </c>
@@ -2045,7 +2047,7 @@
       </c>
       <c r="D25" s="32"/>
     </row>
-    <row r="26" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" ht="15" thickBot="1">
       <c r="A26" s="18" t="s">
         <v>66</v>
       </c>
@@ -2058,7 +2060,7 @@
       </c>
       <c r="D26" s="32"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4">
       <c r="A27" s="16" t="s">
         <v>14</v>
       </c>
@@ -2074,7 +2076,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" ht="15.75" customHeight="1">
       <c r="A28" s="18" t="s">
         <v>22</v>
       </c>
@@ -2087,7 +2089,7 @@
       </c>
       <c r="D28" s="32"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4">
       <c r="A29" s="18" t="s">
         <v>23</v>
       </c>
@@ -2100,7 +2102,7 @@
       </c>
       <c r="D29" s="32"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4">
       <c r="A30" s="18" t="s">
         <v>24</v>
       </c>
@@ -2113,7 +2115,7 @@
       </c>
       <c r="D30" s="32"/>
     </row>
-    <row r="31" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" ht="15" thickBot="1">
       <c r="A31" s="20" t="s">
         <v>25</v>
       </c>
@@ -2126,25 +2128,25 @@
       </c>
       <c r="D31" s="28"/>
     </row>
-    <row r="32" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="33" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" ht="15" thickBot="1"/>
+    <row r="33" spans="2:4" ht="15" thickBot="1">
       <c r="B33" s="10"/>
       <c r="C33" s="10"/>
       <c r="D33" s="11" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="34" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:4" ht="15" thickBot="1">
       <c r="B34" s="48" t="s">
         <v>34</v>
       </c>
       <c r="C34" s="49"/>
       <c r="D34" s="9">
         <f>SUM(Projektmanagment!I13,BacktestingSoftware!I13,Algorithmus!I13,Marktzustandserkennung!I13,Testing_Abschluss!I13)</f>
-        <v>31</v>
-      </c>
-    </row>
-    <row r="35" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>31.5</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" ht="15" thickBot="1">
       <c r="B35" s="42" t="s">
         <v>15</v>
       </c>
@@ -2154,7 +2156,7 @@
         <v>87.5</v>
       </c>
     </row>
-    <row r="36" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:4" ht="15" thickBot="1">
       <c r="B36" s="44" t="s">
         <v>35</v>
       </c>
@@ -2191,21 +2193,21 @@
   <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="13.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.28515625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="71.85546875" style="3" customWidth="1"/>
-    <col min="4" max="4" width="10.85546875" style="3"/>
-    <col min="5" max="5" width="10.85546875" style="26"/>
-    <col min="6" max="6" width="24.42578125" style="3" customWidth="1"/>
-    <col min="9" max="9" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.33203125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="71.83203125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="10.83203125" style="3"/>
+    <col min="5" max="5" width="10.83203125" style="26"/>
+    <col min="6" max="6" width="24.5" style="3" customWidth="1"/>
+    <col min="9" max="9" width="12.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="15" thickBot="1">
       <c r="A1" s="3" t="s">
         <v>37</v>
       </c>
@@ -2232,7 +2234,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10">
       <c r="A2" s="3" t="s">
         <v>32</v>
       </c>
@@ -2260,7 +2262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10">
       <c r="A3" s="3" t="s">
         <v>32</v>
       </c>
@@ -2285,10 +2287,10 @@
       <c r="I3" s="62"/>
       <c r="J3" s="4">
         <f>SUMIF(B:B,H3,E:E)</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="3" t="s">
         <v>32</v>
       </c>
@@ -2316,7 +2318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10">
       <c r="A5" s="3" t="s">
         <v>32</v>
       </c>
@@ -2344,7 +2346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" ht="15" thickBot="1">
       <c r="A6" s="3" t="s">
         <v>32</v>
       </c>
@@ -2355,7 +2357,7 @@
         <v>73</v>
       </c>
       <c r="D6" s="1">
-        <v>40924</v>
+        <v>41290</v>
       </c>
       <c r="E6" s="26">
         <v>0.5</v>
@@ -2372,7 +2374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" ht="15" thickBot="1">
       <c r="A7" s="3" t="s">
         <v>32</v>
       </c>
@@ -2383,7 +2385,7 @@
         <v>73</v>
       </c>
       <c r="D7" s="1">
-        <v>40938</v>
+        <v>41304</v>
       </c>
       <c r="E7" s="26">
         <v>0.5</v>
@@ -2397,22 +2399,39 @@
       <c r="I7" s="59"/>
       <c r="J7" s="7">
         <f>SUM(J2:J6)</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D8" s="24"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D8" s="24">
+        <v>41325</v>
+      </c>
+      <c r="E8" s="26">
+        <v>0.5</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="D9" s="1"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10">
       <c r="D10" s="1"/>
     </row>
-    <row r="11" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" ht="15" thickBot="1">
       <c r="D11" s="1"/>
     </row>
-    <row r="12" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" ht="15" thickBot="1">
       <c r="D12" s="1"/>
       <c r="H12" s="6" t="s">
         <v>5</v>
@@ -2421,17 +2440,17 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10">
       <c r="D13" s="1"/>
       <c r="H13" s="33" t="s">
         <v>32</v>
       </c>
       <c r="I13" s="4">
         <f>SUMIF(A:A,H13,E:E)</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="D14" s="1"/>
       <c r="H14" s="33" t="s">
         <v>6</v>
@@ -2441,7 +2460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" ht="15" thickBot="1">
       <c r="D15" s="1"/>
       <c r="H15" s="33" t="s">
         <v>33</v>
@@ -2451,15 +2470,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10">
       <c r="D16" s="1"/>
       <c r="H16" s="36"/>
       <c r="I16" s="36"/>
     </row>
-    <row r="17" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:4">
       <c r="D17" s="1"/>
     </row>
-    <row r="18" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="4:4">
       <c r="D18" s="1"/>
     </row>
   </sheetData>
@@ -2497,18 +2516,18 @@
       <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="13.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.28515625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="66.28515625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="10.85546875" style="3"/>
-    <col min="5" max="5" width="10.85546875" style="26"/>
-    <col min="6" max="6" width="24.42578125" style="3" customWidth="1"/>
-    <col min="9" max="9" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.33203125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="66.33203125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="10.83203125" style="3"/>
+    <col min="5" max="5" width="10.83203125" style="26"/>
+    <col min="6" max="6" width="24.5" style="3" customWidth="1"/>
+    <col min="9" max="9" width="12.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="15" thickBot="1">
       <c r="A1" s="3" t="s">
         <v>37</v>
       </c>
@@ -2535,7 +2554,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10">
       <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
@@ -2563,7 +2582,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10">
       <c r="A3" s="3" t="s">
         <v>33</v>
       </c>
@@ -2591,7 +2610,7 @@
         <v>35.5</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
@@ -2619,7 +2638,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" ht="15" thickBot="1">
       <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
@@ -2647,7 +2666,7 @@
         <v>34.5</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" ht="15" thickBot="1">
       <c r="A6" s="3" t="s">
         <v>6</v>
       </c>
@@ -2675,7 +2694,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10">
       <c r="A7" s="3" t="s">
         <v>33</v>
       </c>
@@ -2695,7 +2714,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10">
       <c r="A8" s="3" t="s">
         <v>33</v>
       </c>
@@ -2715,7 +2734,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10">
       <c r="A9" s="3" t="s">
         <v>32</v>
       </c>
@@ -2735,7 +2754,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10">
       <c r="A10" s="3" t="s">
         <v>32</v>
       </c>
@@ -2752,7 +2771,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" ht="15" thickBot="1">
       <c r="A11" s="3" t="s">
         <v>6</v>
       </c>
@@ -2772,7 +2791,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" ht="15" thickBot="1">
       <c r="A12" s="3" t="s">
         <v>32</v>
       </c>
@@ -2798,7 +2817,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10">
       <c r="A13" s="3" t="s">
         <v>6</v>
       </c>
@@ -2825,7 +2844,7 @@
         <v>11.5</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10">
       <c r="A14" s="3" t="s">
         <v>33</v>
       </c>
@@ -2852,7 +2871,7 @@
         <v>87.5</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" ht="15" thickBot="1">
       <c r="A15" s="3" t="s">
         <v>6</v>
       </c>
@@ -2879,7 +2898,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10">
       <c r="A16" s="3" t="s">
         <v>33</v>
       </c>
@@ -2901,7 +2920,7 @@
       <c r="H16" s="36"/>
       <c r="I16" s="36"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6">
       <c r="A17" s="3" t="s">
         <v>6</v>
       </c>
@@ -2921,7 +2940,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6">
       <c r="A18" s="3" t="s">
         <v>6</v>
       </c>
@@ -2941,7 +2960,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6">
       <c r="A19" s="3" t="s">
         <v>6</v>
       </c>
@@ -2961,7 +2980,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6">
       <c r="A20" s="3" t="s">
         <v>6</v>
       </c>
@@ -2981,7 +3000,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6">
       <c r="A21" s="3" t="s">
         <v>6</v>
       </c>
@@ -3001,7 +3020,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6">
       <c r="A22" s="3" t="s">
         <v>6</v>
       </c>
@@ -3021,7 +3040,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6">
       <c r="A23" s="3" t="s">
         <v>6</v>
       </c>
@@ -3041,7 +3060,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6">
       <c r="A24" s="3" t="s">
         <v>32</v>
       </c>
@@ -3061,7 +3080,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6">
       <c r="A25" s="3" t="s">
         <v>6</v>
       </c>
@@ -3081,7 +3100,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6">
       <c r="A26" s="3" t="s">
         <v>32</v>
       </c>
@@ -3101,7 +3120,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6">
       <c r="A27" s="3" t="s">
         <v>6</v>
       </c>
@@ -3121,7 +3140,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6">
       <c r="A28" s="3" t="s">
         <v>6</v>
       </c>
@@ -3141,7 +3160,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6">
       <c r="A29" s="3" t="s">
         <v>6</v>
       </c>
@@ -3161,7 +3180,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6">
       <c r="A30" s="3" t="s">
         <v>6</v>
       </c>
@@ -3211,22 +3230,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="13.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.28515625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="71.85546875" style="3" customWidth="1"/>
-    <col min="4" max="4" width="10.85546875" style="3"/>
-    <col min="5" max="5" width="10.85546875" style="26"/>
-    <col min="6" max="6" width="24.42578125" style="3" customWidth="1"/>
-    <col min="9" max="9" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.33203125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="71.83203125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="10.83203125" style="3"/>
+    <col min="5" max="5" width="10.83203125" style="26"/>
+    <col min="6" max="6" width="24.5" style="3" customWidth="1"/>
+    <col min="9" max="9" width="12.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="15" thickBot="1">
       <c r="A1" s="3" t="s">
         <v>37</v>
       </c>
@@ -3253,7 +3272,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10">
       <c r="A2" s="3" t="s">
         <v>33</v>
       </c>
@@ -3281,7 +3300,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10">
       <c r="A3" s="3" t="s">
         <v>33</v>
       </c>
@@ -3309,7 +3328,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10">
       <c r="A4" s="3" t="s">
         <v>33</v>
       </c>
@@ -3337,7 +3356,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" ht="15" thickBot="1">
       <c r="A5" s="3" t="s">
         <v>33</v>
       </c>
@@ -3365,7 +3384,7 @@
         <v>11.5</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" ht="15" thickBot="1">
       <c r="A6" s="3" t="s">
         <v>33</v>
       </c>
@@ -3393,7 +3412,7 @@
         <v>74.5</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10">
       <c r="A7" s="3" t="s">
         <v>33</v>
       </c>
@@ -3413,7 +3432,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10">
       <c r="A8" s="3" t="s">
         <v>33</v>
       </c>
@@ -3433,7 +3452,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10">
       <c r="A9" s="3" t="s">
         <v>33</v>
       </c>
@@ -3453,7 +3472,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10">
       <c r="A10" s="3" t="s">
         <v>33</v>
       </c>
@@ -3473,7 +3492,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" ht="15" thickBot="1">
       <c r="A11" s="3" t="s">
         <v>33</v>
       </c>
@@ -3493,7 +3512,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" ht="15" thickBot="1">
       <c r="A12" s="3" t="s">
         <v>33</v>
       </c>
@@ -3519,7 +3538,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10">
       <c r="A13" s="3" t="s">
         <v>33</v>
       </c>
@@ -3546,7 +3565,7 @@
         <v>11.5</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10">
       <c r="A14" s="3" t="s">
         <v>32</v>
       </c>
@@ -3573,7 +3592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" ht="15" thickBot="1">
       <c r="A15" s="3" t="s">
         <v>32</v>
       </c>
@@ -3600,7 +3619,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10">
       <c r="A16" s="3" t="s">
         <v>32</v>
       </c>
@@ -3622,7 +3641,7 @@
       <c r="H16" s="36"/>
       <c r="I16" s="36"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6">
       <c r="A17" s="3" t="s">
         <v>33</v>
       </c>
@@ -3642,7 +3661,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6">
       <c r="A18" s="3" t="s">
         <v>32</v>
       </c>
@@ -3662,7 +3681,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6">
       <c r="A19" s="3" t="s">
         <v>32</v>
       </c>
@@ -3716,18 +3735,18 @@
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="13.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="36.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="71.85546875" style="3" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.85546875" style="26"/>
-    <col min="6" max="6" width="24.42578125" style="3" customWidth="1"/>
-    <col min="9" max="9" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="71.83203125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="11.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.83203125" style="26"/>
+    <col min="6" max="6" width="24.5" style="3" customWidth="1"/>
+    <col min="9" max="9" width="12.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="15" thickBot="1">
       <c r="A1" s="3" t="s">
         <v>37</v>
       </c>
@@ -3754,7 +3773,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10">
       <c r="A2" s="3" t="s">
         <v>32</v>
       </c>
@@ -3782,7 +3801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10">
       <c r="A3" s="3" t="s">
         <v>33</v>
       </c>
@@ -3810,7 +3829,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10">
       <c r="A4" s="3" t="s">
         <v>33</v>
       </c>
@@ -3838,7 +3857,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" ht="15" thickBot="1">
       <c r="A5" s="3" t="s">
         <v>33</v>
       </c>
@@ -3866,7 +3885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" ht="15" thickBot="1">
       <c r="A6" s="3" t="s">
         <v>33</v>
       </c>
@@ -3894,22 +3913,22 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10">
       <c r="D7" s="1"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10">
       <c r="D8" s="24"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10">
       <c r="D9" s="1"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10">
       <c r="D10" s="1"/>
     </row>
-    <row r="11" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" ht="15" thickBot="1">
       <c r="D11" s="1"/>
     </row>
-    <row r="12" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" ht="15" thickBot="1">
       <c r="D12" s="1"/>
       <c r="H12" s="34" t="s">
         <v>5</v>
@@ -3918,7 +3937,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10">
       <c r="D13" s="1"/>
       <c r="H13" s="35" t="s">
         <v>32</v>
@@ -3928,7 +3947,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10">
       <c r="D14" s="1"/>
       <c r="H14" s="35" t="s">
         <v>6</v>
@@ -3938,7 +3957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" ht="15" thickBot="1">
       <c r="D15" s="1"/>
       <c r="H15" s="35" t="s">
         <v>33</v>
@@ -3948,15 +3967,15 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10">
       <c r="D16" s="1"/>
       <c r="H16" s="36"/>
       <c r="I16" s="36"/>
     </row>
-    <row r="17" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:4">
       <c r="D17" s="1"/>
     </row>
-    <row r="18" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="4:4">
       <c r="D18" s="1"/>
     </row>
   </sheetData>
@@ -3993,18 +4012,18 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="13.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.28515625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="71.85546875" style="3" customWidth="1"/>
-    <col min="4" max="4" width="10.85546875" style="3"/>
-    <col min="5" max="5" width="10.85546875" style="37"/>
-    <col min="6" max="6" width="24.42578125" style="3" customWidth="1"/>
-    <col min="9" max="9" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.33203125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="71.83203125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="10.83203125" style="3"/>
+    <col min="5" max="5" width="10.83203125" style="37"/>
+    <col min="6" max="6" width="24.5" style="3" customWidth="1"/>
+    <col min="9" max="9" width="12.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="15" thickBot="1">
       <c r="A1" s="3" t="s">
         <v>37</v>
       </c>
@@ -4031,7 +4050,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10">
       <c r="B2" s="2"/>
       <c r="D2" s="1"/>
       <c r="H2" s="63" t="s">
@@ -4043,7 +4062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10">
       <c r="D3" s="1"/>
       <c r="H3" s="65" t="s">
         <v>50</v>
@@ -4054,7 +4073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10">
       <c r="D4" s="1"/>
       <c r="H4" s="65" t="s">
         <v>51</v>
@@ -4065,7 +4084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" ht="15" thickBot="1">
       <c r="D5" s="1"/>
       <c r="H5" s="67" t="s">
         <v>52</v>
@@ -4076,7 +4095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" ht="15" thickBot="1">
       <c r="D6" s="1"/>
       <c r="H6" s="58" t="s">
         <v>16</v>
@@ -4087,22 +4106,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10">
       <c r="D7" s="1"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10">
       <c r="D8" s="24"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10">
       <c r="D9" s="1"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10">
       <c r="D10" s="1"/>
     </row>
-    <row r="11" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" ht="15" thickBot="1">
       <c r="D11" s="1"/>
     </row>
-    <row r="12" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" ht="15" thickBot="1">
       <c r="D12" s="1"/>
       <c r="H12" s="34" t="s">
         <v>5</v>
@@ -4111,7 +4130,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10">
       <c r="D13" s="1"/>
       <c r="H13" s="35" t="s">
         <v>32</v>
@@ -4121,7 +4140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10">
       <c r="D14" s="1"/>
       <c r="H14" s="35" t="s">
         <v>6</v>
@@ -4131,7 +4150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" ht="15" thickBot="1">
       <c r="D15" s="1"/>
       <c r="H15" s="35" t="s">
         <v>33</v>
@@ -4141,15 +4160,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10">
       <c r="D16" s="1"/>
       <c r="H16" s="36"/>
       <c r="I16" s="36"/>
     </row>
-    <row r="17" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:4">
       <c r="D17" s="1"/>
     </row>
-    <row r="18" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="4:4">
       <c r="D18" s="1"/>
     </row>
   </sheetData>

--- a/Dokumentation/Noctua_Zeitaufzeichnung.xlsx
+++ b/Dokumentation/Noctua_Zeitaufzeichnung.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
-  <workbookPr autoCompressPictures="0"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20740" windowHeight="11760"/>
+    <workbookView xWindow="-15" yWindow="-15" windowWidth="10245" windowHeight="8310"/>
   </bookViews>
   <sheets>
     <sheet name="Gesamtstatus" sheetId="4" r:id="rId1"/>
@@ -14,7 +14,7 @@
     <sheet name="Marktzustandserkennung" sheetId="7" r:id="rId5"/>
     <sheet name="Testing_Abschluss" sheetId="8" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="172">
   <si>
     <t>Arbeitspaket</t>
   </si>
@@ -516,6 +516,30 @@
   </si>
   <si>
     <t>Triple Crossover AMA mit Momentum</t>
+  </si>
+  <si>
+    <t>File einlesen für INDEX Daten</t>
+  </si>
+  <si>
+    <t>File eingelesen</t>
+  </si>
+  <si>
+    <t>File verwerten in TupleListe</t>
+  </si>
+  <si>
+    <t>Tuple fertig erzeugt</t>
+  </si>
+  <si>
+    <t>Endalgorithmus besprochen</t>
+  </si>
+  <si>
+    <t>Besprochen</t>
+  </si>
+  <si>
+    <t>Bugfixes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inputverarbeitung; Neutralpfeil (Farben) </t>
   </si>
 </sst>
 </file>
@@ -919,46 +943,46 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="41">
-    <cellStyle name="Besuchter Link" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="20" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="22" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="24" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="26" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="28" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="30" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="32" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="34" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="36" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="38" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="40" builtinId="9" hidden="1"/>
-    <cellStyle name="Link" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="7" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="9" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="11" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="13" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="15" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="17" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="19" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="21" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="23" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="25" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="27" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="29" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="31" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="33" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="35" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="37" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -979,7 +1003,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
+  <c:lang val="de-AT"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1075,10 +1099,10 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1094,12 +1118,12 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:shape val="box"/>
-        <c:axId val="-2078830440"/>
-        <c:axId val="-2078827496"/>
+        <c:axId val="87858560"/>
+        <c:axId val="87864448"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="-2078830440"/>
+        <c:axId val="87858560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1108,7 +1132,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2078827496"/>
+        <c:crossAx val="87864448"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1116,7 +1140,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2078827496"/>
+        <c:axId val="87864448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1132,7 +1156,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="-2078830440"/>
+        <c:crossAx val="87858560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1146,7 +1170,7 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.787401575" l="0.7" r="0.7" t="0.787401575" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1155,7 +1179,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
+  <c:lang val="de-AT"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1246,10 +1270,10 @@
                   <c:v>31.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>87.5</c:v>
+                  <c:v>92.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>93.0</c:v>
+                  <c:v>104</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1265,12 +1289,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="-2078801432"/>
-        <c:axId val="-2078798520"/>
+        <c:axId val="93521024"/>
+        <c:axId val="93522560"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="-2078801432"/>
+        <c:axId val="93521024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1279,7 +1303,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2078798520"/>
+        <c:crossAx val="93522560"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1287,7 +1311,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2078798520"/>
+        <c:axId val="93522560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1298,7 +1322,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2078801432"/>
+        <c:crossAx val="93521024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1309,7 +1333,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.787401575" l="0.7" r="0.7" t="0.787401575" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1669,17 +1693,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="50"/>
       <c r="B1" s="52" t="s">
         <v>28</v>
@@ -1693,7 +1717,7 @@
       <c r="G1" s="12"/>
       <c r="R1" s="8"/>
     </row>
-    <row r="2" spans="1:18" ht="15" thickBot="1">
+    <row r="2" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="51"/>
       <c r="B2" s="53"/>
       <c r="C2" s="13" t="s">
@@ -1706,13 +1730,13 @@
       <c r="F2" s="12"/>
       <c r="G2" s="12"/>
     </row>
-    <row r="3" spans="1:18" ht="15" thickBot="1">
+    <row r="3" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="15" t="s">
         <v>36</v>
       </c>
       <c r="B3" s="7">
         <f>SUM(B6,B12,B27)</f>
-        <v>120.5</v>
+        <v>125.5</v>
       </c>
       <c r="C3" s="27">
         <f>AVERAGE(C6,C12,C17,C22,C27)</f>
@@ -1725,7 +1749,7 @@
       <c r="F3" s="12"/>
       <c r="G3" s="12"/>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="47"/>
       <c r="B4" s="52"/>
       <c r="C4" s="54" t="s">
@@ -1736,7 +1760,7 @@
       <c r="F4" s="12"/>
       <c r="G4" s="12"/>
     </row>
-    <row r="5" spans="1:18" ht="15" thickBot="1">
+    <row r="5" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="51"/>
       <c r="B5" s="53"/>
       <c r="C5" s="56"/>
@@ -1745,7 +1769,7 @@
       <c r="F5" s="12"/>
       <c r="G5" s="12"/>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="16" t="s">
         <v>13</v>
       </c>
@@ -1764,7 +1788,7 @@
       <c r="F6" s="12"/>
       <c r="G6" s="12"/>
     </row>
-    <row r="7" spans="1:18">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="18" t="s">
         <v>18</v>
       </c>
@@ -1780,7 +1804,7 @@
       <c r="F7" s="12"/>
       <c r="G7" s="12"/>
     </row>
-    <row r="8" spans="1:18">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="18" t="s">
         <v>17</v>
       </c>
@@ -1796,7 +1820,7 @@
       <c r="F8" s="12"/>
       <c r="G8" s="12"/>
     </row>
-    <row r="9" spans="1:18">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="18" t="s">
         <v>19</v>
       </c>
@@ -1812,7 +1836,7 @@
       <c r="F9" s="12"/>
       <c r="G9" s="12"/>
     </row>
-    <row r="10" spans="1:18">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="18" t="s">
         <v>20</v>
       </c>
@@ -1828,7 +1852,7 @@
       <c r="F10" s="12"/>
       <c r="G10" s="12"/>
     </row>
-    <row r="11" spans="1:18" ht="15" thickBot="1">
+    <row r="11" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="20" t="s">
         <v>21</v>
       </c>
@@ -1844,13 +1868,13 @@
       <c r="F11" s="12"/>
       <c r="G11" s="12"/>
     </row>
-    <row r="12" spans="1:18">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="16" t="s">
         <v>54</v>
       </c>
       <c r="B12" s="17">
         <f>BacktestingSoftware!J6</f>
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="C12" s="29">
         <f>SUM(C13:C16)</f>
@@ -1863,7 +1887,7 @@
       <c r="F12" s="12"/>
       <c r="G12" s="12"/>
     </row>
-    <row r="13" spans="1:18">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="18" t="s">
         <v>53</v>
       </c>
@@ -1879,7 +1903,7 @@
       <c r="F13" s="12"/>
       <c r="G13" s="12"/>
     </row>
-    <row r="14" spans="1:18">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="18" t="s">
         <v>55</v>
       </c>
@@ -1895,7 +1919,7 @@
       <c r="F14" s="12"/>
       <c r="G14" s="12"/>
     </row>
-    <row r="15" spans="1:18">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="18" t="s">
         <v>56</v>
       </c>
@@ -1911,26 +1935,26 @@
       <c r="F15" s="12"/>
       <c r="G15" s="12"/>
     </row>
-    <row r="16" spans="1:18" ht="15" thickBot="1">
+    <row r="16" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="18" t="s">
         <v>57</v>
       </c>
       <c r="B16" s="19">
         <f>BacktestingSoftware!J5</f>
-        <v>34.5</v>
+        <v>39.5</v>
       </c>
       <c r="C16" s="31">
         <v>0</v>
       </c>
       <c r="D16" s="32"/>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="16" t="s">
         <v>58</v>
       </c>
       <c r="B17" s="17">
         <f>Algorithmus!J6</f>
-        <v>74.5</v>
+        <v>76</v>
       </c>
       <c r="C17" s="29">
         <f>SUM(C18:C21)</f>
@@ -1940,7 +1964,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="18" t="s">
         <v>59</v>
       </c>
@@ -1953,20 +1977,20 @@
       </c>
       <c r="D18" s="32"/>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="18" t="s">
         <v>60</v>
       </c>
       <c r="B19" s="19">
         <f>Algorithmus!J3</f>
-        <v>12</v>
+        <v>13.5</v>
       </c>
       <c r="C19" s="40">
         <v>0</v>
       </c>
       <c r="D19" s="32"/>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="18" t="s">
         <v>61</v>
       </c>
@@ -1979,7 +2003,7 @@
       </c>
       <c r="D20" s="32"/>
     </row>
-    <row r="21" spans="1:4" ht="15" thickBot="1">
+    <row r="21" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="18" t="s">
         <v>62</v>
       </c>
@@ -1992,13 +2016,13 @@
       </c>
       <c r="D21" s="32"/>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="16" t="s">
         <v>63</v>
       </c>
       <c r="B22" s="17">
         <f>Marktzustandserkennung!J6</f>
-        <v>15</v>
+        <v>24.5</v>
       </c>
       <c r="C22" s="29">
         <f>SUM(C23:C26)</f>
@@ -2008,7 +2032,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="18" t="s">
         <v>59</v>
       </c>
@@ -2021,20 +2045,20 @@
       </c>
       <c r="D23" s="32"/>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="18" t="s">
         <v>64</v>
       </c>
       <c r="B24" s="19">
         <f>Marktzustandserkennung!J3</f>
-        <v>2</v>
+        <v>11.5</v>
       </c>
       <c r="C24" s="40">
         <v>0</v>
       </c>
       <c r="D24" s="32"/>
     </row>
-    <row r="25" spans="1:4" ht="15" customHeight="1">
+    <row r="25" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="18" t="s">
         <v>65</v>
       </c>
@@ -2047,7 +2071,7 @@
       </c>
       <c r="D25" s="32"/>
     </row>
-    <row r="26" spans="1:4" ht="15" thickBot="1">
+    <row r="26" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="18" t="s">
         <v>66</v>
       </c>
@@ -2060,7 +2084,7 @@
       </c>
       <c r="D26" s="32"/>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="16" t="s">
         <v>14</v>
       </c>
@@ -2076,7 +2100,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="15.75" customHeight="1">
+    <row r="28" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="18" t="s">
         <v>22</v>
       </c>
@@ -2089,7 +2113,7 @@
       </c>
       <c r="D28" s="32"/>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="18" t="s">
         <v>23</v>
       </c>
@@ -2102,7 +2126,7 @@
       </c>
       <c r="D29" s="32"/>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="18" t="s">
         <v>24</v>
       </c>
@@ -2115,7 +2139,7 @@
       </c>
       <c r="D30" s="32"/>
     </row>
-    <row r="31" spans="1:4" ht="15" thickBot="1">
+    <row r="31" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="20" t="s">
         <v>25</v>
       </c>
@@ -2128,15 +2152,15 @@
       </c>
       <c r="D31" s="28"/>
     </row>
-    <row r="32" spans="1:4" ht="15" thickBot="1"/>
-    <row r="33" spans="2:4" ht="15" thickBot="1">
+    <row r="32" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="33" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B33" s="10"/>
       <c r="C33" s="10"/>
       <c r="D33" s="11" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="34" spans="2:4" ht="15" thickBot="1">
+    <row r="34" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B34" s="48" t="s">
         <v>34</v>
       </c>
@@ -2146,24 +2170,24 @@
         <v>31.5</v>
       </c>
     </row>
-    <row r="35" spans="2:4" ht="15" thickBot="1">
+    <row r="35" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B35" s="42" t="s">
         <v>15</v>
       </c>
       <c r="C35" s="43"/>
       <c r="D35" s="9">
         <f>SUM(Projektmanagment!I14,BacktestingSoftware!I14,Algorithmus!I14,Marktzustandserkennung!I14,Testing_Abschluss!I14)</f>
-        <v>87.5</v>
-      </c>
-    </row>
-    <row r="36" spans="2:4" ht="15" thickBot="1">
+        <v>92.5</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B36" s="44" t="s">
         <v>35</v>
       </c>
       <c r="C36" s="45"/>
       <c r="D36" s="39">
         <f>SUM(Projektmanagment!I15,BacktestingSoftware!I15,Algorithmus!I15,Marktzustandserkennung!I15,Testing_Abschluss!I15)</f>
-        <v>93</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -2196,18 +2220,18 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.33203125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="71.83203125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="10.83203125" style="3"/>
-    <col min="5" max="5" width="10.83203125" style="26"/>
-    <col min="6" max="6" width="24.5" style="3" customWidth="1"/>
-    <col min="9" max="9" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.28515625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="71.85546875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" style="3"/>
+    <col min="5" max="5" width="10.85546875" style="26"/>
+    <col min="6" max="6" width="24.42578125" style="3" customWidth="1"/>
+    <col min="9" max="9" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" thickBot="1">
+    <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>37</v>
       </c>
@@ -2234,7 +2258,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>32</v>
       </c>
@@ -2262,7 +2286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>32</v>
       </c>
@@ -2290,7 +2314,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>32</v>
       </c>
@@ -2318,7 +2342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>32</v>
       </c>
@@ -2346,7 +2370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15" thickBot="1">
+    <row r="6" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>32</v>
       </c>
@@ -2374,7 +2398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="15" thickBot="1">
+    <row r="7" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>32</v>
       </c>
@@ -2402,7 +2426,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>32</v>
       </c>
@@ -2422,16 +2446,16 @@
         <v>73</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D9" s="1"/>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D10" s="1"/>
     </row>
-    <row r="11" spans="1:10" ht="15" thickBot="1">
+    <row r="11" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D11" s="1"/>
     </row>
-    <row r="12" spans="1:10" ht="15" thickBot="1">
+    <row r="12" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D12" s="1"/>
       <c r="H12" s="6" t="s">
         <v>5</v>
@@ -2440,7 +2464,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D13" s="1"/>
       <c r="H13" s="33" t="s">
         <v>32</v>
@@ -2450,7 +2474,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D14" s="1"/>
       <c r="H14" s="33" t="s">
         <v>6</v>
@@ -2460,7 +2484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15" thickBot="1">
+    <row r="15" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D15" s="1"/>
       <c r="H15" s="33" t="s">
         <v>33</v>
@@ -2470,15 +2494,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D16" s="1"/>
       <c r="H16" s="36"/>
       <c r="I16" s="36"/>
     </row>
-    <row r="17" spans="4:4">
+    <row r="17" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D17" s="1"/>
     </row>
-    <row r="18" spans="4:4">
+    <row r="18" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D18" s="1"/>
     </row>
   </sheetData>
@@ -2510,24 +2534,24 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J30"/>
+  <dimension ref="A1:J31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.33203125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="66.33203125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="10.83203125" style="3"/>
-    <col min="5" max="5" width="10.83203125" style="26"/>
-    <col min="6" max="6" width="24.5" style="3" customWidth="1"/>
-    <col min="9" max="9" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.28515625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="66.28515625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" style="3"/>
+    <col min="5" max="5" width="10.85546875" style="26"/>
+    <col min="6" max="6" width="24.42578125" style="3" customWidth="1"/>
+    <col min="9" max="9" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" thickBot="1">
+    <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>37</v>
       </c>
@@ -2554,7 +2578,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
@@ -2582,7 +2606,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>33</v>
       </c>
@@ -2610,7 +2634,7 @@
         <v>35.5</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
@@ -2638,7 +2662,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="15" thickBot="1">
+    <row r="5" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
@@ -2663,10 +2687,10 @@
       <c r="I5" s="62"/>
       <c r="J5" s="35">
         <f>SUMIF(B:B,H5,E:E)</f>
-        <v>34.5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="15" thickBot="1">
+        <v>39.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>6</v>
       </c>
@@ -2691,10 +2715,10 @@
       <c r="I6" s="59"/>
       <c r="J6" s="7">
         <f>SUM(J2:J5)</f>
-        <v>116</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>33</v>
       </c>
@@ -2714,7 +2738,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>33</v>
       </c>
@@ -2734,7 +2758,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>32</v>
       </c>
@@ -2754,7 +2778,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>32</v>
       </c>
@@ -2771,7 +2795,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15" thickBot="1">
+    <row r="11" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>6</v>
       </c>
@@ -2791,7 +2815,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="15" thickBot="1">
+    <row r="12" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>32</v>
       </c>
@@ -2817,7 +2841,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>6</v>
       </c>
@@ -2844,7 +2868,7 @@
         <v>11.5</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>33</v>
       </c>
@@ -2868,10 +2892,10 @@
       </c>
       <c r="I14" s="35">
         <f>SUMIF(A:A,H14,E:E)</f>
-        <v>87.5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="15" thickBot="1">
+        <v>92.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>6</v>
       </c>
@@ -2898,7 +2922,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>33</v>
       </c>
@@ -2920,7 +2944,7 @@
       <c r="H16" s="36"/>
       <c r="I16" s="36"/>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>6</v>
       </c>
@@ -2940,7 +2964,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>6</v>
       </c>
@@ -2960,7 +2984,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>6</v>
       </c>
@@ -2980,7 +3004,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>6</v>
       </c>
@@ -3000,7 +3024,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>6</v>
       </c>
@@ -3020,7 +3044,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>6</v>
       </c>
@@ -3040,7 +3064,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>6</v>
       </c>
@@ -3060,7 +3084,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>32</v>
       </c>
@@ -3080,7 +3104,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>6</v>
       </c>
@@ -3100,7 +3124,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>32</v>
       </c>
@@ -3120,7 +3144,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>6</v>
       </c>
@@ -3140,7 +3164,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>6</v>
       </c>
@@ -3160,7 +3184,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>6</v>
       </c>
@@ -3180,7 +3204,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>6</v>
       </c>
@@ -3198,6 +3222,26 @@
       </c>
       <c r="F30" s="3" t="s">
         <v>147</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="D31" s="1">
+        <v>41339</v>
+      </c>
+      <c r="E31" s="26">
+        <v>5</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>171</v>
       </c>
     </row>
   </sheetData>
@@ -3228,24 +3272,24 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J19"/>
+  <dimension ref="A1:J20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.33203125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="71.83203125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="10.83203125" style="3"/>
-    <col min="5" max="5" width="10.83203125" style="26"/>
-    <col min="6" max="6" width="24.5" style="3" customWidth="1"/>
-    <col min="9" max="9" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.28515625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="71.85546875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" style="3"/>
+    <col min="5" max="5" width="10.85546875" style="26"/>
+    <col min="6" max="6" width="24.42578125" style="3" customWidth="1"/>
+    <col min="9" max="9" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" thickBot="1">
+    <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>37</v>
       </c>
@@ -3272,7 +3316,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>33</v>
       </c>
@@ -3300,7 +3344,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>33</v>
       </c>
@@ -3325,10 +3369,10 @@
       <c r="I3" s="62"/>
       <c r="J3" s="35">
         <f>SUMIF(B:B,H3,E:E)</f>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
+        <v>13.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>33</v>
       </c>
@@ -3356,7 +3400,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="15" thickBot="1">
+    <row r="5" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>33</v>
       </c>
@@ -3384,7 +3428,7 @@
         <v>11.5</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15" thickBot="1">
+    <row r="6" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>33</v>
       </c>
@@ -3409,10 +3453,10 @@
       <c r="I6" s="59"/>
       <c r="J6" s="7">
         <f>SUM(J2:J5)</f>
-        <v>74.5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>33</v>
       </c>
@@ -3432,7 +3476,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>33</v>
       </c>
@@ -3452,7 +3496,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>33</v>
       </c>
@@ -3472,7 +3516,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>33</v>
       </c>
@@ -3492,7 +3536,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15" thickBot="1">
+    <row r="11" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>33</v>
       </c>
@@ -3512,7 +3556,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="15" thickBot="1">
+    <row r="12" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>33</v>
       </c>
@@ -3538,7 +3582,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>33</v>
       </c>
@@ -3565,7 +3609,7 @@
         <v>11.5</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>32</v>
       </c>
@@ -3592,7 +3636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15" thickBot="1">
+    <row r="15" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>32</v>
       </c>
@@ -3616,10 +3660,10 @@
       </c>
       <c r="I15" s="35">
         <f>SUMIF(A:A,H15,E:E)</f>
-        <v>63</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10">
+        <v>64.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>32</v>
       </c>
@@ -3641,7 +3685,7 @@
       <c r="H16" s="36"/>
       <c r="I16" s="36"/>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>33</v>
       </c>
@@ -3661,7 +3705,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>32</v>
       </c>
@@ -3681,7 +3725,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>32</v>
       </c>
@@ -3699,6 +3743,26 @@
       </c>
       <c r="F19" s="3" t="s">
         <v>163</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="D20" s="1">
+        <v>41339</v>
+      </c>
+      <c r="E20" s="26">
+        <v>1.5</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>169</v>
       </c>
     </row>
   </sheetData>
@@ -3731,22 +3795,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="36.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="71.83203125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="11.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.83203125" style="26"/>
-    <col min="6" max="6" width="24.5" style="3" customWidth="1"/>
-    <col min="9" max="9" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="71.85546875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.85546875" style="26"/>
+    <col min="6" max="6" width="24.42578125" style="3" customWidth="1"/>
+    <col min="9" max="9" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" thickBot="1">
+    <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>37</v>
       </c>
@@ -3773,7 +3837,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>32</v>
       </c>
@@ -3801,7 +3865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>33</v>
       </c>
@@ -3826,10 +3890,10 @@
       <c r="I3" s="62"/>
       <c r="J3" s="35">
         <f>SUMIF(B:B,H3,E:E)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
+        <v>11.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>33</v>
       </c>
@@ -3857,7 +3921,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="15" thickBot="1">
+    <row r="5" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>33</v>
       </c>
@@ -3885,7 +3949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15" thickBot="1">
+    <row r="6" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>33</v>
       </c>
@@ -3910,25 +3974,59 @@
       <c r="I6" s="59"/>
       <c r="J6" s="7">
         <f>SUM(J2:J5)</f>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="D7" s="1"/>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="D8" s="24"/>
-    </row>
-    <row r="9" spans="1:10">
+        <v>24.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="D7" s="1">
+        <v>41337</v>
+      </c>
+      <c r="E7" s="26">
+        <v>5</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="D8" s="24">
+        <v>41338</v>
+      </c>
+      <c r="E8" s="26">
+        <v>4.5</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D9" s="1"/>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D10" s="1"/>
     </row>
-    <row r="11" spans="1:10" ht="15" thickBot="1">
+    <row r="11" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D11" s="1"/>
     </row>
-    <row r="12" spans="1:10" ht="15" thickBot="1">
+    <row r="12" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D12" s="1"/>
       <c r="H12" s="34" t="s">
         <v>5</v>
@@ -3937,7 +4035,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D13" s="1"/>
       <c r="H13" s="35" t="s">
         <v>32</v>
@@ -3947,7 +4045,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D14" s="1"/>
       <c r="H14" s="35" t="s">
         <v>6</v>
@@ -3957,25 +4055,25 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15" thickBot="1">
+    <row r="15" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D15" s="1"/>
       <c r="H15" s="35" t="s">
         <v>33</v>
       </c>
       <c r="I15" s="35">
         <f>SUMIF(A:A,H15,E:E)</f>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10">
+        <v>22.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D16" s="1"/>
       <c r="H16" s="36"/>
       <c r="I16" s="36"/>
     </row>
-    <row r="17" spans="4:4">
+    <row r="17" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D17" s="1"/>
     </row>
-    <row r="18" spans="4:4">
+    <row r="18" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D18" s="1"/>
     </row>
   </sheetData>
@@ -4012,18 +4110,18 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.33203125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="71.83203125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="10.83203125" style="3"/>
-    <col min="5" max="5" width="10.83203125" style="37"/>
-    <col min="6" max="6" width="24.5" style="3" customWidth="1"/>
-    <col min="9" max="9" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.28515625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="71.85546875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" style="3"/>
+    <col min="5" max="5" width="10.85546875" style="37"/>
+    <col min="6" max="6" width="24.42578125" style="3" customWidth="1"/>
+    <col min="9" max="9" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" thickBot="1">
+    <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>37</v>
       </c>
@@ -4050,7 +4148,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B2" s="2"/>
       <c r="D2" s="1"/>
       <c r="H2" s="63" t="s">
@@ -4062,7 +4160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D3" s="1"/>
       <c r="H3" s="65" t="s">
         <v>50</v>
@@ -4073,7 +4171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D4" s="1"/>
       <c r="H4" s="65" t="s">
         <v>51</v>
@@ -4084,7 +4182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="15" thickBot="1">
+    <row r="5" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D5" s="1"/>
       <c r="H5" s="67" t="s">
         <v>52</v>
@@ -4095,7 +4193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15" thickBot="1">
+    <row r="6" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D6" s="1"/>
       <c r="H6" s="58" t="s">
         <v>16</v>
@@ -4106,22 +4204,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D7" s="1"/>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D8" s="24"/>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D9" s="1"/>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D10" s="1"/>
     </row>
-    <row r="11" spans="1:10" ht="15" thickBot="1">
+    <row r="11" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D11" s="1"/>
     </row>
-    <row r="12" spans="1:10" ht="15" thickBot="1">
+    <row r="12" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D12" s="1"/>
       <c r="H12" s="34" t="s">
         <v>5</v>
@@ -4130,7 +4228,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D13" s="1"/>
       <c r="H13" s="35" t="s">
         <v>32</v>
@@ -4140,7 +4238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D14" s="1"/>
       <c r="H14" s="35" t="s">
         <v>6</v>
@@ -4150,7 +4248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15" thickBot="1">
+    <row r="15" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D15" s="1"/>
       <c r="H15" s="35" t="s">
         <v>33</v>
@@ -4160,15 +4258,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D16" s="1"/>
       <c r="H16" s="36"/>
       <c r="I16" s="36"/>
     </row>
-    <row r="17" spans="4:4">
+    <row r="17" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D17" s="1"/>
     </row>
-    <row r="18" spans="4:4">
+    <row r="18" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D18" s="1"/>
     </row>
   </sheetData>

--- a/Dokumentation/Noctua_Zeitaufzeichnung.xlsx
+++ b/Dokumentation/Noctua_Zeitaufzeichnung.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-15" windowWidth="10245" windowHeight="8310"/>
+    <workbookView xWindow="-12" yWindow="-12" windowWidth="10248" windowHeight="8316" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Gesamtstatus" sheetId="4" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="173">
   <si>
     <t>Arbeitspaket</t>
   </si>
@@ -539,7 +539,10 @@
     <t>Bugfixes</t>
   </si>
   <si>
-    <t xml:space="preserve">Inputverarbeitung; Neutralpfeil (Farben) </t>
+    <t xml:space="preserve">Inputverarbeitung; Neutralpfeil (+Farben) </t>
+  </si>
+  <si>
+    <t>Multiple Starts &amp; Excpetionhandling</t>
   </si>
 </sst>
 </file>
@@ -1118,12 +1121,12 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:shape val="box"/>
-        <c:axId val="87858560"/>
-        <c:axId val="87864448"/>
+        <c:axId val="42104320"/>
+        <c:axId val="42105856"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="87858560"/>
+        <c:axId val="42104320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1132,7 +1135,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="87864448"/>
+        <c:crossAx val="42105856"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1140,7 +1143,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="87864448"/>
+        <c:axId val="42105856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1156,7 +1159,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="87858560"/>
+        <c:crossAx val="42104320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1270,7 +1273,7 @@
                   <c:v>31.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>92.5</c:v>
+                  <c:v>95.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>104</c:v>
@@ -1289,12 +1292,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="93521024"/>
-        <c:axId val="93522560"/>
+        <c:axId val="42130432"/>
+        <c:axId val="42132224"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="93521024"/>
+        <c:axId val="42130432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1303,7 +1306,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="93522560"/>
+        <c:crossAx val="42132224"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1311,7 +1314,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="93522560"/>
+        <c:axId val="42132224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1322,7 +1325,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="93521024"/>
+        <c:crossAx val="42130432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1693,17 +1696,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="34.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" s="50"/>
       <c r="B1" s="52" t="s">
         <v>28</v>
@@ -1717,7 +1720,7 @@
       <c r="G1" s="12"/>
       <c r="R1" s="8"/>
     </row>
-    <row r="2" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="51"/>
       <c r="B2" s="53"/>
       <c r="C2" s="13" t="s">
@@ -1736,7 +1739,7 @@
       </c>
       <c r="B3" s="7">
         <f>SUM(B6,B12,B27)</f>
-        <v>125.5</v>
+        <v>128.5</v>
       </c>
       <c r="C3" s="27">
         <f>AVERAGE(C6,C12,C17,C22,C27)</f>
@@ -1749,7 +1752,7 @@
       <c r="F3" s="12"/>
       <c r="G3" s="12"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" s="47"/>
       <c r="B4" s="52"/>
       <c r="C4" s="54" t="s">
@@ -1760,7 +1763,7 @@
       <c r="F4" s="12"/>
       <c r="G4" s="12"/>
     </row>
-    <row r="5" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="51"/>
       <c r="B5" s="53"/>
       <c r="C5" s="56"/>
@@ -1769,7 +1772,7 @@
       <c r="F5" s="12"/>
       <c r="G5" s="12"/>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="16" t="s">
         <v>13</v>
       </c>
@@ -1788,7 +1791,7 @@
       <c r="F6" s="12"/>
       <c r="G6" s="12"/>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="18" t="s">
         <v>18</v>
       </c>
@@ -1804,7 +1807,7 @@
       <c r="F7" s="12"/>
       <c r="G7" s="12"/>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="18" t="s">
         <v>17</v>
       </c>
@@ -1820,7 +1823,7 @@
       <c r="F8" s="12"/>
       <c r="G8" s="12"/>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="18" t="s">
         <v>19</v>
       </c>
@@ -1836,7 +1839,7 @@
       <c r="F9" s="12"/>
       <c r="G9" s="12"/>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="18" t="s">
         <v>20</v>
       </c>
@@ -1868,13 +1871,13 @@
       <c r="F11" s="12"/>
       <c r="G11" s="12"/>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="16" t="s">
         <v>54</v>
       </c>
       <c r="B12" s="17">
         <f>BacktestingSoftware!J6</f>
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C12" s="29">
         <f>SUM(C13:C16)</f>
@@ -1887,7 +1890,7 @@
       <c r="F12" s="12"/>
       <c r="G12" s="12"/>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="18" t="s">
         <v>53</v>
       </c>
@@ -1903,7 +1906,7 @@
       <c r="F13" s="12"/>
       <c r="G13" s="12"/>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="18" t="s">
         <v>55</v>
       </c>
@@ -1919,7 +1922,7 @@
       <c r="F14" s="12"/>
       <c r="G14" s="12"/>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="18" t="s">
         <v>56</v>
       </c>
@@ -1941,14 +1944,14 @@
       </c>
       <c r="B16" s="19">
         <f>BacktestingSoftware!J5</f>
-        <v>39.5</v>
+        <v>42.5</v>
       </c>
       <c r="C16" s="31">
         <v>0</v>
       </c>
       <c r="D16" s="32"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="16" t="s">
         <v>58</v>
       </c>
@@ -1964,7 +1967,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="18" t="s">
         <v>59</v>
       </c>
@@ -1977,7 +1980,7 @@
       </c>
       <c r="D18" s="32"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="18" t="s">
         <v>60</v>
       </c>
@@ -1990,7 +1993,7 @@
       </c>
       <c r="D19" s="32"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" s="18" t="s">
         <v>61</v>
       </c>
@@ -2016,7 +2019,7 @@
       </c>
       <c r="D21" s="32"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" s="16" t="s">
         <v>63</v>
       </c>
@@ -2032,7 +2035,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" s="18" t="s">
         <v>59</v>
       </c>
@@ -2045,7 +2048,7 @@
       </c>
       <c r="D23" s="32"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" s="18" t="s">
         <v>64</v>
       </c>
@@ -2084,7 +2087,7 @@
       </c>
       <c r="D26" s="32"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A27" s="16" t="s">
         <v>14</v>
       </c>
@@ -2113,7 +2116,7 @@
       </c>
       <c r="D28" s="32"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A29" s="18" t="s">
         <v>23</v>
       </c>
@@ -2126,7 +2129,7 @@
       </c>
       <c r="D29" s="32"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A30" s="18" t="s">
         <v>24</v>
       </c>
@@ -2177,7 +2180,7 @@
       <c r="C35" s="43"/>
       <c r="D35" s="9">
         <f>SUM(Projektmanagment!I14,BacktestingSoftware!I14,Algorithmus!I14,Marktzustandserkennung!I14,Testing_Abschluss!I14)</f>
-        <v>92.5</v>
+        <v>95.5</v>
       </c>
     </row>
     <row r="36" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2220,15 +2223,15 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.28515625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="71.85546875" style="3" customWidth="1"/>
-    <col min="4" max="4" width="10.85546875" style="3"/>
-    <col min="5" max="5" width="10.85546875" style="26"/>
-    <col min="6" max="6" width="24.42578125" style="3" customWidth="1"/>
-    <col min="9" max="9" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.33203125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="71.88671875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="10.88671875" style="3"/>
+    <col min="5" max="5" width="10.88671875" style="26"/>
+    <col min="6" max="6" width="24.44140625" style="3" customWidth="1"/>
+    <col min="9" max="9" width="12.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2258,7 +2261,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>32</v>
       </c>
@@ -2286,7 +2289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>32</v>
       </c>
@@ -2314,7 +2317,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>32</v>
       </c>
@@ -2342,7 +2345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>32</v>
       </c>
@@ -2426,7 +2429,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>32</v>
       </c>
@@ -2446,10 +2449,10 @@
         <v>73</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="D9" s="1"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="D10" s="1"/>
     </row>
     <row r="11" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2464,7 +2467,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="D13" s="1"/>
       <c r="H13" s="33" t="s">
         <v>32</v>
@@ -2474,7 +2477,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="D14" s="1"/>
       <c r="H14" s="33" t="s">
         <v>6</v>
@@ -2494,15 +2497,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="D16" s="1"/>
       <c r="H16" s="36"/>
       <c r="I16" s="36"/>
     </row>
-    <row r="17" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:4" ht="15" x14ac:dyDescent="0.25">
       <c r="D17" s="1"/>
     </row>
-    <row r="18" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="4:4" ht="15" x14ac:dyDescent="0.25">
       <c r="D18" s="1"/>
     </row>
   </sheetData>
@@ -2534,21 +2537,21 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J31"/>
+  <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.28515625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="66.28515625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="10.85546875" style="3"/>
-    <col min="5" max="5" width="10.85546875" style="26"/>
-    <col min="6" max="6" width="24.42578125" style="3" customWidth="1"/>
-    <col min="9" max="9" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.33203125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="66.33203125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="10.88671875" style="3"/>
+    <col min="5" max="5" width="10.88671875" style="26"/>
+    <col min="6" max="6" width="24.44140625" style="3" customWidth="1"/>
+    <col min="9" max="9" width="12.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2578,7 +2581,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
@@ -2606,7 +2609,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>33</v>
       </c>
@@ -2634,7 +2637,7 @@
         <v>35.5</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
@@ -2687,7 +2690,7 @@
       <c r="I5" s="62"/>
       <c r="J5" s="35">
         <f>SUMIF(B:B,H5,E:E)</f>
-        <v>39.5</v>
+        <v>42.5</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2715,10 +2718,10 @@
       <c r="I6" s="59"/>
       <c r="J6" s="7">
         <f>SUM(J2:J5)</f>
-        <v>121</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>33</v>
       </c>
@@ -2738,7 +2741,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>33</v>
       </c>
@@ -2758,7 +2761,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>32</v>
       </c>
@@ -2778,7 +2781,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>32</v>
       </c>
@@ -2841,7 +2844,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>6</v>
       </c>
@@ -2868,7 +2871,7 @@
         <v>11.5</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>33</v>
       </c>
@@ -2892,10 +2895,10 @@
       </c>
       <c r="I14" s="35">
         <f>SUMIF(A:A,H14,E:E)</f>
-        <v>92.5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>95.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
         <v>6</v>
       </c>
@@ -2922,7 +2925,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>33</v>
       </c>
@@ -2944,7 +2947,7 @@
       <c r="H16" s="36"/>
       <c r="I16" s="36"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>6</v>
       </c>
@@ -2964,7 +2967,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>6</v>
       </c>
@@ -2984,7 +2987,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>6</v>
       </c>
@@ -3004,7 +3007,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>6</v>
       </c>
@@ -3024,7 +3027,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>6</v>
       </c>
@@ -3044,7 +3047,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
         <v>6</v>
       </c>
@@ -3064,7 +3067,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>6</v>
       </c>
@@ -3084,7 +3087,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
         <v>32</v>
       </c>
@@ -3104,7 +3107,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
         <v>6</v>
       </c>
@@ -3124,7 +3127,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
         <v>32</v>
       </c>
@@ -3144,7 +3147,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
         <v>6</v>
       </c>
@@ -3164,7 +3167,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
         <v>6</v>
       </c>
@@ -3184,7 +3187,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
         <v>6</v>
       </c>
@@ -3204,7 +3207,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
         <v>6</v>
       </c>
@@ -3224,7 +3227,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>6</v>
       </c>
@@ -3242,6 +3245,26 @@
       </c>
       <c r="F31" s="3" t="s">
         <v>171</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="D32" s="1">
+        <v>41340</v>
+      </c>
+      <c r="E32" s="26">
+        <v>3</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>172</v>
       </c>
     </row>
   </sheetData>
@@ -3278,15 +3301,15 @@
       <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.28515625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="71.85546875" style="3" customWidth="1"/>
-    <col min="4" max="4" width="10.85546875" style="3"/>
-    <col min="5" max="5" width="10.85546875" style="26"/>
-    <col min="6" max="6" width="24.42578125" style="3" customWidth="1"/>
-    <col min="9" max="9" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.33203125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="71.88671875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="10.88671875" style="3"/>
+    <col min="5" max="5" width="10.88671875" style="26"/>
+    <col min="6" max="6" width="24.44140625" style="3" customWidth="1"/>
+    <col min="9" max="9" width="12.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3316,7 +3339,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>33</v>
       </c>
@@ -3344,7 +3367,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>33</v>
       </c>
@@ -3372,7 +3395,7 @@
         <v>13.5</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>33</v>
       </c>
@@ -3456,7 +3479,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>33</v>
       </c>
@@ -3476,7 +3499,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>33</v>
       </c>
@@ -3496,7 +3519,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>33</v>
       </c>
@@ -3516,7 +3539,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>33</v>
       </c>
@@ -3536,7 +3559,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>33</v>
       </c>
@@ -3556,7 +3579,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
         <v>33</v>
       </c>
@@ -3582,7 +3605,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>33</v>
       </c>
@@ -3609,7 +3632,7 @@
         <v>11.5</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>32</v>
       </c>
@@ -3663,7 +3686,7 @@
         <v>64.5</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>32</v>
       </c>
@@ -3685,7 +3708,7 @@
       <c r="H16" s="36"/>
       <c r="I16" s="36"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>33</v>
       </c>
@@ -3705,7 +3728,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>32</v>
       </c>
@@ -3725,7 +3748,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>32</v>
       </c>
@@ -3745,7 +3768,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>33</v>
       </c>
@@ -3799,15 +3822,15 @@
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="36.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="71.85546875" style="3" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.85546875" style="26"/>
-    <col min="6" max="6" width="24.42578125" style="3" customWidth="1"/>
-    <col min="9" max="9" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="71.88671875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="11.44140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.88671875" style="26"/>
+    <col min="6" max="6" width="24.44140625" style="3" customWidth="1"/>
+    <col min="9" max="9" width="12.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3837,7 +3860,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>32</v>
       </c>
@@ -3865,7 +3888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>33</v>
       </c>
@@ -3893,7 +3916,7 @@
         <v>11.5</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>33</v>
       </c>
@@ -3977,7 +4000,7 @@
         <v>24.5</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>33</v>
       </c>
@@ -3997,7 +4020,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>33</v>
       </c>
@@ -4017,10 +4040,10 @@
         <v>167</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="D9" s="1"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="D10" s="1"/>
     </row>
     <row r="11" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4035,7 +4058,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="D13" s="1"/>
       <c r="H13" s="35" t="s">
         <v>32</v>
@@ -4045,7 +4068,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="D14" s="1"/>
       <c r="H14" s="35" t="s">
         <v>6</v>
@@ -4065,15 +4088,15 @@
         <v>22.5</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="D16" s="1"/>
       <c r="H16" s="36"/>
       <c r="I16" s="36"/>
     </row>
-    <row r="17" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:4" ht="15" x14ac:dyDescent="0.25">
       <c r="D17" s="1"/>
     </row>
-    <row r="18" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="4:4" ht="15" x14ac:dyDescent="0.25">
       <c r="D18" s="1"/>
     </row>
   </sheetData>
@@ -4110,15 +4133,15 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.28515625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="71.85546875" style="3" customWidth="1"/>
-    <col min="4" max="4" width="10.85546875" style="3"/>
-    <col min="5" max="5" width="10.85546875" style="37"/>
-    <col min="6" max="6" width="24.42578125" style="3" customWidth="1"/>
-    <col min="9" max="9" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.33203125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="71.88671875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="10.88671875" style="3"/>
+    <col min="5" max="5" width="10.88671875" style="37"/>
+    <col min="6" max="6" width="24.44140625" style="3" customWidth="1"/>
+    <col min="9" max="9" width="12.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4148,7 +4171,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B2" s="2"/>
       <c r="D2" s="1"/>
       <c r="H2" s="63" t="s">
@@ -4160,7 +4183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="D3" s="1"/>
       <c r="H3" s="65" t="s">
         <v>50</v>
@@ -4171,7 +4194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="D4" s="1"/>
       <c r="H4" s="65" t="s">
         <v>51</v>
@@ -4182,7 +4205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D5" s="1"/>
       <c r="H5" s="67" t="s">
         <v>52</v>
@@ -4204,16 +4227,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="D7" s="1"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="D8" s="24"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="D9" s="1"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="D10" s="1"/>
     </row>
     <row r="11" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4228,7 +4251,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="D13" s="1"/>
       <c r="H13" s="35" t="s">
         <v>32</v>
@@ -4238,7 +4261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="D14" s="1"/>
       <c r="H14" s="35" t="s">
         <v>6</v>
@@ -4258,15 +4281,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="D16" s="1"/>
       <c r="H16" s="36"/>
       <c r="I16" s="36"/>
     </row>
-    <row r="17" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:4" ht="15" x14ac:dyDescent="0.25">
       <c r="D17" s="1"/>
     </row>
-    <row r="18" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="4:4" ht="15" x14ac:dyDescent="0.25">
       <c r="D18" s="1"/>
     </row>
   </sheetData>

--- a/Dokumentation/Noctua_Zeitaufzeichnung.xlsx
+++ b/Dokumentation/Noctua_Zeitaufzeichnung.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-12" yWindow="-12" windowWidth="10248" windowHeight="8316" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="17480" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Gesamtstatus" sheetId="4" r:id="rId1"/>
@@ -14,7 +14,7 @@
     <sheet name="Marktzustandserkennung" sheetId="7" r:id="rId5"/>
     <sheet name="Testing_Abschluss" sheetId="8" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="145621" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="177">
   <si>
     <t>Arbeitspaket</t>
   </si>
@@ -543,6 +543,18 @@
   </si>
   <si>
     <t>Multiple Starts &amp; Excpetionhandling</t>
+  </si>
+  <si>
+    <t>Bollinger Bands-Trading, Zeitfenster</t>
+  </si>
+  <si>
+    <t>Informiert zu Seitwärtsphasen</t>
+  </si>
+  <si>
+    <t>Seitwärtsphasen-Algorithmus: Fading</t>
+  </si>
+  <si>
+    <t>30% Seitwärtsalgo.</t>
   </si>
 </sst>
 </file>
@@ -598,7 +610,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -790,8 +802,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="41">
+  <cellStyleXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -833,8 +858,20 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -944,48 +981,63 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="41">
-    <cellStyle name="Besuchter Hyperlink" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="20" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="22" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="24" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="26" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="28" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="30" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="32" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="34" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="36" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="38" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="40" builtinId="9" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
+  <cellStyles count="53">
+    <cellStyle name="Besuchter Link" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Link" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="51" builtinId="8" hidden="1"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1006,7 +1058,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="de-AT"/>
+  <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1033,7 +1085,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1102,10 +1153,10 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1121,12 +1172,12 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:shape val="box"/>
-        <c:axId val="42104320"/>
-        <c:axId val="42105856"/>
+        <c:axId val="2081482696"/>
+        <c:axId val="2081480264"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="42104320"/>
+        <c:axId val="2081482696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1135,7 +1186,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="42105856"/>
+        <c:crossAx val="2081480264"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1143,7 +1194,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="42105856"/>
+        <c:axId val="2081480264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1159,7 +1210,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="42104320"/>
+        <c:crossAx val="2081482696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1173,7 +1224,7 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.787401575" l="0.7" r="0.7" t="0.787401575" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1182,7 +1233,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="de-AT"/>
+  <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1194,7 +1245,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1270,13 +1320,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>31.5</c:v>
+                  <c:v>40.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>95.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>104</c:v>
+                  <c:v>104.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1292,12 +1342,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="42130432"/>
-        <c:axId val="42132224"/>
+        <c:axId val="2082970600"/>
+        <c:axId val="2082973512"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="42130432"/>
+        <c:axId val="2082970600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1306,7 +1356,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="42132224"/>
+        <c:crossAx val="2082973512"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1314,7 +1364,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="42132224"/>
+        <c:axId val="2082973512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1325,7 +1375,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="42130432"/>
+        <c:crossAx val="2082970600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1336,7 +1386,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.787401575" l="0.7" r="0.7" t="0.787401575" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1700,13 +1750,13 @@
       <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="34.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18">
       <c r="A1" s="50"/>
       <c r="B1" s="52" t="s">
         <v>28</v>
@@ -1720,7 +1770,7 @@
       <c r="G1" s="12"/>
       <c r="R1" s="8"/>
     </row>
-    <row r="2" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:18" ht="15" thickBot="1">
       <c r="A2" s="51"/>
       <c r="B2" s="53"/>
       <c r="C2" s="13" t="s">
@@ -1733,7 +1783,7 @@
       <c r="F2" s="12"/>
       <c r="G2" s="12"/>
     </row>
-    <row r="3" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" ht="15" thickBot="1">
       <c r="A3" s="15" t="s">
         <v>36</v>
       </c>
@@ -1752,7 +1802,7 @@
       <c r="F3" s="12"/>
       <c r="G3" s="12"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18">
       <c r="A4" s="47"/>
       <c r="B4" s="52"/>
       <c r="C4" s="54" t="s">
@@ -1763,7 +1813,7 @@
       <c r="F4" s="12"/>
       <c r="G4" s="12"/>
     </row>
-    <row r="5" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:18" ht="15" thickBot="1">
       <c r="A5" s="51"/>
       <c r="B5" s="53"/>
       <c r="C5" s="56"/>
@@ -1772,7 +1822,7 @@
       <c r="F5" s="12"/>
       <c r="G5" s="12"/>
     </row>
-    <row r="6" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18">
       <c r="A6" s="16" t="s">
         <v>13</v>
       </c>
@@ -1791,7 +1841,7 @@
       <c r="F6" s="12"/>
       <c r="G6" s="12"/>
     </row>
-    <row r="7" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18">
       <c r="A7" s="18" t="s">
         <v>18</v>
       </c>
@@ -1807,7 +1857,7 @@
       <c r="F7" s="12"/>
       <c r="G7" s="12"/>
     </row>
-    <row r="8" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18">
       <c r="A8" s="18" t="s">
         <v>17</v>
       </c>
@@ -1823,7 +1873,7 @@
       <c r="F8" s="12"/>
       <c r="G8" s="12"/>
     </row>
-    <row r="9" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18">
       <c r="A9" s="18" t="s">
         <v>19</v>
       </c>
@@ -1839,7 +1889,7 @@
       <c r="F9" s="12"/>
       <c r="G9" s="12"/>
     </row>
-    <row r="10" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18">
       <c r="A10" s="18" t="s">
         <v>20</v>
       </c>
@@ -1855,7 +1905,7 @@
       <c r="F10" s="12"/>
       <c r="G10" s="12"/>
     </row>
-    <row r="11" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18" ht="15" thickBot="1">
       <c r="A11" s="20" t="s">
         <v>21</v>
       </c>
@@ -1871,7 +1921,7 @@
       <c r="F11" s="12"/>
       <c r="G11" s="12"/>
     </row>
-    <row r="12" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18">
       <c r="A12" s="16" t="s">
         <v>54</v>
       </c>
@@ -1890,7 +1940,7 @@
       <c r="F12" s="12"/>
       <c r="G12" s="12"/>
     </row>
-    <row r="13" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18">
       <c r="A13" s="18" t="s">
         <v>53</v>
       </c>
@@ -1906,7 +1956,7 @@
       <c r="F13" s="12"/>
       <c r="G13" s="12"/>
     </row>
-    <row r="14" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18">
       <c r="A14" s="18" t="s">
         <v>55</v>
       </c>
@@ -1922,7 +1972,7 @@
       <c r="F14" s="12"/>
       <c r="G14" s="12"/>
     </row>
-    <row r="15" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18">
       <c r="A15" s="18" t="s">
         <v>56</v>
       </c>
@@ -1938,7 +1988,7 @@
       <c r="F15" s="12"/>
       <c r="G15" s="12"/>
     </row>
-    <row r="16" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:18" ht="15" thickBot="1">
       <c r="A16" s="18" t="s">
         <v>57</v>
       </c>
@@ -1951,13 +2001,13 @@
       </c>
       <c r="D16" s="32"/>
     </row>
-    <row r="17" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4">
       <c r="A17" s="16" t="s">
         <v>58</v>
       </c>
       <c r="B17" s="17">
         <f>Algorithmus!J6</f>
-        <v>76</v>
+        <v>84.5</v>
       </c>
       <c r="C17" s="29">
         <f>SUM(C18:C21)</f>
@@ -1967,46 +2017,46 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4">
       <c r="A18" s="18" t="s">
         <v>59</v>
       </c>
       <c r="B18" s="19">
         <f>Algorithmus!J2</f>
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="C18" s="40">
         <v>0</v>
       </c>
       <c r="D18" s="32"/>
     </row>
-    <row r="19" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4">
       <c r="A19" s="18" t="s">
         <v>60</v>
       </c>
       <c r="B19" s="19">
         <f>Algorithmus!J3</f>
-        <v>13.5</v>
+        <v>17.5</v>
       </c>
       <c r="C19" s="40">
         <v>0</v>
       </c>
       <c r="D19" s="32"/>
     </row>
-    <row r="20" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4">
       <c r="A20" s="18" t="s">
         <v>61</v>
       </c>
       <c r="B20" s="19">
         <f>Algorithmus!J4</f>
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C20" s="40">
         <v>0</v>
       </c>
       <c r="D20" s="32"/>
     </row>
-    <row r="21" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" ht="15" thickBot="1">
       <c r="A21" s="18" t="s">
         <v>62</v>
       </c>
@@ -2019,7 +2069,7 @@
       </c>
       <c r="D21" s="32"/>
     </row>
-    <row r="22" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4">
       <c r="A22" s="16" t="s">
         <v>63</v>
       </c>
@@ -2035,7 +2085,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4">
       <c r="A23" s="18" t="s">
         <v>59</v>
       </c>
@@ -2048,7 +2098,7 @@
       </c>
       <c r="D23" s="32"/>
     </row>
-    <row r="24" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4">
       <c r="A24" s="18" t="s">
         <v>64</v>
       </c>
@@ -2061,7 +2111,7 @@
       </c>
       <c r="D24" s="32"/>
     </row>
-    <row r="25" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" ht="15" customHeight="1">
       <c r="A25" s="18" t="s">
         <v>65</v>
       </c>
@@ -2074,7 +2124,7 @@
       </c>
       <c r="D25" s="32"/>
     </row>
-    <row r="26" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" ht="15" thickBot="1">
       <c r="A26" s="18" t="s">
         <v>66</v>
       </c>
@@ -2087,7 +2137,7 @@
       </c>
       <c r="D26" s="32"/>
     </row>
-    <row r="27" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4">
       <c r="A27" s="16" t="s">
         <v>14</v>
       </c>
@@ -2103,7 +2153,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" ht="15.75" customHeight="1">
       <c r="A28" s="18" t="s">
         <v>22</v>
       </c>
@@ -2116,7 +2166,7 @@
       </c>
       <c r="D28" s="32"/>
     </row>
-    <row r="29" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4">
       <c r="A29" s="18" t="s">
         <v>23</v>
       </c>
@@ -2129,7 +2179,7 @@
       </c>
       <c r="D29" s="32"/>
     </row>
-    <row r="30" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4">
       <c r="A30" s="18" t="s">
         <v>24</v>
       </c>
@@ -2142,7 +2192,7 @@
       </c>
       <c r="D30" s="32"/>
     </row>
-    <row r="31" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" ht="15" thickBot="1">
       <c r="A31" s="20" t="s">
         <v>25</v>
       </c>
@@ -2155,25 +2205,25 @@
       </c>
       <c r="D31" s="28"/>
     </row>
-    <row r="32" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="33" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" ht="15" thickBot="1"/>
+    <row r="33" spans="2:4" ht="15" thickBot="1">
       <c r="B33" s="10"/>
       <c r="C33" s="10"/>
       <c r="D33" s="11" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="34" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:4" ht="15" thickBot="1">
       <c r="B34" s="48" t="s">
         <v>34</v>
       </c>
       <c r="C34" s="49"/>
       <c r="D34" s="9">
         <f>SUM(Projektmanagment!I13,BacktestingSoftware!I13,Algorithmus!I13,Marktzustandserkennung!I13,Testing_Abschluss!I13)</f>
-        <v>31.5</v>
-      </c>
-    </row>
-    <row r="35" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" ht="15" thickBot="1">
       <c r="B35" s="42" t="s">
         <v>15</v>
       </c>
@@ -2183,7 +2233,7 @@
         <v>95.5</v>
       </c>
     </row>
-    <row r="36" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:4" ht="15" thickBot="1">
       <c r="B36" s="44" t="s">
         <v>35</v>
       </c>
@@ -2223,18 +2273,18 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="13.33203125" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.33203125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="71.88671875" style="3" customWidth="1"/>
-    <col min="4" max="4" width="10.88671875" style="3"/>
-    <col min="5" max="5" width="10.88671875" style="26"/>
-    <col min="6" max="6" width="24.44140625" style="3" customWidth="1"/>
-    <col min="9" max="9" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="71.83203125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="10.83203125" style="3"/>
+    <col min="5" max="5" width="10.83203125" style="26"/>
+    <col min="6" max="6" width="24.5" style="3" customWidth="1"/>
+    <col min="9" max="9" width="12.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="15" thickBot="1">
       <c r="A1" s="3" t="s">
         <v>37</v>
       </c>
@@ -2261,7 +2311,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10">
       <c r="A2" s="3" t="s">
         <v>32</v>
       </c>
@@ -2289,7 +2339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10">
       <c r="A3" s="3" t="s">
         <v>32</v>
       </c>
@@ -2317,7 +2367,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10">
       <c r="A4" s="3" t="s">
         <v>32</v>
       </c>
@@ -2345,7 +2395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10">
       <c r="A5" s="3" t="s">
         <v>32</v>
       </c>
@@ -2373,7 +2423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" ht="15" thickBot="1">
       <c r="A6" s="3" t="s">
         <v>32</v>
       </c>
@@ -2401,7 +2451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" ht="15" thickBot="1">
       <c r="A7" s="3" t="s">
         <v>32</v>
       </c>
@@ -2429,7 +2479,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10">
       <c r="A8" s="3" t="s">
         <v>32</v>
       </c>
@@ -2449,16 +2499,16 @@
         <v>73</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10">
       <c r="D9" s="1"/>
     </row>
-    <row r="10" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10">
       <c r="D10" s="1"/>
     </row>
-    <row r="11" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" ht="15" thickBot="1">
       <c r="D11" s="1"/>
     </row>
-    <row r="12" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" ht="15" thickBot="1">
       <c r="D12" s="1"/>
       <c r="H12" s="6" t="s">
         <v>5</v>
@@ -2467,7 +2517,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10">
       <c r="D13" s="1"/>
       <c r="H13" s="33" t="s">
         <v>32</v>
@@ -2477,7 +2527,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10">
       <c r="D14" s="1"/>
       <c r="H14" s="33" t="s">
         <v>6</v>
@@ -2487,7 +2537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" ht="15" thickBot="1">
       <c r="D15" s="1"/>
       <c r="H15" s="33" t="s">
         <v>33</v>
@@ -2497,15 +2547,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10">
       <c r="D16" s="1"/>
       <c r="H16" s="36"/>
       <c r="I16" s="36"/>
     </row>
-    <row r="17" spans="4:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:4">
       <c r="D17" s="1"/>
     </row>
-    <row r="18" spans="4:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="4:4">
       <c r="D18" s="1"/>
     </row>
   </sheetData>
@@ -2539,22 +2589,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="G35" sqref="G35"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A31" sqref="A31:F32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="13.33203125" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.33203125" style="3" customWidth="1"/>
     <col min="3" max="3" width="66.33203125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="10.88671875" style="3"/>
-    <col min="5" max="5" width="10.88671875" style="26"/>
-    <col min="6" max="6" width="24.44140625" style="3" customWidth="1"/>
-    <col min="9" max="9" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.83203125" style="3"/>
+    <col min="5" max="5" width="10.83203125" style="26"/>
+    <col min="6" max="6" width="24.5" style="3" customWidth="1"/>
+    <col min="9" max="9" width="12.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="15" thickBot="1">
       <c r="A1" s="3" t="s">
         <v>37</v>
       </c>
@@ -2581,7 +2631,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10">
       <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
@@ -2609,7 +2659,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10">
       <c r="A3" s="3" t="s">
         <v>33</v>
       </c>
@@ -2637,7 +2687,7 @@
         <v>35.5</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
@@ -2665,7 +2715,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" ht="15" thickBot="1">
       <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
@@ -2693,7 +2743,7 @@
         <v>42.5</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" ht="15" thickBot="1">
       <c r="A6" s="3" t="s">
         <v>6</v>
       </c>
@@ -2721,7 +2771,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10">
       <c r="A7" s="3" t="s">
         <v>33</v>
       </c>
@@ -2741,7 +2791,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10">
       <c r="A8" s="3" t="s">
         <v>33</v>
       </c>
@@ -2761,7 +2811,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10">
       <c r="A9" s="3" t="s">
         <v>32</v>
       </c>
@@ -2781,7 +2831,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10">
       <c r="A10" s="3" t="s">
         <v>32</v>
       </c>
@@ -2798,7 +2848,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" ht="15" thickBot="1">
       <c r="A11" s="3" t="s">
         <v>6</v>
       </c>
@@ -2818,7 +2868,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" ht="15" thickBot="1">
       <c r="A12" s="3" t="s">
         <v>32</v>
       </c>
@@ -2844,7 +2894,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10">
       <c r="A13" s="3" t="s">
         <v>6</v>
       </c>
@@ -2871,7 +2921,7 @@
         <v>11.5</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10">
       <c r="A14" s="3" t="s">
         <v>33</v>
       </c>
@@ -2898,7 +2948,7 @@
         <v>95.5</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" ht="15" thickBot="1">
       <c r="A15" s="3" t="s">
         <v>6</v>
       </c>
@@ -2925,7 +2975,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10">
       <c r="A16" s="3" t="s">
         <v>33</v>
       </c>
@@ -2947,7 +2997,7 @@
       <c r="H16" s="36"/>
       <c r="I16" s="36"/>
     </row>
-    <row r="17" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6">
       <c r="A17" s="3" t="s">
         <v>6</v>
       </c>
@@ -2967,7 +3017,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6">
       <c r="A18" s="3" t="s">
         <v>6</v>
       </c>
@@ -2987,7 +3037,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6">
       <c r="A19" s="3" t="s">
         <v>6</v>
       </c>
@@ -3007,7 +3057,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6">
       <c r="A20" s="3" t="s">
         <v>6</v>
       </c>
@@ -3027,7 +3077,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6">
       <c r="A21" s="3" t="s">
         <v>6</v>
       </c>
@@ -3047,7 +3097,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6">
       <c r="A22" s="3" t="s">
         <v>6</v>
       </c>
@@ -3067,7 +3117,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6">
       <c r="A23" s="3" t="s">
         <v>6</v>
       </c>
@@ -3087,7 +3137,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6">
       <c r="A24" s="3" t="s">
         <v>32</v>
       </c>
@@ -3107,7 +3157,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6">
       <c r="A25" s="3" t="s">
         <v>6</v>
       </c>
@@ -3127,7 +3177,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6">
       <c r="A26" s="3" t="s">
         <v>32</v>
       </c>
@@ -3147,7 +3197,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6">
       <c r="A27" s="3" t="s">
         <v>6</v>
       </c>
@@ -3167,7 +3217,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6">
       <c r="A28" s="3" t="s">
         <v>6</v>
       </c>
@@ -3187,7 +3237,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6">
       <c r="A29" s="3" t="s">
         <v>6</v>
       </c>
@@ -3207,7 +3257,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6">
       <c r="A30" s="3" t="s">
         <v>6</v>
       </c>
@@ -3227,7 +3277,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6">
       <c r="A31" s="3" t="s">
         <v>6</v>
       </c>
@@ -3247,7 +3297,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6">
       <c r="A32" s="3" t="s">
         <v>6</v>
       </c>
@@ -3295,24 +3345,24 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J20"/>
+  <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="13.33203125" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.33203125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="71.88671875" style="3" customWidth="1"/>
-    <col min="4" max="4" width="10.88671875" style="3"/>
-    <col min="5" max="5" width="10.88671875" style="26"/>
-    <col min="6" max="6" width="24.44140625" style="3" customWidth="1"/>
-    <col min="9" max="9" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="71.83203125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="10.83203125" style="3"/>
+    <col min="5" max="5" width="10.83203125" style="26"/>
+    <col min="6" max="6" width="24.5" style="3" customWidth="1"/>
+    <col min="9" max="9" width="12.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="15" thickBot="1">
       <c r="A1" s="3" t="s">
         <v>37</v>
       </c>
@@ -3339,7 +3389,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10">
       <c r="A2" s="3" t="s">
         <v>33</v>
       </c>
@@ -3364,10 +3414,10 @@
       <c r="I2" s="62"/>
       <c r="J2" s="35">
         <f>SUMIF(B:B,H2,E:E)</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="3" t="s">
         <v>33</v>
       </c>
@@ -3392,10 +3442,10 @@
       <c r="I3" s="62"/>
       <c r="J3" s="35">
         <f>SUMIF(B:B,H3,E:E)</f>
-        <v>13.5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+        <v>17.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="3" t="s">
         <v>33</v>
       </c>
@@ -3420,10 +3470,10 @@
       <c r="I4" s="62"/>
       <c r="J4" s="35">
         <f>SUMIF(B:B,H4,E:E)</f>
-        <v>47</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="15" thickBot="1">
       <c r="A5" s="3" t="s">
         <v>33</v>
       </c>
@@ -3451,7 +3501,7 @@
         <v>11.5</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" ht="15" thickBot="1">
       <c r="A6" s="3" t="s">
         <v>33</v>
       </c>
@@ -3476,10 +3526,10 @@
       <c r="I6" s="59"/>
       <c r="J6" s="7">
         <f>SUM(J2:J5)</f>
-        <v>76</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+        <v>84.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="3" t="s">
         <v>33</v>
       </c>
@@ -3499,7 +3549,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10">
       <c r="A8" s="3" t="s">
         <v>33</v>
       </c>
@@ -3519,7 +3569,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10">
       <c r="A9" s="3" t="s">
         <v>33</v>
       </c>
@@ -3539,7 +3589,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10">
       <c r="A10" s="3" t="s">
         <v>33</v>
       </c>
@@ -3559,7 +3609,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" ht="15" thickBot="1">
       <c r="A11" s="3" t="s">
         <v>33</v>
       </c>
@@ -3579,7 +3629,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" ht="15" thickBot="1">
       <c r="A12" s="3" t="s">
         <v>33</v>
       </c>
@@ -3605,7 +3655,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10">
       <c r="A13" s="3" t="s">
         <v>33</v>
       </c>
@@ -3629,10 +3679,10 @@
       </c>
       <c r="I13" s="35">
         <f>SUMIF(A:A,H13,E:E)</f>
-        <v>11.5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="3" t="s">
         <v>32</v>
       </c>
@@ -3659,7 +3709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" ht="15" thickBot="1">
       <c r="A15" s="3" t="s">
         <v>32</v>
       </c>
@@ -3686,7 +3736,7 @@
         <v>64.5</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10">
       <c r="A16" s="3" t="s">
         <v>32</v>
       </c>
@@ -3708,7 +3758,7 @@
       <c r="H16" s="36"/>
       <c r="I16" s="36"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6">
       <c r="A17" s="3" t="s">
         <v>33</v>
       </c>
@@ -3728,7 +3778,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6">
       <c r="A18" s="3" t="s">
         <v>32</v>
       </c>
@@ -3748,7 +3798,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6">
       <c r="A19" s="3" t="s">
         <v>32</v>
       </c>
@@ -3768,25 +3818,101 @@
         <v>163</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6">
       <c r="A20" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="D20" s="1">
-        <v>41339</v>
+        <v>41331</v>
       </c>
       <c r="E20" s="26">
         <v>1.5</v>
       </c>
       <c r="F20" s="3" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="D21" s="1">
+        <v>41339</v>
+      </c>
+      <c r="E21" s="26">
+        <v>4</v>
+      </c>
+      <c r="F21" s="3" t="s">
         <v>169</v>
       </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="69" t="s">
+        <v>33</v>
+      </c>
+      <c r="B22" s="70" t="s">
+        <v>43</v>
+      </c>
+      <c r="C22" s="70" t="s">
+        <v>168</v>
+      </c>
+      <c r="D22" s="71">
+        <v>41339</v>
+      </c>
+      <c r="E22" s="70">
+        <v>1.5</v>
+      </c>
+      <c r="F22" s="70" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="D23" s="1">
+        <v>41340</v>
+      </c>
+      <c r="E23" s="26">
+        <v>3</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="69"/>
+      <c r="B24" s="70"/>
+      <c r="C24" s="70"/>
+      <c r="D24" s="71"/>
+      <c r="E24" s="70"/>
+      <c r="F24" s="70"/>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="69"/>
+      <c r="B27" s="70"/>
+      <c r="C27" s="70"/>
+      <c r="D27" s="71"/>
+      <c r="E27" s="70"/>
+      <c r="F27" s="70"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -3798,14 +3924,15 @@
     <mergeCell ref="H5:I5"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A28:A1048576 A25:A26 A2:A21 A23">
       <formula1>$H$13:$H$15</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B28:B1048576 B25:B26 B1:B21 B23">
       <formula1>$H$2:$H$5</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -3822,18 +3949,18 @@
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="13.33203125" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="36.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="71.88671875" style="3" customWidth="1"/>
-    <col min="4" max="4" width="11.44140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.88671875" style="26"/>
-    <col min="6" max="6" width="24.44140625" style="3" customWidth="1"/>
-    <col min="9" max="9" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="71.83203125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="11.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.83203125" style="26"/>
+    <col min="6" max="6" width="24.5" style="3" customWidth="1"/>
+    <col min="9" max="9" width="12.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="15" thickBot="1">
       <c r="A1" s="3" t="s">
         <v>37</v>
       </c>
@@ -3860,7 +3987,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10">
       <c r="A2" s="3" t="s">
         <v>32</v>
       </c>
@@ -3888,7 +4015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10">
       <c r="A3" s="3" t="s">
         <v>33</v>
       </c>
@@ -3916,7 +4043,7 @@
         <v>11.5</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10">
       <c r="A4" s="3" t="s">
         <v>33</v>
       </c>
@@ -3944,7 +4071,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" ht="15" thickBot="1">
       <c r="A5" s="3" t="s">
         <v>33</v>
       </c>
@@ -3972,7 +4099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" ht="15" thickBot="1">
       <c r="A6" s="3" t="s">
         <v>33</v>
       </c>
@@ -4000,7 +4127,7 @@
         <v>24.5</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10">
       <c r="A7" s="3" t="s">
         <v>33</v>
       </c>
@@ -4020,7 +4147,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10">
       <c r="A8" s="3" t="s">
         <v>33</v>
       </c>
@@ -4040,16 +4167,16 @@
         <v>167</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10">
       <c r="D9" s="1"/>
     </row>
-    <row r="10" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10">
       <c r="D10" s="1"/>
     </row>
-    <row r="11" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" ht="15" thickBot="1">
       <c r="D11" s="1"/>
     </row>
-    <row r="12" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" ht="15" thickBot="1">
       <c r="D12" s="1"/>
       <c r="H12" s="34" t="s">
         <v>5</v>
@@ -4058,7 +4185,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10">
       <c r="D13" s="1"/>
       <c r="H13" s="35" t="s">
         <v>32</v>
@@ -4068,7 +4195,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10">
       <c r="D14" s="1"/>
       <c r="H14" s="35" t="s">
         <v>6</v>
@@ -4078,7 +4205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" ht="15" thickBot="1">
       <c r="D15" s="1"/>
       <c r="H15" s="35" t="s">
         <v>33</v>
@@ -4088,15 +4215,15 @@
         <v>22.5</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10">
       <c r="D16" s="1"/>
       <c r="H16" s="36"/>
       <c r="I16" s="36"/>
     </row>
-    <row r="17" spans="4:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:4">
       <c r="D17" s="1"/>
     </row>
-    <row r="18" spans="4:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="4:4">
       <c r="D18" s="1"/>
     </row>
   </sheetData>
@@ -4133,18 +4260,18 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="13.33203125" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.33203125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="71.88671875" style="3" customWidth="1"/>
-    <col min="4" max="4" width="10.88671875" style="3"/>
-    <col min="5" max="5" width="10.88671875" style="37"/>
-    <col min="6" max="6" width="24.44140625" style="3" customWidth="1"/>
-    <col min="9" max="9" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="71.83203125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="10.83203125" style="3"/>
+    <col min="5" max="5" width="10.83203125" style="37"/>
+    <col min="6" max="6" width="24.5" style="3" customWidth="1"/>
+    <col min="9" max="9" width="12.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="15" thickBot="1">
       <c r="A1" s="3" t="s">
         <v>37</v>
       </c>
@@ -4171,7 +4298,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10">
       <c r="B2" s="2"/>
       <c r="D2" s="1"/>
       <c r="H2" s="63" t="s">
@@ -4183,7 +4310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10">
       <c r="D3" s="1"/>
       <c r="H3" s="65" t="s">
         <v>50</v>
@@ -4194,7 +4321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10">
       <c r="D4" s="1"/>
       <c r="H4" s="65" t="s">
         <v>51</v>
@@ -4205,7 +4332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" ht="15" thickBot="1">
       <c r="D5" s="1"/>
       <c r="H5" s="67" t="s">
         <v>52</v>
@@ -4216,7 +4343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" ht="15" thickBot="1">
       <c r="D6" s="1"/>
       <c r="H6" s="58" t="s">
         <v>16</v>
@@ -4227,22 +4354,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10">
       <c r="D7" s="1"/>
     </row>
-    <row r="8" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10">
       <c r="D8" s="24"/>
     </row>
-    <row r="9" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10">
       <c r="D9" s="1"/>
     </row>
-    <row r="10" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10">
       <c r="D10" s="1"/>
     </row>
-    <row r="11" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" ht="15" thickBot="1">
       <c r="D11" s="1"/>
     </row>
-    <row r="12" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" ht="15" thickBot="1">
       <c r="D12" s="1"/>
       <c r="H12" s="34" t="s">
         <v>5</v>
@@ -4251,7 +4378,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10">
       <c r="D13" s="1"/>
       <c r="H13" s="35" t="s">
         <v>32</v>
@@ -4261,7 +4388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10">
       <c r="D14" s="1"/>
       <c r="H14" s="35" t="s">
         <v>6</v>
@@ -4271,7 +4398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" ht="15" thickBot="1">
       <c r="D15" s="1"/>
       <c r="H15" s="35" t="s">
         <v>33</v>
@@ -4281,15 +4408,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10">
       <c r="D16" s="1"/>
       <c r="H16" s="36"/>
       <c r="I16" s="36"/>
     </row>
-    <row r="17" spans="4:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:4">
       <c r="D17" s="1"/>
     </row>
-    <row r="18" spans="4:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="4:4">
       <c r="D18" s="1"/>
     </row>
   </sheetData>

--- a/Dokumentation/Noctua_Zeitaufzeichnung.xlsx
+++ b/Dokumentation/Noctua_Zeitaufzeichnung.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
-  <workbookPr autoCompressPictures="0"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="17480" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23256" windowHeight="13176"/>
   </bookViews>
   <sheets>
     <sheet name="Gesamtstatus" sheetId="4" r:id="rId1"/>
@@ -14,7 +14,7 @@
     <sheet name="Marktzustandserkennung" sheetId="7" r:id="rId5"/>
     <sheet name="Testing_Abschluss" sheetId="8" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="183">
   <si>
     <t>Arbeitspaket</t>
   </si>
@@ -555,6 +555,24 @@
   </si>
   <si>
     <t>30% Seitwärtsalgo.</t>
+  </si>
+  <si>
+    <t>Systemtesting-Protokoll erstellt</t>
+  </si>
+  <si>
+    <t>Protokoll fertiggestellt und getestet</t>
+  </si>
+  <si>
+    <t>Support- and Resistence-Level implementiert</t>
+  </si>
+  <si>
+    <t>S&amp;P-Algorithmus lauffaehig</t>
+  </si>
+  <si>
+    <t>Weitere bugfixes und Fertigstellung fuer die Abnahme</t>
+  </si>
+  <si>
+    <t>BTS theoretisch abnahmefertig</t>
   </si>
 </sst>
 </file>
@@ -917,7 +935,9 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -981,63 +1001,63 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="53">
-    <cellStyle name="Besuchter Link" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="20" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="22" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="24" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="26" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="28" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="30" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="32" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="34" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="36" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="38" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="40" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="42" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="44" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="46" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="48" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="50" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="52" builtinId="9" hidden="1"/>
-    <cellStyle name="Link" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="7" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="9" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="11" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="13" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="15" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="17" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="19" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="21" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="23" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="25" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="27" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="29" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="31" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="33" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="35" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="37" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="39" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="41" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="43" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="45" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="47" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="49" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1058,7 +1078,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
+  <c:lang val="de-AT"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1085,6 +1105,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1153,10 +1174,10 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1172,12 +1193,12 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:shape val="box"/>
-        <c:axId val="2081482696"/>
-        <c:axId val="2081480264"/>
+        <c:axId val="59274752"/>
+        <c:axId val="59276288"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="2081482696"/>
+        <c:axId val="59274752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1186,7 +1207,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2081480264"/>
+        <c:crossAx val="59276288"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1194,7 +1215,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2081480264"/>
+        <c:axId val="59276288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1210,7 +1231,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="2081482696"/>
+        <c:crossAx val="59274752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1224,7 +1245,7 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.787401575" l="0.7" r="0.7" t="0.787401575" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1233,7 +1254,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
+  <c:lang val="de-AT"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1245,6 +1266,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1320,13 +1342,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>40.0</c:v>
+                  <c:v>40.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>95.5</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>104.0</c:v>
+                  <c:v>108.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1342,12 +1364,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="2082970600"/>
-        <c:axId val="2082973512"/>
+        <c:axId val="203832320"/>
+        <c:axId val="204063488"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="2082970600"/>
+        <c:axId val="203832320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1356,7 +1378,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2082973512"/>
+        <c:crossAx val="204063488"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1364,7 +1386,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2082973512"/>
+        <c:axId val="204063488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1375,7 +1397,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2082970600"/>
+        <c:crossAx val="203832320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1386,7 +1408,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.787401575" l="0.7" r="0.7" t="0.787401575" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1746,33 +1768,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R36"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D40" sqref="D40"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="34.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
-      <c r="A1" s="50"/>
-      <c r="B1" s="52" t="s">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A1" s="52"/>
+      <c r="B1" s="54" t="s">
         <v>28</v>
       </c>
-      <c r="C1" s="46" t="s">
+      <c r="C1" s="48" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="47"/>
+      <c r="D1" s="49"/>
       <c r="E1" s="12"/>
       <c r="F1" s="12"/>
       <c r="G1" s="12"/>
       <c r="R1" s="8"/>
     </row>
-    <row r="2" spans="1:18" ht="15" thickBot="1">
-      <c r="A2" s="51"/>
-      <c r="B2" s="53"/>
+    <row r="2" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="53"/>
+      <c r="B2" s="55"/>
       <c r="C2" s="13" t="s">
         <v>26</v>
       </c>
@@ -1783,13 +1805,13 @@
       <c r="F2" s="12"/>
       <c r="G2" s="12"/>
     </row>
-    <row r="3" spans="1:18" ht="15" thickBot="1">
+    <row r="3" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="15" t="s">
         <v>36</v>
       </c>
       <c r="B3" s="7">
         <f>SUM(B6,B12,B27)</f>
-        <v>128.5</v>
+        <v>135.5</v>
       </c>
       <c r="C3" s="27">
         <f>AVERAGE(C6,C12,C17,C22,C27)</f>
@@ -1802,33 +1824,33 @@
       <c r="F3" s="12"/>
       <c r="G3" s="12"/>
     </row>
-    <row r="4" spans="1:18">
-      <c r="A4" s="47"/>
-      <c r="B4" s="52"/>
-      <c r="C4" s="54" t="s">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A4" s="49"/>
+      <c r="B4" s="54"/>
+      <c r="C4" s="56" t="s">
         <v>29</v>
       </c>
-      <c r="D4" s="55"/>
+      <c r="D4" s="57"/>
       <c r="E4" s="12"/>
       <c r="F4" s="12"/>
       <c r="G4" s="12"/>
     </row>
-    <row r="5" spans="1:18" ht="15" thickBot="1">
-      <c r="A5" s="51"/>
-      <c r="B5" s="53"/>
-      <c r="C5" s="56"/>
-      <c r="D5" s="57"/>
+    <row r="5" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="53"/>
+      <c r="B5" s="55"/>
+      <c r="C5" s="58"/>
+      <c r="D5" s="59"/>
       <c r="E5" s="12"/>
       <c r="F5" s="12"/>
       <c r="G5" s="12"/>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" s="16" t="s">
         <v>13</v>
       </c>
       <c r="B6" s="17">
         <f>Projektmanagment!J7</f>
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="C6" s="29">
         <f>SUM(C7:C11)</f>
@@ -1841,7 +1863,7 @@
       <c r="F6" s="12"/>
       <c r="G6" s="12"/>
     </row>
-    <row r="7" spans="1:18">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" s="18" t="s">
         <v>18</v>
       </c>
@@ -1857,13 +1879,13 @@
       <c r="F7" s="12"/>
       <c r="G7" s="12"/>
     </row>
-    <row r="8" spans="1:18">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" s="18" t="s">
         <v>17</v>
       </c>
       <c r="B8" s="19">
         <f>Projektmanagment!J3</f>
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="C8" s="31">
         <v>0</v>
@@ -1873,7 +1895,7 @@
       <c r="F8" s="12"/>
       <c r="G8" s="12"/>
     </row>
-    <row r="9" spans="1:18">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" s="18" t="s">
         <v>19</v>
       </c>
@@ -1889,7 +1911,7 @@
       <c r="F9" s="12"/>
       <c r="G9" s="12"/>
     </row>
-    <row r="10" spans="1:18">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10" s="18" t="s">
         <v>20</v>
       </c>
@@ -1905,7 +1927,7 @@
       <c r="F10" s="12"/>
       <c r="G10" s="12"/>
     </row>
-    <row r="11" spans="1:18" ht="15" thickBot="1">
+    <row r="11" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="20" t="s">
         <v>21</v>
       </c>
@@ -1921,13 +1943,13 @@
       <c r="F11" s="12"/>
       <c r="G11" s="12"/>
     </row>
-    <row r="12" spans="1:18">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12" s="16" t="s">
         <v>54</v>
       </c>
       <c r="B12" s="17">
         <f>BacktestingSoftware!J6</f>
-        <v>124</v>
+        <v>128.5</v>
       </c>
       <c r="C12" s="29">
         <f>SUM(C13:C16)</f>
@@ -1940,7 +1962,7 @@
       <c r="F12" s="12"/>
       <c r="G12" s="12"/>
     </row>
-    <row r="13" spans="1:18">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A13" s="18" t="s">
         <v>53</v>
       </c>
@@ -1956,7 +1978,7 @@
       <c r="F13" s="12"/>
       <c r="G13" s="12"/>
     </row>
-    <row r="14" spans="1:18">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A14" s="18" t="s">
         <v>55</v>
       </c>
@@ -1972,7 +1994,7 @@
       <c r="F14" s="12"/>
       <c r="G14" s="12"/>
     </row>
-    <row r="15" spans="1:18">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A15" s="18" t="s">
         <v>56</v>
       </c>
@@ -1988,26 +2010,26 @@
       <c r="F15" s="12"/>
       <c r="G15" s="12"/>
     </row>
-    <row r="16" spans="1:18" ht="15" thickBot="1">
+    <row r="16" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="18" t="s">
         <v>57</v>
       </c>
       <c r="B16" s="19">
         <f>BacktestingSoftware!J5</f>
-        <v>42.5</v>
+        <v>47</v>
       </c>
       <c r="C16" s="31">
         <v>0</v>
       </c>
       <c r="D16" s="32"/>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="16" t="s">
         <v>58</v>
       </c>
       <c r="B17" s="17">
         <f>Algorithmus!J6</f>
-        <v>84.5</v>
+        <v>87</v>
       </c>
       <c r="C17" s="29">
         <f>SUM(C18:C21)</f>
@@ -2017,7 +2039,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="18" t="s">
         <v>59</v>
       </c>
@@ -2030,7 +2052,7 @@
       </c>
       <c r="D18" s="32"/>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="18" t="s">
         <v>60</v>
       </c>
@@ -2043,20 +2065,20 @@
       </c>
       <c r="D19" s="32"/>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="18" t="s">
         <v>61</v>
       </c>
       <c r="B20" s="19">
         <f>Algorithmus!J4</f>
-        <v>50</v>
+        <v>52.5</v>
       </c>
       <c r="C20" s="40">
         <v>0</v>
       </c>
       <c r="D20" s="32"/>
     </row>
-    <row r="21" spans="1:4" ht="15" thickBot="1">
+    <row r="21" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="18" t="s">
         <v>62</v>
       </c>
@@ -2069,7 +2091,7 @@
       </c>
       <c r="D21" s="32"/>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="16" t="s">
         <v>63</v>
       </c>
@@ -2085,7 +2107,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="18" t="s">
         <v>59</v>
       </c>
@@ -2098,7 +2120,7 @@
       </c>
       <c r="D23" s="32"/>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="18" t="s">
         <v>64</v>
       </c>
@@ -2111,7 +2133,7 @@
       </c>
       <c r="D24" s="32"/>
     </row>
-    <row r="25" spans="1:4" ht="15" customHeight="1">
+    <row r="25" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="18" t="s">
         <v>65</v>
       </c>
@@ -2124,7 +2146,7 @@
       </c>
       <c r="D25" s="32"/>
     </row>
-    <row r="26" spans="1:4" ht="15" thickBot="1">
+    <row r="26" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="18" t="s">
         <v>66</v>
       </c>
@@ -2137,13 +2159,13 @@
       </c>
       <c r="D26" s="32"/>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="16" t="s">
         <v>14</v>
       </c>
       <c r="B27" s="17">
         <f>Testing_Abschluss!J6</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C27" s="29">
         <f>SUM(C28:C31)</f>
@@ -2153,7 +2175,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="15.75" customHeight="1">
+    <row r="28" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="18" t="s">
         <v>22</v>
       </c>
@@ -2166,7 +2188,7 @@
       </c>
       <c r="D28" s="32"/>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="18" t="s">
         <v>23</v>
       </c>
@@ -2179,20 +2201,20 @@
       </c>
       <c r="D29" s="32"/>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="18" t="s">
         <v>24</v>
       </c>
       <c r="B30" s="22">
         <f>Testing_Abschluss!J4</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C30" s="40">
         <v>0</v>
       </c>
       <c r="D30" s="32"/>
     </row>
-    <row r="31" spans="1:4" ht="15" thickBot="1">
+    <row r="31" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="20" t="s">
         <v>25</v>
       </c>
@@ -2205,42 +2227,42 @@
       </c>
       <c r="D31" s="28"/>
     </row>
-    <row r="32" spans="1:4" ht="15" thickBot="1"/>
-    <row r="33" spans="2:4" ht="15" thickBot="1">
+    <row r="32" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="33" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B33" s="10"/>
       <c r="C33" s="10"/>
       <c r="D33" s="11" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="34" spans="2:4" ht="15" thickBot="1">
-      <c r="B34" s="48" t="s">
+    <row r="34" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B34" s="50" t="s">
         <v>34</v>
       </c>
-      <c r="C34" s="49"/>
+      <c r="C34" s="51"/>
       <c r="D34" s="9">
         <f>SUM(Projektmanagment!I13,BacktestingSoftware!I13,Algorithmus!I13,Marktzustandserkennung!I13,Testing_Abschluss!I13)</f>
-        <v>40</v>
-      </c>
-    </row>
-    <row r="35" spans="2:4" ht="15" thickBot="1">
-      <c r="B35" s="42" t="s">
+        <v>40.5</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B35" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="C35" s="43"/>
+      <c r="C35" s="45"/>
       <c r="D35" s="9">
         <f>SUM(Projektmanagment!I14,BacktestingSoftware!I14,Algorithmus!I14,Marktzustandserkennung!I14,Testing_Abschluss!I14)</f>
-        <v>95.5</v>
-      </c>
-    </row>
-    <row r="36" spans="2:4" ht="15" thickBot="1">
-      <c r="B36" s="44" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B36" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="C36" s="45"/>
+      <c r="C36" s="47"/>
       <c r="D36" s="39">
         <f>SUM(Projektmanagment!I15,BacktestingSoftware!I15,Algorithmus!I15,Marktzustandserkennung!I15,Testing_Abschluss!I15)</f>
-        <v>104</v>
+        <v>108.5</v>
       </c>
     </row>
   </sheetData>
@@ -2270,21 +2292,21 @@
   <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13.33203125" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.33203125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="71.83203125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="10.83203125" style="3"/>
-    <col min="5" max="5" width="10.83203125" style="26"/>
-    <col min="6" max="6" width="24.5" style="3" customWidth="1"/>
-    <col min="9" max="9" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="71.77734375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="10.77734375" style="3"/>
+    <col min="5" max="5" width="10.77734375" style="26"/>
+    <col min="6" max="6" width="24.44140625" style="3" customWidth="1"/>
+    <col min="9" max="9" width="12.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" thickBot="1">
+    <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>37</v>
       </c>
@@ -2303,15 +2325,15 @@
       <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="61" t="s">
-        <v>0</v>
-      </c>
-      <c r="I1" s="61"/>
+      <c r="H1" s="63" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1" s="63"/>
       <c r="J1" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>32</v>
       </c>
@@ -2330,16 +2352,16 @@
       <c r="F2" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="H2" s="62" t="s">
+      <c r="H2" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="62"/>
+      <c r="I2" s="64"/>
       <c r="J2" s="4">
         <f>SUMIF(B:B,H2,E:E)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>32</v>
       </c>
@@ -2358,16 +2380,16 @@
       <c r="F3" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="H3" s="62" t="s">
+      <c r="H3" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="I3" s="62"/>
+      <c r="I3" s="64"/>
       <c r="J3" s="4">
         <f>SUMIF(B:B,H3,E:E)</f>
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>32</v>
       </c>
@@ -2386,16 +2408,16 @@
       <c r="F4" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="H4" s="62" t="s">
+      <c r="H4" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="62"/>
+      <c r="I4" s="64"/>
       <c r="J4" s="4">
         <f>SUMIF(B:B,H4,E:E)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>32</v>
       </c>
@@ -2414,16 +2436,16 @@
       <c r="F5" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="H5" s="62" t="s">
+      <c r="H5" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="I5" s="62"/>
+      <c r="I5" s="64"/>
       <c r="J5" s="4">
         <f>SUMIF(B:B,H5,E:E)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15" thickBot="1">
+    <row r="6" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>32</v>
       </c>
@@ -2442,16 +2464,16 @@
       <c r="F6" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="H6" s="60" t="s">
+      <c r="H6" s="62" t="s">
         <v>10</v>
       </c>
-      <c r="I6" s="60"/>
+      <c r="I6" s="62"/>
       <c r="J6" s="5">
         <f>SUMIF(B:B,H6,E:E)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="15" thickBot="1">
+    <row r="7" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>32</v>
       </c>
@@ -2470,16 +2492,16 @@
       <c r="F7" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="H7" s="58" t="s">
+      <c r="H7" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="I7" s="59"/>
+      <c r="I7" s="61"/>
       <c r="J7" s="7">
         <f>SUM(J2:J6)</f>
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>32</v>
       </c>
@@ -2499,16 +2521,33 @@
         <v>73</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
-      <c r="D9" s="1"/>
-    </row>
-    <row r="10" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D9" s="24">
+        <v>41346</v>
+      </c>
+      <c r="E9" s="26">
+        <v>0.5</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="D10" s="1"/>
     </row>
-    <row r="11" spans="1:10" ht="15" thickBot="1">
+    <row r="11" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D11" s="1"/>
     </row>
-    <row r="12" spans="1:10" ht="15" thickBot="1">
+    <row r="12" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D12" s="1"/>
       <c r="H12" s="6" t="s">
         <v>5</v>
@@ -2517,17 +2556,17 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="D13" s="1"/>
       <c r="H13" s="33" t="s">
         <v>32</v>
       </c>
       <c r="I13" s="4">
         <f>SUMIF(A:A,H13,E:E)</f>
-        <v>6.5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="D14" s="1"/>
       <c r="H14" s="33" t="s">
         <v>6</v>
@@ -2537,7 +2576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15" thickBot="1">
+    <row r="15" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D15" s="1"/>
       <c r="H15" s="33" t="s">
         <v>33</v>
@@ -2547,15 +2586,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="D16" s="1"/>
       <c r="H16" s="36"/>
       <c r="I16" s="36"/>
     </row>
-    <row r="17" spans="4:4">
+    <row r="17" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D17" s="1"/>
     </row>
-    <row r="18" spans="4:4">
+    <row r="18" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D18" s="1"/>
     </row>
   </sheetData>
@@ -2577,6 +2616,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -2587,24 +2627,24 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J32"/>
+  <dimension ref="A1:J33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A31" sqref="A31:F32"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13.33203125" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.33203125" style="3" customWidth="1"/>
     <col min="3" max="3" width="66.33203125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="10.83203125" style="3"/>
-    <col min="5" max="5" width="10.83203125" style="26"/>
-    <col min="6" max="6" width="24.5" style="3" customWidth="1"/>
-    <col min="9" max="9" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.77734375" style="3"/>
+    <col min="5" max="5" width="10.77734375" style="26"/>
+    <col min="6" max="6" width="24.44140625" style="3" customWidth="1"/>
+    <col min="9" max="9" width="12.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" thickBot="1">
+    <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>37</v>
       </c>
@@ -2623,15 +2663,15 @@
       <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="61" t="s">
-        <v>0</v>
-      </c>
-      <c r="I1" s="61"/>
+      <c r="H1" s="63" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1" s="63"/>
       <c r="J1" s="34" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
@@ -2650,16 +2690,16 @@
       <c r="F2" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="H2" s="62" t="s">
+      <c r="H2" s="64" t="s">
         <v>38</v>
       </c>
-      <c r="I2" s="62"/>
+      <c r="I2" s="64"/>
       <c r="J2" s="35">
         <f>SUMIF(B:B,H2,E:E)</f>
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>33</v>
       </c>
@@ -2678,16 +2718,16 @@
       <c r="F3" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="H3" s="62" t="s">
+      <c r="H3" s="64" t="s">
         <v>39</v>
       </c>
-      <c r="I3" s="62"/>
+      <c r="I3" s="64"/>
       <c r="J3" s="35">
         <f>SUMIF(B:B,H3,E:E)</f>
         <v>35.5</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
@@ -2706,16 +2746,16 @@
       <c r="F4" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="H4" s="62" t="s">
+      <c r="H4" s="64" t="s">
         <v>40</v>
       </c>
-      <c r="I4" s="62"/>
+      <c r="I4" s="64"/>
       <c r="J4" s="35">
         <f>SUMIF(B:B,H4,E:E)</f>
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="15" thickBot="1">
+    <row r="5" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
@@ -2734,16 +2774,16 @@
       <c r="F5" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="H5" s="62" t="s">
+      <c r="H5" s="64" t="s">
         <v>41</v>
       </c>
-      <c r="I5" s="62"/>
+      <c r="I5" s="64"/>
       <c r="J5" s="35">
         <f>SUMIF(B:B,H5,E:E)</f>
-        <v>42.5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="15" thickBot="1">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>6</v>
       </c>
@@ -2762,16 +2802,16 @@
       <c r="F6" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="H6" s="58" t="s">
+      <c r="H6" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="I6" s="59"/>
+      <c r="I6" s="61"/>
       <c r="J6" s="7">
         <f>SUM(J2:J5)</f>
-        <v>124</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
+        <v>128.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>33</v>
       </c>
@@ -2791,7 +2831,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>33</v>
       </c>
@@ -2811,7 +2851,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>32</v>
       </c>
@@ -2831,7 +2871,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>32</v>
       </c>
@@ -2848,7 +2888,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15" thickBot="1">
+    <row r="11" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>6</v>
       </c>
@@ -2868,7 +2908,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="15" thickBot="1">
+    <row r="12" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
         <v>32</v>
       </c>
@@ -2894,7 +2934,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>6</v>
       </c>
@@ -2921,7 +2961,7 @@
         <v>11.5</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>33</v>
       </c>
@@ -2945,10 +2985,10 @@
       </c>
       <c r="I14" s="35">
         <f>SUMIF(A:A,H14,E:E)</f>
-        <v>95.5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="15" thickBot="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
         <v>6</v>
       </c>
@@ -2975,7 +3015,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>33</v>
       </c>
@@ -2997,7 +3037,7 @@
       <c r="H16" s="36"/>
       <c r="I16" s="36"/>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>6</v>
       </c>
@@ -3017,7 +3057,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>6</v>
       </c>
@@ -3037,7 +3077,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>6</v>
       </c>
@@ -3057,7 +3097,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>6</v>
       </c>
@@ -3077,7 +3117,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
         <v>6</v>
       </c>
@@ -3097,7 +3137,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
         <v>6</v>
       </c>
@@ -3117,7 +3157,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
         <v>6</v>
       </c>
@@ -3137,7 +3177,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
         <v>32</v>
       </c>
@@ -3157,7 +3197,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
         <v>6</v>
       </c>
@@ -3177,7 +3217,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
         <v>32</v>
       </c>
@@ -3197,7 +3237,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
         <v>6</v>
       </c>
@@ -3217,7 +3257,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
         <v>6</v>
       </c>
@@ -3237,7 +3277,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
         <v>6</v>
       </c>
@@ -3257,7 +3297,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
         <v>6</v>
       </c>
@@ -3277,7 +3317,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
         <v>6</v>
       </c>
@@ -3297,7 +3337,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
         <v>6</v>
       </c>
@@ -3315,6 +3355,26 @@
       </c>
       <c r="F32" s="3" t="s">
         <v>172</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="D33" s="1">
+        <v>41346</v>
+      </c>
+      <c r="E33" s="26">
+        <v>4.5</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -3347,22 +3407,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13.33203125" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.33203125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="71.83203125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="10.83203125" style="3"/>
-    <col min="5" max="5" width="10.83203125" style="26"/>
-    <col min="6" max="6" width="24.5" style="3" customWidth="1"/>
-    <col min="9" max="9" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="56.5546875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="10.77734375" style="3"/>
+    <col min="5" max="5" width="10.77734375" style="26"/>
+    <col min="6" max="6" width="43.44140625" style="3" customWidth="1"/>
+    <col min="9" max="9" width="12.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" thickBot="1">
+    <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>37</v>
       </c>
@@ -3381,15 +3441,15 @@
       <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="61" t="s">
-        <v>0</v>
-      </c>
-      <c r="I1" s="61"/>
+      <c r="H1" s="63" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1" s="63"/>
       <c r="J1" s="34" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>33</v>
       </c>
@@ -3408,16 +3468,16 @@
       <c r="F2" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="H2" s="62" t="s">
+      <c r="H2" s="64" t="s">
         <v>42</v>
       </c>
-      <c r="I2" s="62"/>
+      <c r="I2" s="64"/>
       <c r="J2" s="35">
         <f>SUMIF(B:B,H2,E:E)</f>
         <v>5.5</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>33</v>
       </c>
@@ -3436,16 +3496,16 @@
       <c r="F3" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="H3" s="62" t="s">
+      <c r="H3" s="64" t="s">
         <v>43</v>
       </c>
-      <c r="I3" s="62"/>
+      <c r="I3" s="64"/>
       <c r="J3" s="35">
         <f>SUMIF(B:B,H3,E:E)</f>
         <v>17.5</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>33</v>
       </c>
@@ -3464,16 +3524,16 @@
       <c r="F4" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="H4" s="62" t="s">
+      <c r="H4" s="64" t="s">
         <v>44</v>
       </c>
-      <c r="I4" s="62"/>
+      <c r="I4" s="64"/>
       <c r="J4" s="35">
         <f>SUMIF(B:B,H4,E:E)</f>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="15" thickBot="1">
+        <v>52.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>33</v>
       </c>
@@ -3492,16 +3552,16 @@
       <c r="F5" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="H5" s="62" t="s">
+      <c r="H5" s="64" t="s">
         <v>45</v>
       </c>
-      <c r="I5" s="62"/>
+      <c r="I5" s="64"/>
       <c r="J5" s="35">
         <f>SUMIF(B:B,H5,E:E)</f>
         <v>11.5</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15" thickBot="1">
+    <row r="6" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>33</v>
       </c>
@@ -3520,16 +3580,16 @@
       <c r="F6" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="H6" s="58" t="s">
+      <c r="H6" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="I6" s="59"/>
+      <c r="I6" s="61"/>
       <c r="J6" s="7">
         <f>SUM(J2:J5)</f>
-        <v>84.5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>33</v>
       </c>
@@ -3549,7 +3609,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>33</v>
       </c>
@@ -3569,7 +3629,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>33</v>
       </c>
@@ -3585,11 +3645,11 @@
       <c r="E9" s="26">
         <v>5</v>
       </c>
-      <c r="F9" s="41">
+      <c r="F9" s="71">
         <v>0.8</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>33</v>
       </c>
@@ -3609,7 +3669,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15" thickBot="1">
+    <row r="11" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>33</v>
       </c>
@@ -3629,7 +3689,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="15" thickBot="1">
+    <row r="12" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
         <v>33</v>
       </c>
@@ -3655,7 +3715,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>33</v>
       </c>
@@ -3682,7 +3742,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>32</v>
       </c>
@@ -3709,7 +3769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15" thickBot="1">
+    <row r="15" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
         <v>32</v>
       </c>
@@ -3733,10 +3793,10 @@
       </c>
       <c r="I15" s="35">
         <f>SUMIF(A:A,H15,E:E)</f>
-        <v>64.5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>32</v>
       </c>
@@ -3758,7 +3818,7 @@
       <c r="H16" s="36"/>
       <c r="I16" s="36"/>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>33</v>
       </c>
@@ -3778,7 +3838,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>32</v>
       </c>
@@ -3798,7 +3858,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>32</v>
       </c>
@@ -3818,7 +3878,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>32</v>
       </c>
@@ -3838,7 +3898,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
         <v>32</v>
       </c>
@@ -3858,27 +3918,27 @@
         <v>169</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
-      <c r="A22" s="69" t="s">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="B22" s="70" t="s">
+      <c r="B22" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="C22" s="70" t="s">
+      <c r="C22" s="42" t="s">
         <v>168</v>
       </c>
-      <c r="D22" s="71">
+      <c r="D22" s="43">
         <v>41339</v>
       </c>
-      <c r="E22" s="70">
+      <c r="E22" s="42">
         <v>1.5</v>
       </c>
-      <c r="F22" s="70" t="s">
+      <c r="F22" s="42" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
         <v>32</v>
       </c>
@@ -3898,21 +3958,33 @@
         <v>176</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
-      <c r="A24" s="69"/>
-      <c r="B24" s="70"/>
-      <c r="C24" s="70"/>
-      <c r="D24" s="71"/>
-      <c r="E24" s="70"/>
-      <c r="F24" s="70"/>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="A27" s="69"/>
-      <c r="B27" s="70"/>
-      <c r="C27" s="70"/>
-      <c r="D27" s="71"/>
-      <c r="E27" s="70"/>
-      <c r="F27" s="70"/>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="D24" s="1">
+        <v>41346</v>
+      </c>
+      <c r="E24" s="26">
+        <v>2.5</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" s="41"/>
+      <c r="B27" s="42"/>
+      <c r="C27" s="42"/>
+      <c r="D27" s="43"/>
+      <c r="E27" s="42"/>
+      <c r="F27" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -3924,15 +3996,15 @@
     <mergeCell ref="H5:I5"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A28:A1048576 A25:A26 A2:A21 A23">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A28:A1048576 A2:A21 A23:A26">
       <formula1>$H$13:$H$15</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B28:B1048576 B25:B26 B1:B21 B23">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B28:B1048576 B1:B21 B23:B26">
       <formula1>$H$2:$H$5</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -3949,18 +4021,18 @@
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13.33203125" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="36.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="71.83203125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="11.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.83203125" style="26"/>
-    <col min="6" max="6" width="24.5" style="3" customWidth="1"/>
-    <col min="9" max="9" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="71.77734375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="11.44140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.77734375" style="26"/>
+    <col min="6" max="6" width="24.44140625" style="3" customWidth="1"/>
+    <col min="9" max="9" width="12.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" thickBot="1">
+    <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>37</v>
       </c>
@@ -3979,15 +4051,15 @@
       <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="61" t="s">
-        <v>0</v>
-      </c>
-      <c r="I1" s="61"/>
+      <c r="H1" s="63" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1" s="63"/>
       <c r="J1" s="34" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>32</v>
       </c>
@@ -4006,16 +4078,16 @@
       <c r="F2" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="H2" s="62" t="s">
+      <c r="H2" s="64" t="s">
         <v>42</v>
       </c>
-      <c r="I2" s="62"/>
+      <c r="I2" s="64"/>
       <c r="J2" s="35">
         <f>SUMIF(B:B,H2,E:E)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>33</v>
       </c>
@@ -4034,16 +4106,16 @@
       <c r="F3" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="H3" s="62" t="s">
+      <c r="H3" s="64" t="s">
         <v>46</v>
       </c>
-      <c r="I3" s="62"/>
+      <c r="I3" s="64"/>
       <c r="J3" s="35">
         <f>SUMIF(B:B,H3,E:E)</f>
         <v>11.5</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>33</v>
       </c>
@@ -4062,16 +4134,16 @@
       <c r="F4" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="H4" s="62" t="s">
+      <c r="H4" s="64" t="s">
         <v>47</v>
       </c>
-      <c r="I4" s="62"/>
+      <c r="I4" s="64"/>
       <c r="J4" s="35">
         <f>SUMIF(B:B,H4,E:E)</f>
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="15" thickBot="1">
+    <row r="5" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>33</v>
       </c>
@@ -4090,16 +4162,16 @@
       <c r="F5" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="H5" s="62" t="s">
+      <c r="H5" s="64" t="s">
         <v>48</v>
       </c>
-      <c r="I5" s="62"/>
+      <c r="I5" s="64"/>
       <c r="J5" s="35">
         <f>SUMIF(B:B,H5,E:E)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15" thickBot="1">
+    <row r="6" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>33</v>
       </c>
@@ -4118,16 +4190,16 @@
       <c r="F6" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="H6" s="58" t="s">
+      <c r="H6" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="I6" s="59"/>
+      <c r="I6" s="61"/>
       <c r="J6" s="7">
         <f>SUM(J2:J5)</f>
         <v>24.5</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>33</v>
       </c>
@@ -4147,7 +4219,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>33</v>
       </c>
@@ -4167,16 +4239,16 @@
         <v>167</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="D9" s="1"/>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="D10" s="1"/>
     </row>
-    <row r="11" spans="1:10" ht="15" thickBot="1">
+    <row r="11" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D11" s="1"/>
     </row>
-    <row r="12" spans="1:10" ht="15" thickBot="1">
+    <row r="12" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D12" s="1"/>
       <c r="H12" s="34" t="s">
         <v>5</v>
@@ -4185,7 +4257,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="D13" s="1"/>
       <c r="H13" s="35" t="s">
         <v>32</v>
@@ -4195,7 +4267,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="D14" s="1"/>
       <c r="H14" s="35" t="s">
         <v>6</v>
@@ -4205,7 +4277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15" thickBot="1">
+    <row r="15" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D15" s="1"/>
       <c r="H15" s="35" t="s">
         <v>33</v>
@@ -4215,15 +4287,15 @@
         <v>22.5</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="D16" s="1"/>
       <c r="H16" s="36"/>
       <c r="I16" s="36"/>
     </row>
-    <row r="17" spans="4:4">
+    <row r="17" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D17" s="1"/>
     </row>
-    <row r="18" spans="4:4">
+    <row r="18" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D18" s="1"/>
     </row>
   </sheetData>
@@ -4256,22 +4328,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.5546875" style="3" customWidth="1"/>
     <col min="2" max="2" width="21.33203125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="71.83203125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="10.83203125" style="3"/>
-    <col min="5" max="5" width="10.83203125" style="37"/>
-    <col min="6" max="6" width="24.5" style="3" customWidth="1"/>
-    <col min="9" max="9" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="71.77734375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="10.77734375" style="3"/>
+    <col min="5" max="5" width="10.77734375" style="37"/>
+    <col min="6" max="6" width="24.44140625" style="3" customWidth="1"/>
+    <col min="9" max="9" width="12.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" thickBot="1">
+    <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>37</v>
       </c>
@@ -4290,86 +4362,102 @@
       <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="61" t="s">
-        <v>0</v>
-      </c>
-      <c r="I1" s="61"/>
+      <c r="H1" s="63" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1" s="63"/>
       <c r="J1" s="34" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
-      <c r="B2" s="2"/>
-      <c r="D2" s="1"/>
-      <c r="H2" s="63" t="s">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="D2" s="1">
+        <v>41346</v>
+      </c>
+      <c r="E2" s="37">
+        <v>2</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="H2" s="65" t="s">
         <v>49</v>
       </c>
-      <c r="I2" s="64"/>
+      <c r="I2" s="66"/>
       <c r="J2" s="35">
         <f>SUMIF(B:B,H2,E:E)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="D3" s="1"/>
-      <c r="H3" s="65" t="s">
+      <c r="H3" s="67" t="s">
         <v>50</v>
       </c>
-      <c r="I3" s="66"/>
+      <c r="I3" s="68"/>
       <c r="J3" s="35">
         <f>SUMIF(B:B,H3,E:E)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="D4" s="1"/>
-      <c r="H4" s="65" t="s">
+      <c r="H4" s="67" t="s">
         <v>51</v>
       </c>
-      <c r="I4" s="66"/>
+      <c r="I4" s="68"/>
       <c r="J4" s="35">
         <f>SUMIF(B:B,H4,E:E)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="15" thickBot="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D5" s="1"/>
-      <c r="H5" s="67" t="s">
+      <c r="H5" s="69" t="s">
         <v>52</v>
       </c>
-      <c r="I5" s="68"/>
+      <c r="I5" s="70"/>
       <c r="J5" s="35">
         <f>SUMIF(B:B,H5,E:E)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15" thickBot="1">
+    <row r="6" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D6" s="1"/>
-      <c r="H6" s="58" t="s">
+      <c r="H6" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="I6" s="59"/>
+      <c r="I6" s="61"/>
       <c r="J6" s="7">
         <f>SUM(J2:J5)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="D7" s="1"/>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="D8" s="24"/>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="D9" s="1"/>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="D10" s="1"/>
     </row>
-    <row r="11" spans="1:10" ht="15" thickBot="1">
+    <row r="11" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D11" s="1"/>
     </row>
-    <row r="12" spans="1:10" ht="15" thickBot="1">
+    <row r="12" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D12" s="1"/>
       <c r="H12" s="34" t="s">
         <v>5</v>
@@ -4378,7 +4466,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="D13" s="1"/>
       <c r="H13" s="35" t="s">
         <v>32</v>
@@ -4388,7 +4476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="D14" s="1"/>
       <c r="H14" s="35" t="s">
         <v>6</v>
@@ -4398,25 +4486,25 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15" thickBot="1">
+    <row r="15" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D15" s="1"/>
       <c r="H15" s="35" t="s">
         <v>33</v>
       </c>
       <c r="I15" s="35">
         <f>SUMIF(A:A,H15,E:E)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="D16" s="1"/>
       <c r="H16" s="36"/>
       <c r="I16" s="36"/>
     </row>
-    <row r="17" spans="4:4">
+    <row r="17" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D17" s="1"/>
     </row>
-    <row r="18" spans="4:4">
+    <row r="18" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D18" s="1"/>
     </row>
   </sheetData>

--- a/Dokumentation/Noctua_Zeitaufzeichnung.xlsx
+++ b/Dokumentation/Noctua_Zeitaufzeichnung.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23256" windowHeight="13176"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Gesamtstatus" sheetId="4" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="185">
   <si>
     <t>Arbeitspaket</t>
   </si>
@@ -573,6 +573,12 @@
   </si>
   <si>
     <t>BTS theoretisch abnahmefertig</t>
+  </si>
+  <si>
+    <t>File einlesen in F#</t>
+  </si>
+  <si>
+    <t>File eingelesen falsche Formatierung</t>
   </si>
 </sst>
 </file>
@@ -938,6 +944,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1001,9 +1010,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
   </cellXfs>
   <cellStyles count="53">
     <cellStyle name="Besuchter Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -1193,12 +1199,12 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:shape val="box"/>
-        <c:axId val="59274752"/>
-        <c:axId val="59276288"/>
+        <c:axId val="252693888"/>
+        <c:axId val="252730368"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="59274752"/>
+        <c:axId val="252693888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1207,7 +1213,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="59276288"/>
+        <c:crossAx val="252730368"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1215,7 +1221,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="59276288"/>
+        <c:axId val="252730368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1231,7 +1237,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="59274752"/>
+        <c:crossAx val="252693888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1345,10 +1351,10 @@
                   <c:v>40.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>100</c:v>
+                  <c:v>105</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>108.5</c:v>
+                  <c:v>128.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1364,12 +1370,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="203832320"/>
-        <c:axId val="204063488"/>
+        <c:axId val="360360960"/>
+        <c:axId val="360370944"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="203832320"/>
+        <c:axId val="360360960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1378,7 +1384,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="204063488"/>
+        <c:crossAx val="360370944"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1386,7 +1392,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="204063488"/>
+        <c:axId val="360370944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1397,7 +1403,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="203832320"/>
+        <c:crossAx val="360360960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1768,33 +1774,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A1" s="52"/>
-      <c r="B1" s="54" t="s">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A1" s="53"/>
+      <c r="B1" s="55" t="s">
         <v>28</v>
       </c>
-      <c r="C1" s="48" t="s">
+      <c r="C1" s="49" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="49"/>
+      <c r="D1" s="50"/>
       <c r="E1" s="12"/>
       <c r="F1" s="12"/>
       <c r="G1" s="12"/>
       <c r="R1" s="8"/>
     </row>
-    <row r="2" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="53"/>
-      <c r="B2" s="55"/>
+    <row r="2" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="54"/>
+      <c r="B2" s="56"/>
       <c r="C2" s="13" t="s">
         <v>26</v>
       </c>
@@ -1805,7 +1811,7 @@
       <c r="F2" s="12"/>
       <c r="G2" s="12"/>
     </row>
-    <row r="3" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="15" t="s">
         <v>36</v>
       </c>
@@ -1824,27 +1830,27 @@
       <c r="F3" s="12"/>
       <c r="G3" s="12"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A4" s="49"/>
-      <c r="B4" s="54"/>
-      <c r="C4" s="56" t="s">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A4" s="50"/>
+      <c r="B4" s="55"/>
+      <c r="C4" s="57" t="s">
         <v>29</v>
       </c>
-      <c r="D4" s="57"/>
+      <c r="D4" s="58"/>
       <c r="E4" s="12"/>
       <c r="F4" s="12"/>
       <c r="G4" s="12"/>
     </row>
-    <row r="5" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="53"/>
-      <c r="B5" s="55"/>
-      <c r="C5" s="58"/>
-      <c r="D5" s="59"/>
+    <row r="5" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="54"/>
+      <c r="B5" s="56"/>
+      <c r="C5" s="59"/>
+      <c r="D5" s="60"/>
       <c r="E5" s="12"/>
       <c r="F5" s="12"/>
       <c r="G5" s="12"/>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A6" s="16" t="s">
         <v>13</v>
       </c>
@@ -1863,7 +1869,7 @@
       <c r="F6" s="12"/>
       <c r="G6" s="12"/>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A7" s="18" t="s">
         <v>18</v>
       </c>
@@ -1879,7 +1885,7 @@
       <c r="F7" s="12"/>
       <c r="G7" s="12"/>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A8" s="18" t="s">
         <v>17</v>
       </c>
@@ -1895,7 +1901,7 @@
       <c r="F8" s="12"/>
       <c r="G8" s="12"/>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A9" s="18" t="s">
         <v>19</v>
       </c>
@@ -1911,7 +1917,7 @@
       <c r="F9" s="12"/>
       <c r="G9" s="12"/>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A10" s="18" t="s">
         <v>20</v>
       </c>
@@ -1927,7 +1933,7 @@
       <c r="F10" s="12"/>
       <c r="G10" s="12"/>
     </row>
-    <row r="11" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="20" t="s">
         <v>21</v>
       </c>
@@ -1943,7 +1949,7 @@
       <c r="F11" s="12"/>
       <c r="G11" s="12"/>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A12" s="16" t="s">
         <v>54</v>
       </c>
@@ -1962,7 +1968,7 @@
       <c r="F12" s="12"/>
       <c r="G12" s="12"/>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A13" s="18" t="s">
         <v>53</v>
       </c>
@@ -1978,7 +1984,7 @@
       <c r="F13" s="12"/>
       <c r="G13" s="12"/>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:18" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A14" s="18" t="s">
         <v>55</v>
       </c>
@@ -1994,7 +2000,7 @@
       <c r="F14" s="12"/>
       <c r="G14" s="12"/>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:18" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A15" s="18" t="s">
         <v>56</v>
       </c>
@@ -2010,7 +2016,7 @@
       <c r="F15" s="12"/>
       <c r="G15" s="12"/>
     </row>
-    <row r="16" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="18" t="s">
         <v>57</v>
       </c>
@@ -2023,13 +2029,13 @@
       </c>
       <c r="D16" s="32"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A17" s="16" t="s">
         <v>58</v>
       </c>
       <c r="B17" s="17">
         <f>Algorithmus!J6</f>
-        <v>87</v>
+        <v>112</v>
       </c>
       <c r="C17" s="29">
         <f>SUM(C18:C21)</f>
@@ -2039,7 +2045,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A18" s="18" t="s">
         <v>59</v>
       </c>
@@ -2052,20 +2058,20 @@
       </c>
       <c r="D18" s="32"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A19" s="18" t="s">
         <v>60</v>
       </c>
       <c r="B19" s="19">
         <f>Algorithmus!J3</f>
-        <v>17.5</v>
+        <v>42.5</v>
       </c>
       <c r="C19" s="40">
         <v>0</v>
       </c>
       <c r="D19" s="32"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A20" s="18" t="s">
         <v>61</v>
       </c>
@@ -2078,7 +2084,7 @@
       </c>
       <c r="D20" s="32"/>
     </row>
-    <row r="21" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="18" t="s">
         <v>62</v>
       </c>
@@ -2091,7 +2097,7 @@
       </c>
       <c r="D21" s="32"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A22" s="16" t="s">
         <v>63</v>
       </c>
@@ -2107,7 +2113,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A23" s="18" t="s">
         <v>59</v>
       </c>
@@ -2120,7 +2126,7 @@
       </c>
       <c r="D23" s="32"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A24" s="18" t="s">
         <v>64</v>
       </c>
@@ -2146,7 +2152,7 @@
       </c>
       <c r="D25" s="32"/>
     </row>
-    <row r="26" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="18" t="s">
         <v>66</v>
       </c>
@@ -2159,7 +2165,7 @@
       </c>
       <c r="D26" s="32"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A27" s="16" t="s">
         <v>14</v>
       </c>
@@ -2188,7 +2194,7 @@
       </c>
       <c r="D28" s="32"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A29" s="18" t="s">
         <v>23</v>
       </c>
@@ -2201,7 +2207,7 @@
       </c>
       <c r="D29" s="32"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A30" s="18" t="s">
         <v>24</v>
       </c>
@@ -2214,7 +2220,7 @@
       </c>
       <c r="D30" s="32"/>
     </row>
-    <row r="31" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="20" t="s">
         <v>25</v>
       </c>
@@ -2227,42 +2233,42 @@
       </c>
       <c r="D31" s="28"/>
     </row>
-    <row r="32" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="33" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:4" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="33" spans="2:4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B33" s="10"/>
       <c r="C33" s="10"/>
       <c r="D33" s="11" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="34" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B34" s="50" t="s">
+    <row r="34" spans="2:4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B34" s="51" t="s">
         <v>34</v>
       </c>
-      <c r="C34" s="51"/>
+      <c r="C34" s="52"/>
       <c r="D34" s="9">
         <f>SUM(Projektmanagment!I13,BacktestingSoftware!I13,Algorithmus!I13,Marktzustandserkennung!I13,Testing_Abschluss!I13)</f>
         <v>40.5</v>
       </c>
     </row>
-    <row r="35" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B35" s="44" t="s">
+    <row r="35" spans="2:4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B35" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="C35" s="45"/>
+      <c r="C35" s="46"/>
       <c r="D35" s="9">
         <f>SUM(Projektmanagment!I14,BacktestingSoftware!I14,Algorithmus!I14,Marktzustandserkennung!I14,Testing_Abschluss!I14)</f>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="36" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B36" s="46" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B36" s="47" t="s">
         <v>35</v>
       </c>
-      <c r="C36" s="47"/>
+      <c r="C36" s="48"/>
       <c r="D36" s="39">
         <f>SUM(Projektmanagment!I15,BacktestingSoftware!I15,Algorithmus!I15,Marktzustandserkennung!I15,Testing_Abschluss!I15)</f>
-        <v>108.5</v>
+        <v>128.5</v>
       </c>
     </row>
   </sheetData>
@@ -2295,18 +2301,18 @@
       <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.33203125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="71.77734375" style="3" customWidth="1"/>
-    <col min="4" max="4" width="10.77734375" style="3"/>
-    <col min="5" max="5" width="10.77734375" style="26"/>
-    <col min="6" max="6" width="24.44140625" style="3" customWidth="1"/>
-    <col min="9" max="9" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.28515625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="71.7109375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" style="3"/>
+    <col min="5" max="5" width="10.7109375" style="26"/>
+    <col min="6" max="6" width="24.42578125" style="3" customWidth="1"/>
+    <col min="9" max="9" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>37</v>
       </c>
@@ -2325,15 +2331,15 @@
       <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="63" t="s">
-        <v>0</v>
-      </c>
-      <c r="I1" s="63"/>
+      <c r="H1" s="64" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1" s="64"/>
       <c r="J1" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>32</v>
       </c>
@@ -2352,16 +2358,16 @@
       <c r="F2" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="H2" s="64" t="s">
+      <c r="H2" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="64"/>
+      <c r="I2" s="65"/>
       <c r="J2" s="4">
         <f>SUMIF(B:B,H2,E:E)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>32</v>
       </c>
@@ -2380,16 +2386,16 @@
       <c r="F3" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="H3" s="64" t="s">
+      <c r="H3" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="I3" s="64"/>
+      <c r="I3" s="65"/>
       <c r="J3" s="4">
         <f>SUMIF(B:B,H3,E:E)</f>
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>32</v>
       </c>
@@ -2408,16 +2414,16 @@
       <c r="F4" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="H4" s="64" t="s">
+      <c r="H4" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="64"/>
+      <c r="I4" s="65"/>
       <c r="J4" s="4">
         <f>SUMIF(B:B,H4,E:E)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>32</v>
       </c>
@@ -2436,16 +2442,16 @@
       <c r="F5" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="H5" s="64" t="s">
+      <c r="H5" s="65" t="s">
         <v>12</v>
       </c>
-      <c r="I5" s="64"/>
+      <c r="I5" s="65"/>
       <c r="J5" s="4">
         <f>SUMIF(B:B,H5,E:E)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>32</v>
       </c>
@@ -2464,16 +2470,16 @@
       <c r="F6" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="H6" s="62" t="s">
+      <c r="H6" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="I6" s="62"/>
+      <c r="I6" s="63"/>
       <c r="J6" s="5">
         <f>SUMIF(B:B,H6,E:E)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>32</v>
       </c>
@@ -2492,16 +2498,16 @@
       <c r="F7" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="H7" s="60" t="s">
+      <c r="H7" s="61" t="s">
         <v>16</v>
       </c>
-      <c r="I7" s="61"/>
+      <c r="I7" s="62"/>
       <c r="J7" s="7">
         <f>SUM(J2:J6)</f>
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>32</v>
       </c>
@@ -2521,7 +2527,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>32</v>
       </c>
@@ -2541,13 +2547,13 @@
         <v>73</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="D10" s="1"/>
     </row>
-    <row r="11" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D11" s="1"/>
     </row>
-    <row r="12" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D12" s="1"/>
       <c r="H12" s="6" t="s">
         <v>5</v>
@@ -2556,7 +2562,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="D13" s="1"/>
       <c r="H13" s="33" t="s">
         <v>32</v>
@@ -2566,7 +2572,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="D14" s="1"/>
       <c r="H14" s="33" t="s">
         <v>6</v>
@@ -2576,7 +2582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D15" s="1"/>
       <c r="H15" s="33" t="s">
         <v>33</v>
@@ -2586,15 +2592,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="D16" s="1"/>
       <c r="H16" s="36"/>
       <c r="I16" s="36"/>
     </row>
-    <row r="17" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="4:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="D17" s="1"/>
     </row>
-    <row r="18" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="4:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="D18" s="1"/>
     </row>
   </sheetData>
@@ -2633,18 +2639,18 @@
       <selection activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.33203125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="66.33203125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="10.77734375" style="3"/>
-    <col min="5" max="5" width="10.77734375" style="26"/>
-    <col min="6" max="6" width="24.44140625" style="3" customWidth="1"/>
-    <col min="9" max="9" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.28515625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="66.28515625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" style="3"/>
+    <col min="5" max="5" width="10.7109375" style="26"/>
+    <col min="6" max="6" width="24.42578125" style="3" customWidth="1"/>
+    <col min="9" max="9" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>37</v>
       </c>
@@ -2663,15 +2669,15 @@
       <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="63" t="s">
-        <v>0</v>
-      </c>
-      <c r="I1" s="63"/>
+      <c r="H1" s="64" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1" s="64"/>
       <c r="J1" s="34" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
@@ -2690,16 +2696,16 @@
       <c r="F2" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="H2" s="64" t="s">
+      <c r="H2" s="65" t="s">
         <v>38</v>
       </c>
-      <c r="I2" s="64"/>
+      <c r="I2" s="65"/>
       <c r="J2" s="35">
         <f>SUMIF(B:B,H2,E:E)</f>
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>33</v>
       </c>
@@ -2718,16 +2724,16 @@
       <c r="F3" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="H3" s="64" t="s">
+      <c r="H3" s="65" t="s">
         <v>39</v>
       </c>
-      <c r="I3" s="64"/>
+      <c r="I3" s="65"/>
       <c r="J3" s="35">
         <f>SUMIF(B:B,H3,E:E)</f>
         <v>35.5</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
@@ -2746,16 +2752,16 @@
       <c r="F4" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="H4" s="64" t="s">
+      <c r="H4" s="65" t="s">
         <v>40</v>
       </c>
-      <c r="I4" s="64"/>
+      <c r="I4" s="65"/>
       <c r="J4" s="35">
         <f>SUMIF(B:B,H4,E:E)</f>
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
@@ -2774,16 +2780,16 @@
       <c r="F5" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="H5" s="64" t="s">
+      <c r="H5" s="65" t="s">
         <v>41</v>
       </c>
-      <c r="I5" s="64"/>
+      <c r="I5" s="65"/>
       <c r="J5" s="35">
         <f>SUMIF(B:B,H5,E:E)</f>
         <v>47</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>6</v>
       </c>
@@ -2802,16 +2808,16 @@
       <c r="F6" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="H6" s="60" t="s">
+      <c r="H6" s="61" t="s">
         <v>16</v>
       </c>
-      <c r="I6" s="61"/>
+      <c r="I6" s="62"/>
       <c r="J6" s="7">
         <f>SUM(J2:J5)</f>
         <v>128.5</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>33</v>
       </c>
@@ -2831,7 +2837,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>33</v>
       </c>
@@ -2851,7 +2857,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>32</v>
       </c>
@@ -2871,7 +2877,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>32</v>
       </c>
@@ -2888,7 +2894,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>6</v>
       </c>
@@ -2908,7 +2914,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
         <v>32</v>
       </c>
@@ -2934,7 +2940,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>6</v>
       </c>
@@ -2961,7 +2967,7 @@
         <v>11.5</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>33</v>
       </c>
@@ -2988,7 +2994,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>6</v>
       </c>
@@ -3015,7 +3021,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>33</v>
       </c>
@@ -3037,7 +3043,7 @@
       <c r="H16" s="36"/>
       <c r="I16" s="36"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>6</v>
       </c>
@@ -3057,7 +3063,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>6</v>
       </c>
@@ -3077,7 +3083,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>6</v>
       </c>
@@ -3097,7 +3103,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>6</v>
       </c>
@@ -3117,7 +3123,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
         <v>6</v>
       </c>
@@ -3137,7 +3143,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>6</v>
       </c>
@@ -3157,7 +3163,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
         <v>6</v>
       </c>
@@ -3177,7 +3183,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>32</v>
       </c>
@@ -3197,7 +3203,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>6</v>
       </c>
@@ -3217,7 +3223,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>32</v>
       </c>
@@ -3237,7 +3243,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>6</v>
       </c>
@@ -3257,7 +3263,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>6</v>
       </c>
@@ -3277,7 +3283,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>6</v>
       </c>
@@ -3297,7 +3303,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>6</v>
       </c>
@@ -3317,7 +3323,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
         <v>6</v>
       </c>
@@ -3337,7 +3343,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
         <v>6</v>
       </c>
@@ -3357,7 +3363,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
         <v>6</v>
       </c>
@@ -3407,22 +3413,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.33203125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="56.5546875" style="3" customWidth="1"/>
-    <col min="4" max="4" width="10.77734375" style="3"/>
-    <col min="5" max="5" width="10.77734375" style="26"/>
-    <col min="6" max="6" width="43.44140625" style="3" customWidth="1"/>
-    <col min="9" max="9" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.28515625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="56.5703125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" style="3"/>
+    <col min="5" max="5" width="10.7109375" style="26"/>
+    <col min="6" max="6" width="43.42578125" style="3" customWidth="1"/>
+    <col min="9" max="9" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>37</v>
       </c>
@@ -3441,15 +3447,15 @@
       <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="63" t="s">
-        <v>0</v>
-      </c>
-      <c r="I1" s="63"/>
+      <c r="H1" s="64" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1" s="64"/>
       <c r="J1" s="34" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>33</v>
       </c>
@@ -3468,16 +3474,16 @@
       <c r="F2" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="H2" s="64" t="s">
+      <c r="H2" s="65" t="s">
         <v>42</v>
       </c>
-      <c r="I2" s="64"/>
+      <c r="I2" s="65"/>
       <c r="J2" s="35">
         <f>SUMIF(B:B,H2,E:E)</f>
         <v>5.5</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>33</v>
       </c>
@@ -3496,16 +3502,16 @@
       <c r="F3" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="H3" s="64" t="s">
+      <c r="H3" s="65" t="s">
         <v>43</v>
       </c>
-      <c r="I3" s="64"/>
+      <c r="I3" s="65"/>
       <c r="J3" s="35">
         <f>SUMIF(B:B,H3,E:E)</f>
-        <v>17.5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+        <v>42.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>33</v>
       </c>
@@ -3524,16 +3530,16 @@
       <c r="F4" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="H4" s="64" t="s">
+      <c r="H4" s="65" t="s">
         <v>44</v>
       </c>
-      <c r="I4" s="64"/>
+      <c r="I4" s="65"/>
       <c r="J4" s="35">
         <f>SUMIF(B:B,H4,E:E)</f>
         <v>52.5</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>33</v>
       </c>
@@ -3552,16 +3558,16 @@
       <c r="F5" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="H5" s="64" t="s">
+      <c r="H5" s="65" t="s">
         <v>45</v>
       </c>
-      <c r="I5" s="64"/>
+      <c r="I5" s="65"/>
       <c r="J5" s="35">
         <f>SUMIF(B:B,H5,E:E)</f>
         <v>11.5</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>33</v>
       </c>
@@ -3580,16 +3586,16 @@
       <c r="F6" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="H6" s="60" t="s">
+      <c r="H6" s="61" t="s">
         <v>16</v>
       </c>
-      <c r="I6" s="61"/>
+      <c r="I6" s="62"/>
       <c r="J6" s="7">
         <f>SUM(J2:J5)</f>
-        <v>87</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>33</v>
       </c>
@@ -3609,7 +3615,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>33</v>
       </c>
@@ -3629,7 +3635,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>33</v>
       </c>
@@ -3645,11 +3651,11 @@
       <c r="E9" s="26">
         <v>5</v>
       </c>
-      <c r="F9" s="71">
+      <c r="F9" s="44">
         <v>0.8</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>33</v>
       </c>
@@ -3669,7 +3675,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>33</v>
       </c>
@@ -3689,7 +3695,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>33</v>
       </c>
@@ -3715,7 +3721,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>33</v>
       </c>
@@ -3742,7 +3748,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>32</v>
       </c>
@@ -3766,10 +3772,10 @@
       </c>
       <c r="I14" s="35">
         <f>SUMIF(A:A,H14,E:E)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
         <v>32</v>
       </c>
@@ -3793,10 +3799,10 @@
       </c>
       <c r="I15" s="35">
         <f>SUMIF(A:A,H15,E:E)</f>
-        <v>67</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>32</v>
       </c>
@@ -3818,7 +3824,7 @@
       <c r="H16" s="36"/>
       <c r="I16" s="36"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>33</v>
       </c>
@@ -3838,7 +3844,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>32</v>
       </c>
@@ -3858,7 +3864,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>32</v>
       </c>
@@ -3878,7 +3884,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>32</v>
       </c>
@@ -3898,7 +3904,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>32</v>
       </c>
@@ -3918,7 +3924,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A22" s="41" t="s">
         <v>33</v>
       </c>
@@ -3938,7 +3944,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>32</v>
       </c>
@@ -3958,7 +3964,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
         <v>33</v>
       </c>
@@ -3978,13 +3984,65 @@
         <v>180</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="41"/>
-      <c r="B27" s="42"/>
-      <c r="C27" s="42"/>
-      <c r="D27" s="43"/>
-      <c r="E27" s="42"/>
-      <c r="F27" s="42"/>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="D25" s="1">
+        <v>41341</v>
+      </c>
+      <c r="E25" s="26">
+        <v>15</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="D26" s="1">
+        <v>41342</v>
+      </c>
+      <c r="E26" s="26">
+        <v>5</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="D27" s="1">
+        <v>41342</v>
+      </c>
+      <c r="E27" s="26">
+        <v>5</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>165</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -3996,10 +4054,10 @@
     <mergeCell ref="H5:I5"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A28:A1048576 A2:A21 A23:A26">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A21 A23:A1048576">
       <formula1>$H$13:$H$15</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B28:B1048576 B1:B21 B23:B26">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B21 B23:B1048576">
       <formula1>$H$2:$H$5</formula1>
     </dataValidation>
   </dataValidations>
@@ -4021,18 +4079,18 @@
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="36.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="71.77734375" style="3" customWidth="1"/>
-    <col min="4" max="4" width="11.44140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.77734375" style="26"/>
-    <col min="6" max="6" width="24.44140625" style="3" customWidth="1"/>
-    <col min="9" max="9" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="71.7109375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" style="26"/>
+    <col min="6" max="6" width="24.42578125" style="3" customWidth="1"/>
+    <col min="9" max="9" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>37</v>
       </c>
@@ -4051,15 +4109,15 @@
       <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="63" t="s">
-        <v>0</v>
-      </c>
-      <c r="I1" s="63"/>
+      <c r="H1" s="64" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1" s="64"/>
       <c r="J1" s="34" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>32</v>
       </c>
@@ -4078,16 +4136,16 @@
       <c r="F2" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="H2" s="64" t="s">
+      <c r="H2" s="65" t="s">
         <v>42</v>
       </c>
-      <c r="I2" s="64"/>
+      <c r="I2" s="65"/>
       <c r="J2" s="35">
         <f>SUMIF(B:B,H2,E:E)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>33</v>
       </c>
@@ -4106,16 +4164,16 @@
       <c r="F3" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="H3" s="64" t="s">
+      <c r="H3" s="65" t="s">
         <v>46</v>
       </c>
-      <c r="I3" s="64"/>
+      <c r="I3" s="65"/>
       <c r="J3" s="35">
         <f>SUMIF(B:B,H3,E:E)</f>
         <v>11.5</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>33</v>
       </c>
@@ -4134,16 +4192,16 @@
       <c r="F4" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="H4" s="64" t="s">
+      <c r="H4" s="65" t="s">
         <v>47</v>
       </c>
-      <c r="I4" s="64"/>
+      <c r="I4" s="65"/>
       <c r="J4" s="35">
         <f>SUMIF(B:B,H4,E:E)</f>
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>33</v>
       </c>
@@ -4162,16 +4220,16 @@
       <c r="F5" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="H5" s="64" t="s">
+      <c r="H5" s="65" t="s">
         <v>48</v>
       </c>
-      <c r="I5" s="64"/>
+      <c r="I5" s="65"/>
       <c r="J5" s="35">
         <f>SUMIF(B:B,H5,E:E)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>33</v>
       </c>
@@ -4190,16 +4248,16 @@
       <c r="F6" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="H6" s="60" t="s">
+      <c r="H6" s="61" t="s">
         <v>16</v>
       </c>
-      <c r="I6" s="61"/>
+      <c r="I6" s="62"/>
       <c r="J6" s="7">
         <f>SUM(J2:J5)</f>
         <v>24.5</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>33</v>
       </c>
@@ -4219,7 +4277,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>33</v>
       </c>
@@ -4239,16 +4297,16 @@
         <v>167</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="D9" s="1"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="D10" s="1"/>
     </row>
-    <row r="11" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D11" s="1"/>
     </row>
-    <row r="12" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D12" s="1"/>
       <c r="H12" s="34" t="s">
         <v>5</v>
@@ -4257,7 +4315,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="D13" s="1"/>
       <c r="H13" s="35" t="s">
         <v>32</v>
@@ -4267,7 +4325,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="D14" s="1"/>
       <c r="H14" s="35" t="s">
         <v>6</v>
@@ -4277,7 +4335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D15" s="1"/>
       <c r="H15" s="35" t="s">
         <v>33</v>
@@ -4287,15 +4345,15 @@
         <v>22.5</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="D16" s="1"/>
       <c r="H16" s="36"/>
       <c r="I16" s="36"/>
     </row>
-    <row r="17" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="4:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="D17" s="1"/>
     </row>
-    <row r="18" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="4:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="D18" s="1"/>
     </row>
   </sheetData>
@@ -4332,18 +4390,18 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.5546875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="21.33203125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="71.77734375" style="3" customWidth="1"/>
-    <col min="4" max="4" width="10.77734375" style="3"/>
-    <col min="5" max="5" width="10.77734375" style="37"/>
-    <col min="6" max="6" width="24.44140625" style="3" customWidth="1"/>
-    <col min="9" max="9" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.5703125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="21.28515625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="71.7109375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" style="3"/>
+    <col min="5" max="5" width="10.7109375" style="37"/>
+    <col min="6" max="6" width="24.42578125" style="3" customWidth="1"/>
+    <col min="9" max="9" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>37</v>
       </c>
@@ -4362,15 +4420,15 @@
       <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="63" t="s">
-        <v>0</v>
-      </c>
-      <c r="I1" s="63"/>
+      <c r="H1" s="64" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1" s="64"/>
       <c r="J1" s="34" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>33</v>
       </c>
@@ -4389,75 +4447,75 @@
       <c r="F2" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="H2" s="65" t="s">
+      <c r="H2" s="66" t="s">
         <v>49</v>
       </c>
-      <c r="I2" s="66"/>
+      <c r="I2" s="67"/>
       <c r="J2" s="35">
         <f>SUMIF(B:B,H2,E:E)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D3" s="1"/>
-      <c r="H3" s="67" t="s">
+      <c r="H3" s="68" t="s">
         <v>50</v>
       </c>
-      <c r="I3" s="68"/>
+      <c r="I3" s="69"/>
       <c r="J3" s="35">
         <f>SUMIF(B:B,H3,E:E)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D4" s="1"/>
-      <c r="H4" s="67" t="s">
+      <c r="H4" s="68" t="s">
         <v>51</v>
       </c>
-      <c r="I4" s="68"/>
+      <c r="I4" s="69"/>
       <c r="J4" s="35">
         <f>SUMIF(B:B,H4,E:E)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D5" s="1"/>
-      <c r="H5" s="69" t="s">
+      <c r="H5" s="70" t="s">
         <v>52</v>
       </c>
-      <c r="I5" s="70"/>
+      <c r="I5" s="71"/>
       <c r="J5" s="35">
         <f>SUMIF(B:B,H5,E:E)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D6" s="1"/>
-      <c r="H6" s="60" t="s">
+      <c r="H6" s="61" t="s">
         <v>16</v>
       </c>
-      <c r="I6" s="61"/>
+      <c r="I6" s="62"/>
       <c r="J6" s="7">
         <f>SUM(J2:J5)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="D7" s="1"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="D8" s="24"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="D9" s="1"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="D10" s="1"/>
     </row>
-    <row r="11" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D11" s="1"/>
     </row>
-    <row r="12" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D12" s="1"/>
       <c r="H12" s="34" t="s">
         <v>5</v>
@@ -4466,7 +4524,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="D13" s="1"/>
       <c r="H13" s="35" t="s">
         <v>32</v>
@@ -4476,7 +4534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="D14" s="1"/>
       <c r="H14" s="35" t="s">
         <v>6</v>
@@ -4486,7 +4544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D15" s="1"/>
       <c r="H15" s="35" t="s">
         <v>33</v>
@@ -4496,15 +4554,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="D16" s="1"/>
       <c r="H16" s="36"/>
       <c r="I16" s="36"/>
     </row>
-    <row r="17" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="4:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="D17" s="1"/>
     </row>
-    <row r="18" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="4:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="D18" s="1"/>
     </row>
   </sheetData>

--- a/Dokumentation/Noctua_Zeitaufzeichnung.xlsx
+++ b/Dokumentation/Noctua_Zeitaufzeichnung.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20736" windowHeight="11760" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Gesamtstatus" sheetId="4" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="187">
   <si>
     <t>Arbeitspaket</t>
   </si>
@@ -579,6 +579,12 @@
   </si>
   <si>
     <t>File eingelesen falsche Formatierung</t>
+  </si>
+  <si>
+    <t>Endalgorithmus festgelegt</t>
+  </si>
+  <si>
+    <t>Endalgorithmus festgelegen</t>
   </si>
 </sst>
 </file>
@@ -1111,7 +1117,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1199,12 +1204,12 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:shape val="box"/>
-        <c:axId val="252693888"/>
-        <c:axId val="252730368"/>
+        <c:axId val="32188672"/>
+        <c:axId val="32198656"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="252693888"/>
+        <c:axId val="32188672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1213,7 +1218,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="252730368"/>
+        <c:crossAx val="32198656"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1221,7 +1226,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="252730368"/>
+        <c:axId val="32198656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1237,7 +1242,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="252693888"/>
+        <c:crossAx val="32188672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1272,7 +1277,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1348,13 +1352,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>40.5</c:v>
+                  <c:v>42.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>105</c:v>
+                  <c:v>107</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>128.5</c:v>
+                  <c:v>130.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1370,12 +1374,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="360360960"/>
-        <c:axId val="360370944"/>
+        <c:axId val="32231424"/>
+        <c:axId val="32232960"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="360360960"/>
+        <c:axId val="32231424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1384,7 +1388,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="360370944"/>
+        <c:crossAx val="32232960"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1392,7 +1396,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="360370944"/>
+        <c:axId val="32232960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1403,7 +1407,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="360360960"/>
+        <c:crossAx val="32231424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1778,13 +1782,13 @@
       <selection activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="34.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" s="53"/>
       <c r="B1" s="55" t="s">
         <v>28</v>
@@ -1798,7 +1802,7 @@
       <c r="G1" s="12"/>
       <c r="R1" s="8"/>
     </row>
-    <row r="2" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="54"/>
       <c r="B2" s="56"/>
       <c r="C2" s="13" t="s">
@@ -1811,7 +1815,7 @@
       <c r="F2" s="12"/>
       <c r="G2" s="12"/>
     </row>
-    <row r="3" spans="1:18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="15" t="s">
         <v>36</v>
       </c>
@@ -1830,7 +1834,7 @@
       <c r="F3" s="12"/>
       <c r="G3" s="12"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" s="50"/>
       <c r="B4" s="55"/>
       <c r="C4" s="57" t="s">
@@ -1841,7 +1845,7 @@
       <c r="F4" s="12"/>
       <c r="G4" s="12"/>
     </row>
-    <row r="5" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="54"/>
       <c r="B5" s="56"/>
       <c r="C5" s="59"/>
@@ -1850,7 +1854,7 @@
       <c r="F5" s="12"/>
       <c r="G5" s="12"/>
     </row>
-    <row r="6" spans="1:18" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" s="16" t="s">
         <v>13</v>
       </c>
@@ -1869,7 +1873,7 @@
       <c r="F6" s="12"/>
       <c r="G6" s="12"/>
     </row>
-    <row r="7" spans="1:18" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" s="18" t="s">
         <v>18</v>
       </c>
@@ -1885,7 +1889,7 @@
       <c r="F7" s="12"/>
       <c r="G7" s="12"/>
     </row>
-    <row r="8" spans="1:18" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" s="18" t="s">
         <v>17</v>
       </c>
@@ -1901,7 +1905,7 @@
       <c r="F8" s="12"/>
       <c r="G8" s="12"/>
     </row>
-    <row r="9" spans="1:18" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" s="18" t="s">
         <v>19</v>
       </c>
@@ -1917,7 +1921,7 @@
       <c r="F9" s="12"/>
       <c r="G9" s="12"/>
     </row>
-    <row r="10" spans="1:18" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10" s="18" t="s">
         <v>20</v>
       </c>
@@ -1933,7 +1937,7 @@
       <c r="F10" s="12"/>
       <c r="G10" s="12"/>
     </row>
-    <row r="11" spans="1:18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="20" t="s">
         <v>21</v>
       </c>
@@ -1949,7 +1953,7 @@
       <c r="F11" s="12"/>
       <c r="G11" s="12"/>
     </row>
-    <row r="12" spans="1:18" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12" s="16" t="s">
         <v>54</v>
       </c>
@@ -1968,7 +1972,7 @@
       <c r="F12" s="12"/>
       <c r="G12" s="12"/>
     </row>
-    <row r="13" spans="1:18" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A13" s="18" t="s">
         <v>53</v>
       </c>
@@ -1984,7 +1988,7 @@
       <c r="F13" s="12"/>
       <c r="G13" s="12"/>
     </row>
-    <row r="14" spans="1:18" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A14" s="18" t="s">
         <v>55</v>
       </c>
@@ -2000,7 +2004,7 @@
       <c r="F14" s="12"/>
       <c r="G14" s="12"/>
     </row>
-    <row r="15" spans="1:18" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A15" s="18" t="s">
         <v>56</v>
       </c>
@@ -2016,7 +2020,7 @@
       <c r="F15" s="12"/>
       <c r="G15" s="12"/>
     </row>
-    <row r="16" spans="1:18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="18" t="s">
         <v>57</v>
       </c>
@@ -2029,13 +2033,13 @@
       </c>
       <c r="D16" s="32"/>
     </row>
-    <row r="17" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="16" t="s">
         <v>58</v>
       </c>
       <c r="B17" s="17">
         <f>Algorithmus!J6</f>
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="C17" s="29">
         <f>SUM(C18:C21)</f>
@@ -2045,7 +2049,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="18" t="s">
         <v>59</v>
       </c>
@@ -2058,20 +2062,20 @@
       </c>
       <c r="D18" s="32"/>
     </row>
-    <row r="19" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="18" t="s">
         <v>60</v>
       </c>
       <c r="B19" s="19">
         <f>Algorithmus!J3</f>
-        <v>42.5</v>
+        <v>48.5</v>
       </c>
       <c r="C19" s="40">
         <v>0</v>
       </c>
       <c r="D19" s="32"/>
     </row>
-    <row r="20" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="18" t="s">
         <v>61</v>
       </c>
@@ -2084,7 +2088,7 @@
       </c>
       <c r="D20" s="32"/>
     </row>
-    <row r="21" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="18" t="s">
         <v>62</v>
       </c>
@@ -2097,7 +2101,7 @@
       </c>
       <c r="D21" s="32"/>
     </row>
-    <row r="22" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="16" t="s">
         <v>63</v>
       </c>
@@ -2113,7 +2117,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="18" t="s">
         <v>59</v>
       </c>
@@ -2126,7 +2130,7 @@
       </c>
       <c r="D23" s="32"/>
     </row>
-    <row r="24" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="18" t="s">
         <v>64</v>
       </c>
@@ -2152,7 +2156,7 @@
       </c>
       <c r="D25" s="32"/>
     </row>
-    <row r="26" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="18" t="s">
         <v>66</v>
       </c>
@@ -2165,7 +2169,7 @@
       </c>
       <c r="D26" s="32"/>
     </row>
-    <row r="27" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="16" t="s">
         <v>14</v>
       </c>
@@ -2194,7 +2198,7 @@
       </c>
       <c r="D28" s="32"/>
     </row>
-    <row r="29" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="18" t="s">
         <v>23</v>
       </c>
@@ -2207,7 +2211,7 @@
       </c>
       <c r="D29" s="32"/>
     </row>
-    <row r="30" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="18" t="s">
         <v>24</v>
       </c>
@@ -2220,7 +2224,7 @@
       </c>
       <c r="D30" s="32"/>
     </row>
-    <row r="31" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="20" t="s">
         <v>25</v>
       </c>
@@ -2233,42 +2237,42 @@
       </c>
       <c r="D31" s="28"/>
     </row>
-    <row r="32" spans="1:4" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="33" spans="2:4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="33" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B33" s="10"/>
       <c r="C33" s="10"/>
       <c r="D33" s="11" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="34" spans="2:4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B34" s="51" t="s">
         <v>34</v>
       </c>
       <c r="C34" s="52"/>
       <c r="D34" s="9">
         <f>SUM(Projektmanagment!I13,BacktestingSoftware!I13,Algorithmus!I13,Marktzustandserkennung!I13,Testing_Abschluss!I13)</f>
-        <v>40.5</v>
-      </c>
-    </row>
-    <row r="35" spans="2:4" thickBot="1" x14ac:dyDescent="0.35">
+        <v>42.5</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B35" s="45" t="s">
         <v>15</v>
       </c>
       <c r="C35" s="46"/>
       <c r="D35" s="9">
         <f>SUM(Projektmanagment!I14,BacktestingSoftware!I14,Algorithmus!I14,Marktzustandserkennung!I14,Testing_Abschluss!I14)</f>
-        <v>105</v>
-      </c>
-    </row>
-    <row r="36" spans="2:4" thickBot="1" x14ac:dyDescent="0.35">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B36" s="47" t="s">
         <v>35</v>
       </c>
       <c r="C36" s="48"/>
       <c r="D36" s="39">
         <f>SUM(Projektmanagment!I15,BacktestingSoftware!I15,Algorithmus!I15,Marktzustandserkennung!I15,Testing_Abschluss!I15)</f>
-        <v>128.5</v>
+        <v>130.5</v>
       </c>
     </row>
   </sheetData>
@@ -2301,18 +2305,18 @@
       <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.28515625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="71.7109375" style="3" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" style="3"/>
-    <col min="5" max="5" width="10.7109375" style="26"/>
-    <col min="6" max="6" width="24.42578125" style="3" customWidth="1"/>
-    <col min="9" max="9" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.33203125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="71.6640625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="10.6640625" style="3"/>
+    <col min="5" max="5" width="10.6640625" style="26"/>
+    <col min="6" max="6" width="24.44140625" style="3" customWidth="1"/>
+    <col min="9" max="9" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>37</v>
       </c>
@@ -2339,7 +2343,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>32</v>
       </c>
@@ -2367,7 +2371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>32</v>
       </c>
@@ -2395,7 +2399,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>32</v>
       </c>
@@ -2423,7 +2427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>32</v>
       </c>
@@ -2451,7 +2455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>32</v>
       </c>
@@ -2479,7 +2483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>32</v>
       </c>
@@ -2507,7 +2511,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>32</v>
       </c>
@@ -2527,7 +2531,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>32</v>
       </c>
@@ -2547,13 +2551,13 @@
         <v>73</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="D10" s="1"/>
     </row>
-    <row r="11" spans="1:10" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D11" s="1"/>
     </row>
-    <row r="12" spans="1:10" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D12" s="1"/>
       <c r="H12" s="6" t="s">
         <v>5</v>
@@ -2562,7 +2566,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="D13" s="1"/>
       <c r="H13" s="33" t="s">
         <v>32</v>
@@ -2572,7 +2576,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="D14" s="1"/>
       <c r="H14" s="33" t="s">
         <v>6</v>
@@ -2582,7 +2586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:10" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D15" s="1"/>
       <c r="H15" s="33" t="s">
         <v>33</v>
@@ -2592,15 +2596,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="D16" s="1"/>
       <c r="H16" s="36"/>
       <c r="I16" s="36"/>
     </row>
-    <row r="17" spans="4:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="17" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D17" s="1"/>
     </row>
-    <row r="18" spans="4:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="18" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D18" s="1"/>
     </row>
   </sheetData>
@@ -2639,18 +2643,18 @@
       <selection activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.28515625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="66.28515625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" style="3"/>
-    <col min="5" max="5" width="10.7109375" style="26"/>
-    <col min="6" max="6" width="24.42578125" style="3" customWidth="1"/>
-    <col min="9" max="9" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.33203125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="66.33203125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="10.6640625" style="3"/>
+    <col min="5" max="5" width="10.6640625" style="26"/>
+    <col min="6" max="6" width="24.44140625" style="3" customWidth="1"/>
+    <col min="9" max="9" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>37</v>
       </c>
@@ -2677,7 +2681,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
@@ -2705,7 +2709,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>33</v>
       </c>
@@ -2733,7 +2737,7 @@
         <v>35.5</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
@@ -2761,7 +2765,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:10" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
@@ -2789,7 +2793,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="6" spans="1:10" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>6</v>
       </c>
@@ -2817,7 +2821,7 @@
         <v>128.5</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>33</v>
       </c>
@@ -2837,7 +2841,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>33</v>
       </c>
@@ -2857,7 +2861,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>32</v>
       </c>
@@ -2877,7 +2881,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>32</v>
       </c>
@@ -2894,7 +2898,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:10" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>6</v>
       </c>
@@ -2914,7 +2918,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="12" spans="1:10" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
         <v>32</v>
       </c>
@@ -2940,7 +2944,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>6</v>
       </c>
@@ -2967,7 +2971,7 @@
         <v>11.5</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>33</v>
       </c>
@@ -2994,7 +2998,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
         <v>6</v>
       </c>
@@ -3021,7 +3025,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>33</v>
       </c>
@@ -3043,7 +3047,7 @@
       <c r="H16" s="36"/>
       <c r="I16" s="36"/>
     </row>
-    <row r="17" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>6</v>
       </c>
@@ -3063,7 +3067,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>6</v>
       </c>
@@ -3083,7 +3087,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>6</v>
       </c>
@@ -3103,7 +3107,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>6</v>
       </c>
@@ -3123,7 +3127,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
         <v>6</v>
       </c>
@@ -3143,7 +3147,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
         <v>6</v>
       </c>
@@ -3163,7 +3167,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
         <v>6</v>
       </c>
@@ -3183,7 +3187,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
         <v>32</v>
       </c>
@@ -3203,7 +3207,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
         <v>6</v>
       </c>
@@ -3223,7 +3227,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
         <v>32</v>
       </c>
@@ -3243,7 +3247,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
         <v>6</v>
       </c>
@@ -3263,7 +3267,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
         <v>6</v>
       </c>
@@ -3283,7 +3287,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
         <v>6</v>
       </c>
@@ -3303,7 +3307,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
         <v>6</v>
       </c>
@@ -3323,7 +3327,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
         <v>6</v>
       </c>
@@ -3343,7 +3347,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
         <v>6</v>
       </c>
@@ -3363,7 +3367,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
         <v>6</v>
       </c>
@@ -3411,24 +3415,24 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J27"/>
+  <dimension ref="A1:J30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.28515625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="56.5703125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" style="3"/>
-    <col min="5" max="5" width="10.7109375" style="26"/>
-    <col min="6" max="6" width="43.42578125" style="3" customWidth="1"/>
-    <col min="9" max="9" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.33203125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="56.5546875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="10.6640625" style="3"/>
+    <col min="5" max="5" width="10.6640625" style="26"/>
+    <col min="6" max="6" width="43.44140625" style="3" customWidth="1"/>
+    <col min="9" max="9" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>37</v>
       </c>
@@ -3455,7 +3459,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>33</v>
       </c>
@@ -3483,7 +3487,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>33</v>
       </c>
@@ -3508,10 +3512,10 @@
       <c r="I3" s="65"/>
       <c r="J3" s="35">
         <f>SUMIF(B:B,H3,E:E)</f>
-        <v>42.5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
+        <v>48.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>33</v>
       </c>
@@ -3539,7 +3543,7 @@
         <v>52.5</v>
       </c>
     </row>
-    <row r="5" spans="1:10" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>33</v>
       </c>
@@ -3567,7 +3571,7 @@
         <v>11.5</v>
       </c>
     </row>
-    <row r="6" spans="1:10" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>33</v>
       </c>
@@ -3592,10 +3596,10 @@
       <c r="I6" s="62"/>
       <c r="J6" s="7">
         <f>SUM(J2:J5)</f>
-        <v>112</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>33</v>
       </c>
@@ -3615,7 +3619,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>33</v>
       </c>
@@ -3635,7 +3639,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>33</v>
       </c>
@@ -3655,7 +3659,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>33</v>
       </c>
@@ -3675,7 +3679,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>33</v>
       </c>
@@ -3695,7 +3699,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
         <v>33</v>
       </c>
@@ -3721,7 +3725,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>33</v>
       </c>
@@ -3745,10 +3749,10 @@
       </c>
       <c r="I13" s="35">
         <f>SUMIF(A:A,H13,E:E)</f>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>32</v>
       </c>
@@ -3772,10 +3776,10 @@
       </c>
       <c r="I14" s="35">
         <f>SUMIF(A:A,H14,E:E)</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" thickBot="1" x14ac:dyDescent="0.35">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
         <v>32</v>
       </c>
@@ -3799,10 +3803,10 @@
       </c>
       <c r="I15" s="35">
         <f>SUMIF(A:A,H15,E:E)</f>
-        <v>87</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>32</v>
       </c>
@@ -3824,7 +3828,7 @@
       <c r="H16" s="36"/>
       <c r="I16" s="36"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>33</v>
       </c>
@@ -3844,7 +3848,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>32</v>
       </c>
@@ -3864,7 +3868,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>32</v>
       </c>
@@ -3884,7 +3888,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>32</v>
       </c>
@@ -3904,7 +3908,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
         <v>32</v>
       </c>
@@ -3924,7 +3928,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="41" t="s">
         <v>33</v>
       </c>
@@ -3944,7 +3948,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
         <v>32</v>
       </c>
@@ -3964,7 +3968,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
         <v>33</v>
       </c>
@@ -3984,7 +3988,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>33</v>
       </c>
@@ -4004,7 +4008,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>6</v>
       </c>
@@ -4024,7 +4028,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>33</v>
       </c>
@@ -4042,6 +4046,66 @@
       </c>
       <c r="F27" s="3" t="s">
         <v>165</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="D28" s="1">
+        <v>41353</v>
+      </c>
+      <c r="E28" s="26">
+        <v>2</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="D29" s="1">
+        <v>41353</v>
+      </c>
+      <c r="E29" s="26">
+        <v>2</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="D30" s="1">
+        <v>41353</v>
+      </c>
+      <c r="E30" s="26">
+        <v>2</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>185</v>
       </c>
     </row>
   </sheetData>
@@ -4079,18 +4143,18 @@
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="36.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="71.7109375" style="3" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" style="26"/>
-    <col min="6" max="6" width="24.42578125" style="3" customWidth="1"/>
-    <col min="9" max="9" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="71.6640625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="11.44140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.6640625" style="26"/>
+    <col min="6" max="6" width="24.44140625" style="3" customWidth="1"/>
+    <col min="9" max="9" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>37</v>
       </c>
@@ -4117,7 +4181,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>32</v>
       </c>
@@ -4145,7 +4209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>33</v>
       </c>
@@ -4173,7 +4237,7 @@
         <v>11.5</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>33</v>
       </c>
@@ -4201,7 +4265,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:10" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>33</v>
       </c>
@@ -4229,7 +4293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>33</v>
       </c>
@@ -4257,7 +4321,7 @@
         <v>24.5</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>33</v>
       </c>
@@ -4277,7 +4341,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>33</v>
       </c>
@@ -4297,16 +4361,16 @@
         <v>167</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="D9" s="1"/>
     </row>
-    <row r="10" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="D10" s="1"/>
     </row>
-    <row r="11" spans="1:10" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D11" s="1"/>
     </row>
-    <row r="12" spans="1:10" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D12" s="1"/>
       <c r="H12" s="34" t="s">
         <v>5</v>
@@ -4315,7 +4379,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="D13" s="1"/>
       <c r="H13" s="35" t="s">
         <v>32</v>
@@ -4325,7 +4389,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="D14" s="1"/>
       <c r="H14" s="35" t="s">
         <v>6</v>
@@ -4335,7 +4399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:10" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D15" s="1"/>
       <c r="H15" s="35" t="s">
         <v>33</v>
@@ -4345,15 +4409,15 @@
         <v>22.5</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="D16" s="1"/>
       <c r="H16" s="36"/>
       <c r="I16" s="36"/>
     </row>
-    <row r="17" spans="4:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="17" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D17" s="1"/>
     </row>
-    <row r="18" spans="4:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="18" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D18" s="1"/>
     </row>
   </sheetData>
@@ -4390,18 +4454,18 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.5703125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="21.28515625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="71.7109375" style="3" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" style="3"/>
-    <col min="5" max="5" width="10.7109375" style="37"/>
-    <col min="6" max="6" width="24.42578125" style="3" customWidth="1"/>
-    <col min="9" max="9" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.5546875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="21.33203125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="71.6640625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="10.6640625" style="3"/>
+    <col min="5" max="5" width="10.6640625" style="37"/>
+    <col min="6" max="6" width="24.44140625" style="3" customWidth="1"/>
+    <col min="9" max="9" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>37</v>
       </c>
@@ -4428,7 +4492,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>33</v>
       </c>
@@ -4456,7 +4520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="D3" s="1"/>
       <c r="H3" s="68" t="s">
         <v>50</v>
@@ -4467,7 +4531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="D4" s="1"/>
       <c r="H4" s="68" t="s">
         <v>51</v>
@@ -4478,7 +4542,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D5" s="1"/>
       <c r="H5" s="70" t="s">
         <v>52</v>
@@ -4489,7 +4553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D6" s="1"/>
       <c r="H6" s="61" t="s">
         <v>16</v>
@@ -4500,22 +4564,22 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="D7" s="1"/>
     </row>
-    <row r="8" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="D8" s="24"/>
     </row>
-    <row r="9" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="D9" s="1"/>
     </row>
-    <row r="10" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="D10" s="1"/>
     </row>
-    <row r="11" spans="1:10" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D11" s="1"/>
     </row>
-    <row r="12" spans="1:10" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D12" s="1"/>
       <c r="H12" s="34" t="s">
         <v>5</v>
@@ -4524,7 +4588,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="D13" s="1"/>
       <c r="H13" s="35" t="s">
         <v>32</v>
@@ -4534,7 +4598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="D14" s="1"/>
       <c r="H14" s="35" t="s">
         <v>6</v>
@@ -4544,7 +4608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:10" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D15" s="1"/>
       <c r="H15" s="35" t="s">
         <v>33</v>
@@ -4554,15 +4618,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="D16" s="1"/>
       <c r="H16" s="36"/>
       <c r="I16" s="36"/>
     </row>
-    <row r="17" spans="4:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="17" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D17" s="1"/>
     </row>
-    <row r="18" spans="4:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="18" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D18" s="1"/>
     </row>
   </sheetData>

--- a/Dokumentation/Noctua_Zeitaufzeichnung.xlsx
+++ b/Dokumentation/Noctua_Zeitaufzeichnung.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20736" windowHeight="11760" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20740" windowHeight="11760" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Gesamtstatus" sheetId="4" r:id="rId1"/>
@@ -14,7 +14,7 @@
     <sheet name="Marktzustandserkennung" sheetId="7" r:id="rId5"/>
     <sheet name="Testing_Abschluss" sheetId="8" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="145621" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="203">
   <si>
     <t>Arbeitspaket</t>
   </si>
@@ -585,6 +585,54 @@
   </si>
   <si>
     <t>Endalgorithmus festgelegen</t>
+  </si>
+  <si>
+    <t>Zusammenstellung Endalgorithmus</t>
+  </si>
+  <si>
+    <t>Codestruktur</t>
+  </si>
+  <si>
+    <t>ER-Switch Algorithmus</t>
+  </si>
+  <si>
+    <t>Erkenntnisse zu ER i.V.m. Bollinger</t>
+  </si>
+  <si>
+    <t>ADX, Zusammensetzung</t>
+  </si>
+  <si>
+    <t>ADX für Martkphasenerkennung</t>
+  </si>
+  <si>
+    <t>Performance Fin. Formula / Selber</t>
+  </si>
+  <si>
+    <t>Performancedaten + bessere Realisierung</t>
+  </si>
+  <si>
+    <t>F# Lists, Arrays, Sequences</t>
+  </si>
+  <si>
+    <t>Bessere Kenntnisse</t>
+  </si>
+  <si>
+    <t>EMA, AMA optimieren F#</t>
+  </si>
+  <si>
+    <t>Schnellere Exekution</t>
+  </si>
+  <si>
+    <t>BTS: Algorithmen testen + Protokoll erstellen</t>
+  </si>
+  <si>
+    <t>Laufzeitperfomanceoptimierter Endalgorithmus</t>
+  </si>
+  <si>
+    <t>BTS: Algorithmen testen + Protokoll erstellen, Cutloss, Trading Optimierungen</t>
+  </si>
+  <si>
+    <t>Tests</t>
   </si>
 </sst>
 </file>
@@ -846,8 +894,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="53">
+  <cellStyleXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1017,59 +1067,61 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="53">
-    <cellStyle name="Besuchter Hyperlink" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="20" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="22" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="24" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="26" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="28" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="30" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="32" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="34" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="36" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="38" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="40" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="42" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="44" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="46" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="48" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="50" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="52" builtinId="9" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
+  <cellStyles count="55">
+    <cellStyle name="Besuchter Link" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Link" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="53" builtinId="8" hidden="1"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1090,7 +1142,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="de-AT"/>
+  <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1117,6 +1169,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1185,10 +1238,10 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1204,12 +1257,12 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:shape val="box"/>
-        <c:axId val="32188672"/>
-        <c:axId val="32198656"/>
+        <c:axId val="2083102584"/>
+        <c:axId val="2083108248"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="32188672"/>
+        <c:axId val="2083102584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1218,7 +1271,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="32198656"/>
+        <c:crossAx val="2083108248"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1226,7 +1279,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="32198656"/>
+        <c:axId val="2083108248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1242,7 +1295,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="32188672"/>
+        <c:crossAx val="2083102584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1256,7 +1309,7 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.787401575" l="0.7" r="0.7" t="0.787401575" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1265,7 +1318,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="de-AT"/>
+  <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1277,6 +1330,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1352,13 +1406,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>42.5</c:v>
+                  <c:v>89.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>107</c:v>
+                  <c:v>107.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>130.5</c:v>
+                  <c:v>148.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1374,12 +1428,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="32231424"/>
-        <c:axId val="32232960"/>
+        <c:axId val="2083178008"/>
+        <c:axId val="2083180952"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="32231424"/>
+        <c:axId val="2083178008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1388,7 +1442,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="32232960"/>
+        <c:crossAx val="2083180952"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1396,7 +1450,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="32232960"/>
+        <c:axId val="2083180952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1407,7 +1461,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="32231424"/>
+        <c:crossAx val="2083178008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1418,7 +1472,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.787401575" l="0.7" r="0.7" t="0.787401575" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1778,17 +1832,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R36"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A40" sqref="A40"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B34" sqref="B34:C34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="34.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18">
       <c r="A1" s="53"/>
       <c r="B1" s="55" t="s">
         <v>28</v>
@@ -1802,7 +1856,7 @@
       <c r="G1" s="12"/>
       <c r="R1" s="8"/>
     </row>
-    <row r="2" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:18" ht="15" thickBot="1">
       <c r="A2" s="54"/>
       <c r="B2" s="56"/>
       <c r="C2" s="13" t="s">
@@ -1815,7 +1869,7 @@
       <c r="F2" s="12"/>
       <c r="G2" s="12"/>
     </row>
-    <row r="3" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:18" ht="15" thickBot="1">
       <c r="A3" s="15" t="s">
         <v>36</v>
       </c>
@@ -1834,7 +1888,7 @@
       <c r="F3" s="12"/>
       <c r="G3" s="12"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18">
       <c r="A4" s="50"/>
       <c r="B4" s="55"/>
       <c r="C4" s="57" t="s">
@@ -1845,7 +1899,7 @@
       <c r="F4" s="12"/>
       <c r="G4" s="12"/>
     </row>
-    <row r="5" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:18" ht="15" thickBot="1">
       <c r="A5" s="54"/>
       <c r="B5" s="56"/>
       <c r="C5" s="59"/>
@@ -1854,7 +1908,7 @@
       <c r="F5" s="12"/>
       <c r="G5" s="12"/>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18">
       <c r="A6" s="16" t="s">
         <v>13</v>
       </c>
@@ -1873,7 +1927,7 @@
       <c r="F6" s="12"/>
       <c r="G6" s="12"/>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18">
       <c r="A7" s="18" t="s">
         <v>18</v>
       </c>
@@ -1889,7 +1943,7 @@
       <c r="F7" s="12"/>
       <c r="G7" s="12"/>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18">
       <c r="A8" s="18" t="s">
         <v>17</v>
       </c>
@@ -1905,7 +1959,7 @@
       <c r="F8" s="12"/>
       <c r="G8" s="12"/>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18">
       <c r="A9" s="18" t="s">
         <v>19</v>
       </c>
@@ -1921,7 +1975,7 @@
       <c r="F9" s="12"/>
       <c r="G9" s="12"/>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18">
       <c r="A10" s="18" t="s">
         <v>20</v>
       </c>
@@ -1937,7 +1991,7 @@
       <c r="F10" s="12"/>
       <c r="G10" s="12"/>
     </row>
-    <row r="11" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:18" ht="15" thickBot="1">
       <c r="A11" s="20" t="s">
         <v>21</v>
       </c>
@@ -1953,7 +2007,7 @@
       <c r="F11" s="12"/>
       <c r="G11" s="12"/>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18">
       <c r="A12" s="16" t="s">
         <v>54</v>
       </c>
@@ -1972,7 +2026,7 @@
       <c r="F12" s="12"/>
       <c r="G12" s="12"/>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18">
       <c r="A13" s="18" t="s">
         <v>53</v>
       </c>
@@ -1988,7 +2042,7 @@
       <c r="F13" s="12"/>
       <c r="G13" s="12"/>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:18">
       <c r="A14" s="18" t="s">
         <v>55</v>
       </c>
@@ -2004,7 +2058,7 @@
       <c r="F14" s="12"/>
       <c r="G14" s="12"/>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:18">
       <c r="A15" s="18" t="s">
         <v>56</v>
       </c>
@@ -2020,7 +2074,7 @@
       <c r="F15" s="12"/>
       <c r="G15" s="12"/>
     </row>
-    <row r="16" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:18" ht="15" thickBot="1">
       <c r="A16" s="18" t="s">
         <v>57</v>
       </c>
@@ -2033,13 +2087,13 @@
       </c>
       <c r="D16" s="32"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4">
       <c r="A17" s="16" t="s">
         <v>58</v>
       </c>
       <c r="B17" s="17">
         <f>Algorithmus!J6</f>
-        <v>118</v>
+        <v>178</v>
       </c>
       <c r="C17" s="29">
         <f>SUM(C18:C21)</f>
@@ -2049,20 +2103,20 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4">
       <c r="A18" s="18" t="s">
         <v>59</v>
       </c>
       <c r="B18" s="19">
         <f>Algorithmus!J2</f>
-        <v>5.5</v>
+        <v>9.5</v>
       </c>
       <c r="C18" s="40">
         <v>0</v>
       </c>
       <c r="D18" s="32"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4">
       <c r="A19" s="18" t="s">
         <v>60</v>
       </c>
@@ -2075,39 +2129,39 @@
       </c>
       <c r="D19" s="32"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4">
       <c r="A20" s="18" t="s">
         <v>61</v>
       </c>
       <c r="B20" s="19">
         <f>Algorithmus!J4</f>
-        <v>52.5</v>
+        <v>72.5</v>
       </c>
       <c r="C20" s="40">
         <v>0</v>
       </c>
       <c r="D20" s="32"/>
     </row>
-    <row r="21" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" ht="15" thickBot="1">
       <c r="A21" s="18" t="s">
         <v>62</v>
       </c>
       <c r="B21" s="19">
         <f>Algorithmus!J5</f>
-        <v>11.5</v>
+        <v>47.5</v>
       </c>
       <c r="C21" s="40">
         <v>0</v>
       </c>
       <c r="D21" s="32"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4">
       <c r="A22" s="16" t="s">
         <v>63</v>
       </c>
       <c r="B22" s="17">
         <f>Marktzustandserkennung!J6</f>
-        <v>24.5</v>
+        <v>29.5</v>
       </c>
       <c r="C22" s="29">
         <f>SUM(C23:C26)</f>
@@ -2117,7 +2171,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4">
       <c r="A23" s="18" t="s">
         <v>59</v>
       </c>
@@ -2130,7 +2184,7 @@
       </c>
       <c r="D23" s="32"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4">
       <c r="A24" s="18" t="s">
         <v>64</v>
       </c>
@@ -2143,20 +2197,20 @@
       </c>
       <c r="D24" s="32"/>
     </row>
-    <row r="25" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" ht="15" customHeight="1">
       <c r="A25" s="18" t="s">
         <v>65</v>
       </c>
       <c r="B25" s="19">
         <f>Marktzustandserkennung!J4</f>
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C25" s="40">
         <v>0</v>
       </c>
       <c r="D25" s="32"/>
     </row>
-    <row r="26" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" ht="15" thickBot="1">
       <c r="A26" s="18" t="s">
         <v>66</v>
       </c>
@@ -2169,7 +2223,7 @@
       </c>
       <c r="D26" s="32"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4">
       <c r="A27" s="16" t="s">
         <v>14</v>
       </c>
@@ -2185,7 +2239,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" ht="15.75" customHeight="1">
       <c r="A28" s="18" t="s">
         <v>22</v>
       </c>
@@ -2198,7 +2252,7 @@
       </c>
       <c r="D28" s="32"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4">
       <c r="A29" s="18" t="s">
         <v>23</v>
       </c>
@@ -2211,7 +2265,7 @@
       </c>
       <c r="D29" s="32"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4">
       <c r="A30" s="18" t="s">
         <v>24</v>
       </c>
@@ -2224,7 +2278,7 @@
       </c>
       <c r="D30" s="32"/>
     </row>
-    <row r="31" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4" ht="15" thickBot="1">
       <c r="A31" s="20" t="s">
         <v>25</v>
       </c>
@@ -2237,25 +2291,25 @@
       </c>
       <c r="D31" s="28"/>
     </row>
-    <row r="32" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="33" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:4" ht="15" thickBot="1"/>
+    <row r="33" spans="2:4" ht="15" thickBot="1">
       <c r="B33" s="10"/>
       <c r="C33" s="10"/>
       <c r="D33" s="11" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="34" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:4" ht="15" thickBot="1">
       <c r="B34" s="51" t="s">
         <v>34</v>
       </c>
       <c r="C34" s="52"/>
       <c r="D34" s="9">
         <f>SUM(Projektmanagment!I13,BacktestingSoftware!I13,Algorithmus!I13,Marktzustandserkennung!I13,Testing_Abschluss!I13)</f>
-        <v>42.5</v>
-      </c>
-    </row>
-    <row r="35" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>89.5</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" ht="15" thickBot="1">
       <c r="B35" s="45" t="s">
         <v>15</v>
       </c>
@@ -2265,14 +2319,14 @@
         <v>107</v>
       </c>
     </row>
-    <row r="36" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:4" ht="15" thickBot="1">
       <c r="B36" s="47" t="s">
         <v>35</v>
       </c>
       <c r="C36" s="48"/>
       <c r="D36" s="39">
         <f>SUM(Projektmanagment!I15,BacktestingSoftware!I15,Algorithmus!I15,Marktzustandserkennung!I15,Testing_Abschluss!I15)</f>
-        <v>130.5</v>
+        <v>148.5</v>
       </c>
     </row>
   </sheetData>
@@ -2305,18 +2359,18 @@
       <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="13.33203125" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.33203125" style="3" customWidth="1"/>
     <col min="3" max="3" width="71.6640625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="10.6640625" style="3"/>
-    <col min="5" max="5" width="10.6640625" style="26"/>
-    <col min="6" max="6" width="24.44140625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="10.83203125" style="3"/>
+    <col min="5" max="5" width="10.83203125" style="26"/>
+    <col min="6" max="6" width="24.5" style="3" customWidth="1"/>
     <col min="9" max="9" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" ht="15" thickBot="1">
       <c r="A1" s="3" t="s">
         <v>37</v>
       </c>
@@ -2343,7 +2397,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10">
       <c r="A2" s="3" t="s">
         <v>32</v>
       </c>
@@ -2371,7 +2425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10">
       <c r="A3" s="3" t="s">
         <v>32</v>
       </c>
@@ -2399,7 +2453,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10">
       <c r="A4" s="3" t="s">
         <v>32</v>
       </c>
@@ -2427,7 +2481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10">
       <c r="A5" s="3" t="s">
         <v>32</v>
       </c>
@@ -2455,7 +2509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" ht="15" thickBot="1">
       <c r="A6" s="3" t="s">
         <v>32</v>
       </c>
@@ -2483,7 +2537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" ht="15" thickBot="1">
       <c r="A7" s="3" t="s">
         <v>32</v>
       </c>
@@ -2511,7 +2565,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10">
       <c r="A8" s="3" t="s">
         <v>32</v>
       </c>
@@ -2531,7 +2585,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10">
       <c r="A9" s="3" t="s">
         <v>32</v>
       </c>
@@ -2551,13 +2605,13 @@
         <v>73</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10">
       <c r="D10" s="1"/>
     </row>
-    <row r="11" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" ht="15" thickBot="1">
       <c r="D11" s="1"/>
     </row>
-    <row r="12" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" ht="15" thickBot="1">
       <c r="D12" s="1"/>
       <c r="H12" s="6" t="s">
         <v>5</v>
@@ -2566,7 +2620,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10">
       <c r="D13" s="1"/>
       <c r="H13" s="33" t="s">
         <v>32</v>
@@ -2576,7 +2630,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10">
       <c r="D14" s="1"/>
       <c r="H14" s="33" t="s">
         <v>6</v>
@@ -2586,7 +2640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" ht="15" thickBot="1">
       <c r="D15" s="1"/>
       <c r="H15" s="33" t="s">
         <v>33</v>
@@ -2596,15 +2650,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10">
       <c r="D16" s="1"/>
       <c r="H16" s="36"/>
       <c r="I16" s="36"/>
     </row>
-    <row r="17" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="4:4">
       <c r="D17" s="1"/>
     </row>
-    <row r="18" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="4:4">
       <c r="D18" s="1"/>
     </row>
   </sheetData>
@@ -2626,7 +2680,6 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -2639,22 +2692,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J33"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="H36" sqref="H36"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="13.33203125" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.33203125" style="3" customWidth="1"/>
     <col min="3" max="3" width="66.33203125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="10.6640625" style="3"/>
-    <col min="5" max="5" width="10.6640625" style="26"/>
-    <col min="6" max="6" width="24.44140625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="10.83203125" style="3"/>
+    <col min="5" max="5" width="10.83203125" style="26"/>
+    <col min="6" max="6" width="24.5" style="3" customWidth="1"/>
     <col min="9" max="9" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" ht="15" thickBot="1">
       <c r="A1" s="3" t="s">
         <v>37</v>
       </c>
@@ -2681,7 +2734,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10">
       <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
@@ -2709,7 +2762,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10">
       <c r="A3" s="3" t="s">
         <v>33</v>
       </c>
@@ -2737,7 +2790,7 @@
         <v>35.5</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
@@ -2765,7 +2818,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" ht="15" thickBot="1">
       <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
@@ -2793,7 +2846,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" ht="15" thickBot="1">
       <c r="A6" s="3" t="s">
         <v>6</v>
       </c>
@@ -2821,7 +2874,7 @@
         <v>128.5</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10">
       <c r="A7" s="3" t="s">
         <v>33</v>
       </c>
@@ -2841,7 +2894,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10">
       <c r="A8" s="3" t="s">
         <v>33</v>
       </c>
@@ -2861,7 +2914,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10">
       <c r="A9" s="3" t="s">
         <v>32</v>
       </c>
@@ -2881,7 +2934,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10">
       <c r="A10" s="3" t="s">
         <v>32</v>
       </c>
@@ -2898,7 +2951,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" ht="15" thickBot="1">
       <c r="A11" s="3" t="s">
         <v>6</v>
       </c>
@@ -2918,7 +2971,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" ht="15" thickBot="1">
       <c r="A12" s="3" t="s">
         <v>32</v>
       </c>
@@ -2944,7 +2997,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10">
       <c r="A13" s="3" t="s">
         <v>6</v>
       </c>
@@ -2971,7 +3024,7 @@
         <v>11.5</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10">
       <c r="A14" s="3" t="s">
         <v>33</v>
       </c>
@@ -2998,7 +3051,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" ht="15" thickBot="1">
       <c r="A15" s="3" t="s">
         <v>6</v>
       </c>
@@ -3025,7 +3078,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10">
       <c r="A16" s="3" t="s">
         <v>33</v>
       </c>
@@ -3047,7 +3100,7 @@
       <c r="H16" s="36"/>
       <c r="I16" s="36"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6">
       <c r="A17" s="3" t="s">
         <v>6</v>
       </c>
@@ -3067,7 +3120,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6">
       <c r="A18" s="3" t="s">
         <v>6</v>
       </c>
@@ -3087,7 +3140,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6">
       <c r="A19" s="3" t="s">
         <v>6</v>
       </c>
@@ -3107,7 +3160,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6">
       <c r="A20" s="3" t="s">
         <v>6</v>
       </c>
@@ -3127,7 +3180,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6">
       <c r="A21" s="3" t="s">
         <v>6</v>
       </c>
@@ -3147,7 +3200,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6">
       <c r="A22" s="3" t="s">
         <v>6</v>
       </c>
@@ -3167,7 +3220,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6">
       <c r="A23" s="3" t="s">
         <v>6</v>
       </c>
@@ -3187,7 +3240,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6">
       <c r="A24" s="3" t="s">
         <v>32</v>
       </c>
@@ -3207,7 +3260,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6">
       <c r="A25" s="3" t="s">
         <v>6</v>
       </c>
@@ -3227,7 +3280,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6">
       <c r="A26" s="3" t="s">
         <v>32</v>
       </c>
@@ -3247,7 +3300,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6">
       <c r="A27" s="3" t="s">
         <v>6</v>
       </c>
@@ -3267,7 +3320,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6">
       <c r="A28" s="3" t="s">
         <v>6</v>
       </c>
@@ -3287,7 +3340,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6">
       <c r="A29" s="3" t="s">
         <v>6</v>
       </c>
@@ -3307,7 +3360,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6">
       <c r="A30" s="3" t="s">
         <v>6</v>
       </c>
@@ -3327,7 +3380,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6">
       <c r="A31" s="3" t="s">
         <v>6</v>
       </c>
@@ -3347,7 +3400,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6">
       <c r="A32" s="3" t="s">
         <v>6</v>
       </c>
@@ -3367,7 +3420,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6">
       <c r="A33" s="3" t="s">
         <v>6</v>
       </c>
@@ -3415,24 +3468,24 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J30"/>
+  <dimension ref="A1:J51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+      <selection activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="13.33203125" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.33203125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="56.5546875" style="3" customWidth="1"/>
-    <col min="4" max="4" width="10.6640625" style="3"/>
-    <col min="5" max="5" width="10.6640625" style="26"/>
-    <col min="6" max="6" width="43.44140625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="56.5" style="3" customWidth="1"/>
+    <col min="4" max="4" width="10.83203125" style="3"/>
+    <col min="5" max="5" width="10.83203125" style="26"/>
+    <col min="6" max="6" width="43.5" style="3" customWidth="1"/>
     <col min="9" max="9" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" ht="15" thickBot="1">
       <c r="A1" s="3" t="s">
         <v>37</v>
       </c>
@@ -3459,7 +3512,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10">
       <c r="A2" s="3" t="s">
         <v>33</v>
       </c>
@@ -3484,10 +3537,10 @@
       <c r="I2" s="65"/>
       <c r="J2" s="35">
         <f>SUMIF(B:B,H2,E:E)</f>
-        <v>5.5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="3" t="s">
         <v>33</v>
       </c>
@@ -3515,7 +3568,7 @@
         <v>48.5</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10">
       <c r="A4" s="3" t="s">
         <v>33</v>
       </c>
@@ -3540,10 +3593,10 @@
       <c r="I4" s="65"/>
       <c r="J4" s="35">
         <f>SUMIF(B:B,H4,E:E)</f>
-        <v>52.5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>72.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="15" thickBot="1">
       <c r="A5" s="3" t="s">
         <v>33</v>
       </c>
@@ -3568,10 +3621,10 @@
       <c r="I5" s="65"/>
       <c r="J5" s="35">
         <f>SUMIF(B:B,H5,E:E)</f>
-        <v>11.5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>47.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="15" thickBot="1">
       <c r="A6" s="3" t="s">
         <v>33</v>
       </c>
@@ -3596,10 +3649,10 @@
       <c r="I6" s="62"/>
       <c r="J6" s="7">
         <f>SUM(J2:J5)</f>
-        <v>118</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="3" t="s">
         <v>33</v>
       </c>
@@ -3619,7 +3672,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10">
       <c r="A8" s="3" t="s">
         <v>33</v>
       </c>
@@ -3639,7 +3692,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10">
       <c r="A9" s="3" t="s">
         <v>33</v>
       </c>
@@ -3659,7 +3712,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10">
       <c r="A10" s="3" t="s">
         <v>33</v>
       </c>
@@ -3679,7 +3732,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" ht="15" thickBot="1">
       <c r="A11" s="3" t="s">
         <v>33</v>
       </c>
@@ -3699,7 +3752,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" ht="15" thickBot="1">
       <c r="A12" s="3" t="s">
         <v>33</v>
       </c>
@@ -3725,7 +3778,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10">
       <c r="A13" s="3" t="s">
         <v>33</v>
       </c>
@@ -3749,10 +3802,10 @@
       </c>
       <c r="I13" s="35">
         <f>SUMIF(A:A,H13,E:E)</f>
-        <v>22</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="3" t="s">
         <v>32</v>
       </c>
@@ -3779,7 +3832,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" ht="15" thickBot="1">
       <c r="A15" s="3" t="s">
         <v>32</v>
       </c>
@@ -3803,10 +3856,10 @@
       </c>
       <c r="I15" s="35">
         <f>SUMIF(A:A,H15,E:E)</f>
-        <v>89</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="3" t="s">
         <v>32</v>
       </c>
@@ -3828,7 +3881,7 @@
       <c r="H16" s="36"/>
       <c r="I16" s="36"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6">
       <c r="A17" s="3" t="s">
         <v>33</v>
       </c>
@@ -3848,7 +3901,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6">
       <c r="A18" s="3" t="s">
         <v>32</v>
       </c>
@@ -3868,7 +3921,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6">
       <c r="A19" s="3" t="s">
         <v>32</v>
       </c>
@@ -3888,7 +3941,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6">
       <c r="A20" s="3" t="s">
         <v>32</v>
       </c>
@@ -3908,7 +3961,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6">
       <c r="A21" s="3" t="s">
         <v>32</v>
       </c>
@@ -3928,7 +3981,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6">
       <c r="A22" s="41" t="s">
         <v>33</v>
       </c>
@@ -3948,7 +4001,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6">
       <c r="A23" s="3" t="s">
         <v>32</v>
       </c>
@@ -3968,7 +4021,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6">
       <c r="A24" s="3" t="s">
         <v>33</v>
       </c>
@@ -3988,7 +4041,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6">
       <c r="A25" s="3" t="s">
         <v>33</v>
       </c>
@@ -4008,7 +4061,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6">
       <c r="A26" s="3" t="s">
         <v>6</v>
       </c>
@@ -4028,7 +4081,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6">
       <c r="A27" s="3" t="s">
         <v>33</v>
       </c>
@@ -4048,7 +4101,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6">
       <c r="A28" s="3" t="s">
         <v>6</v>
       </c>
@@ -4068,7 +4121,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6">
       <c r="A29" s="3" t="s">
         <v>33</v>
       </c>
@@ -4088,7 +4141,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6">
       <c r="A30" s="3" t="s">
         <v>32</v>
       </c>
@@ -4107,6 +4160,239 @@
       <c r="F30" s="3" t="s">
         <v>185</v>
       </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="D31" s="1">
+        <v>41354</v>
+      </c>
+      <c r="E31" s="26">
+        <v>2</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="D32" s="1">
+        <v>41355</v>
+      </c>
+      <c r="E32" s="26">
+        <v>2</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="D33" s="1">
+        <v>41356</v>
+      </c>
+      <c r="E33" s="26">
+        <v>4</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="D34" s="1">
+        <v>41357</v>
+      </c>
+      <c r="E34" s="26">
+        <v>5</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="D35" s="1">
+        <v>41358</v>
+      </c>
+      <c r="E35" s="26">
+        <v>3</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="D36" s="1">
+        <v>41359</v>
+      </c>
+      <c r="E36" s="26">
+        <v>8</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="D37" s="1">
+        <v>41360</v>
+      </c>
+      <c r="E37" s="26">
+        <v>8</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="D38" s="1">
+        <v>41360</v>
+      </c>
+      <c r="E38" s="26">
+        <v>8</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="D39" s="1">
+        <v>41361</v>
+      </c>
+      <c r="E39" s="26">
+        <v>10</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="D40" s="1">
+        <v>41361</v>
+      </c>
+      <c r="E40" s="26">
+        <v>10</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="D41" s="1"/>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="D42" s="1"/>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="D43" s="1"/>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="D44" s="1"/>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="D45" s="1"/>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="D46" s="1"/>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="D47" s="1"/>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="D48" s="1"/>
+    </row>
+    <row r="49" spans="4:4">
+      <c r="D49" s="1"/>
+    </row>
+    <row r="50" spans="4:4">
+      <c r="D50" s="1"/>
+    </row>
+    <row r="51" spans="4:4">
+      <c r="D51" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -4126,7 +4412,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -4137,24 +4423,24 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:J28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="13.33203125" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="36.6640625" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="71.6640625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="11.44140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.6640625" style="26"/>
-    <col min="6" max="6" width="24.44140625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="11.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.83203125" style="26"/>
+    <col min="6" max="6" width="24.5" style="3" customWidth="1"/>
     <col min="9" max="9" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" ht="15" thickBot="1">
       <c r="A1" s="3" t="s">
         <v>37</v>
       </c>
@@ -4181,7 +4467,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10">
       <c r="A2" s="3" t="s">
         <v>32</v>
       </c>
@@ -4209,7 +4495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10">
       <c r="A3" s="3" t="s">
         <v>33</v>
       </c>
@@ -4237,7 +4523,7 @@
         <v>11.5</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10">
       <c r="A4" s="3" t="s">
         <v>33</v>
       </c>
@@ -4262,10 +4548,10 @@
       <c r="I4" s="65"/>
       <c r="J4" s="35">
         <f>SUMIF(B:B,H4,E:E)</f>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="15" thickBot="1">
       <c r="A5" s="3" t="s">
         <v>33</v>
       </c>
@@ -4293,7 +4579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" ht="15" thickBot="1">
       <c r="A6" s="3" t="s">
         <v>33</v>
       </c>
@@ -4318,10 +4604,10 @@
       <c r="I6" s="62"/>
       <c r="J6" s="7">
         <f>SUM(J2:J5)</f>
-        <v>24.5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+        <v>29.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="3" t="s">
         <v>33</v>
       </c>
@@ -4341,7 +4627,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10">
       <c r="A8" s="3" t="s">
         <v>33</v>
       </c>
@@ -4361,17 +4647,34 @@
         <v>167</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="D9" s="1"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="D10" s="1"/>
-    </row>
-    <row r="11" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D11" s="1"/>
-    </row>
-    <row r="12" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D12" s="1"/>
+    <row r="9" spans="1:10">
+      <c r="A9" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="D9" s="24">
+        <v>41358</v>
+      </c>
+      <c r="E9" s="26">
+        <v>5</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="D10" s="24"/>
+    </row>
+    <row r="11" spans="1:10" ht="15" thickBot="1">
+      <c r="D11" s="24"/>
+    </row>
+    <row r="12" spans="1:10" ht="15" thickBot="1">
+      <c r="D12" s="24"/>
       <c r="H12" s="34" t="s">
         <v>5</v>
       </c>
@@ -4379,18 +4682,18 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="D13" s="1"/>
+    <row r="13" spans="1:10">
+      <c r="D13" s="24"/>
       <c r="H13" s="35" t="s">
         <v>32</v>
       </c>
       <c r="I13" s="35">
         <f>SUMIF(A:A,H13,E:E)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="D14" s="1"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="D14" s="24"/>
       <c r="H14" s="35" t="s">
         <v>6</v>
       </c>
@@ -4399,8 +4702,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D15" s="1"/>
+    <row r="15" spans="1:10" ht="15" thickBot="1">
+      <c r="D15" s="24"/>
       <c r="H15" s="35" t="s">
         <v>33</v>
       </c>
@@ -4409,16 +4712,46 @@
         <v>22.5</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="D16" s="1"/>
+    <row r="16" spans="1:10">
+      <c r="D16" s="24"/>
       <c r="H16" s="36"/>
       <c r="I16" s="36"/>
     </row>
-    <row r="17" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D17" s="1"/>
-    </row>
-    <row r="18" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D18" s="1"/>
+    <row r="17" spans="4:4">
+      <c r="D17" s="24"/>
+    </row>
+    <row r="18" spans="4:4">
+      <c r="D18" s="24"/>
+    </row>
+    <row r="19" spans="4:4">
+      <c r="D19" s="24"/>
+    </row>
+    <row r="20" spans="4:4">
+      <c r="D20" s="24"/>
+    </row>
+    <row r="21" spans="4:4">
+      <c r="D21" s="24"/>
+    </row>
+    <row r="22" spans="4:4">
+      <c r="D22" s="24"/>
+    </row>
+    <row r="23" spans="4:4">
+      <c r="D23" s="24"/>
+    </row>
+    <row r="24" spans="4:4">
+      <c r="D24" s="24"/>
+    </row>
+    <row r="25" spans="4:4">
+      <c r="D25" s="24"/>
+    </row>
+    <row r="26" spans="4:4">
+      <c r="D26" s="24"/>
+    </row>
+    <row r="27" spans="4:4">
+      <c r="D27" s="24"/>
+    </row>
+    <row r="28" spans="4:4">
+      <c r="D28" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -4450,22 +4783,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="16.5546875" style="3" customWidth="1"/>
+    <col min="1" max="1" width="16.5" style="3" customWidth="1"/>
     <col min="2" max="2" width="21.33203125" style="3" customWidth="1"/>
     <col min="3" max="3" width="71.6640625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="10.6640625" style="3"/>
-    <col min="5" max="5" width="10.6640625" style="37"/>
-    <col min="6" max="6" width="24.44140625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="10.83203125" style="3"/>
+    <col min="5" max="5" width="10.83203125" style="37"/>
+    <col min="6" max="6" width="24.5" style="3" customWidth="1"/>
     <col min="9" max="9" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" ht="15" thickBot="1">
       <c r="A1" s="3" t="s">
         <v>37</v>
       </c>
@@ -4492,7 +4825,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10">
       <c r="A2" s="3" t="s">
         <v>33</v>
       </c>
@@ -4520,7 +4853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10">
       <c r="D3" s="1"/>
       <c r="H3" s="68" t="s">
         <v>50</v>
@@ -4531,7 +4864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10">
       <c r="D4" s="1"/>
       <c r="H4" s="68" t="s">
         <v>51</v>
@@ -4542,7 +4875,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" ht="15" thickBot="1">
       <c r="D5" s="1"/>
       <c r="H5" s="70" t="s">
         <v>52</v>
@@ -4553,7 +4886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" ht="15" thickBot="1">
       <c r="D6" s="1"/>
       <c r="H6" s="61" t="s">
         <v>16</v>
@@ -4564,22 +4897,22 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10">
       <c r="D7" s="1"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10">
       <c r="D8" s="24"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10">
       <c r="D9" s="1"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10">
       <c r="D10" s="1"/>
     </row>
-    <row r="11" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" ht="15" thickBot="1">
       <c r="D11" s="1"/>
     </row>
-    <row r="12" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" ht="15" thickBot="1">
       <c r="D12" s="1"/>
       <c r="H12" s="34" t="s">
         <v>5</v>
@@ -4588,7 +4921,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10">
       <c r="D13" s="1"/>
       <c r="H13" s="35" t="s">
         <v>32</v>
@@ -4598,7 +4931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10">
       <c r="D14" s="1"/>
       <c r="H14" s="35" t="s">
         <v>6</v>
@@ -4608,7 +4941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" ht="15" thickBot="1">
       <c r="D15" s="1"/>
       <c r="H15" s="35" t="s">
         <v>33</v>
@@ -4618,15 +4951,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10">
       <c r="D16" s="1"/>
       <c r="H16" s="36"/>
       <c r="I16" s="36"/>
     </row>
-    <row r="17" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="4:4">
       <c r="D17" s="1"/>
     </row>
-    <row r="18" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="4:4">
       <c r="D18" s="1"/>
     </row>
   </sheetData>

--- a/Dokumentation/Noctua_Zeitaufzeichnung.xlsx
+++ b/Dokumentation/Noctua_Zeitaufzeichnung.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
-  <workbookPr autoCompressPictures="0"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20740" windowHeight="11760" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Gesamtstatus" sheetId="4" r:id="rId1"/>
@@ -14,7 +14,7 @@
     <sheet name="Marktzustandserkennung" sheetId="7" r:id="rId5"/>
     <sheet name="Testing_Abschluss" sheetId="8" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="217">
   <si>
     <t>Arbeitspaket</t>
   </si>
@@ -633,6 +633,48 @@
   </si>
   <si>
     <t>Tests</t>
+  </si>
+  <si>
+    <t>zb divisionbyzero behoben</t>
+  </si>
+  <si>
+    <t>Performancedaten korrigiert</t>
+  </si>
+  <si>
+    <t>ADX korrigieren</t>
+  </si>
+  <si>
+    <t>ADX funktioniert richtig</t>
+  </si>
+  <si>
+    <t>Abnahmeprotokol</t>
+  </si>
+  <si>
+    <t>Einleitung, Installation und F#</t>
+  </si>
+  <si>
+    <t>Benutzerhandbuch</t>
+  </si>
+  <si>
+    <t>v1.0</t>
+  </si>
+  <si>
+    <t>Kickoffmeeting</t>
+  </si>
+  <si>
+    <t>durchgeführt</t>
+  </si>
+  <si>
+    <t>PHB v.5</t>
+  </si>
+  <si>
+    <t>TMA</t>
+  </si>
+  <si>
+    <t>TMA v.5</t>
+  </si>
+  <si>
+    <t>TMA v1</t>
   </si>
 </sst>
 </file>
@@ -1068,60 +1110,60 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="55">
-    <cellStyle name="Besuchter Link" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="20" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="22" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="24" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="26" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="28" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="30" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="32" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="34" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="36" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="38" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="40" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="42" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="44" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="46" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="48" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="50" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="52" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="54" builtinId="9" hidden="1"/>
-    <cellStyle name="Link" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="7" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="9" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="11" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="13" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="15" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="17" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="19" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="21" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="23" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="25" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="27" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="29" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="31" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="33" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="35" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="37" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="39" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="41" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="43" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="45" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="47" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="49" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="51" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1142,7 +1184,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
+  <c:lang val="de-AT"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1238,10 +1280,10 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1257,12 +1299,12 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:shape val="box"/>
-        <c:axId val="2083102584"/>
-        <c:axId val="2083108248"/>
+        <c:axId val="177004928"/>
+        <c:axId val="177006464"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="2083102584"/>
+        <c:axId val="177004928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1271,7 +1313,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2083108248"/>
+        <c:crossAx val="177006464"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1279,7 +1321,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2083108248"/>
+        <c:axId val="177006464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1295,7 +1337,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="2083102584"/>
+        <c:crossAx val="177004928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1309,7 +1351,7 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.787401575" l="0.7" r="0.7" t="0.787401575" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1318,7 +1360,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
+  <c:lang val="de-AT"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1406,13 +1448,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>89.5</c:v>
+                  <c:v>98.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>107.0</c:v>
+                  <c:v>145</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>148.5</c:v>
+                  <c:v>173.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1428,12 +1470,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="2083178008"/>
-        <c:axId val="2083180952"/>
+        <c:axId val="185550720"/>
+        <c:axId val="185552256"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="2083178008"/>
+        <c:axId val="185550720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1442,7 +1484,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2083180952"/>
+        <c:crossAx val="185552256"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1450,7 +1492,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2083180952"/>
+        <c:axId val="185552256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1461,7 +1503,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2083178008"/>
+        <c:crossAx val="185550720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1472,7 +1514,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.787401575" l="0.7" r="0.7" t="0.787401575" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1832,17 +1874,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B34" sqref="B34:C34"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="53"/>
       <c r="B1" s="55" t="s">
         <v>28</v>
@@ -1856,7 +1898,7 @@
       <c r="G1" s="12"/>
       <c r="R1" s="8"/>
     </row>
-    <row r="2" spans="1:18" ht="15" thickBot="1">
+    <row r="2" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="54"/>
       <c r="B2" s="56"/>
       <c r="C2" s="13" t="s">
@@ -1869,13 +1911,13 @@
       <c r="F2" s="12"/>
       <c r="G2" s="12"/>
     </row>
-    <row r="3" spans="1:18" ht="15" thickBot="1">
+    <row r="3" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="15" t="s">
         <v>36</v>
       </c>
       <c r="B3" s="7">
         <f>SUM(B6,B12,B27)</f>
-        <v>135.5</v>
+        <v>180.5</v>
       </c>
       <c r="C3" s="27">
         <f>AVERAGE(C6,C12,C17,C22,C27)</f>
@@ -1888,7 +1930,7 @@
       <c r="F3" s="12"/>
       <c r="G3" s="12"/>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="50"/>
       <c r="B4" s="55"/>
       <c r="C4" s="57" t="s">
@@ -1899,7 +1941,7 @@
       <c r="F4" s="12"/>
       <c r="G4" s="12"/>
     </row>
-    <row r="5" spans="1:18" ht="15" thickBot="1">
+    <row r="5" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="54"/>
       <c r="B5" s="56"/>
       <c r="C5" s="59"/>
@@ -1908,13 +1950,13 @@
       <c r="F5" s="12"/>
       <c r="G5" s="12"/>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="16" t="s">
         <v>13</v>
       </c>
       <c r="B6" s="17">
         <f>Projektmanagment!J7</f>
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="C6" s="29">
         <f>SUM(C7:C11)</f>
@@ -1927,13 +1969,13 @@
       <c r="F6" s="12"/>
       <c r="G6" s="12"/>
     </row>
-    <row r="7" spans="1:18">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="18" t="s">
         <v>18</v>
       </c>
       <c r="B7" s="19">
         <f>Projektmanagment!J2</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C7" s="31">
         <v>0</v>
@@ -1943,13 +1985,13 @@
       <c r="F7" s="12"/>
       <c r="G7" s="12"/>
     </row>
-    <row r="8" spans="1:18">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="18" t="s">
         <v>17</v>
       </c>
       <c r="B8" s="19">
         <f>Projektmanagment!J3</f>
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C8" s="31">
         <v>0</v>
@@ -1959,7 +2001,7 @@
       <c r="F8" s="12"/>
       <c r="G8" s="12"/>
     </row>
-    <row r="9" spans="1:18">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="18" t="s">
         <v>19</v>
       </c>
@@ -1975,13 +2017,13 @@
       <c r="F9" s="12"/>
       <c r="G9" s="12"/>
     </row>
-    <row r="10" spans="1:18">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="18" t="s">
         <v>20</v>
       </c>
       <c r="B10" s="19">
         <f>Projektmanagment!J5</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C10" s="31">
         <v>0</v>
@@ -1991,13 +2033,13 @@
       <c r="F10" s="12"/>
       <c r="G10" s="12"/>
     </row>
-    <row r="11" spans="1:18" ht="15" thickBot="1">
+    <row r="11" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="20" t="s">
         <v>21</v>
       </c>
       <c r="B11" s="21">
         <f>Projektmanagment!J6</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C11" s="31">
         <v>0</v>
@@ -2007,7 +2049,7 @@
       <c r="F11" s="12"/>
       <c r="G11" s="12"/>
     </row>
-    <row r="12" spans="1:18">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="16" t="s">
         <v>54</v>
       </c>
@@ -2026,7 +2068,7 @@
       <c r="F12" s="12"/>
       <c r="G12" s="12"/>
     </row>
-    <row r="13" spans="1:18">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="18" t="s">
         <v>53</v>
       </c>
@@ -2042,7 +2084,7 @@
       <c r="F13" s="12"/>
       <c r="G13" s="12"/>
     </row>
-    <row r="14" spans="1:18">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="18" t="s">
         <v>55</v>
       </c>
@@ -2058,7 +2100,7 @@
       <c r="F14" s="12"/>
       <c r="G14" s="12"/>
     </row>
-    <row r="15" spans="1:18">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="18" t="s">
         <v>56</v>
       </c>
@@ -2074,7 +2116,7 @@
       <c r="F15" s="12"/>
       <c r="G15" s="12"/>
     </row>
-    <row r="16" spans="1:18" ht="15" thickBot="1">
+    <row r="16" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="18" t="s">
         <v>57</v>
       </c>
@@ -2087,13 +2129,13 @@
       </c>
       <c r="D16" s="32"/>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="16" t="s">
         <v>58</v>
       </c>
       <c r="B17" s="17">
         <f>Algorithmus!J6</f>
-        <v>178</v>
+        <v>205</v>
       </c>
       <c r="C17" s="29">
         <f>SUM(C18:C21)</f>
@@ -2103,7 +2145,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="18" t="s">
         <v>59</v>
       </c>
@@ -2116,7 +2158,7 @@
       </c>
       <c r="D18" s="32"/>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="18" t="s">
         <v>60</v>
       </c>
@@ -2129,33 +2171,33 @@
       </c>
       <c r="D19" s="32"/>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="18" t="s">
         <v>61</v>
       </c>
       <c r="B20" s="19">
         <f>Algorithmus!J4</f>
-        <v>72.5</v>
+        <v>91.5</v>
       </c>
       <c r="C20" s="40">
         <v>0</v>
       </c>
       <c r="D20" s="32"/>
     </row>
-    <row r="21" spans="1:4" ht="15" thickBot="1">
+    <row r="21" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="18" t="s">
         <v>62</v>
       </c>
       <c r="B21" s="19">
         <f>Algorithmus!J5</f>
-        <v>47.5</v>
+        <v>55.5</v>
       </c>
       <c r="C21" s="40">
         <v>0</v>
       </c>
       <c r="D21" s="32"/>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="16" t="s">
         <v>63</v>
       </c>
@@ -2171,7 +2213,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="18" t="s">
         <v>59</v>
       </c>
@@ -2184,7 +2226,7 @@
       </c>
       <c r="D23" s="32"/>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="18" t="s">
         <v>64</v>
       </c>
@@ -2197,7 +2239,7 @@
       </c>
       <c r="D24" s="32"/>
     </row>
-    <row r="25" spans="1:4" ht="15" customHeight="1">
+    <row r="25" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="18" t="s">
         <v>65</v>
       </c>
@@ -2210,7 +2252,7 @@
       </c>
       <c r="D25" s="32"/>
     </row>
-    <row r="26" spans="1:4" ht="15" thickBot="1">
+    <row r="26" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="18" t="s">
         <v>66</v>
       </c>
@@ -2223,13 +2265,13 @@
       </c>
       <c r="D26" s="32"/>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="16" t="s">
         <v>14</v>
       </c>
       <c r="B27" s="17">
         <f>Testing_Abschluss!J6</f>
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="C27" s="29">
         <f>SUM(C28:C31)</f>
@@ -2239,7 +2281,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="15.75" customHeight="1">
+    <row r="28" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="18" t="s">
         <v>22</v>
       </c>
@@ -2252,7 +2294,7 @@
       </c>
       <c r="D28" s="32"/>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="18" t="s">
         <v>23</v>
       </c>
@@ -2265,20 +2307,20 @@
       </c>
       <c r="D29" s="32"/>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="18" t="s">
         <v>24</v>
       </c>
       <c r="B30" s="22">
         <f>Testing_Abschluss!J4</f>
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="C30" s="40">
         <v>0</v>
       </c>
       <c r="D30" s="32"/>
     </row>
-    <row r="31" spans="1:4" ht="15" thickBot="1">
+    <row r="31" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="20" t="s">
         <v>25</v>
       </c>
@@ -2291,42 +2333,42 @@
       </c>
       <c r="D31" s="28"/>
     </row>
-    <row r="32" spans="1:4" ht="15" thickBot="1"/>
-    <row r="33" spans="2:4" ht="15" thickBot="1">
+    <row r="32" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="33" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B33" s="10"/>
       <c r="C33" s="10"/>
       <c r="D33" s="11" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="34" spans="2:4" ht="15" thickBot="1">
+    <row r="34" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B34" s="51" t="s">
         <v>34</v>
       </c>
       <c r="C34" s="52"/>
       <c r="D34" s="9">
         <f>SUM(Projektmanagment!I13,BacktestingSoftware!I13,Algorithmus!I13,Marktzustandserkennung!I13,Testing_Abschluss!I13)</f>
-        <v>89.5</v>
-      </c>
-    </row>
-    <row r="35" spans="2:4" ht="15" thickBot="1">
+        <v>98.5</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B35" s="45" t="s">
         <v>15</v>
       </c>
       <c r="C35" s="46"/>
       <c r="D35" s="9">
         <f>SUM(Projektmanagment!I14,BacktestingSoftware!I14,Algorithmus!I14,Marktzustandserkennung!I14,Testing_Abschluss!I14)</f>
-        <v>107</v>
-      </c>
-    </row>
-    <row r="36" spans="2:4" ht="15" thickBot="1">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B36" s="47" t="s">
         <v>35</v>
       </c>
       <c r="C36" s="48"/>
       <c r="D36" s="39">
         <f>SUM(Projektmanagment!I15,BacktestingSoftware!I15,Algorithmus!I15,Marktzustandserkennung!I15,Testing_Abschluss!I15)</f>
-        <v>148.5</v>
+        <v>173.5</v>
       </c>
     </row>
   </sheetData>
@@ -2356,21 +2398,21 @@
   <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.33203125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="71.6640625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="10.83203125" style="3"/>
-    <col min="5" max="5" width="10.83203125" style="26"/>
-    <col min="6" max="6" width="24.5" style="3" customWidth="1"/>
-    <col min="9" max="9" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.28515625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="71.7109375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" style="3"/>
+    <col min="5" max="5" width="10.85546875" style="26"/>
+    <col min="6" max="6" width="28" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" thickBot="1">
+    <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>37</v>
       </c>
@@ -2397,7 +2439,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>32</v>
       </c>
@@ -2408,7 +2450,7 @@
         <v>68</v>
       </c>
       <c r="D2" s="1">
-        <v>41227</v>
+        <v>41228</v>
       </c>
       <c r="E2" s="26">
         <v>2</v>
@@ -2422,10 +2464,10 @@
       <c r="I2" s="65"/>
       <c r="J2" s="4">
         <f>SUMIF(B:B,H2,E:E)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>32</v>
       </c>
@@ -2450,10 +2492,10 @@
       <c r="I3" s="65"/>
       <c r="J3" s="4">
         <f>SUMIF(B:B,H3,E:E)</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>32</v>
       </c>
@@ -2481,7 +2523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>32</v>
       </c>
@@ -2506,10 +2548,10 @@
       <c r="I5" s="65"/>
       <c r="J5" s="4">
         <f>SUMIF(B:B,H5,E:E)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="15" thickBot="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>32</v>
       </c>
@@ -2534,10 +2576,10 @@
       <c r="I6" s="63"/>
       <c r="J6" s="5">
         <f>SUMIF(B:B,H6,E:E)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="15" thickBot="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>32</v>
       </c>
@@ -2562,10 +2604,10 @@
       <c r="I7" s="62"/>
       <c r="J7" s="7">
         <f>SUM(J2:J6)</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>32</v>
       </c>
@@ -2585,7 +2627,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>32</v>
       </c>
@@ -2605,14 +2647,65 @@
         <v>73</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
-      <c r="D10" s="1"/>
-    </row>
-    <row r="11" spans="1:10" ht="15" thickBot="1">
-      <c r="D11" s="1"/>
-    </row>
-    <row r="12" spans="1:10" ht="15" thickBot="1">
-      <c r="D12" s="1"/>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="D10" s="1">
+        <v>41373</v>
+      </c>
+      <c r="E10" s="26">
+        <v>3</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="D11" s="1">
+        <v>41373</v>
+      </c>
+      <c r="E11" s="26">
+        <v>3</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="D12" s="1">
+        <v>41227</v>
+      </c>
+      <c r="E12" s="26">
+        <v>3</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>212</v>
+      </c>
       <c r="H12" s="6" t="s">
         <v>5</v>
       </c>
@@ -2620,45 +2713,96 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
-      <c r="D13" s="1"/>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="D13" s="1">
+        <v>41227</v>
+      </c>
+      <c r="E13" s="26">
+        <v>3</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>212</v>
+      </c>
       <c r="H13" s="33" t="s">
         <v>32</v>
       </c>
       <c r="I13" s="4">
         <f>SUMIF(A:A,H13,E:E)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="D14" s="1"/>
+      <c r="C14" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="D14" s="1">
+        <v>41227</v>
+      </c>
+      <c r="E14" s="26">
+        <v>3</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>212</v>
+      </c>
       <c r="H14" s="33" t="s">
         <v>6</v>
       </c>
       <c r="I14" s="4">
         <f>SUMIF(A:A,H14,E:E)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="15" thickBot="1">
-      <c r="D15" s="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D15" s="1">
+        <v>41373</v>
+      </c>
+      <c r="E15" s="26">
+        <v>6</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>213</v>
+      </c>
       <c r="H15" s="33" t="s">
         <v>33</v>
       </c>
       <c r="I15" s="4">
         <f>SUMIF(A:A,H15,E:E)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D16" s="1"/>
       <c r="H16" s="36"/>
       <c r="I16" s="36"/>
     </row>
-    <row r="17" spans="4:4">
+    <row r="17" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D17" s="1"/>
     </row>
-    <row r="18" spans="4:4">
+    <row r="18" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D18" s="1"/>
     </row>
   </sheetData>
@@ -2672,7 +2816,7 @@
     <mergeCell ref="H5:I5"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B13:B1048576 B1:B11">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B1048576">
       <formula1>$H$2:$H$6</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A1048576">
@@ -2680,6 +2824,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -2692,22 +2837,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.33203125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="66.33203125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="10.83203125" style="3"/>
-    <col min="5" max="5" width="10.83203125" style="26"/>
-    <col min="6" max="6" width="24.5" style="3" customWidth="1"/>
-    <col min="9" max="9" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.28515625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="66.28515625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" style="3"/>
+    <col min="5" max="5" width="10.85546875" style="26"/>
+    <col min="6" max="6" width="24.42578125" style="3" customWidth="1"/>
+    <col min="9" max="9" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" thickBot="1">
+    <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>37</v>
       </c>
@@ -2734,7 +2879,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
@@ -2762,7 +2907,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>33</v>
       </c>
@@ -2790,7 +2935,7 @@
         <v>35.5</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
@@ -2818,7 +2963,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="15" thickBot="1">
+    <row r="5" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
@@ -2846,7 +2991,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15" thickBot="1">
+    <row r="6" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>6</v>
       </c>
@@ -2874,7 +3019,7 @@
         <v>128.5</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>33</v>
       </c>
@@ -2894,7 +3039,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>33</v>
       </c>
@@ -2914,7 +3059,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>32</v>
       </c>
@@ -2934,7 +3079,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>32</v>
       </c>
@@ -2951,7 +3096,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15" thickBot="1">
+    <row r="11" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>6</v>
       </c>
@@ -2971,7 +3116,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="15" thickBot="1">
+    <row r="12" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>32</v>
       </c>
@@ -2997,7 +3142,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>6</v>
       </c>
@@ -3024,7 +3169,7 @@
         <v>11.5</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>33</v>
       </c>
@@ -3051,7 +3196,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15" thickBot="1">
+    <row r="15" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>6</v>
       </c>
@@ -3078,7 +3223,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>33</v>
       </c>
@@ -3100,7 +3245,7 @@
       <c r="H16" s="36"/>
       <c r="I16" s="36"/>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>6</v>
       </c>
@@ -3120,7 +3265,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>6</v>
       </c>
@@ -3140,7 +3285,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>6</v>
       </c>
@@ -3160,7 +3305,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>6</v>
       </c>
@@ -3180,7 +3325,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>6</v>
       </c>
@@ -3200,7 +3345,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>6</v>
       </c>
@@ -3220,7 +3365,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>6</v>
       </c>
@@ -3240,7 +3385,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>32</v>
       </c>
@@ -3260,7 +3405,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>6</v>
       </c>
@@ -3280,7 +3425,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>32</v>
       </c>
@@ -3300,7 +3445,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>6</v>
       </c>
@@ -3320,7 +3465,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>6</v>
       </c>
@@ -3340,7 +3485,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>6</v>
       </c>
@@ -3360,7 +3505,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>6</v>
       </c>
@@ -3380,7 +3525,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>6</v>
       </c>
@@ -3400,7 +3545,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>6</v>
       </c>
@@ -3420,7 +3565,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>6</v>
       </c>
@@ -3470,22 +3615,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A41" sqref="A41"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.33203125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="56.5" style="3" customWidth="1"/>
-    <col min="4" max="4" width="10.83203125" style="3"/>
-    <col min="5" max="5" width="10.83203125" style="26"/>
-    <col min="6" max="6" width="43.5" style="3" customWidth="1"/>
-    <col min="9" max="9" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="56.42578125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" style="3"/>
+    <col min="5" max="5" width="10.85546875" style="26"/>
+    <col min="6" max="6" width="43.42578125" style="3" customWidth="1"/>
+    <col min="9" max="9" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" thickBot="1">
+    <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>37</v>
       </c>
@@ -3512,7 +3657,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>33</v>
       </c>
@@ -3540,7 +3685,7 @@
         <v>9.5</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>33</v>
       </c>
@@ -3568,7 +3713,7 @@
         <v>48.5</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>33</v>
       </c>
@@ -3593,10 +3738,10 @@
       <c r="I4" s="65"/>
       <c r="J4" s="35">
         <f>SUMIF(B:B,H4,E:E)</f>
-        <v>72.5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="15" thickBot="1">
+        <v>91.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>33</v>
       </c>
@@ -3621,10 +3766,10 @@
       <c r="I5" s="65"/>
       <c r="J5" s="35">
         <f>SUMIF(B:B,H5,E:E)</f>
-        <v>47.5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="15" thickBot="1">
+        <v>55.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>33</v>
       </c>
@@ -3649,10 +3794,10 @@
       <c r="I6" s="62"/>
       <c r="J6" s="7">
         <f>SUM(J2:J5)</f>
-        <v>178</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>33</v>
       </c>
@@ -3672,7 +3817,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>33</v>
       </c>
@@ -3692,7 +3837,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>33</v>
       </c>
@@ -3712,7 +3857,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>33</v>
       </c>
@@ -3732,7 +3877,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15" thickBot="1">
+    <row r="11" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>33</v>
       </c>
@@ -3752,7 +3897,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="15" thickBot="1">
+    <row r="12" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>33</v>
       </c>
@@ -3778,7 +3923,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>33</v>
       </c>
@@ -3805,7 +3950,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>32</v>
       </c>
@@ -3829,10 +3974,10 @@
       </c>
       <c r="I14" s="35">
         <f>SUMIF(A:A,H14,E:E)</f>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="15" thickBot="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>32</v>
       </c>
@@ -3856,10 +4001,10 @@
       </c>
       <c r="I15" s="35">
         <f>SUMIF(A:A,H15,E:E)</f>
-        <v>107</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>32</v>
       </c>
@@ -3881,7 +4026,7 @@
       <c r="H16" s="36"/>
       <c r="I16" s="36"/>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>33</v>
       </c>
@@ -3901,7 +4046,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>32</v>
       </c>
@@ -3921,7 +4066,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>32</v>
       </c>
@@ -3941,7 +4086,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>32</v>
       </c>
@@ -3961,7 +4106,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>32</v>
       </c>
@@ -3981,7 +4126,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="41" t="s">
         <v>33</v>
       </c>
@@ -4001,7 +4146,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>32</v>
       </c>
@@ -4021,7 +4166,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>33</v>
       </c>
@@ -4041,7 +4186,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>33</v>
       </c>
@@ -4061,7 +4206,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>6</v>
       </c>
@@ -4081,7 +4226,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>33</v>
       </c>
@@ -4101,7 +4246,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>6</v>
       </c>
@@ -4121,7 +4266,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>33</v>
       </c>
@@ -4141,7 +4286,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>32</v>
       </c>
@@ -4161,7 +4306,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>32</v>
       </c>
@@ -4181,7 +4326,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>32</v>
       </c>
@@ -4201,7 +4346,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>32</v>
       </c>
@@ -4221,7 +4366,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>32</v>
       </c>
@@ -4241,7 +4386,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>32</v>
       </c>
@@ -4261,7 +4406,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>32</v>
       </c>
@@ -4281,7 +4426,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>33</v>
       </c>
@@ -4301,7 +4446,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>32</v>
       </c>
@@ -4321,7 +4466,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>32</v>
       </c>
@@ -4341,7 +4486,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>33</v>
       </c>
@@ -4361,37 +4506,88 @@
         <v>202</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
-      <c r="D41" s="1"/>
-    </row>
-    <row r="42" spans="1:6">
-      <c r="D42" s="1"/>
-    </row>
-    <row r="43" spans="1:6">
-      <c r="D43" s="1"/>
-    </row>
-    <row r="44" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="D41" s="1">
+        <v>41371</v>
+      </c>
+      <c r="E41" s="26">
+        <v>8</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="D42" s="1">
+        <v>41366</v>
+      </c>
+      <c r="E42" s="26">
+        <v>10</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="D43" s="1">
+        <v>41370</v>
+      </c>
+      <c r="E43" s="26">
+        <v>9</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D44" s="1"/>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D45" s="1"/>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D46" s="1"/>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D47" s="1"/>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D48" s="1"/>
     </row>
-    <row r="49" spans="4:4">
+    <row r="49" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D49" s="1"/>
     </row>
-    <row r="50" spans="4:4">
+    <row r="50" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D50" s="1"/>
     </row>
-    <row r="51" spans="4:4">
+    <row r="51" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D51" s="1"/>
     </row>
   </sheetData>
@@ -4412,7 +4608,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -4429,18 +4625,18 @@
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="36.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="71.6640625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="11.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.83203125" style="26"/>
-    <col min="6" max="6" width="24.5" style="3" customWidth="1"/>
-    <col min="9" max="9" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="71.7109375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.85546875" style="26"/>
+    <col min="6" max="6" width="24.42578125" style="3" customWidth="1"/>
+    <col min="9" max="9" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" thickBot="1">
+    <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>37</v>
       </c>
@@ -4467,7 +4663,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>32</v>
       </c>
@@ -4495,7 +4691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>33</v>
       </c>
@@ -4523,7 +4719,7 @@
         <v>11.5</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>33</v>
       </c>
@@ -4551,7 +4747,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="15" thickBot="1">
+    <row r="5" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>33</v>
       </c>
@@ -4579,7 +4775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15" thickBot="1">
+    <row r="6" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>33</v>
       </c>
@@ -4607,7 +4803,7 @@
         <v>29.5</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>33</v>
       </c>
@@ -4627,7 +4823,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>33</v>
       </c>
@@ -4647,7 +4843,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>32</v>
       </c>
@@ -4667,13 +4863,13 @@
         <v>192</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D10" s="24"/>
     </row>
-    <row r="11" spans="1:10" ht="15" thickBot="1">
+    <row r="11" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D11" s="24"/>
     </row>
-    <row r="12" spans="1:10" ht="15" thickBot="1">
+    <row r="12" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D12" s="24"/>
       <c r="H12" s="34" t="s">
         <v>5</v>
@@ -4682,7 +4878,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D13" s="24"/>
       <c r="H13" s="35" t="s">
         <v>32</v>
@@ -4692,7 +4888,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D14" s="24"/>
       <c r="H14" s="35" t="s">
         <v>6</v>
@@ -4702,7 +4898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15" thickBot="1">
+    <row r="15" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D15" s="24"/>
       <c r="H15" s="35" t="s">
         <v>33</v>
@@ -4712,45 +4908,45 @@
         <v>22.5</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D16" s="24"/>
       <c r="H16" s="36"/>
       <c r="I16" s="36"/>
     </row>
-    <row r="17" spans="4:4">
+    <row r="17" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D17" s="24"/>
     </row>
-    <row r="18" spans="4:4">
+    <row r="18" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D18" s="24"/>
     </row>
-    <row r="19" spans="4:4">
+    <row r="19" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D19" s="24"/>
     </row>
-    <row r="20" spans="4:4">
+    <row r="20" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D20" s="24"/>
     </row>
-    <row r="21" spans="4:4">
+    <row r="21" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D21" s="24"/>
     </row>
-    <row r="22" spans="4:4">
+    <row r="22" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D22" s="24"/>
     </row>
-    <row r="23" spans="4:4">
+    <row r="23" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D23" s="24"/>
     </row>
-    <row r="24" spans="4:4">
+    <row r="24" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D24" s="24"/>
     </row>
-    <row r="25" spans="4:4">
+    <row r="25" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D25" s="24"/>
     </row>
-    <row r="26" spans="4:4">
+    <row r="26" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D26" s="24"/>
     </row>
-    <row r="27" spans="4:4">
+    <row r="27" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D27" s="24"/>
     </row>
-    <row r="28" spans="4:4">
+    <row r="28" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D28" s="24"/>
     </row>
   </sheetData>
@@ -4784,21 +4980,21 @@
   <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.5" style="3" customWidth="1"/>
-    <col min="2" max="2" width="21.33203125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="71.6640625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="10.83203125" style="3"/>
-    <col min="5" max="5" width="10.83203125" style="37"/>
-    <col min="6" max="6" width="24.5" style="3" customWidth="1"/>
-    <col min="9" max="9" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.42578125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="27.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="71.7109375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" style="3"/>
+    <col min="5" max="5" width="10.85546875" style="37"/>
+    <col min="6" max="6" width="24.42578125" style="3" customWidth="1"/>
+    <col min="9" max="9" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" thickBot="1">
+    <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>37</v>
       </c>
@@ -4825,7 +5021,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>33</v>
       </c>
@@ -4853,8 +5049,25 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
-      <c r="D3" s="1"/>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="D3" s="1">
+        <v>41368</v>
+      </c>
+      <c r="E3" s="37">
+        <v>8</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>203</v>
+      </c>
       <c r="H3" s="68" t="s">
         <v>50</v>
       </c>
@@ -4864,19 +5077,53 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
-      <c r="D4" s="1"/>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="D4" s="1">
+        <v>41368</v>
+      </c>
+      <c r="E4" s="37">
+        <v>8</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>203</v>
+      </c>
       <c r="H4" s="68" t="s">
         <v>51</v>
       </c>
       <c r="I4" s="69"/>
       <c r="J4" s="35">
         <f>SUMIF(B:B,H4,E:E)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="15" thickBot="1">
-      <c r="D5" s="1"/>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="D5" s="1">
+        <v>41371</v>
+      </c>
+      <c r="E5" s="37">
+        <v>8</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>204</v>
+      </c>
       <c r="H5" s="70" t="s">
         <v>52</v>
       </c>
@@ -4886,7 +5133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15" thickBot="1">
+    <row r="6" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D6" s="1"/>
       <c r="H6" s="61" t="s">
         <v>16</v>
@@ -4894,25 +5141,25 @@
       <c r="I6" s="62"/>
       <c r="J6" s="7">
         <f>SUM(J2:J5)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D7" s="1"/>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D8" s="24"/>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D9" s="1"/>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D10" s="1"/>
     </row>
-    <row r="11" spans="1:10" ht="15" thickBot="1">
+    <row r="11" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D11" s="1"/>
     </row>
-    <row r="12" spans="1:10" ht="15" thickBot="1">
+    <row r="12" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D12" s="1"/>
       <c r="H12" s="34" t="s">
         <v>5</v>
@@ -4921,7 +5168,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D13" s="1"/>
       <c r="H13" s="35" t="s">
         <v>32</v>
@@ -4931,35 +5178,35 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D14" s="1"/>
       <c r="H14" s="35" t="s">
         <v>6</v>
       </c>
       <c r="I14" s="35">
         <f>SUMIF(A:A,H14,E:E)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="15" thickBot="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D15" s="1"/>
       <c r="H15" s="35" t="s">
         <v>33</v>
       </c>
       <c r="I15" s="35">
         <f>SUMIF(A:A,H15,E:E)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D16" s="1"/>
       <c r="H16" s="36"/>
       <c r="I16" s="36"/>
     </row>
-    <row r="17" spans="4:4">
+    <row r="17" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D17" s="1"/>
     </row>
-    <row r="18" spans="4:4">
+    <row r="18" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D18" s="1"/>
     </row>
   </sheetData>
@@ -4980,6 +5227,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/Dokumentation/Noctua_Zeitaufzeichnung.xlsx
+++ b/Dokumentation/Noctua_Zeitaufzeichnung.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="17480"/>
   </bookViews>
   <sheets>
     <sheet name="Gesamtstatus" sheetId="4" r:id="rId1"/>
@@ -14,7 +14,7 @@
     <sheet name="Marktzustandserkennung" sheetId="7" r:id="rId5"/>
     <sheet name="Testing_Abschluss" sheetId="8" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="145621" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="593" uniqueCount="245">
   <si>
     <t>Arbeitspaket</t>
   </si>
@@ -675,6 +675,90 @@
   </si>
   <si>
     <t>TMA v1</t>
+  </si>
+  <si>
+    <t>Initial AMA korrekt</t>
+  </si>
+  <si>
+    <t>RSI</t>
+  </si>
+  <si>
+    <t>RSI testen, ADX testn</t>
+  </si>
+  <si>
+    <t>Performanceoptimierung</t>
+  </si>
+  <si>
+    <t>stärkere AMA Signale, Signal smoothing</t>
+  </si>
+  <si>
+    <t>Signal smoothing, Cut loss</t>
+  </si>
+  <si>
+    <t>Index matching</t>
+  </si>
+  <si>
+    <t>Matching Algorithmus</t>
+  </si>
+  <si>
+    <t>smoothed Signals und cut loss im Algorithmus</t>
+  </si>
+  <si>
+    <t>RSI Interpreter</t>
+  </si>
+  <si>
+    <t>Signale bis 3</t>
+  </si>
+  <si>
+    <t>Neuer Algo.</t>
+  </si>
+  <si>
+    <t>Projekthandbuch</t>
+  </si>
+  <si>
+    <t>Allgemeine Kursbewegungen, Trendphasen, Investopedia...</t>
+  </si>
+  <si>
+    <t>Wissen</t>
+  </si>
+  <si>
+    <t>ADX, Vortex, Aroon</t>
+  </si>
+  <si>
+    <t>Ausgabe über MZ-Erkennung, Performancedaten</t>
+  </si>
+  <si>
+    <t>Performancedaten überarbeitet</t>
+  </si>
+  <si>
+    <t>Optimierte Performancedate</t>
+  </si>
+  <si>
+    <t>Systemtesting durchgeführt</t>
+  </si>
+  <si>
+    <t>Systemtest</t>
+  </si>
+  <si>
+    <t>Unittests</t>
+  </si>
+  <si>
+    <t>Unit Tests</t>
+  </si>
+  <si>
+    <t>Systemtest fertiggestellt</t>
+  </si>
+  <si>
+    <t>Marktzustandsergebnisse validieren</t>
+  </si>
+  <si>
+    <t>validierte Zustandserkennung</t>
+  </si>
+  <si>
+    <t>AMA Testing, Exponent, stärkere Signale validieren</t>
+  </si>
+  <si>
+    <t>Trendphasen getestet</t>
   </si>
 </sst>
 </file>
@@ -936,8 +1020,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="55">
+  <cellStyleXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1109,61 +1203,71 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="55">
-    <cellStyle name="Besuchter Hyperlink" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="20" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="22" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="24" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="26" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="28" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="30" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="32" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="34" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="36" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="38" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="40" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="42" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="44" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="46" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="48" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="50" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="52" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="54" builtinId="9" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
+  <cellStyles count="65">
+    <cellStyle name="Besuchter Link" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Link" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="63" builtinId="8" hidden="1"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1184,7 +1288,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="de-AT"/>
+  <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1280,10 +1384,10 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1299,12 +1403,12 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:shape val="box"/>
-        <c:axId val="177004928"/>
-        <c:axId val="177006464"/>
+        <c:axId val="2067364040"/>
+        <c:axId val="2067364776"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="177004928"/>
+        <c:axId val="2067364040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1313,7 +1417,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="177006464"/>
+        <c:crossAx val="2067364776"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1321,7 +1425,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="177006464"/>
+        <c:axId val="2067364776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1337,7 +1441,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="177004928"/>
+        <c:crossAx val="2067364040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1351,7 +1455,7 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.787401575" l="0.7" r="0.7" t="0.787401575" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1360,7 +1464,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="de-AT"/>
+  <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1448,10 +1552,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>98.5</c:v>
+                  <c:v>158.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>145</c:v>
+                  <c:v>165.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>173.5</c:v>
@@ -1470,12 +1574,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="185550720"/>
-        <c:axId val="185552256"/>
+        <c:axId val="2067391032"/>
+        <c:axId val="2067394040"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="185550720"/>
+        <c:axId val="2067391032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1484,7 +1588,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="185552256"/>
+        <c:crossAx val="2067394040"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1492,7 +1596,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="185552256"/>
+        <c:axId val="2067394040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1503,7 +1607,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="185550720"/>
+        <c:crossAx val="2067391032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1514,7 +1618,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.787401575" l="0.7" r="0.7" t="0.787401575" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1874,17 +1978,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="34.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18">
       <c r="A1" s="53"/>
       <c r="B1" s="55" t="s">
         <v>28</v>
@@ -1898,7 +2002,7 @@
       <c r="G1" s="12"/>
       <c r="R1" s="8"/>
     </row>
-    <row r="2" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" ht="15" thickBot="1">
       <c r="A2" s="54"/>
       <c r="B2" s="56"/>
       <c r="C2" s="13" t="s">
@@ -1911,17 +2015,16 @@
       <c r="F2" s="12"/>
       <c r="G2" s="12"/>
     </row>
-    <row r="3" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" ht="15" thickBot="1">
       <c r="A3" s="15" t="s">
         <v>36</v>
       </c>
       <c r="B3" s="7">
         <f>SUM(B6,B12,B27)</f>
-        <v>180.5</v>
+        <v>211</v>
       </c>
       <c r="C3" s="27">
-        <f>AVERAGE(C6,C12,C17,C22,C27)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3" s="28">
         <v>1</v>
@@ -1930,7 +2033,7 @@
       <c r="F3" s="12"/>
       <c r="G3" s="12"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18">
       <c r="A4" s="50"/>
       <c r="B4" s="55"/>
       <c r="C4" s="57" t="s">
@@ -1941,7 +2044,7 @@
       <c r="F4" s="12"/>
       <c r="G4" s="12"/>
     </row>
-    <row r="5" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" ht="15" thickBot="1">
       <c r="A5" s="54"/>
       <c r="B5" s="56"/>
       <c r="C5" s="59"/>
@@ -1950,17 +2053,16 @@
       <c r="F5" s="12"/>
       <c r="G5" s="12"/>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18">
       <c r="A6" s="16" t="s">
         <v>13</v>
       </c>
       <c r="B6" s="17">
         <f>Projektmanagment!J7</f>
-        <v>26</v>
+        <v>30.5</v>
       </c>
       <c r="C6" s="29">
-        <f>SUM(C7:C11)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6" s="30">
         <v>1</v>
@@ -1969,7 +2071,7 @@
       <c r="F6" s="12"/>
       <c r="G6" s="12"/>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18">
       <c r="A7" s="18" t="s">
         <v>18</v>
       </c>
@@ -1978,46 +2080,46 @@
         <v>9</v>
       </c>
       <c r="C7" s="31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" s="32"/>
       <c r="E7" s="12"/>
       <c r="F7" s="12"/>
       <c r="G7" s="12"/>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18">
       <c r="A8" s="18" t="s">
         <v>17</v>
       </c>
       <c r="B8" s="19">
         <f>Projektmanagment!J3</f>
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C8" s="31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8" s="32"/>
       <c r="E8" s="12"/>
       <c r="F8" s="12"/>
       <c r="G8" s="12"/>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18">
       <c r="A9" s="18" t="s">
         <v>19</v>
       </c>
       <c r="B9" s="19">
         <f>Projektmanagment!J4</f>
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="C9" s="31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9" s="32"/>
       <c r="E9" s="12"/>
       <c r="F9" s="12"/>
       <c r="G9" s="12"/>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18">
       <c r="A10" s="18" t="s">
         <v>20</v>
       </c>
@@ -2026,14 +2128,14 @@
         <v>3</v>
       </c>
       <c r="C10" s="31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10" s="32"/>
       <c r="E10" s="12"/>
       <c r="F10" s="12"/>
       <c r="G10" s="12"/>
     </row>
-    <row r="11" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18" ht="15" thickBot="1">
       <c r="A11" s="20" t="s">
         <v>21</v>
       </c>
@@ -2042,24 +2144,23 @@
         <v>3</v>
       </c>
       <c r="C11" s="31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D11" s="28"/>
       <c r="E11" s="12"/>
       <c r="F11" s="12"/>
       <c r="G11" s="12"/>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18">
       <c r="A12" s="16" t="s">
         <v>54</v>
       </c>
       <c r="B12" s="17">
         <f>BacktestingSoftware!J6</f>
-        <v>128.5</v>
+        <v>145.5</v>
       </c>
       <c r="C12" s="29">
-        <f>SUM(C13:C16)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12" s="30">
         <v>1</v>
@@ -2068,7 +2169,7 @@
       <c r="F12" s="12"/>
       <c r="G12" s="12"/>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18">
       <c r="A13" s="18" t="s">
         <v>53</v>
       </c>
@@ -2077,14 +2178,14 @@
         <v>20</v>
       </c>
       <c r="C13" s="31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D13" s="32"/>
       <c r="E13" s="12"/>
       <c r="F13" s="12"/>
       <c r="G13" s="12"/>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18">
       <c r="A14" s="18" t="s">
         <v>55</v>
       </c>
@@ -2093,14 +2194,14 @@
         <v>35.5</v>
       </c>
       <c r="C14" s="31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14" s="32"/>
       <c r="E14" s="12"/>
       <c r="F14" s="12"/>
       <c r="G14" s="12"/>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18">
       <c r="A15" s="18" t="s">
         <v>56</v>
       </c>
@@ -2109,43 +2210,42 @@
         <v>26</v>
       </c>
       <c r="C15" s="31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D15" s="32"/>
       <c r="E15" s="12"/>
       <c r="F15" s="12"/>
       <c r="G15" s="12"/>
     </row>
-    <row r="16" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:18" ht="15" thickBot="1">
       <c r="A16" s="18" t="s">
         <v>57</v>
       </c>
       <c r="B16" s="19">
         <f>BacktestingSoftware!J5</f>
-        <v>47</v>
-      </c>
-      <c r="C16" s="31">
-        <v>0</v>
+        <v>64</v>
+      </c>
+      <c r="C16" s="40">
+        <v>1</v>
       </c>
       <c r="D16" s="32"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4">
       <c r="A17" s="16" t="s">
         <v>58</v>
       </c>
       <c r="B17" s="17">
         <f>Algorithmus!J6</f>
-        <v>205</v>
+        <v>239</v>
       </c>
       <c r="C17" s="29">
-        <f>SUM(C18:C21)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D17" s="30">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4">
       <c r="A18" s="18" t="s">
         <v>59</v>
       </c>
@@ -2154,11 +2254,11 @@
         <v>9.5</v>
       </c>
       <c r="C18" s="40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D18" s="32"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4">
       <c r="A19" s="18" t="s">
         <v>60</v>
       </c>
@@ -2167,66 +2267,65 @@
         <v>48.5</v>
       </c>
       <c r="C19" s="40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D19" s="32"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4">
       <c r="A20" s="18" t="s">
         <v>61</v>
       </c>
       <c r="B20" s="19">
         <f>Algorithmus!J4</f>
-        <v>91.5</v>
+        <v>110.5</v>
       </c>
       <c r="C20" s="40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D20" s="32"/>
     </row>
-    <row r="21" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" ht="15" thickBot="1">
       <c r="A21" s="18" t="s">
         <v>62</v>
       </c>
       <c r="B21" s="19">
         <f>Algorithmus!J5</f>
-        <v>55.5</v>
+        <v>70.5</v>
       </c>
       <c r="C21" s="40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D21" s="32"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4">
       <c r="A22" s="16" t="s">
         <v>63</v>
       </c>
       <c r="B22" s="17">
         <f>Marktzustandserkennung!J6</f>
-        <v>29.5</v>
+        <v>44.5</v>
       </c>
       <c r="C22" s="29">
-        <f>SUM(C23:C26)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D22" s="30">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4">
       <c r="A23" s="18" t="s">
         <v>59</v>
       </c>
       <c r="B23" s="19">
         <f>Marktzustandserkennung!J2</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C23" s="40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D23" s="32"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4">
       <c r="A24" s="18" t="s">
         <v>64</v>
       </c>
@@ -2235,11 +2334,11 @@
         <v>11.5</v>
       </c>
       <c r="C24" s="40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D24" s="32"/>
     </row>
-    <row r="25" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" ht="15" customHeight="1">
       <c r="A25" s="18" t="s">
         <v>65</v>
       </c>
@@ -2248,79 +2347,78 @@
         <v>18</v>
       </c>
       <c r="C25" s="40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D25" s="32"/>
     </row>
-    <row r="26" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" ht="15" thickBot="1">
       <c r="A26" s="18" t="s">
         <v>66</v>
       </c>
       <c r="B26" s="19">
         <f>Marktzustandserkennung!J5</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C26" s="40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D26" s="32"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4">
       <c r="A27" s="16" t="s">
         <v>14</v>
       </c>
       <c r="B27" s="17">
         <f>Testing_Abschluss!J6</f>
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="C27" s="29">
-        <f>SUM(C28:C31)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D27" s="30">
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" ht="15.75" customHeight="1">
       <c r="A28" s="18" t="s">
         <v>22</v>
       </c>
       <c r="B28" s="22">
         <f>Testing_Abschluss!J2</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C28" s="40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D28" s="32"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4">
       <c r="A29" s="18" t="s">
         <v>23</v>
       </c>
       <c r="B29" s="22">
         <f>Testing_Abschluss!J3</f>
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="C29" s="40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D29" s="32"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4">
       <c r="A30" s="18" t="s">
         <v>24</v>
       </c>
       <c r="B30" s="22">
         <f>Testing_Abschluss!J4</f>
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="C30" s="40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D30" s="32"/>
     </row>
-    <row r="31" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" ht="15" thickBot="1">
       <c r="A31" s="20" t="s">
         <v>25</v>
       </c>
@@ -2329,39 +2427,39 @@
         <v>0</v>
       </c>
       <c r="C31" s="27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D31" s="28"/>
     </row>
-    <row r="32" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="33" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" ht="15" thickBot="1"/>
+    <row r="33" spans="2:4" ht="15" thickBot="1">
       <c r="B33" s="10"/>
       <c r="C33" s="10"/>
       <c r="D33" s="11" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="34" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:4" ht="15" thickBot="1">
       <c r="B34" s="51" t="s">
         <v>34</v>
       </c>
       <c r="C34" s="52"/>
       <c r="D34" s="9">
         <f>SUM(Projektmanagment!I13,BacktestingSoftware!I13,Algorithmus!I13,Marktzustandserkennung!I13,Testing_Abschluss!I13)</f>
-        <v>98.5</v>
-      </c>
-    </row>
-    <row r="35" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" ht="15" thickBot="1">
       <c r="B35" s="45" t="s">
         <v>15</v>
       </c>
       <c r="C35" s="46"/>
       <c r="D35" s="9">
         <f>SUM(Projektmanagment!I14,BacktestingSoftware!I14,Algorithmus!I14,Marktzustandserkennung!I14,Testing_Abschluss!I14)</f>
-        <v>145</v>
-      </c>
-    </row>
-    <row r="36" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" ht="15" thickBot="1">
       <c r="B36" s="47" t="s">
         <v>35</v>
       </c>
@@ -2398,21 +2496,21 @@
   <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="13.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.28515625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="71.7109375" style="3" customWidth="1"/>
-    <col min="4" max="4" width="10.85546875" style="3"/>
-    <col min="5" max="5" width="10.85546875" style="26"/>
+    <col min="1" max="1" width="13.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.33203125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="71.6640625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="10.83203125" style="3"/>
+    <col min="5" max="5" width="10.83203125" style="26"/>
     <col min="6" max="6" width="28" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="15" thickBot="1">
       <c r="A1" s="3" t="s">
         <v>37</v>
       </c>
@@ -2439,7 +2537,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10">
       <c r="A2" s="3" t="s">
         <v>32</v>
       </c>
@@ -2467,7 +2565,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10">
       <c r="A3" s="3" t="s">
         <v>32</v>
       </c>
@@ -2492,10 +2590,10 @@
       <c r="I3" s="65"/>
       <c r="J3" s="4">
         <f>SUMIF(B:B,H3,E:E)</f>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="3" t="s">
         <v>32</v>
       </c>
@@ -2520,10 +2618,10 @@
       <c r="I4" s="65"/>
       <c r="J4" s="4">
         <f>SUMIF(B:B,H4,E:E)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="3" t="s">
         <v>32</v>
       </c>
@@ -2551,7 +2649,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" ht="15" thickBot="1">
       <c r="A6" s="3" t="s">
         <v>32</v>
       </c>
@@ -2579,7 +2677,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" ht="15" thickBot="1">
       <c r="A7" s="3" t="s">
         <v>32</v>
       </c>
@@ -2604,10 +2702,10 @@
       <c r="I7" s="62"/>
       <c r="J7" s="7">
         <f>SUM(J2:J6)</f>
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+        <v>30.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="3" t="s">
         <v>32</v>
       </c>
@@ -2627,7 +2725,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10">
       <c r="A9" s="3" t="s">
         <v>32</v>
       </c>
@@ -2647,7 +2745,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10">
       <c r="A10" s="3" t="s">
         <v>33</v>
       </c>
@@ -2667,7 +2765,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" ht="15" thickBot="1">
       <c r="A11" s="3" t="s">
         <v>33</v>
       </c>
@@ -2687,7 +2785,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" ht="15" thickBot="1">
       <c r="A12" s="3" t="s">
         <v>6</v>
       </c>
@@ -2713,7 +2811,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10">
       <c r="A13" s="3" t="s">
         <v>33</v>
       </c>
@@ -2737,10 +2835,10 @@
       </c>
       <c r="I13" s="4">
         <f>SUMIF(A:A,H13,E:E)</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+        <v>20.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="3" t="s">
         <v>32</v>
       </c>
@@ -2767,18 +2865,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" ht="15" thickBot="1">
       <c r="A15" s="3" t="s">
         <v>32</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>68</v>
       </c>
       <c r="D15" s="1">
-        <v>41373</v>
+        <v>41244</v>
       </c>
       <c r="E15" s="26">
         <v>6</v>
@@ -2794,15 +2892,32 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D16" s="1"/>
+    <row r="16" spans="1:10">
+      <c r="A16" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D16" s="1">
+        <v>41374</v>
+      </c>
+      <c r="E16" s="26">
+        <v>4.5</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>229</v>
+      </c>
       <c r="H16" s="36"/>
       <c r="I16" s="36"/>
     </row>
-    <row r="17" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:4">
       <c r="D17" s="1"/>
     </row>
-    <row r="18" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="4:4">
       <c r="D18" s="1"/>
     </row>
   </sheetData>
@@ -2824,7 +2939,6 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -2835,24 +2949,24 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J33"/>
+  <dimension ref="A1:J35"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="13.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.28515625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="66.28515625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="10.85546875" style="3"/>
-    <col min="5" max="5" width="10.85546875" style="26"/>
-    <col min="6" max="6" width="24.42578125" style="3" customWidth="1"/>
-    <col min="9" max="9" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.33203125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="66.33203125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="10.83203125" style="3"/>
+    <col min="5" max="5" width="10.83203125" style="26"/>
+    <col min="6" max="6" width="24.5" style="3" customWidth="1"/>
+    <col min="9" max="9" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="15" thickBot="1">
       <c r="A1" s="3" t="s">
         <v>37</v>
       </c>
@@ -2879,7 +2993,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10">
       <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
@@ -2907,7 +3021,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10">
       <c r="A3" s="3" t="s">
         <v>33</v>
       </c>
@@ -2935,7 +3049,7 @@
         <v>35.5</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
@@ -2963,7 +3077,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" ht="15" thickBot="1">
       <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
@@ -2988,10 +3102,10 @@
       <c r="I5" s="65"/>
       <c r="J5" s="35">
         <f>SUMIF(B:B,H5,E:E)</f>
-        <v>47</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="15" thickBot="1">
       <c r="A6" s="3" t="s">
         <v>6</v>
       </c>
@@ -3016,10 +3130,10 @@
       <c r="I6" s="62"/>
       <c r="J6" s="7">
         <f>SUM(J2:J5)</f>
-        <v>128.5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+        <v>145.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="3" t="s">
         <v>33</v>
       </c>
@@ -3039,7 +3153,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10">
       <c r="A8" s="3" t="s">
         <v>33</v>
       </c>
@@ -3059,7 +3173,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10">
       <c r="A9" s="3" t="s">
         <v>32</v>
       </c>
@@ -3079,7 +3193,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10">
       <c r="A10" s="3" t="s">
         <v>32</v>
       </c>
@@ -3096,7 +3210,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" ht="15" thickBot="1">
       <c r="A11" s="3" t="s">
         <v>6</v>
       </c>
@@ -3116,7 +3230,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" ht="15" thickBot="1">
       <c r="A12" s="3" t="s">
         <v>32</v>
       </c>
@@ -3142,7 +3256,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10">
       <c r="A13" s="3" t="s">
         <v>6</v>
       </c>
@@ -3169,7 +3283,7 @@
         <v>11.5</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10">
       <c r="A14" s="3" t="s">
         <v>33</v>
       </c>
@@ -3193,10 +3307,10 @@
       </c>
       <c r="I14" s="35">
         <f>SUMIF(A:A,H14,E:E)</f>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="15" thickBot="1">
       <c r="A15" s="3" t="s">
         <v>6</v>
       </c>
@@ -3223,7 +3337,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10">
       <c r="A16" s="3" t="s">
         <v>33</v>
       </c>
@@ -3245,7 +3359,7 @@
       <c r="H16" s="36"/>
       <c r="I16" s="36"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6">
       <c r="A17" s="3" t="s">
         <v>6</v>
       </c>
@@ -3265,7 +3379,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6">
       <c r="A18" s="3" t="s">
         <v>6</v>
       </c>
@@ -3285,7 +3399,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6">
       <c r="A19" s="3" t="s">
         <v>6</v>
       </c>
@@ -3305,7 +3419,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6">
       <c r="A20" s="3" t="s">
         <v>6</v>
       </c>
@@ -3325,7 +3439,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6">
       <c r="A21" s="3" t="s">
         <v>6</v>
       </c>
@@ -3345,7 +3459,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6">
       <c r="A22" s="3" t="s">
         <v>6</v>
       </c>
@@ -3365,7 +3479,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6">
       <c r="A23" s="3" t="s">
         <v>6</v>
       </c>
@@ -3385,7 +3499,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6">
       <c r="A24" s="3" t="s">
         <v>32</v>
       </c>
@@ -3405,7 +3519,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6">
       <c r="A25" s="3" t="s">
         <v>6</v>
       </c>
@@ -3425,7 +3539,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6">
       <c r="A26" s="3" t="s">
         <v>32</v>
       </c>
@@ -3445,7 +3559,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6">
       <c r="A27" s="3" t="s">
         <v>6</v>
       </c>
@@ -3465,7 +3579,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6">
       <c r="A28" s="3" t="s">
         <v>6</v>
       </c>
@@ -3485,7 +3599,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6">
       <c r="A29" s="3" t="s">
         <v>6</v>
       </c>
@@ -3505,7 +3619,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6">
       <c r="A30" s="3" t="s">
         <v>6</v>
       </c>
@@ -3525,7 +3639,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6">
       <c r="A31" s="3" t="s">
         <v>6</v>
       </c>
@@ -3545,7 +3659,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6">
       <c r="A32" s="3" t="s">
         <v>6</v>
       </c>
@@ -3565,7 +3679,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6">
       <c r="A33" s="3" t="s">
         <v>6</v>
       </c>
@@ -3583,6 +3697,46 @@
       </c>
       <c r="F33" s="3" t="s">
         <v>182</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="D34" s="1">
+        <v>41272</v>
+      </c>
+      <c r="E34" s="26">
+        <v>8</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="D35" s="1">
+        <v>41393</v>
+      </c>
+      <c r="E35" s="26">
+        <v>9</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>235</v>
       </c>
     </row>
   </sheetData>
@@ -3603,6 +3757,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -3615,22 +3770,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J51"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="E43" sqref="E43"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C51" sqref="C51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="13.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="35.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="56.42578125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="10.85546875" style="3"/>
-    <col min="5" max="5" width="10.85546875" style="26"/>
-    <col min="6" max="6" width="43.42578125" style="3" customWidth="1"/>
-    <col min="9" max="9" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="56.5" style="3" customWidth="1"/>
+    <col min="4" max="4" width="10.83203125" style="3"/>
+    <col min="5" max="5" width="10.83203125" style="26"/>
+    <col min="6" max="6" width="43.5" style="3" customWidth="1"/>
+    <col min="9" max="9" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="15" thickBot="1">
       <c r="A1" s="3" t="s">
         <v>37</v>
       </c>
@@ -3657,7 +3812,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10">
       <c r="A2" s="3" t="s">
         <v>33</v>
       </c>
@@ -3685,7 +3840,7 @@
         <v>9.5</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10">
       <c r="A3" s="3" t="s">
         <v>33</v>
       </c>
@@ -3713,7 +3868,7 @@
         <v>48.5</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10">
       <c r="A4" s="3" t="s">
         <v>33</v>
       </c>
@@ -3738,10 +3893,10 @@
       <c r="I4" s="65"/>
       <c r="J4" s="35">
         <f>SUMIF(B:B,H4,E:E)</f>
-        <v>91.5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>110.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="15" thickBot="1">
       <c r="A5" s="3" t="s">
         <v>33</v>
       </c>
@@ -3766,10 +3921,10 @@
       <c r="I5" s="65"/>
       <c r="J5" s="35">
         <f>SUMIF(B:B,H5,E:E)</f>
-        <v>55.5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>70.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="15" thickBot="1">
       <c r="A6" s="3" t="s">
         <v>33</v>
       </c>
@@ -3794,10 +3949,10 @@
       <c r="I6" s="62"/>
       <c r="J6" s="7">
         <f>SUM(J2:J5)</f>
-        <v>205</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="3" t="s">
         <v>33</v>
       </c>
@@ -3817,7 +3972,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10">
       <c r="A8" s="3" t="s">
         <v>33</v>
       </c>
@@ -3837,7 +3992,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10">
       <c r="A9" s="3" t="s">
         <v>33</v>
       </c>
@@ -3857,7 +4012,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10">
       <c r="A10" s="3" t="s">
         <v>33</v>
       </c>
@@ -3877,7 +4032,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" ht="15" thickBot="1">
       <c r="A11" s="3" t="s">
         <v>33</v>
       </c>
@@ -3897,7 +4052,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" ht="15" thickBot="1">
       <c r="A12" s="3" t="s">
         <v>33</v>
       </c>
@@ -3923,7 +4078,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10">
       <c r="A13" s="3" t="s">
         <v>33</v>
       </c>
@@ -3947,10 +4102,10 @@
       </c>
       <c r="I13" s="35">
         <f>SUMIF(A:A,H13,E:E)</f>
-        <v>64</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="3" t="s">
         <v>32</v>
       </c>
@@ -3977,7 +4132,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" ht="15" thickBot="1">
       <c r="A15" s="3" t="s">
         <v>32</v>
       </c>
@@ -4004,7 +4159,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10">
       <c r="A16" s="3" t="s">
         <v>32</v>
       </c>
@@ -4026,7 +4181,7 @@
       <c r="H16" s="36"/>
       <c r="I16" s="36"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6">
       <c r="A17" s="3" t="s">
         <v>33</v>
       </c>
@@ -4046,7 +4201,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6">
       <c r="A18" s="3" t="s">
         <v>32</v>
       </c>
@@ -4066,7 +4221,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6">
       <c r="A19" s="3" t="s">
         <v>32</v>
       </c>
@@ -4086,7 +4241,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6">
       <c r="A20" s="3" t="s">
         <v>32</v>
       </c>
@@ -4106,7 +4261,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6">
       <c r="A21" s="3" t="s">
         <v>32</v>
       </c>
@@ -4126,7 +4281,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6">
       <c r="A22" s="41" t="s">
         <v>33</v>
       </c>
@@ -4146,7 +4301,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6">
       <c r="A23" s="3" t="s">
         <v>32</v>
       </c>
@@ -4166,7 +4321,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6">
       <c r="A24" s="3" t="s">
         <v>33</v>
       </c>
@@ -4186,7 +4341,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6">
       <c r="A25" s="3" t="s">
         <v>33</v>
       </c>
@@ -4206,7 +4361,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6">
       <c r="A26" s="3" t="s">
         <v>6</v>
       </c>
@@ -4226,7 +4381,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6">
       <c r="A27" s="3" t="s">
         <v>33</v>
       </c>
@@ -4246,7 +4401,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6">
       <c r="A28" s="3" t="s">
         <v>6</v>
       </c>
@@ -4266,7 +4421,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6">
       <c r="A29" s="3" t="s">
         <v>33</v>
       </c>
@@ -4286,7 +4441,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6">
       <c r="A30" s="3" t="s">
         <v>32</v>
       </c>
@@ -4306,7 +4461,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6">
       <c r="A31" s="3" t="s">
         <v>32</v>
       </c>
@@ -4326,7 +4481,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6">
       <c r="A32" s="3" t="s">
         <v>32</v>
       </c>
@@ -4346,7 +4501,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6">
       <c r="A33" s="3" t="s">
         <v>32</v>
       </c>
@@ -4366,7 +4521,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6">
       <c r="A34" s="3" t="s">
         <v>32</v>
       </c>
@@ -4386,7 +4541,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6">
       <c r="A35" s="3" t="s">
         <v>32</v>
       </c>
@@ -4406,7 +4561,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6">
       <c r="A36" s="3" t="s">
         <v>32</v>
       </c>
@@ -4426,7 +4581,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6">
       <c r="A37" s="3" t="s">
         <v>33</v>
       </c>
@@ -4446,7 +4601,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6">
       <c r="A38" s="3" t="s">
         <v>32</v>
       </c>
@@ -4466,7 +4621,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6">
       <c r="A39" s="3" t="s">
         <v>32</v>
       </c>
@@ -4486,7 +4641,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6">
       <c r="A40" s="3" t="s">
         <v>33</v>
       </c>
@@ -4506,7 +4661,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6">
       <c r="A41" s="3" t="s">
         <v>33</v>
       </c>
@@ -4526,7 +4681,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6">
       <c r="A42" s="3" t="s">
         <v>6</v>
       </c>
@@ -4546,7 +4701,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6">
       <c r="A43" s="3" t="s">
         <v>6</v>
       </c>
@@ -4566,28 +4721,147 @@
         <v>216</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D44" s="1"/>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D45" s="1"/>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D46" s="1"/>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D47" s="1"/>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D48" s="1"/>
-    </row>
-    <row r="49" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D49" s="1"/>
-    </row>
-    <row r="50" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D50" s="1"/>
-    </row>
-    <row r="51" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6">
+      <c r="A44" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="D44" s="1">
+        <v>41367</v>
+      </c>
+      <c r="E44" s="26">
+        <v>5</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="D45" s="1">
+        <v>41368</v>
+      </c>
+      <c r="E45" s="26">
+        <v>4</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="D46" s="1">
+        <v>41369</v>
+      </c>
+      <c r="E46" s="26">
+        <v>4</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="D47" s="1">
+        <v>41370</v>
+      </c>
+      <c r="E47" s="26">
+        <v>6</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="D48" s="1">
+        <v>41372</v>
+      </c>
+      <c r="E48" s="26">
+        <v>4</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="D49" s="1">
+        <v>41373</v>
+      </c>
+      <c r="E49" s="26">
+        <v>2</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="D50" s="1">
+        <v>41371</v>
+      </c>
+      <c r="E50" s="26">
+        <v>9</v>
+      </c>
+      <c r="F50" s="3" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="D51" s="1"/>
     </row>
   </sheetData>
@@ -4608,7 +4882,6 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -4622,21 +4895,21 @@
   <dimension ref="A1:J28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="13.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="36.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="71.7109375" style="3" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.85546875" style="26"/>
-    <col min="6" max="6" width="24.42578125" style="3" customWidth="1"/>
-    <col min="9" max="9" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="71.6640625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="11.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.83203125" style="26"/>
+    <col min="6" max="6" width="24.5" style="3" customWidth="1"/>
+    <col min="9" max="9" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="15" thickBot="1">
       <c r="A1" s="3" t="s">
         <v>37</v>
       </c>
@@ -4663,7 +4936,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10">
       <c r="A2" s="3" t="s">
         <v>32</v>
       </c>
@@ -4688,10 +4961,10 @@
       <c r="I2" s="65"/>
       <c r="J2" s="35">
         <f>SUMIF(B:B,H2,E:E)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="3" t="s">
         <v>33</v>
       </c>
@@ -4719,7 +4992,7 @@
         <v>11.5</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10">
       <c r="A4" s="3" t="s">
         <v>33</v>
       </c>
@@ -4747,7 +5020,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" ht="15" thickBot="1">
       <c r="A5" s="3" t="s">
         <v>33</v>
       </c>
@@ -4772,10 +5045,10 @@
       <c r="I5" s="65"/>
       <c r="J5" s="35">
         <f>SUMIF(B:B,H5,E:E)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="15" thickBot="1">
       <c r="A6" s="3" t="s">
         <v>33</v>
       </c>
@@ -4800,10 +5073,10 @@
       <c r="I6" s="62"/>
       <c r="J6" s="7">
         <f>SUM(J2:J5)</f>
-        <v>29.5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+        <v>44.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="3" t="s">
         <v>33</v>
       </c>
@@ -4823,7 +5096,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10">
       <c r="A8" s="3" t="s">
         <v>33</v>
       </c>
@@ -4843,7 +5116,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10">
       <c r="A9" s="3" t="s">
         <v>32</v>
       </c>
@@ -4863,14 +5136,65 @@
         <v>192</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D10" s="24"/>
-    </row>
-    <row r="11" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D11" s="24"/>
-    </row>
-    <row r="12" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D12" s="24"/>
+    <row r="10" spans="1:10">
+      <c r="A10" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="D10" s="24">
+        <v>41249</v>
+      </c>
+      <c r="E10" s="26">
+        <v>3</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="15" thickBot="1">
+      <c r="A11" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="D11" s="24">
+        <v>41615</v>
+      </c>
+      <c r="E11" s="26">
+        <v>4</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="15" thickBot="1">
+      <c r="A12" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="D12" s="24">
+        <v>41007</v>
+      </c>
+      <c r="E12" s="26">
+        <v>3</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>233</v>
+      </c>
       <c r="H12" s="34" t="s">
         <v>5</v>
       </c>
@@ -4878,17 +5202,34 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D13" s="24"/>
+    <row r="13" spans="1:10">
+      <c r="A13" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="D13" s="24">
+        <v>41339</v>
+      </c>
+      <c r="E13" s="26">
+        <v>5</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>242</v>
+      </c>
       <c r="H13" s="35" t="s">
         <v>32</v>
       </c>
       <c r="I13" s="35">
         <f>SUMIF(A:A,H13,E:E)</f>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="D14" s="24"/>
       <c r="H14" s="35" t="s">
         <v>6</v>
@@ -4898,7 +5239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" ht="15" thickBot="1">
       <c r="D15" s="24"/>
       <c r="H15" s="35" t="s">
         <v>33</v>
@@ -4908,45 +5249,45 @@
         <v>22.5</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10">
       <c r="D16" s="24"/>
       <c r="H16" s="36"/>
       <c r="I16" s="36"/>
     </row>
-    <row r="17" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:4">
       <c r="D17" s="24"/>
     </row>
-    <row r="18" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="4:4">
       <c r="D18" s="24"/>
     </row>
-    <row r="19" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="4:4">
       <c r="D19" s="24"/>
     </row>
-    <row r="20" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="4:4">
       <c r="D20" s="24"/>
     </row>
-    <row r="21" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="4:4">
       <c r="D21" s="24"/>
     </row>
-    <row r="22" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="4:4">
       <c r="D22" s="24"/>
     </row>
-    <row r="23" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="4:4">
       <c r="D23" s="24"/>
     </row>
-    <row r="24" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="4:4">
       <c r="D24" s="24"/>
     </row>
-    <row r="25" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="4:4">
       <c r="D25" s="24"/>
     </row>
-    <row r="26" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="4:4">
       <c r="D26" s="24"/>
     </row>
-    <row r="27" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="4:4">
       <c r="D27" s="24"/>
     </row>
-    <row r="28" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="4:4">
       <c r="D28" s="24"/>
     </row>
   </sheetData>
@@ -4980,21 +5321,21 @@
   <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="16.42578125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="27.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="71.7109375" style="3" customWidth="1"/>
-    <col min="4" max="4" width="10.85546875" style="3"/>
-    <col min="5" max="5" width="10.85546875" style="37"/>
-    <col min="6" max="6" width="24.42578125" style="3" customWidth="1"/>
-    <col min="9" max="9" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.5" style="3" customWidth="1"/>
+    <col min="2" max="2" width="27.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="71.6640625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="10.83203125" style="3"/>
+    <col min="5" max="5" width="10.83203125" style="37"/>
+    <col min="6" max="6" width="24.5" style="3" customWidth="1"/>
+    <col min="9" max="9" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="15" thickBot="1">
       <c r="A1" s="3" t="s">
         <v>37</v>
       </c>
@@ -5021,12 +5362,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10">
       <c r="A2" s="3" t="s">
         <v>33</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>177</v>
@@ -5046,18 +5387,18 @@
       <c r="I2" s="67"/>
       <c r="J2" s="35">
         <f>SUMIF(B:B,H2,E:E)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>170</v>
+        <v>236</v>
       </c>
       <c r="D3" s="1">
         <v>41368</v>
@@ -5066,7 +5407,7 @@
         <v>8</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>203</v>
+        <v>237</v>
       </c>
       <c r="H3" s="68" t="s">
         <v>50</v>
@@ -5074,10 +5415,10 @@
       <c r="I3" s="69"/>
       <c r="J3" s="35">
         <f>SUMIF(B:B,H3,E:E)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="3" t="s">
         <v>33</v>
       </c>
@@ -5102,10 +5443,10 @@
       <c r="I4" s="69"/>
       <c r="J4" s="35">
         <f>SUMIF(B:B,H4,E:E)</f>
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="15" thickBot="1">
       <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
@@ -5133,33 +5474,84 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D6" s="1"/>
+    <row r="6" spans="1:10" ht="15" thickBot="1">
+      <c r="A6" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="D6" s="1">
+        <v>41370</v>
+      </c>
+      <c r="E6" s="37">
+        <v>3</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>217</v>
+      </c>
       <c r="H6" s="61" t="s">
         <v>16</v>
       </c>
       <c r="I6" s="62"/>
       <c r="J6" s="7">
         <f>SUM(J2:J5)</f>
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D7" s="1"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D8" s="24"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="D7" s="1">
+        <v>41374</v>
+      </c>
+      <c r="E7" s="37">
+        <v>3</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="D8" s="24">
+        <v>41374</v>
+      </c>
+      <c r="E8" s="37">
+        <v>3</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="D9" s="1"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10">
       <c r="D10" s="1"/>
     </row>
-    <row r="11" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" ht="15" thickBot="1">
       <c r="D11" s="1"/>
     </row>
-    <row r="12" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" ht="15" thickBot="1">
       <c r="D12" s="1"/>
       <c r="H12" s="34" t="s">
         <v>5</v>
@@ -5168,27 +5560,27 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10">
       <c r="D13" s="1"/>
       <c r="H13" s="35" t="s">
         <v>32</v>
       </c>
       <c r="I13" s="35">
         <f>SUMIF(A:A,H13,E:E)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="D14" s="1"/>
       <c r="H14" s="35" t="s">
         <v>6</v>
       </c>
       <c r="I14" s="35">
         <f>SUMIF(A:A,H14,E:E)</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="15" thickBot="1">
       <c r="D15" s="1"/>
       <c r="H15" s="35" t="s">
         <v>33</v>
@@ -5198,15 +5590,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10">
       <c r="D16" s="1"/>
       <c r="H16" s="36"/>
       <c r="I16" s="36"/>
     </row>
-    <row r="17" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:4">
       <c r="D17" s="1"/>
     </row>
-    <row r="18" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="4:4">
       <c r="D18" s="1"/>
     </row>
   </sheetData>
@@ -5227,7 +5619,6 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/Dokumentation/Noctua_Zeitaufzeichnung.xlsx
+++ b/Dokumentation/Noctua_Zeitaufzeichnung.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="17480"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="17480" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Gesamtstatus" sheetId="4" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="593" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="249">
   <si>
     <t>Arbeitspaket</t>
   </si>
@@ -759,6 +759,18 @@
   </si>
   <si>
     <t>Trendphasen getestet</t>
+  </si>
+  <si>
+    <t>Abnahme</t>
+  </si>
+  <si>
+    <t>Prokjekt abgenommen</t>
+  </si>
+  <si>
+    <t>Pivot Points in Sideways market</t>
+  </si>
+  <si>
+    <t>Sidewärts getestet</t>
   </si>
 </sst>
 </file>
@@ -768,7 +780,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -795,6 +807,12 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1020,8 +1038,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="65">
+  <cellStyleXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1203,7 +1225,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="65">
+  <cellStyles count="69">
     <cellStyle name="Besuchter Link" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="6" builtinId="9" hidden="1"/>
@@ -1236,6 +1258,8 @@
     <cellStyle name="Besuchter Link" xfId="60" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="62" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="68" builtinId="9" hidden="1"/>
     <cellStyle name="Link" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="5" builtinId="8" hidden="1"/>
@@ -1268,6 +1292,8 @@
     <cellStyle name="Link" xfId="59" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="61" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="67" builtinId="8" hidden="1"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1403,12 +1429,12 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:shape val="box"/>
-        <c:axId val="2067364040"/>
-        <c:axId val="2067364776"/>
+        <c:axId val="2032038488"/>
+        <c:axId val="2032041704"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="2067364040"/>
+        <c:axId val="2032038488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1417,7 +1443,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2067364776"/>
+        <c:crossAx val="2032041704"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1425,7 +1451,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2067364776"/>
+        <c:axId val="2032041704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1441,7 +1467,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="2067364040"/>
+        <c:crossAx val="2032038488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1552,13 +1578,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>158.0</c:v>
+                  <c:v>163.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>165.0</c:v>
+                  <c:v>167.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>173.5</c:v>
+                  <c:v>175.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1574,12 +1600,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="2067391032"/>
-        <c:axId val="2067394040"/>
+        <c:axId val="2049530088"/>
+        <c:axId val="2049533032"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="2067391032"/>
+        <c:axId val="2049530088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1588,7 +1614,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2067394040"/>
+        <c:crossAx val="2049533032"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1596,7 +1622,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2067394040"/>
+        <c:axId val="2049533032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1607,7 +1633,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2067391032"/>
+        <c:crossAx val="2049530088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1976,10 +2002,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr enableFormatConditionsCalculation="0">
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:R36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -2021,7 +2050,7 @@
       </c>
       <c r="B3" s="7">
         <f>SUM(B6,B12,B27)</f>
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="C3" s="27">
         <v>1</v>
@@ -2236,7 +2265,7 @@
       </c>
       <c r="B17" s="17">
         <f>Algorithmus!J6</f>
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="C17" s="29">
         <v>1</v>
@@ -2290,7 +2319,7 @@
       </c>
       <c r="B21" s="19">
         <f>Algorithmus!J5</f>
-        <v>70.5</v>
+        <v>73.5</v>
       </c>
       <c r="C21" s="40">
         <v>1</v>
@@ -2370,7 +2399,7 @@
       </c>
       <c r="B27" s="17">
         <f>Testing_Abschluss!J6</f>
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="C27" s="29">
         <v>1</v>
@@ -2424,7 +2453,7 @@
       </c>
       <c r="B31" s="23">
         <f>Testing_Abschluss!J5</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C31" s="27">
         <v>1</v>
@@ -2446,7 +2475,7 @@
       <c r="C34" s="52"/>
       <c r="D34" s="9">
         <f>SUM(Projektmanagment!I13,BacktestingSoftware!I13,Algorithmus!I13,Marktzustandserkennung!I13,Testing_Abschluss!I13)</f>
-        <v>158</v>
+        <v>163</v>
       </c>
     </row>
     <row r="35" spans="2:4" ht="15" thickBot="1">
@@ -2456,7 +2485,7 @@
       <c r="C35" s="46"/>
       <c r="D35" s="9">
         <f>SUM(Projektmanagment!I14,BacktestingSoftware!I14,Algorithmus!I14,Marktzustandserkennung!I14,Testing_Abschluss!I14)</f>
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="36" spans="2:4" ht="15" thickBot="1">
@@ -2466,7 +2495,7 @@
       <c r="C36" s="48"/>
       <c r="D36" s="39">
         <f>SUM(Projektmanagment!I15,BacktestingSoftware!I15,Algorithmus!I15,Marktzustandserkennung!I15,Testing_Abschluss!I15)</f>
-        <v>173.5</v>
+        <v>175.5</v>
       </c>
     </row>
   </sheetData>
@@ -2481,11 +2510,13 @@
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="C4:D5"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.70000000000000007" right="0.70000000000000007" top="0.79000000000000015" bottom="0.79000000000000015" header="0.30000000000000004" footer="0.30000000000000004"/>
+  <pageSetup paperSize="9" scale="68" orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+      <mx:PLV Mode="0" OnePage="0" WScale="100"/>
     </ext>
   </extLst>
 </worksheet>
@@ -2493,10 +2524,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr enableFormatConditionsCalculation="0">
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -2930,6 +2964,7 @@
     <mergeCell ref="H4:I4"/>
     <mergeCell ref="H5:I5"/>
   </mergeCells>
+  <phoneticPr fontId="4" type="noConversion"/>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B1048576">
       <formula1>$H$2:$H$6</formula1>
@@ -2938,10 +2973,11 @@
       <formula1>$H$13:$H$15</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageMargins left="0.70000000000000007" right="0.70000000000000007" top="0.79000000000000015" bottom="0.79000000000000015" header="0.30000000000000004" footer="0.30000000000000004"/>
+  <pageSetup paperSize="9" scale="61" orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+      <mx:PLV Mode="0" OnePage="0" WScale="100"/>
     </ext>
   </extLst>
 </worksheet>
@@ -2949,10 +2985,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr enableFormatConditionsCalculation="0">
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:J35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -3748,6 +3787,7 @@
     <mergeCell ref="H4:I4"/>
     <mergeCell ref="H5:I5"/>
   </mergeCells>
+  <phoneticPr fontId="4" type="noConversion"/>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A1048576">
       <formula1>$H$13:$H$15</formula1>
@@ -3756,11 +3796,11 @@
       <formula1>$H$2:$H$5</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <pageMargins left="0.70000000000000007" right="0.70000000000000007" top="0.79000000000000015" bottom="0.79000000000000015" header="0.30000000000000004" footer="0.30000000000000004"/>
+  <pageSetup paperSize="9" scale="64" orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+      <mx:PLV Mode="0" OnePage="0" WScale="100"/>
     </ext>
   </extLst>
 </worksheet>
@@ -3768,10 +3808,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr enableFormatConditionsCalculation="0">
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:J51"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C51" sqref="C51"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -3921,7 +3964,7 @@
       <c r="I5" s="65"/>
       <c r="J5" s="35">
         <f>SUMIF(B:B,H5,E:E)</f>
-        <v>70.5</v>
+        <v>73.5</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="15" thickBot="1">
@@ -3949,7 +3992,7 @@
       <c r="I6" s="62"/>
       <c r="J6" s="7">
         <f>SUM(J2:J5)</f>
-        <v>239</v>
+        <v>242</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -4102,7 +4145,7 @@
       </c>
       <c r="I13" s="35">
         <f>SUMIF(A:A,H13,E:E)</f>
-        <v>98</v>
+        <v>101</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -4862,7 +4905,24 @@
       </c>
     </row>
     <row r="51" spans="1:6">
-      <c r="D51" s="1"/>
+      <c r="A51" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="D51" s="1">
+        <v>41381</v>
+      </c>
+      <c r="E51" s="26">
+        <v>3</v>
+      </c>
+      <c r="F51" s="3" t="s">
+        <v>248</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -4873,6 +4933,7 @@
     <mergeCell ref="H4:I4"/>
     <mergeCell ref="H5:I5"/>
   </mergeCells>
+  <phoneticPr fontId="4" type="noConversion"/>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A21 A23:A1048576">
       <formula1>$H$13:$H$15</formula1>
@@ -4881,10 +4942,11 @@
       <formula1>$H$2:$H$5</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageMargins left="0.70000000000000007" right="0.70000000000000007" top="0.79000000000000015" bottom="0.79000000000000015" header="0.30000000000000004" footer="0.30000000000000004"/>
+  <pageSetup paperSize="9" scale="57" orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+      <mx:PLV Mode="0" OnePage="0" WScale="100"/>
     </ext>
   </extLst>
 </worksheet>
@@ -4892,10 +4954,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr enableFormatConditionsCalculation="0">
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:J28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -5299,6 +5364,7 @@
     <mergeCell ref="H4:I4"/>
     <mergeCell ref="H5:I5"/>
   </mergeCells>
+  <phoneticPr fontId="4" type="noConversion"/>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A1048576">
       <formula1>$H$13:$H$15</formula1>
@@ -5307,10 +5373,11 @@
       <formula1>$H$2:$H$5</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageMargins left="0.70000000000000007" right="0.70000000000000007" top="0.79000000000000015" bottom="0.79000000000000015" header="0.30000000000000004" footer="0.30000000000000004"/>
+  <pageSetup paperSize="9" scale="57" orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+      <mx:PLV Mode="0" OnePage="0" WScale="100"/>
     </ext>
   </extLst>
 </worksheet>
@@ -5318,10 +5385,13 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr enableFormatConditionsCalculation="0">
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -5471,7 +5541,7 @@
       <c r="I5" s="71"/>
       <c r="J5" s="35">
         <f>SUMIF(B:B,H5,E:E)</f>
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="15" thickBot="1">
@@ -5499,7 +5569,7 @@
       <c r="I6" s="62"/>
       <c r="J6" s="7">
         <f>SUM(J2:J5)</f>
-        <v>35</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -5543,13 +5613,64 @@
       </c>
     </row>
     <row r="9" spans="1:10">
-      <c r="D9" s="1"/>
+      <c r="A9" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="D9" s="1">
+        <v>41388</v>
+      </c>
+      <c r="E9" s="37">
+        <v>2</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>246</v>
+      </c>
     </row>
     <row r="10" spans="1:10">
-      <c r="D10" s="1"/>
+      <c r="A10" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="D10" s="1">
+        <v>41388</v>
+      </c>
+      <c r="E10" s="37">
+        <v>2</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>246</v>
+      </c>
     </row>
     <row r="11" spans="1:10" ht="15" thickBot="1">
-      <c r="D11" s="1"/>
+      <c r="A11" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="D11" s="1">
+        <v>41388</v>
+      </c>
+      <c r="E11" s="37">
+        <v>2</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>246</v>
+      </c>
     </row>
     <row r="12" spans="1:10" ht="15" thickBot="1">
       <c r="D12" s="1"/>
@@ -5567,7 +5688,7 @@
       </c>
       <c r="I13" s="35">
         <f>SUMIF(A:A,H13,E:E)</f>
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -5577,7 +5698,7 @@
       </c>
       <c r="I14" s="35">
         <f>SUMIF(A:A,H14,E:E)</f>
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15" thickBot="1">
@@ -5587,7 +5708,7 @@
       </c>
       <c r="I15" s="35">
         <f>SUMIF(A:A,H15,E:E)</f>
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -5610,6 +5731,7 @@
     <mergeCell ref="H4:I4"/>
     <mergeCell ref="H5:I5"/>
   </mergeCells>
+  <phoneticPr fontId="4" type="noConversion"/>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A1048576">
       <formula1>$H$13:$H$15</formula1>
@@ -5618,10 +5740,11 @@
       <formula1>$H$2:$H$5</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageMargins left="0.70000000000000007" right="0.70000000000000007" top="0.79000000000000015" bottom="0.79000000000000015" header="0.30000000000000004" footer="0.30000000000000004"/>
+  <pageSetup paperSize="9" scale="59" orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+      <mx:PLV Mode="0" OnePage="0" WScale="100"/>
     </ext>
   </extLst>
 </worksheet>

--- a/Dokumentation/Noctua_Zeitaufzeichnung.xlsx
+++ b/Dokumentation/Noctua_Zeitaufzeichnung.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
-  <workbookPr autoCompressPictures="0"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="17480" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="16440"/>
   </bookViews>
   <sheets>
     <sheet name="Gesamtstatus" sheetId="4" r:id="rId1"/>
@@ -14,7 +14,7 @@
     <sheet name="Marktzustandserkennung" sheetId="7" r:id="rId5"/>
     <sheet name="Testing_Abschluss" sheetId="8" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -1109,7 +1109,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -1139,7 +1139,6 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -1152,7 +1151,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1226,74 +1224,74 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="69">
-    <cellStyle name="Besuchter Link" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="20" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="22" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="24" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="26" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="28" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="30" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="32" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="34" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="36" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="38" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="40" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="42" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="44" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="46" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="48" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="50" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="52" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="54" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="56" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="58" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="60" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="62" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="64" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="66" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="68" builtinId="9" hidden="1"/>
-    <cellStyle name="Link" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="7" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="9" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="11" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="13" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="15" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="17" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="19" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="21" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="23" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="25" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="27" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="29" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="31" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="33" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="35" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="37" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="39" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="41" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="43" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="45" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="47" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="49" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="51" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="53" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="55" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="57" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="59" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="61" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="63" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="65" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1314,7 +1312,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
+  <c:lang val="de-AT"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1410,10 +1408,10 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1429,12 +1427,12 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:shape val="box"/>
-        <c:axId val="2032038488"/>
-        <c:axId val="2032041704"/>
+        <c:axId val="33434624"/>
+        <c:axId val="33440512"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="2032038488"/>
+        <c:axId val="33434624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1443,7 +1441,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2032041704"/>
+        <c:crossAx val="33440512"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1451,7 +1449,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2032041704"/>
+        <c:axId val="33440512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1467,7 +1465,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="2032038488"/>
+        <c:crossAx val="33434624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1481,7 +1479,7 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.787401575" l="0.7" r="0.7" t="0.787401575" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1490,7 +1488,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
+  <c:lang val="de-AT"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1578,10 +1576,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>163.0</c:v>
+                  <c:v>163</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>167.0</c:v>
+                  <c:v>167</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>175.5</c:v>
@@ -1600,12 +1598,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="2049530088"/>
-        <c:axId val="2049533032"/>
+        <c:axId val="33465088"/>
+        <c:axId val="33466624"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="2049530088"/>
+        <c:axId val="33465088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1614,7 +1612,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2049533032"/>
+        <c:crossAx val="33466624"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1622,9 +1620,10 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2049533032"/>
+        <c:axId val="33466624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1633,7 +1632,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2049530088"/>
+        <c:crossAx val="33465088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1644,7 +1643,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.787401575" l="0.7" r="0.7" t="0.787401575" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2007,33 +2006,33 @@
   </sheetPr>
   <dimension ref="A1:R36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N29" sqref="N29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
-      <c r="A1" s="53"/>
-      <c r="B1" s="55" t="s">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A1" s="51"/>
+      <c r="B1" s="53" t="s">
         <v>28</v>
       </c>
-      <c r="C1" s="49" t="s">
+      <c r="C1" s="47" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="50"/>
+      <c r="D1" s="48"/>
       <c r="E1" s="12"/>
       <c r="F1" s="12"/>
       <c r="G1" s="12"/>
       <c r="R1" s="8"/>
     </row>
-    <row r="2" spans="1:18" ht="15" thickBot="1">
-      <c r="A2" s="54"/>
-      <c r="B2" s="56"/>
+    <row r="2" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="52"/>
+      <c r="B2" s="54"/>
       <c r="C2" s="13" t="s">
         <v>26</v>
       </c>
@@ -2044,7 +2043,7 @@
       <c r="F2" s="12"/>
       <c r="G2" s="12"/>
     </row>
-    <row r="3" spans="1:18" ht="15" thickBot="1">
+    <row r="3" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="15" t="s">
         <v>36</v>
       </c>
@@ -2052,37 +2051,37 @@
         <f>SUM(B6,B12,B27)</f>
         <v>217</v>
       </c>
-      <c r="C3" s="27">
+      <c r="C3" s="26">
         <v>1</v>
       </c>
-      <c r="D3" s="28">
+      <c r="D3" s="27">
         <v>1</v>
       </c>
       <c r="E3" s="12"/>
       <c r="F3" s="12"/>
       <c r="G3" s="12"/>
     </row>
-    <row r="4" spans="1:18">
-      <c r="A4" s="50"/>
-      <c r="B4" s="55"/>
-      <c r="C4" s="57" t="s">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A4" s="48"/>
+      <c r="B4" s="53"/>
+      <c r="C4" s="55" t="s">
         <v>29</v>
       </c>
-      <c r="D4" s="58"/>
+      <c r="D4" s="56"/>
       <c r="E4" s="12"/>
       <c r="F4" s="12"/>
       <c r="G4" s="12"/>
     </row>
-    <row r="5" spans="1:18" ht="15" thickBot="1">
-      <c r="A5" s="54"/>
-      <c r="B5" s="56"/>
-      <c r="C5" s="59"/>
-      <c r="D5" s="60"/>
+    <row r="5" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="52"/>
+      <c r="B5" s="54"/>
+      <c r="C5" s="57"/>
+      <c r="D5" s="58"/>
       <c r="E5" s="12"/>
       <c r="F5" s="12"/>
       <c r="G5" s="12"/>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="16" t="s">
         <v>13</v>
       </c>
@@ -2090,17 +2089,17 @@
         <f>Projektmanagment!J7</f>
         <v>30.5</v>
       </c>
-      <c r="C6" s="29">
+      <c r="C6" s="28">
         <v>1</v>
       </c>
-      <c r="D6" s="30">
+      <c r="D6" s="29">
         <v>1</v>
       </c>
       <c r="E6" s="12"/>
       <c r="F6" s="12"/>
       <c r="G6" s="12"/>
     </row>
-    <row r="7" spans="1:18">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="18" t="s">
         <v>18</v>
       </c>
@@ -2108,15 +2107,15 @@
         <f>Projektmanagment!J2</f>
         <v>9</v>
       </c>
-      <c r="C7" s="31">
+      <c r="C7" s="30">
         <v>1</v>
       </c>
-      <c r="D7" s="32"/>
+      <c r="D7" s="31"/>
       <c r="E7" s="12"/>
       <c r="F7" s="12"/>
       <c r="G7" s="12"/>
     </row>
-    <row r="8" spans="1:18">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="18" t="s">
         <v>17</v>
       </c>
@@ -2124,15 +2123,15 @@
         <f>Projektmanagment!J3</f>
         <v>5</v>
       </c>
-      <c r="C8" s="31">
+      <c r="C8" s="30">
         <v>1</v>
       </c>
-      <c r="D8" s="32"/>
+      <c r="D8" s="31"/>
       <c r="E8" s="12"/>
       <c r="F8" s="12"/>
       <c r="G8" s="12"/>
     </row>
-    <row r="9" spans="1:18">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="18" t="s">
         <v>19</v>
       </c>
@@ -2140,15 +2139,15 @@
         <f>Projektmanagment!J4</f>
         <v>10.5</v>
       </c>
-      <c r="C9" s="31">
+      <c r="C9" s="30">
         <v>1</v>
       </c>
-      <c r="D9" s="32"/>
+      <c r="D9" s="31"/>
       <c r="E9" s="12"/>
       <c r="F9" s="12"/>
       <c r="G9" s="12"/>
     </row>
-    <row r="10" spans="1:18">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="18" t="s">
         <v>20</v>
       </c>
@@ -2156,15 +2155,15 @@
         <f>Projektmanagment!J5</f>
         <v>3</v>
       </c>
-      <c r="C10" s="31">
+      <c r="C10" s="30">
         <v>1</v>
       </c>
-      <c r="D10" s="32"/>
+      <c r="D10" s="31"/>
       <c r="E10" s="12"/>
       <c r="F10" s="12"/>
       <c r="G10" s="12"/>
     </row>
-    <row r="11" spans="1:18" ht="15" thickBot="1">
+    <row r="11" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="20" t="s">
         <v>21</v>
       </c>
@@ -2172,15 +2171,15 @@
         <f>Projektmanagment!J6</f>
         <v>3</v>
       </c>
-      <c r="C11" s="31">
+      <c r="C11" s="30">
         <v>1</v>
       </c>
-      <c r="D11" s="28"/>
+      <c r="D11" s="27"/>
       <c r="E11" s="12"/>
       <c r="F11" s="12"/>
       <c r="G11" s="12"/>
     </row>
-    <row r="12" spans="1:18">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="16" t="s">
         <v>54</v>
       </c>
@@ -2188,17 +2187,17 @@
         <f>BacktestingSoftware!J6</f>
         <v>145.5</v>
       </c>
-      <c r="C12" s="29">
+      <c r="C12" s="28">
         <v>1</v>
       </c>
-      <c r="D12" s="30">
+      <c r="D12" s="29">
         <v>1</v>
       </c>
       <c r="E12" s="12"/>
       <c r="F12" s="12"/>
       <c r="G12" s="12"/>
     </row>
-    <row r="13" spans="1:18">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="18" t="s">
         <v>53</v>
       </c>
@@ -2206,15 +2205,15 @@
         <f>BacktestingSoftware!J2</f>
         <v>20</v>
       </c>
-      <c r="C13" s="31">
+      <c r="C13" s="30">
         <v>1</v>
       </c>
-      <c r="D13" s="32"/>
+      <c r="D13" s="31"/>
       <c r="E13" s="12"/>
       <c r="F13" s="12"/>
       <c r="G13" s="12"/>
     </row>
-    <row r="14" spans="1:18">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="18" t="s">
         <v>55</v>
       </c>
@@ -2222,15 +2221,15 @@
         <f>BacktestingSoftware!J3</f>
         <v>35.5</v>
       </c>
-      <c r="C14" s="31">
+      <c r="C14" s="30">
         <v>1</v>
       </c>
-      <c r="D14" s="32"/>
+      <c r="D14" s="31"/>
       <c r="E14" s="12"/>
       <c r="F14" s="12"/>
       <c r="G14" s="12"/>
     </row>
-    <row r="15" spans="1:18">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="18" t="s">
         <v>56</v>
       </c>
@@ -2238,15 +2237,15 @@
         <f>BacktestingSoftware!J4</f>
         <v>26</v>
       </c>
-      <c r="C15" s="31">
+      <c r="C15" s="30">
         <v>1</v>
       </c>
-      <c r="D15" s="32"/>
+      <c r="D15" s="31"/>
       <c r="E15" s="12"/>
       <c r="F15" s="12"/>
       <c r="G15" s="12"/>
     </row>
-    <row r="16" spans="1:18" ht="15" thickBot="1">
+    <row r="16" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="18" t="s">
         <v>57</v>
       </c>
@@ -2254,12 +2253,12 @@
         <f>BacktestingSoftware!J5</f>
         <v>64</v>
       </c>
-      <c r="C16" s="40">
+      <c r="C16" s="38">
         <v>1</v>
       </c>
-      <c r="D16" s="32"/>
-    </row>
-    <row r="17" spans="1:4">
+      <c r="D16" s="31"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="16" t="s">
         <v>58</v>
       </c>
@@ -2267,14 +2266,14 @@
         <f>Algorithmus!J6</f>
         <v>242</v>
       </c>
-      <c r="C17" s="29">
+      <c r="C17" s="28">
         <v>1</v>
       </c>
-      <c r="D17" s="30">
+      <c r="D17" s="29">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="18" t="s">
         <v>59</v>
       </c>
@@ -2282,12 +2281,12 @@
         <f>Algorithmus!J2</f>
         <v>9.5</v>
       </c>
-      <c r="C18" s="40">
+      <c r="C18" s="38">
         <v>1</v>
       </c>
-      <c r="D18" s="32"/>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="D18" s="31"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="18" t="s">
         <v>60</v>
       </c>
@@ -2295,12 +2294,12 @@
         <f>Algorithmus!J3</f>
         <v>48.5</v>
       </c>
-      <c r="C19" s="40">
+      <c r="C19" s="38">
         <v>1</v>
       </c>
-      <c r="D19" s="32"/>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="D19" s="31"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="18" t="s">
         <v>61</v>
       </c>
@@ -2308,12 +2307,12 @@
         <f>Algorithmus!J4</f>
         <v>110.5</v>
       </c>
-      <c r="C20" s="40">
+      <c r="C20" s="38">
         <v>1</v>
       </c>
-      <c r="D20" s="32"/>
-    </row>
-    <row r="21" spans="1:4" ht="15" thickBot="1">
+      <c r="D20" s="31"/>
+    </row>
+    <row r="21" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="18" t="s">
         <v>62</v>
       </c>
@@ -2321,12 +2320,12 @@
         <f>Algorithmus!J5</f>
         <v>73.5</v>
       </c>
-      <c r="C21" s="40">
+      <c r="C21" s="38">
         <v>1</v>
       </c>
-      <c r="D21" s="32"/>
-    </row>
-    <row r="22" spans="1:4">
+      <c r="D21" s="31"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="16" t="s">
         <v>63</v>
       </c>
@@ -2334,14 +2333,14 @@
         <f>Marktzustandserkennung!J6</f>
         <v>44.5</v>
       </c>
-      <c r="C22" s="29">
+      <c r="C22" s="28">
         <v>1</v>
       </c>
-      <c r="D22" s="30">
+      <c r="D22" s="29">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="18" t="s">
         <v>59</v>
       </c>
@@ -2349,12 +2348,12 @@
         <f>Marktzustandserkennung!J2</f>
         <v>7</v>
       </c>
-      <c r="C23" s="40">
+      <c r="C23" s="38">
         <v>1</v>
       </c>
-      <c r="D23" s="32"/>
-    </row>
-    <row r="24" spans="1:4">
+      <c r="D23" s="31"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="18" t="s">
         <v>64</v>
       </c>
@@ -2362,12 +2361,12 @@
         <f>Marktzustandserkennung!J3</f>
         <v>11.5</v>
       </c>
-      <c r="C24" s="40">
+      <c r="C24" s="38">
         <v>1</v>
       </c>
-      <c r="D24" s="32"/>
-    </row>
-    <row r="25" spans="1:4" ht="15" customHeight="1">
+      <c r="D24" s="31"/>
+    </row>
+    <row r="25" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="18" t="s">
         <v>65</v>
       </c>
@@ -2375,12 +2374,12 @@
         <f>Marktzustandserkennung!J4</f>
         <v>18</v>
       </c>
-      <c r="C25" s="40">
+      <c r="C25" s="38">
         <v>1</v>
       </c>
-      <c r="D25" s="32"/>
-    </row>
-    <row r="26" spans="1:4" ht="15" thickBot="1">
+      <c r="D25" s="31"/>
+    </row>
+    <row r="26" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="18" t="s">
         <v>66</v>
       </c>
@@ -2388,12 +2387,12 @@
         <f>Marktzustandserkennung!J5</f>
         <v>8</v>
       </c>
-      <c r="C26" s="40">
+      <c r="C26" s="38">
         <v>1</v>
       </c>
-      <c r="D26" s="32"/>
-    </row>
-    <row r="27" spans="1:4">
+      <c r="D26" s="31"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="16" t="s">
         <v>14</v>
       </c>
@@ -2401,14 +2400,14 @@
         <f>Testing_Abschluss!J6</f>
         <v>41</v>
       </c>
-      <c r="C27" s="29">
+      <c r="C27" s="28">
         <v>1</v>
       </c>
-      <c r="D27" s="30">
+      <c r="D27" s="29">
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="15.75" customHeight="1">
+    <row r="28" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="18" t="s">
         <v>22</v>
       </c>
@@ -2416,12 +2415,12 @@
         <f>Testing_Abschluss!J2</f>
         <v>3</v>
       </c>
-      <c r="C28" s="40">
+      <c r="C28" s="38">
         <v>1</v>
       </c>
-      <c r="D28" s="32"/>
-    </row>
-    <row r="29" spans="1:4">
+      <c r="D28" s="31"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="18" t="s">
         <v>23</v>
       </c>
@@ -2429,12 +2428,12 @@
         <f>Testing_Abschluss!J3</f>
         <v>13</v>
       </c>
-      <c r="C29" s="40">
+      <c r="C29" s="38">
         <v>1</v>
       </c>
-      <c r="D29" s="32"/>
-    </row>
-    <row r="30" spans="1:4">
+      <c r="D29" s="31"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="18" t="s">
         <v>24</v>
       </c>
@@ -2442,12 +2441,12 @@
         <f>Testing_Abschluss!J4</f>
         <v>19</v>
       </c>
-      <c r="C30" s="40">
+      <c r="C30" s="38">
         <v>1</v>
       </c>
-      <c r="D30" s="32"/>
-    </row>
-    <row r="31" spans="1:4" ht="15" thickBot="1">
+      <c r="D30" s="31"/>
+    </row>
+    <row r="31" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="20" t="s">
         <v>25</v>
       </c>
@@ -2455,45 +2454,45 @@
         <f>Testing_Abschluss!J5</f>
         <v>6</v>
       </c>
-      <c r="C31" s="27">
+      <c r="C31" s="26">
         <v>1</v>
       </c>
-      <c r="D31" s="28"/>
-    </row>
-    <row r="32" spans="1:4" ht="15" thickBot="1"/>
-    <row r="33" spans="2:4" ht="15" thickBot="1">
+      <c r="D31" s="27"/>
+    </row>
+    <row r="32" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="33" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B33" s="10"/>
       <c r="C33" s="10"/>
       <c r="D33" s="11" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="34" spans="2:4" ht="15" thickBot="1">
-      <c r="B34" s="51" t="s">
+    <row r="34" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="49" t="s">
         <v>34</v>
       </c>
-      <c r="C34" s="52"/>
+      <c r="C34" s="50"/>
       <c r="D34" s="9">
         <f>SUM(Projektmanagment!I13,BacktestingSoftware!I13,Algorithmus!I13,Marktzustandserkennung!I13,Testing_Abschluss!I13)</f>
         <v>163</v>
       </c>
     </row>
-    <row r="35" spans="2:4" ht="15" thickBot="1">
-      <c r="B35" s="45" t="s">
+    <row r="35" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="C35" s="46"/>
+      <c r="C35" s="44"/>
       <c r="D35" s="9">
         <f>SUM(Projektmanagment!I14,BacktestingSoftware!I14,Algorithmus!I14,Marktzustandserkennung!I14,Testing_Abschluss!I14)</f>
         <v>167</v>
       </c>
     </row>
-    <row r="36" spans="2:4" ht="15" thickBot="1">
-      <c r="B36" s="47" t="s">
+    <row r="36" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B36" s="45" t="s">
         <v>35</v>
       </c>
-      <c r="C36" s="48"/>
-      <c r="D36" s="39">
+      <c r="C36" s="46"/>
+      <c r="D36" s="37">
         <f>SUM(Projektmanagment!I15,BacktestingSoftware!I15,Algorithmus!I15,Marktzustandserkennung!I15,Testing_Abschluss!I15)</f>
         <v>175.5</v>
       </c>
@@ -2512,8 +2511,8 @@
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.70000000000000007" right="0.70000000000000007" top="0.79000000000000015" bottom="0.79000000000000015" header="0.30000000000000004" footer="0.30000000000000004"/>
-  <pageSetup paperSize="9" scale="68" orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" scale="71" orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
+  <drawing r:id="rId2"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="100"/>
@@ -2530,132 +2529,132 @@
   <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.33203125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="71.6640625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="10.83203125" style="3"/>
-    <col min="5" max="5" width="10.83203125" style="26"/>
+    <col min="1" max="1" width="13.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.28515625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="71.7109375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" style="3"/>
+    <col min="5" max="5" width="10.85546875" style="25"/>
     <col min="6" max="6" width="28" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" thickBot="1">
+    <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="25" t="s">
+      <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="64" t="s">
+      <c r="H1" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="64"/>
+      <c r="I1" s="62"/>
       <c r="J1" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>68</v>
+        <v>211</v>
       </c>
       <c r="D2" s="1">
-        <v>41228</v>
-      </c>
-      <c r="E2" s="26">
-        <v>2</v>
+        <v>41227</v>
+      </c>
+      <c r="E2" s="25">
+        <v>3</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="H2" s="65" t="s">
+        <v>212</v>
+      </c>
+      <c r="H2" s="63" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="65"/>
+      <c r="I2" s="63"/>
       <c r="J2" s="4">
         <f>SUMIF(B:B,H2,E:E)</f>
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>67</v>
+        <v>7</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>70</v>
+        <v>211</v>
       </c>
       <c r="D3" s="1">
-        <v>41234</v>
-      </c>
-      <c r="E3" s="26">
-        <v>2</v>
+        <v>41227</v>
+      </c>
+      <c r="E3" s="25">
+        <v>3</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="H3" s="65" t="s">
+        <v>212</v>
+      </c>
+      <c r="H3" s="63" t="s">
         <v>8</v>
       </c>
-      <c r="I3" s="65"/>
+      <c r="I3" s="63"/>
       <c r="J3" s="4">
         <f>SUMIF(B:B,H3,E:E)</f>
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>32</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>73</v>
+        <v>211</v>
       </c>
       <c r="D4" s="1">
-        <v>41234</v>
-      </c>
-      <c r="E4" s="26">
-        <v>0.5</v>
+        <v>41227</v>
+      </c>
+      <c r="E4" s="25">
+        <v>3</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="H4" s="65" t="s">
+        <v>212</v>
+      </c>
+      <c r="H4" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="65"/>
+      <c r="I4" s="63"/>
       <c r="J4" s="4">
         <f>SUMIF(B:B,H4,E:E)</f>
         <v>10.5</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>32</v>
       </c>
@@ -2663,55 +2662,55 @@
         <v>8</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="D5" s="1">
-        <v>41262</v>
-      </c>
-      <c r="E5" s="26">
-        <v>0.5</v>
+        <v>41228</v>
+      </c>
+      <c r="E5" s="25">
+        <v>2</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="H5" s="65" t="s">
+        <v>69</v>
+      </c>
+      <c r="H5" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="I5" s="65"/>
+      <c r="I5" s="63"/>
       <c r="J5" s="4">
         <f>SUMIF(B:B,H5,E:E)</f>
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15" thickBot="1">
+    <row r="6" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>32</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>8</v>
+        <v>67</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D6" s="1">
-        <v>41290</v>
-      </c>
-      <c r="E6" s="26">
-        <v>0.5</v>
+        <v>41234</v>
+      </c>
+      <c r="E6" s="25">
+        <v>2</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="H6" s="63" t="s">
+        <v>71</v>
+      </c>
+      <c r="H6" s="61" t="s">
         <v>10</v>
       </c>
-      <c r="I6" s="63"/>
+      <c r="I6" s="61"/>
       <c r="J6" s="5">
         <f>SUMIF(B:B,H6,E:E)</f>
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="15" thickBot="1">
+    <row r="7" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>32</v>
       </c>
@@ -2722,44 +2721,44 @@
         <v>73</v>
       </c>
       <c r="D7" s="1">
-        <v>41304</v>
-      </c>
-      <c r="E7" s="26">
+        <v>41234</v>
+      </c>
+      <c r="E7" s="25">
         <v>0.5</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="H7" s="61" t="s">
+      <c r="H7" s="59" t="s">
         <v>16</v>
       </c>
-      <c r="I7" s="62"/>
+      <c r="I7" s="60"/>
       <c r="J7" s="7">
         <f>SUM(J2:J6)</f>
         <v>30.5</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>32</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="D8" s="24">
-        <v>41325</v>
-      </c>
-      <c r="E8" s="26">
-        <v>0.5</v>
+        <v>68</v>
+      </c>
+      <c r="D8" s="1">
+        <v>41244</v>
+      </c>
+      <c r="E8" s="25">
+        <v>6</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>32</v>
       </c>
@@ -2769,74 +2768,74 @@
       <c r="C9" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="D9" s="24">
-        <v>41346</v>
-      </c>
-      <c r="E9" s="26">
+      <c r="D9" s="1">
+        <v>41262</v>
+      </c>
+      <c r="E9" s="25">
         <v>0.5</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>207</v>
+        <v>73</v>
       </c>
       <c r="D10" s="1">
-        <v>41373</v>
-      </c>
-      <c r="E10" s="26">
-        <v>3</v>
+        <v>41290</v>
+      </c>
+      <c r="E10" s="25">
+        <v>0.5</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="15" thickBot="1">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>209</v>
+        <v>73</v>
       </c>
       <c r="D11" s="1">
-        <v>41373</v>
-      </c>
-      <c r="E11" s="26">
-        <v>3</v>
+        <v>41304</v>
+      </c>
+      <c r="E11" s="25">
+        <v>0.5</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="15" thickBot="1">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="D12" s="1">
-        <v>41227</v>
-      </c>
-      <c r="E12" s="26">
-        <v>3</v>
+        <v>73</v>
+      </c>
+      <c r="D12" s="24">
+        <v>41325</v>
+      </c>
+      <c r="E12" s="25">
+        <v>0.5</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>212</v>
+        <v>73</v>
       </c>
       <c r="H12" s="6" t="s">
         <v>5</v>
@@ -2845,26 +2844,26 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="D13" s="1">
-        <v>41227</v>
-      </c>
-      <c r="E13" s="26">
-        <v>3</v>
+        <v>73</v>
+      </c>
+      <c r="D13" s="24">
+        <v>41346</v>
+      </c>
+      <c r="E13" s="25">
+        <v>0.5</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="H13" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="H13" s="32" t="s">
         <v>32</v>
       </c>
       <c r="I13" s="4">
@@ -2872,26 +2871,26 @@
         <v>20.5</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="D14" s="1">
-        <v>41227</v>
-      </c>
-      <c r="E14" s="26">
+        <v>41373</v>
+      </c>
+      <c r="E14" s="25">
         <v>3</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="H14" s="33" t="s">
+        <v>210</v>
+      </c>
+      <c r="H14" s="32" t="s">
         <v>6</v>
       </c>
       <c r="I14" s="4">
@@ -2899,26 +2898,26 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15" thickBot="1">
+    <row r="15" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>68</v>
+        <v>209</v>
       </c>
       <c r="D15" s="1">
-        <v>41244</v>
-      </c>
-      <c r="E15" s="26">
-        <v>6</v>
+        <v>41373</v>
+      </c>
+      <c r="E15" s="25">
+        <v>3</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="H15" s="33" t="s">
+        <v>208</v>
+      </c>
+      <c r="H15" s="32" t="s">
         <v>33</v>
       </c>
       <c r="I15" s="4">
@@ -2926,7 +2925,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>32</v>
       </c>
@@ -2939,22 +2938,25 @@
       <c r="D16" s="1">
         <v>41374</v>
       </c>
-      <c r="E16" s="26">
+      <c r="E16" s="25">
         <v>4.5</v>
       </c>
       <c r="F16" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="H16" s="36"/>
-      <c r="I16" s="36"/>
-    </row>
-    <row r="17" spans="4:4">
+      <c r="H16" s="35"/>
+      <c r="I16" s="35"/>
+    </row>
+    <row r="17" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D17" s="1"/>
     </row>
-    <row r="18" spans="4:4">
+    <row r="18" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D18" s="1"/>
     </row>
   </sheetData>
+  <sortState ref="A2:F18">
+    <sortCondition ref="D1"/>
+  </sortState>
   <mergeCells count="7">
     <mergeCell ref="H7:I7"/>
     <mergeCell ref="H6:I6"/>
@@ -2974,7 +2976,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.70000000000000007" right="0.70000000000000007" top="0.79000000000000015" bottom="0.79000000000000015" header="0.30000000000000004" footer="0.30000000000000004"/>
-  <pageSetup paperSize="9" scale="61" orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <pageSetup paperSize="9" scale="65" orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="100"/>
@@ -2991,48 +2993,48 @@
   <dimension ref="A1:J35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+      <selection activeCell="B1" sqref="B1:F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.33203125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="66.33203125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="10.83203125" style="3"/>
-    <col min="5" max="5" width="10.83203125" style="26"/>
-    <col min="6" max="6" width="24.5" style="3" customWidth="1"/>
-    <col min="9" max="9" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.28515625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="66.28515625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" style="3"/>
+    <col min="5" max="5" width="10.85546875" style="25"/>
+    <col min="6" max="6" width="42" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" thickBot="1">
+    <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="25" t="s">
+      <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="64" t="s">
+      <c r="H1" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="64"/>
-      <c r="J1" s="34" t="s">
+      <c r="I1" s="62"/>
+      <c r="J1" s="33" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
@@ -3045,22 +3047,22 @@
       <c r="D2" s="1">
         <v>41222</v>
       </c>
-      <c r="E2" s="26">
+      <c r="E2" s="25">
         <v>3</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="H2" s="65" t="s">
+      <c r="H2" s="63" t="s">
         <v>38</v>
       </c>
-      <c r="I2" s="65"/>
-      <c r="J2" s="35">
+      <c r="I2" s="63"/>
+      <c r="J2" s="34">
         <f>SUMIF(B:B,H2,E:E)</f>
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>33</v>
       </c>
@@ -3073,22 +3075,22 @@
       <c r="D3" s="1">
         <v>41222</v>
       </c>
-      <c r="E3" s="26">
+      <c r="E3" s="25">
         <v>3</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="H3" s="65" t="s">
+      <c r="H3" s="63" t="s">
         <v>39</v>
       </c>
-      <c r="I3" s="65"/>
-      <c r="J3" s="35">
+      <c r="I3" s="63"/>
+      <c r="J3" s="34">
         <f>SUMIF(B:B,H3,E:E)</f>
         <v>35.5</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
@@ -3101,22 +3103,22 @@
       <c r="D4" s="1">
         <v>41234</v>
       </c>
-      <c r="E4" s="26">
+      <c r="E4" s="25">
         <v>2</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="H4" s="65" t="s">
+      <c r="H4" s="63" t="s">
         <v>40</v>
       </c>
-      <c r="I4" s="65"/>
-      <c r="J4" s="35">
+      <c r="I4" s="63"/>
+      <c r="J4" s="34">
         <f>SUMIF(B:B,H4,E:E)</f>
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="15" thickBot="1">
+    <row r="5" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
@@ -3129,22 +3131,22 @@
       <c r="D5" s="1">
         <v>41234</v>
       </c>
-      <c r="E5" s="26">
+      <c r="E5" s="25">
         <v>2</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="H5" s="65" t="s">
+      <c r="H5" s="63" t="s">
         <v>41</v>
       </c>
-      <c r="I5" s="65"/>
-      <c r="J5" s="35">
+      <c r="I5" s="63"/>
+      <c r="J5" s="34">
         <f>SUMIF(B:B,H5,E:E)</f>
         <v>64</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15" thickBot="1">
+    <row r="6" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>6</v>
       </c>
@@ -3157,22 +3159,22 @@
       <c r="D6" s="1">
         <v>41241</v>
       </c>
-      <c r="E6" s="26">
+      <c r="E6" s="25">
         <v>4.5</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="H6" s="61" t="s">
+      <c r="H6" s="59" t="s">
         <v>16</v>
       </c>
-      <c r="I6" s="62"/>
+      <c r="I6" s="60"/>
       <c r="J6" s="7">
         <f>SUM(J2:J5)</f>
         <v>145.5</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>33</v>
       </c>
@@ -3185,14 +3187,14 @@
       <c r="D7" s="1">
         <v>41241</v>
       </c>
-      <c r="E7" s="26">
+      <c r="E7" s="25">
         <v>4</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>33</v>
       </c>
@@ -3205,14 +3207,14 @@
       <c r="D8" s="24">
         <v>41262</v>
       </c>
-      <c r="E8" s="26">
+      <c r="E8" s="25">
         <v>3.5</v>
       </c>
-      <c r="F8" s="26" t="s">
+      <c r="F8" s="25" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>32</v>
       </c>
@@ -3225,14 +3227,14 @@
       <c r="D9" s="1">
         <v>41262</v>
       </c>
-      <c r="E9" s="26">
+      <c r="E9" s="25">
         <v>2</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>32</v>
       </c>
@@ -3245,11 +3247,11 @@
       <c r="D10" s="1">
         <v>41262</v>
       </c>
-      <c r="E10" s="26">
+      <c r="E10" s="25">
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15" thickBot="1">
+    <row r="11" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>6</v>
       </c>
@@ -3262,14 +3264,14 @@
       <c r="D11" s="1">
         <v>41262</v>
       </c>
-      <c r="E11" s="26">
+      <c r="E11" s="25">
         <v>4</v>
       </c>
       <c r="F11" s="3" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="15" thickBot="1">
+    <row r="12" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>32</v>
       </c>
@@ -3282,20 +3284,20 @@
       <c r="D12" s="1">
         <v>41269</v>
       </c>
-      <c r="E12" s="26">
+      <c r="E12" s="25">
         <v>5</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="H12" s="34" t="s">
+      <c r="H12" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="I12" s="34" t="s">
+      <c r="I12" s="33" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>6</v>
       </c>
@@ -3308,21 +3310,21 @@
       <c r="D13" s="1">
         <v>41270</v>
       </c>
-      <c r="E13" s="26">
+      <c r="E13" s="25">
         <v>3</v>
       </c>
       <c r="F13" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="H13" s="35" t="s">
+      <c r="H13" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="I13" s="35">
+      <c r="I13" s="34">
         <f>SUMIF(A:A,H13,E:E)</f>
         <v>11.5</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>33</v>
       </c>
@@ -3335,21 +3337,21 @@
       <c r="D14" s="1">
         <v>41270</v>
       </c>
-      <c r="E14" s="26">
+      <c r="E14" s="25">
         <v>3</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="H14" s="35" t="s">
+      <c r="H14" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="I14" s="35">
+      <c r="I14" s="34">
         <f>SUMIF(A:A,H14,E:E)</f>
         <v>117</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15" thickBot="1">
+    <row r="15" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>6</v>
       </c>
@@ -3362,21 +3364,21 @@
       <c r="D15" s="1">
         <v>41271</v>
       </c>
-      <c r="E15" s="26">
+      <c r="E15" s="25">
         <v>7</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="H15" s="35" t="s">
+      <c r="H15" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="I15" s="35">
+      <c r="I15" s="34">
         <f>SUMIF(A:A,H15,E:E)</f>
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>33</v>
       </c>
@@ -3389,56 +3391,56 @@
       <c r="D16" s="1">
         <v>41271</v>
       </c>
-      <c r="E16" s="26">
+      <c r="E16" s="25">
         <v>3.5</v>
       </c>
       <c r="F16" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="H16" s="36"/>
-      <c r="I16" s="36"/>
-    </row>
-    <row r="17" spans="1:6">
+      <c r="H16" s="35"/>
+      <c r="I16" s="35"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>110</v>
+        <v>234</v>
       </c>
       <c r="D17" s="1">
-        <v>41273</v>
-      </c>
-      <c r="E17" s="26">
-        <v>5</v>
+        <v>41272</v>
+      </c>
+      <c r="E17" s="25">
+        <v>8</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D18" s="1">
-        <v>41277</v>
-      </c>
-      <c r="E18" s="26">
-        <v>8</v>
+        <v>41273</v>
+      </c>
+      <c r="E18" s="25">
+        <v>5</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>6</v>
       </c>
@@ -3446,39 +3448,39 @@
         <v>41</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D19" s="1">
-        <v>41283</v>
-      </c>
-      <c r="E19" s="26">
-        <v>4.5</v>
+        <v>41277</v>
+      </c>
+      <c r="E19" s="25">
+        <v>8</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="D20" s="1">
-        <v>41284</v>
-      </c>
-      <c r="E20" s="26">
-        <v>8</v>
+        <v>41283</v>
+      </c>
+      <c r="E20" s="25">
+        <v>4.5</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>6</v>
       </c>
@@ -3486,61 +3488,61 @@
         <v>39</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D21" s="1">
-        <v>41285</v>
-      </c>
-      <c r="E21" s="26">
-        <v>2</v>
+        <v>41284</v>
+      </c>
+      <c r="E21" s="25">
+        <v>8</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D22" s="1">
-        <v>41286</v>
-      </c>
-      <c r="E22" s="26">
-        <v>4</v>
+        <v>41285</v>
+      </c>
+      <c r="E22" s="25">
+        <v>2</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D23" s="1">
-        <v>41290</v>
-      </c>
-      <c r="E23" s="26">
-        <v>4.5</v>
+        <v>41286</v>
+      </c>
+      <c r="E23" s="25">
+        <v>4</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>39</v>
@@ -3551,74 +3553,74 @@
       <c r="D24" s="1">
         <v>41290</v>
       </c>
-      <c r="E24" s="26">
+      <c r="E24" s="25">
+        <v>4.5</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="D25" s="1">
+        <v>41290</v>
+      </c>
+      <c r="E25" s="25">
         <v>0.5</v>
       </c>
-      <c r="F24" s="3" t="s">
+      <c r="F25" s="3" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
-      <c r="A25" s="3" t="s">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
         <v>6</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="D25" s="1">
-        <v>41291</v>
-      </c>
-      <c r="E25" s="26">
-        <v>6</v>
-      </c>
-      <c r="F25" s="3" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="A26" s="3" t="s">
-        <v>32</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>41</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D26" s="1">
         <v>41291</v>
       </c>
-      <c r="E26" s="26">
-        <v>2</v>
+      <c r="E26" s="25">
+        <v>6</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>41</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="D27" s="1">
-        <v>41297</v>
-      </c>
-      <c r="E27" s="26">
-        <v>4.5</v>
+        <v>41291</v>
+      </c>
+      <c r="E27" s="25">
+        <v>2</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>6</v>
       </c>
@@ -3626,59 +3628,59 @@
         <v>41</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D28" s="1">
-        <v>41302</v>
-      </c>
-      <c r="E28" s="26">
-        <v>5</v>
+        <v>41297</v>
+      </c>
+      <c r="E28" s="25">
+        <v>4.5</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="D29" s="1">
-        <v>41303</v>
-      </c>
-      <c r="E29" s="26">
-        <v>6</v>
+        <v>41302</v>
+      </c>
+      <c r="E29" s="25">
+        <v>5</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="D30" s="1">
-        <v>41304</v>
-      </c>
-      <c r="E30" s="26">
-        <v>4.5</v>
+        <v>41303</v>
+      </c>
+      <c r="E30" s="25">
+        <v>6</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>6</v>
       </c>
@@ -3686,19 +3688,19 @@
         <v>41</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>170</v>
+        <v>146</v>
       </c>
       <c r="D31" s="1">
-        <v>41339</v>
-      </c>
-      <c r="E31" s="26">
-        <v>5</v>
+        <v>41304</v>
+      </c>
+      <c r="E31" s="25">
+        <v>4.5</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>6</v>
       </c>
@@ -3709,16 +3711,16 @@
         <v>170</v>
       </c>
       <c r="D32" s="1">
-        <v>41340</v>
-      </c>
-      <c r="E32" s="26">
-        <v>3</v>
+        <v>41339</v>
+      </c>
+      <c r="E32" s="25">
+        <v>5</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>6</v>
       </c>
@@ -3726,19 +3728,19 @@
         <v>41</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="D33" s="1">
-        <v>41346</v>
-      </c>
-      <c r="E33" s="26">
-        <v>4.5</v>
+        <v>41340</v>
+      </c>
+      <c r="E33" s="25">
+        <v>3</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>6</v>
       </c>
@@ -3746,19 +3748,19 @@
         <v>41</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>234</v>
+        <v>181</v>
       </c>
       <c r="D34" s="1">
-        <v>41272</v>
-      </c>
-      <c r="E34" s="26">
-        <v>8</v>
+        <v>41346</v>
+      </c>
+      <c r="E34" s="25">
+        <v>4.5</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>6</v>
       </c>
@@ -3771,7 +3773,7 @@
       <c r="D35" s="1">
         <v>41393</v>
       </c>
-      <c r="E35" s="26">
+      <c r="E35" s="25">
         <v>9</v>
       </c>
       <c r="F35" s="3" t="s">
@@ -3779,6 +3781,9 @@
       </c>
     </row>
   </sheetData>
+  <sortState ref="A2:F35">
+    <sortCondition ref="D1"/>
+  </sortState>
   <mergeCells count="6">
     <mergeCell ref="H6:I6"/>
     <mergeCell ref="H1:I1"/>
@@ -3797,7 +3802,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.70000000000000007" right="0.70000000000000007" top="0.79000000000000015" bottom="0.79000000000000015" header="0.30000000000000004" footer="0.30000000000000004"/>
-  <pageSetup paperSize="9" scale="64" orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <pageSetup paperSize="9" scale="62" orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="100"/>
@@ -3814,48 +3819,48 @@
   <dimension ref="A1:J51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+      <selection activeCell="B1" sqref="B1:F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="35.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="56.5" style="3" customWidth="1"/>
-    <col min="4" max="4" width="10.83203125" style="3"/>
-    <col min="5" max="5" width="10.83203125" style="26"/>
-    <col min="6" max="6" width="43.5" style="3" customWidth="1"/>
-    <col min="9" max="9" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="56.42578125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" style="3"/>
+    <col min="5" max="5" width="10.85546875" style="25"/>
+    <col min="6" max="6" width="49" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" thickBot="1">
+    <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="25" t="s">
+      <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="64" t="s">
+      <c r="H1" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="64"/>
-      <c r="J1" s="34" t="s">
+      <c r="I1" s="62"/>
+      <c r="J1" s="33" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>33</v>
       </c>
@@ -3868,22 +3873,22 @@
       <c r="D2" s="1">
         <v>41234</v>
       </c>
-      <c r="E2" s="26">
+      <c r="E2" s="25">
         <v>4.5</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="H2" s="65" t="s">
+      <c r="H2" s="63" t="s">
         <v>42</v>
       </c>
-      <c r="I2" s="65"/>
-      <c r="J2" s="35">
+      <c r="I2" s="63"/>
+      <c r="J2" s="34">
         <f>SUMIF(B:B,H2,E:E)</f>
         <v>9.5</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>33</v>
       </c>
@@ -3896,22 +3901,22 @@
       <c r="D3" s="1">
         <v>41248</v>
       </c>
-      <c r="E3" s="26">
+      <c r="E3" s="25">
         <v>4.5</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="H3" s="65" t="s">
+      <c r="H3" s="63" t="s">
         <v>43</v>
       </c>
-      <c r="I3" s="65"/>
-      <c r="J3" s="35">
+      <c r="I3" s="63"/>
+      <c r="J3" s="34">
         <f>SUMIF(B:B,H3,E:E)</f>
         <v>48.5</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>33</v>
       </c>
@@ -3924,22 +3929,22 @@
       <c r="D4" s="1">
         <v>41273</v>
       </c>
-      <c r="E4" s="26">
+      <c r="E4" s="25">
         <v>5</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="H4" s="65" t="s">
+      <c r="H4" s="63" t="s">
         <v>44</v>
       </c>
-      <c r="I4" s="65"/>
-      <c r="J4" s="35">
+      <c r="I4" s="63"/>
+      <c r="J4" s="34">
         <f>SUMIF(B:B,H4,E:E)</f>
         <v>110.5</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="15" thickBot="1">
+    <row r="5" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>33</v>
       </c>
@@ -3952,22 +3957,22 @@
       <c r="D5" s="1">
         <v>41283</v>
       </c>
-      <c r="E5" s="26">
+      <c r="E5" s="25">
         <v>4.5</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="H5" s="65" t="s">
+      <c r="H5" s="63" t="s">
         <v>45</v>
       </c>
-      <c r="I5" s="65"/>
-      <c r="J5" s="35">
+      <c r="I5" s="63"/>
+      <c r="J5" s="34">
         <f>SUMIF(B:B,H5,E:E)</f>
         <v>73.5</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15" thickBot="1">
+    <row r="6" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>33</v>
       </c>
@@ -3980,22 +3985,22 @@
       <c r="D6" s="1">
         <v>41284</v>
       </c>
-      <c r="E6" s="26">
+      <c r="E6" s="25">
         <v>7</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="H6" s="61" t="s">
+      <c r="H6" s="59" t="s">
         <v>16</v>
       </c>
-      <c r="I6" s="62"/>
+      <c r="I6" s="60"/>
       <c r="J6" s="7">
         <f>SUM(J2:J5)</f>
         <v>242</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>33</v>
       </c>
@@ -4008,14 +4013,14 @@
       <c r="D7" s="1">
         <v>41290</v>
       </c>
-      <c r="E7" s="26">
+      <c r="E7" s="25">
         <v>4.5</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>33</v>
       </c>
@@ -4028,14 +4033,14 @@
       <c r="D8" s="24">
         <v>41294</v>
       </c>
-      <c r="E8" s="26">
+      <c r="E8" s="25">
         <v>5</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>33</v>
       </c>
@@ -4048,14 +4053,14 @@
       <c r="D9" s="1">
         <v>41302</v>
       </c>
-      <c r="E9" s="26">
+      <c r="E9" s="25">
         <v>5</v>
       </c>
-      <c r="F9" s="44">
+      <c r="F9" s="42">
         <v>0.8</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>33</v>
       </c>
@@ -4068,14 +4073,14 @@
       <c r="D10" s="1">
         <v>41303</v>
       </c>
-      <c r="E10" s="26">
+      <c r="E10" s="25">
         <v>4</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15" thickBot="1">
+    <row r="11" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>33</v>
       </c>
@@ -4088,94 +4093,94 @@
       <c r="D11" s="1">
         <v>41304</v>
       </c>
-      <c r="E11" s="26">
+      <c r="E11" s="25">
         <v>4.5</v>
       </c>
       <c r="F11" s="3" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="15" thickBot="1">
+    <row r="12" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="D12" s="1">
-        <v>41305</v>
-      </c>
-      <c r="E12" s="26">
-        <v>4.5</v>
+        <v>41304</v>
+      </c>
+      <c r="E12" s="25">
+        <v>1</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="H12" s="34" t="s">
+        <v>153</v>
+      </c>
+      <c r="H12" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="I12" s="34" t="s">
+      <c r="I12" s="33" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>44</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="D13" s="1">
-        <v>41308</v>
-      </c>
-      <c r="E13" s="26">
-        <v>5</v>
+        <v>41304</v>
+      </c>
+      <c r="E13" s="25">
+        <v>3</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="H13" s="35" t="s">
+        <v>155</v>
+      </c>
+      <c r="H13" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="I13" s="35">
+      <c r="I13" s="34">
         <f>SUMIF(A:A,H13,E:E)</f>
         <v>101</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D14" s="1">
-        <v>41304</v>
-      </c>
-      <c r="E14" s="26">
-        <v>1</v>
+        <v>41305</v>
+      </c>
+      <c r="E14" s="25">
+        <v>4.5</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="H14" s="35" t="s">
+        <v>145</v>
+      </c>
+      <c r="H14" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="I14" s="35">
+      <c r="I14" s="34">
         <f>SUMIF(A:A,H14,E:E)</f>
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15" thickBot="1">
+    <row r="15" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>32</v>
       </c>
@@ -4183,48 +4188,48 @@
         <v>44</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D15" s="1">
-        <v>41304</v>
-      </c>
-      <c r="E15" s="26">
+        <v>41305</v>
+      </c>
+      <c r="E15" s="25">
         <v>3</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="H15" s="35" t="s">
+        <v>157</v>
+      </c>
+      <c r="H15" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="I15" s="35">
+      <c r="I15" s="34">
         <f>SUMIF(A:A,H15,E:E)</f>
         <v>115</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>44</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="D16" s="1">
-        <v>41305</v>
-      </c>
-      <c r="E16" s="26">
-        <v>3</v>
+        <v>41308</v>
+      </c>
+      <c r="E16" s="25">
+        <v>5</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="H16" s="36"/>
-      <c r="I16" s="36"/>
-    </row>
-    <row r="17" spans="1:6">
+        <v>151</v>
+      </c>
+      <c r="H16" s="35"/>
+      <c r="I16" s="35"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>33</v>
       </c>
@@ -4237,14 +4242,14 @@
       <c r="D17" s="1">
         <v>41314</v>
       </c>
-      <c r="E17" s="26">
+      <c r="E17" s="25">
         <v>5</v>
       </c>
       <c r="F17" s="3" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>32</v>
       </c>
@@ -4257,14 +4262,14 @@
       <c r="D18" s="1">
         <v>41318</v>
       </c>
-      <c r="E18" s="26">
+      <c r="E18" s="25">
         <v>2</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>32</v>
       </c>
@@ -4277,14 +4282,14 @@
       <c r="D19" s="1">
         <v>41318</v>
       </c>
-      <c r="E19" s="26">
+      <c r="E19" s="25">
         <v>2.5</v>
       </c>
       <c r="F19" s="3" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>32</v>
       </c>
@@ -4297,14 +4302,14 @@
       <c r="D20" s="1">
         <v>41331</v>
       </c>
-      <c r="E20" s="26">
+      <c r="E20" s="25">
         <v>1.5</v>
       </c>
       <c r="F20" s="3" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>32</v>
       </c>
@@ -4317,34 +4322,34 @@
       <c r="D21" s="1">
         <v>41339</v>
       </c>
-      <c r="E21" s="26">
+      <c r="E21" s="25">
         <v>4</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
-      <c r="A22" s="41" t="s">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="B22" s="42" t="s">
+      <c r="B22" s="40" t="s">
         <v>43</v>
       </c>
-      <c r="C22" s="42" t="s">
+      <c r="C22" s="40" t="s">
         <v>168</v>
       </c>
-      <c r="D22" s="43">
+      <c r="D22" s="41">
         <v>41339</v>
       </c>
-      <c r="E22" s="42">
+      <c r="E22" s="40">
         <v>1.5</v>
       </c>
-      <c r="F22" s="42" t="s">
+      <c r="F22" s="40" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>32</v>
       </c>
@@ -4357,36 +4362,36 @@
       <c r="D23" s="1">
         <v>41340</v>
       </c>
-      <c r="E23" s="26">
+      <c r="E23" s="25">
         <v>3</v>
       </c>
       <c r="F23" s="3" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>33</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="D24" s="1">
-        <v>41346</v>
-      </c>
-      <c r="E24" s="26">
-        <v>2.5</v>
+        <v>41341</v>
+      </c>
+      <c r="E24" s="25">
+        <v>15</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>43</v>
@@ -4395,18 +4400,18 @@
         <v>183</v>
       </c>
       <c r="D25" s="1">
-        <v>41341</v>
-      </c>
-      <c r="E25" s="26">
-        <v>15</v>
+        <v>41342</v>
+      </c>
+      <c r="E25" s="25">
+        <v>5</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>43</v>
@@ -4417,34 +4422,34 @@
       <c r="D26" s="1">
         <v>41342</v>
       </c>
-      <c r="E26" s="26">
+      <c r="E26" s="25">
         <v>5</v>
       </c>
       <c r="F26" s="3" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>33</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="D27" s="1">
-        <v>41342</v>
-      </c>
-      <c r="E27" s="26">
-        <v>5</v>
+        <v>41346</v>
+      </c>
+      <c r="E27" s="25">
+        <v>2.5</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>6</v>
       </c>
@@ -4457,14 +4462,14 @@
       <c r="D28" s="1">
         <v>41353</v>
       </c>
-      <c r="E28" s="26">
+      <c r="E28" s="25">
         <v>2</v>
       </c>
       <c r="F28" s="3" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>33</v>
       </c>
@@ -4477,14 +4482,14 @@
       <c r="D29" s="1">
         <v>41353</v>
       </c>
-      <c r="E29" s="26">
+      <c r="E29" s="25">
         <v>2</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>32</v>
       </c>
@@ -4497,14 +4502,14 @@
       <c r="D30" s="1">
         <v>41353</v>
       </c>
-      <c r="E30" s="26">
+      <c r="E30" s="25">
         <v>2</v>
       </c>
       <c r="F30" s="3" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>32</v>
       </c>
@@ -4517,14 +4522,14 @@
       <c r="D31" s="1">
         <v>41354</v>
       </c>
-      <c r="E31" s="26">
+      <c r="E31" s="25">
         <v>2</v>
       </c>
       <c r="F31" s="3" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>32</v>
       </c>
@@ -4537,14 +4542,14 @@
       <c r="D32" s="1">
         <v>41355</v>
       </c>
-      <c r="E32" s="26">
+      <c r="E32" s="25">
         <v>2</v>
       </c>
       <c r="F32" s="3" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>32</v>
       </c>
@@ -4557,14 +4562,14 @@
       <c r="D33" s="1">
         <v>41356</v>
       </c>
-      <c r="E33" s="26">
+      <c r="E33" s="25">
         <v>4</v>
       </c>
       <c r="F33" s="3" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>32</v>
       </c>
@@ -4577,14 +4582,14 @@
       <c r="D34" s="1">
         <v>41357</v>
       </c>
-      <c r="E34" s="26">
+      <c r="E34" s="25">
         <v>5</v>
       </c>
       <c r="F34" s="3" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>32</v>
       </c>
@@ -4597,14 +4602,14 @@
       <c r="D35" s="1">
         <v>41358</v>
       </c>
-      <c r="E35" s="26">
+      <c r="E35" s="25">
         <v>3</v>
       </c>
       <c r="F35" s="3" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>32</v>
       </c>
@@ -4617,14 +4622,14 @@
       <c r="D36" s="1">
         <v>41359</v>
       </c>
-      <c r="E36" s="26">
+      <c r="E36" s="25">
         <v>8</v>
       </c>
       <c r="F36" s="3" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>33</v>
       </c>
@@ -4637,14 +4642,14 @@
       <c r="D37" s="1">
         <v>41360</v>
       </c>
-      <c r="E37" s="26">
+      <c r="E37" s="25">
         <v>8</v>
       </c>
       <c r="F37" s="3" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>32</v>
       </c>
@@ -4657,14 +4662,14 @@
       <c r="D38" s="1">
         <v>41360</v>
       </c>
-      <c r="E38" s="26">
+      <c r="E38" s="25">
         <v>8</v>
       </c>
       <c r="F38" s="3" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>32</v>
       </c>
@@ -4677,14 +4682,14 @@
       <c r="D39" s="1">
         <v>41361</v>
       </c>
-      <c r="E39" s="26">
+      <c r="E39" s="25">
         <v>10</v>
       </c>
       <c r="F39" s="3" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>33</v>
       </c>
@@ -4697,74 +4702,74 @@
       <c r="D40" s="1">
         <v>41361</v>
       </c>
-      <c r="E40" s="26">
+      <c r="E40" s="25">
         <v>10</v>
       </c>
       <c r="F40" s="3" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
       <c r="D41" s="1">
-        <v>41371</v>
-      </c>
-      <c r="E41" s="26">
-        <v>8</v>
+        <v>41366</v>
+      </c>
+      <c r="E41" s="25">
+        <v>10</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="B42" s="3" t="s">
         <v>44</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="D42" s="1">
-        <v>41366</v>
-      </c>
-      <c r="E42" s="26">
-        <v>10</v>
+        <v>41367</v>
+      </c>
+      <c r="E42" s="25">
+        <v>5</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="B43" s="3" t="s">
         <v>44</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="D43" s="1">
-        <v>41370</v>
-      </c>
-      <c r="E43" s="26">
-        <v>9</v>
+        <v>41368</v>
+      </c>
+      <c r="E43" s="25">
+        <v>4</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>32</v>
       </c>
@@ -4772,39 +4777,39 @@
         <v>44</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="D44" s="1">
-        <v>41367</v>
-      </c>
-      <c r="E44" s="26">
-        <v>5</v>
+        <v>41369</v>
+      </c>
+      <c r="E44" s="25">
+        <v>4</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="B45" s="3" t="s">
         <v>44</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="D45" s="1">
-        <v>41368</v>
-      </c>
-      <c r="E45" s="26">
-        <v>4</v>
+        <v>41370</v>
+      </c>
+      <c r="E45" s="25">
+        <v>9</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>32</v>
       </c>
@@ -4812,39 +4817,39 @@
         <v>44</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D46" s="1">
-        <v>41369</v>
-      </c>
-      <c r="E46" s="26">
-        <v>4</v>
+        <v>41370</v>
+      </c>
+      <c r="E46" s="25">
+        <v>6</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>221</v>
+        <v>205</v>
       </c>
       <c r="D47" s="1">
-        <v>41370</v>
-      </c>
-      <c r="E47" s="26">
-        <v>6</v>
+        <v>41371</v>
+      </c>
+      <c r="E47" s="25">
+        <v>8</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
         <v>32</v>
       </c>
@@ -4852,19 +4857,19 @@
         <v>45</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>219</v>
+        <v>243</v>
       </c>
       <c r="D48" s="1">
-        <v>41372</v>
-      </c>
-      <c r="E48" s="26">
-        <v>4</v>
+        <v>41371</v>
+      </c>
+      <c r="E48" s="25">
+        <v>9</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>32</v>
       </c>
@@ -4872,19 +4877,19 @@
         <v>45</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="D49" s="1">
-        <v>41373</v>
-      </c>
-      <c r="E49" s="26">
-        <v>2</v>
+        <v>41372</v>
+      </c>
+      <c r="E49" s="25">
+        <v>4</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
         <v>32</v>
       </c>
@@ -4892,19 +4897,19 @@
         <v>45</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>243</v>
+        <v>226</v>
       </c>
       <c r="D50" s="1">
-        <v>41371</v>
-      </c>
-      <c r="E50" s="26">
-        <v>9</v>
+        <v>41373</v>
+      </c>
+      <c r="E50" s="25">
+        <v>2</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
         <v>32</v>
       </c>
@@ -4917,7 +4922,7 @@
       <c r="D51" s="1">
         <v>41381</v>
       </c>
-      <c r="E51" s="26">
+      <c r="E51" s="25">
         <v>3</v>
       </c>
       <c r="F51" s="3" t="s">
@@ -4925,6 +4930,9 @@
       </c>
     </row>
   </sheetData>
+  <sortState ref="A2:F51">
+    <sortCondition ref="D1"/>
+  </sortState>
   <mergeCells count="6">
     <mergeCell ref="H6:I6"/>
     <mergeCell ref="H1:I1"/>
@@ -4943,7 +4951,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.70000000000000007" right="0.70000000000000007" top="0.79000000000000015" bottom="0.79000000000000015" header="0.30000000000000004" footer="0.30000000000000004"/>
-  <pageSetup paperSize="9" scale="57" orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <pageSetup paperSize="9" scale="59" orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="100"/>
@@ -4960,81 +4968,81 @@
   <dimension ref="A1:J28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+      <selection activeCell="B1" sqref="B1:F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="36.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="71.6640625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="11.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.83203125" style="26"/>
-    <col min="6" max="6" width="24.5" style="3" customWidth="1"/>
-    <col min="9" max="9" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="71.7109375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.85546875" style="25"/>
+    <col min="6" max="6" width="44.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" thickBot="1">
+    <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="25" t="s">
+      <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="64" t="s">
+      <c r="H1" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="64"/>
-      <c r="J1" s="34" t="s">
+      <c r="I1" s="62"/>
+      <c r="J1" s="33" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>32</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="D2" s="1">
-        <v>41248</v>
-      </c>
-      <c r="E2" s="26">
-        <v>2</v>
+        <v>202</v>
+      </c>
+      <c r="D2" s="24">
+        <v>41007</v>
+      </c>
+      <c r="E2" s="25">
+        <v>3</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="H2" s="65" t="s">
+        <v>233</v>
+      </c>
+      <c r="H2" s="63" t="s">
         <v>42</v>
       </c>
-      <c r="I2" s="65"/>
-      <c r="J2" s="35">
+      <c r="I2" s="63"/>
+      <c r="J2" s="34">
         <f>SUMIF(B:B,H2,E:E)</f>
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>84</v>
@@ -5042,22 +5050,22 @@
       <c r="D3" s="1">
         <v>41248</v>
       </c>
-      <c r="E3" s="26">
+      <c r="E3" s="25">
         <v>2</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="H3" s="65" t="s">
+      <c r="H3" s="63" t="s">
         <v>46</v>
       </c>
-      <c r="I3" s="65"/>
-      <c r="J3" s="35">
+      <c r="I3" s="63"/>
+      <c r="J3" s="34">
         <f>SUMIF(B:B,H3,E:E)</f>
         <v>11.5</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>33</v>
       </c>
@@ -5065,183 +5073,183 @@
         <v>47</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="D4" s="1">
-        <v>41267</v>
-      </c>
-      <c r="E4" s="26">
-        <v>3</v>
+        <v>41248</v>
+      </c>
+      <c r="E4" s="25">
+        <v>2</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="H4" s="65" t="s">
+        <v>85</v>
+      </c>
+      <c r="H4" s="63" t="s">
         <v>47</v>
       </c>
-      <c r="I4" s="65"/>
-      <c r="J4" s="35">
+      <c r="I4" s="63"/>
+      <c r="J4" s="34">
         <f>SUMIF(B:B,H4,E:E)</f>
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="15" thickBot="1">
+    <row r="5" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="D5" s="1">
-        <v>41277</v>
-      </c>
-      <c r="E5" s="26">
-        <v>5</v>
+        <v>230</v>
+      </c>
+      <c r="D5" s="24">
+        <v>41249</v>
+      </c>
+      <c r="E5" s="25">
+        <v>3</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="H5" s="65" t="s">
+        <v>231</v>
+      </c>
+      <c r="H5" s="63" t="s">
         <v>48</v>
       </c>
-      <c r="I5" s="65"/>
-      <c r="J5" s="35">
+      <c r="I5" s="63"/>
+      <c r="J5" s="34">
         <f>SUMIF(B:B,H5,E:E)</f>
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15" thickBot="1">
+    <row r="6" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="D6" s="1">
-        <v>41278</v>
-      </c>
-      <c r="E6" s="26">
-        <v>3</v>
+        <v>232</v>
+      </c>
+      <c r="D6" s="24">
+        <v>41250</v>
+      </c>
+      <c r="E6" s="25">
+        <v>4</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="H6" s="61" t="s">
+        <v>231</v>
+      </c>
+      <c r="H6" s="59" t="s">
         <v>16</v>
       </c>
-      <c r="I6" s="62"/>
+      <c r="I6" s="60"/>
       <c r="J6" s="7">
         <f>SUM(J2:J5)</f>
         <v>44.5</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>33</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>164</v>
+        <v>93</v>
       </c>
       <c r="D7" s="1">
-        <v>41337</v>
-      </c>
-      <c r="E7" s="26">
-        <v>5</v>
+        <v>41267</v>
+      </c>
+      <c r="E7" s="25">
+        <v>3</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>33</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="D8" s="24">
-        <v>41338</v>
-      </c>
-      <c r="E8" s="26">
-        <v>4.5</v>
+        <v>101</v>
+      </c>
+      <c r="D8" s="1">
+        <v>41277</v>
+      </c>
+      <c r="E8" s="25">
+        <v>5</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>47</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="D9" s="24">
-        <v>41358</v>
-      </c>
-      <c r="E9" s="26">
+        <v>93</v>
+      </c>
+      <c r="D9" s="1">
+        <v>41278</v>
+      </c>
+      <c r="E9" s="25">
+        <v>3</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="D10" s="1">
+        <v>41337</v>
+      </c>
+      <c r="E10" s="25">
         <v>5</v>
       </c>
-      <c r="F9" s="3" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="D10" s="24">
-        <v>41249</v>
-      </c>
-      <c r="E10" s="26">
-        <v>3</v>
-      </c>
       <c r="F10" s="3" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="15" thickBot="1">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>232</v>
+        <v>166</v>
       </c>
       <c r="D11" s="24">
-        <v>41615</v>
-      </c>
-      <c r="E11" s="26">
-        <v>4</v>
+        <v>41338</v>
+      </c>
+      <c r="E11" s="25">
+        <v>4.5</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="15" thickBot="1">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>32</v>
       </c>
@@ -5249,113 +5257,116 @@
         <v>48</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>202</v>
+        <v>241</v>
       </c>
       <c r="D12" s="24">
-        <v>41007</v>
-      </c>
-      <c r="E12" s="26">
-        <v>3</v>
+        <v>41339</v>
+      </c>
+      <c r="E12" s="25">
+        <v>5</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="H12" s="34" t="s">
+        <v>242</v>
+      </c>
+      <c r="H12" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="I12" s="34" t="s">
+      <c r="I12" s="33" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>32</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>241</v>
+        <v>191</v>
       </c>
       <c r="D13" s="24">
-        <v>41339</v>
-      </c>
-      <c r="E13" s="26">
+        <v>41358</v>
+      </c>
+      <c r="E13" s="25">
         <v>5</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="H13" s="35" t="s">
+        <v>192</v>
+      </c>
+      <c r="H13" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="I13" s="35">
+      <c r="I13" s="34">
         <f>SUMIF(A:A,H13,E:E)</f>
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D14" s="24"/>
-      <c r="H14" s="35" t="s">
+      <c r="H14" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="I14" s="35">
+      <c r="I14" s="34">
         <f>SUMIF(A:A,H14,E:E)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15" thickBot="1">
+    <row r="15" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D15" s="24"/>
-      <c r="H15" s="35" t="s">
+      <c r="H15" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="I15" s="35">
+      <c r="I15" s="34">
         <f>SUMIF(A:A,H15,E:E)</f>
         <v>22.5</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D16" s="24"/>
-      <c r="H16" s="36"/>
-      <c r="I16" s="36"/>
-    </row>
-    <row r="17" spans="4:4">
+      <c r="H16" s="35"/>
+      <c r="I16" s="35"/>
+    </row>
+    <row r="17" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D17" s="24"/>
     </row>
-    <row r="18" spans="4:4">
+    <row r="18" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D18" s="24"/>
     </row>
-    <row r="19" spans="4:4">
+    <row r="19" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D19" s="24"/>
     </row>
-    <row r="20" spans="4:4">
+    <row r="20" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D20" s="24"/>
     </row>
-    <row r="21" spans="4:4">
+    <row r="21" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D21" s="24"/>
     </row>
-    <row r="22" spans="4:4">
+    <row r="22" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D22" s="24"/>
     </row>
-    <row r="23" spans="4:4">
+    <row r="23" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D23" s="24"/>
     </row>
-    <row r="24" spans="4:4">
+    <row r="24" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D24" s="24"/>
     </row>
-    <row r="25" spans="4:4">
+    <row r="25" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D25" s="24"/>
     </row>
-    <row r="26" spans="4:4">
+    <row r="26" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D26" s="24"/>
     </row>
-    <row r="27" spans="4:4">
+    <row r="27" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D27" s="24"/>
     </row>
-    <row r="28" spans="4:4">
+    <row r="28" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D28" s="24"/>
     </row>
   </sheetData>
+  <sortState ref="A2:F28">
+    <sortCondition ref="D1"/>
+  </sortState>
   <mergeCells count="6">
     <mergeCell ref="H6:I6"/>
     <mergeCell ref="H1:I1"/>
@@ -5374,7 +5385,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.70000000000000007" right="0.70000000000000007" top="0.79000000000000015" bottom="0.79000000000000015" header="0.30000000000000004" footer="0.30000000000000004"/>
-  <pageSetup paperSize="9" scale="57" orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <pageSetup paperSize="9" scale="56" orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="100"/>
@@ -5390,49 +5401,49 @@
   </sheetPr>
   <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.5" style="3" customWidth="1"/>
-    <col min="2" max="2" width="27.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="71.6640625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="10.83203125" style="3"/>
-    <col min="5" max="5" width="10.83203125" style="37"/>
-    <col min="6" max="6" width="24.5" style="3" customWidth="1"/>
-    <col min="9" max="9" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.42578125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="27.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="71.7109375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" style="3"/>
+    <col min="5" max="5" width="10.85546875" style="36"/>
+    <col min="6" max="6" width="33.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" thickBot="1">
+    <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="38" t="s">
+      <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="64" t="s">
+      <c r="H1" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="64"/>
-      <c r="J1" s="34" t="s">
+      <c r="I1" s="62"/>
+      <c r="J1" s="33" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>33</v>
       </c>
@@ -5445,22 +5456,22 @@
       <c r="D2" s="1">
         <v>41346</v>
       </c>
-      <c r="E2" s="37">
+      <c r="E2" s="36">
         <v>2</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="H2" s="66" t="s">
+      <c r="H2" s="64" t="s">
         <v>49</v>
       </c>
-      <c r="I2" s="67"/>
-      <c r="J2" s="35">
+      <c r="I2" s="65"/>
+      <c r="J2" s="34">
         <f>SUMIF(B:B,H2,E:E)</f>
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
@@ -5473,22 +5484,22 @@
       <c r="D3" s="1">
         <v>41368</v>
       </c>
-      <c r="E3" s="37">
+      <c r="E3" s="36">
         <v>8</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="H3" s="68" t="s">
+      <c r="H3" s="66" t="s">
         <v>50</v>
       </c>
-      <c r="I3" s="69"/>
-      <c r="J3" s="35">
+      <c r="I3" s="67"/>
+      <c r="J3" s="34">
         <f>SUMIF(B:B,H3,E:E)</f>
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>33</v>
       </c>
@@ -5501,24 +5512,24 @@
       <c r="D4" s="1">
         <v>41368</v>
       </c>
-      <c r="E4" s="37">
+      <c r="E4" s="36">
         <v>8</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="H4" s="68" t="s">
+      <c r="H4" s="66" t="s">
         <v>51</v>
       </c>
-      <c r="I4" s="69"/>
-      <c r="J4" s="35">
+      <c r="I4" s="67"/>
+      <c r="J4" s="34">
         <f>SUMIF(B:B,H4,E:E)</f>
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="15" thickBot="1">
+    <row r="5" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>51</v>
@@ -5527,26 +5538,26 @@
         <v>170</v>
       </c>
       <c r="D5" s="1">
-        <v>41371</v>
-      </c>
-      <c r="E5" s="37">
-        <v>8</v>
+        <v>41370</v>
+      </c>
+      <c r="E5" s="36">
+        <v>3</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="H5" s="70" t="s">
+        <v>217</v>
+      </c>
+      <c r="H5" s="68" t="s">
         <v>52</v>
       </c>
-      <c r="I5" s="71"/>
-      <c r="J5" s="35">
+      <c r="I5" s="69"/>
+      <c r="J5" s="34">
         <f>SUMIF(B:B,H5,E:E)</f>
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15" thickBot="1">
+    <row r="6" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>51</v>
@@ -5555,24 +5566,24 @@
         <v>170</v>
       </c>
       <c r="D6" s="1">
-        <v>41370</v>
-      </c>
-      <c r="E6" s="37">
-        <v>3</v>
+        <v>41371</v>
+      </c>
+      <c r="E6" s="36">
+        <v>8</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="H6" s="61" t="s">
+        <v>204</v>
+      </c>
+      <c r="H6" s="59" t="s">
         <v>16</v>
       </c>
-      <c r="I6" s="62"/>
+      <c r="I6" s="60"/>
       <c r="J6" s="7">
         <f>SUM(J2:J5)</f>
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>32</v>
       </c>
@@ -5585,14 +5596,14 @@
       <c r="D7" s="1">
         <v>41374</v>
       </c>
-      <c r="E7" s="37">
+      <c r="E7" s="36">
         <v>3</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>6</v>
       </c>
@@ -5605,14 +5616,14 @@
       <c r="D8" s="24">
         <v>41374</v>
       </c>
-      <c r="E8" s="37">
+      <c r="E8" s="36">
         <v>3</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>32</v>
       </c>
@@ -5625,14 +5636,14 @@
       <c r="D9" s="1">
         <v>41388</v>
       </c>
-      <c r="E9" s="37">
+      <c r="E9" s="36">
         <v>2</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>6</v>
       </c>
@@ -5645,14 +5656,14 @@
       <c r="D10" s="1">
         <v>41388</v>
       </c>
-      <c r="E10" s="37">
+      <c r="E10" s="36">
         <v>2</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15" thickBot="1">
+    <row r="11" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>33</v>
       </c>
@@ -5665,64 +5676,67 @@
       <c r="D11" s="1">
         <v>41388</v>
       </c>
-      <c r="E11" s="37">
+      <c r="E11" s="36">
         <v>2</v>
       </c>
       <c r="F11" s="3" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="15" thickBot="1">
+    <row r="12" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D12" s="1"/>
-      <c r="H12" s="34" t="s">
+      <c r="H12" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="I12" s="34" t="s">
+      <c r="I12" s="33" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D13" s="1"/>
-      <c r="H13" s="35" t="s">
+      <c r="H13" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="I13" s="35">
+      <c r="I13" s="34">
         <f>SUMIF(A:A,H13,E:E)</f>
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D14" s="1"/>
-      <c r="H14" s="35" t="s">
+      <c r="H14" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="I14" s="35">
+      <c r="I14" s="34">
         <f>SUMIF(A:A,H14,E:E)</f>
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15" thickBot="1">
+    <row r="15" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D15" s="1"/>
-      <c r="H15" s="35" t="s">
+      <c r="H15" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="I15" s="35">
+      <c r="I15" s="34">
         <f>SUMIF(A:A,H15,E:E)</f>
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D16" s="1"/>
-      <c r="H16" s="36"/>
-      <c r="I16" s="36"/>
-    </row>
-    <row r="17" spans="4:4">
+      <c r="H16" s="35"/>
+      <c r="I16" s="35"/>
+    </row>
+    <row r="17" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D17" s="1"/>
     </row>
-    <row r="18" spans="4:4">
+    <row r="18" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D18" s="1"/>
     </row>
   </sheetData>
+  <sortState ref="A2:F18">
+    <sortCondition ref="D1"/>
+  </sortState>
   <mergeCells count="6">
     <mergeCell ref="H6:I6"/>
     <mergeCell ref="H1:I1"/>
@@ -5741,7 +5755,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.70000000000000007" right="0.70000000000000007" top="0.79000000000000015" bottom="0.79000000000000015" header="0.30000000000000004" footer="0.30000000000000004"/>
-  <pageSetup paperSize="9" scale="59" orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <pageSetup paperSize="9" scale="60" orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="100"/>
